--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="131" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="318" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calc_apparent_k" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tromp_Boudreau" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="sed-rate" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
   <si>
     <t>Examples of invariant rates used in HAMOCC</t>
   </si>
@@ -121,6 +121,63 @@
   </si>
   <si>
     <t>EXAMPLE GENIE GRIDS:</t>
+  </si>
+  <si>
+    <t>DEFAULT k = 1.0e-6</t>
+  </si>
+  <si>
+    <t>4 years</t>
+  </si>
+  <si>
+    <t> dum_D </t>
+  </si>
+  <si>
+    <t> loc_new_sed_vol Middelburg </t>
+  </si>
+  <si>
+    <t> loc_new_sed_vol GENIE </t>
+  </si>
+  <si>
+    <t> k1, k2 </t>
+  </si>
+  <si>
+    <t>  9.99999999999999955E-007  9.99999999999999955E-007</t>
+  </si>
+  <si>
+    <t> boudreau1997 oxic k1, k2 </t>
+  </si>
+  <si>
+    <t>  0.19638394253086039       1.96383942530860408E-003</t>
+  </si>
+  <si>
+    <t> dum_POC1_conc_swi </t>
+  </si>
+  <si>
+    <t> dum_POC2_conc_swi </t>
+  </si>
+  <si>
+    <t> loc_mean_OM </t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>  5.27435245328635449E-002  5.27435245328635480E-004</t>
+  </si>
+  <si>
+    <t>  4.48806848341056636E-002  4.48806848341056636E-004</t>
+  </si>
+  <si>
+    <t>  4.83438195143225044E-002  4.83438195143225027E-004</t>
+  </si>
+  <si>
+    <t>  4.31183093186053093E-002  4.31183093186053080E-004</t>
+  </si>
+  <si>
+    <t>  4.94627074871127198E-002  4.94627074871127181E-004</t>
+  </si>
+  <si>
+    <t>  1.88274354166577604E-002  1.88274354166577596E-004</t>
   </si>
 </sst>
 </file>
@@ -484,7 +541,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -516,7 +573,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -528,151 +585,151 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0098</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0096</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0094</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0092</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.009</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0088</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0086</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0084</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0082</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.008</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0078</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0076</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0074</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0072</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.007</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0068</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0066</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0064</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0062</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.006</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0058</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0056</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0054</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0052</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.005</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0048</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0046</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0044</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0042</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.004</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0038</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0036</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0034</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0032</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.003</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0028</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0026</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0024</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0022</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.002</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0018</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0016</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0014</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0012</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.001</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0008</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0006</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0004</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0002</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,7 +917,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1204,7 +1261,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1548,7 +1605,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1869,11 +1926,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="41094556"/>
-        <c:axId val="14801883"/>
+        <c:axId val="76981233"/>
+        <c:axId val="24182822"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41094556"/>
+        <c:axId val="76981233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,11 +1946,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="14801883"/>
+        <c:crossAx val="24182822"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14801883"/>
+        <c:axId val="24182822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1975,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41094556"/>
+        <c:crossAx val="76981233"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1958,15 +2015,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>781560</xdr:colOff>
+      <xdr:colOff>808560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>335520</xdr:colOff>
+      <xdr:colOff>362160</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1974,8 +2031,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7210080" y="252360"/>
-        <a:ext cx="8536680" cy="6772320"/>
+        <a:off x="7237080" y="243360"/>
+        <a:ext cx="8536320" cy="6771960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1995,8 +2052,8 @@
   </sheetPr>
   <dimension ref="C1:O61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:O61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4171,7 +4228,7 @@
   <dimension ref="A2:V60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S17" activeCellId="1" sqref="C1:O61 S17"/>
+      <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5557,17 +5614,827 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:O61 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5714285714286"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3224.39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3224.39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="25" t="n">
+        <v>0.0174073913465891</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="25" t="n">
+        <v>0.0174073913465891</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="25" t="n">
+        <v>0.00905420943797329</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>0.00838855821647622</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.733567390573683</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6.16628412805505</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>0.0105579786502628</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6.89970872110144</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1.85502754530844</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1.7860288485136</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1885.33</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="25" t="n">
+        <v>0.0665863915555153</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1885.33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="25" t="n">
+        <v>0.0121820294071994</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>0.0665863915555153</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>0.0112686798808896</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4.82102591004869</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4.7100584682048</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>9.53102565960586</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.126974631540773</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>3.09742234137423</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1707.04</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3.18462410915096</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="25" t="n">
+        <v>0.0796091569963983</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="25" t="n">
+        <v>0.0133703247435226</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1707.04</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <v>0.0796091569963983</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>7.15329229537103</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <v>0.0124963864811004</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4.12322934641132</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>11.2764625888247</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.230555884990333</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1631.73</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>2.94768993553845</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="25" t="n">
+        <v>0.0858483420562948</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>3.12901332289223</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="25" t="n">
+        <v>0.0147866557709214</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1631.73</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>7.22104189591477</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="25" t="n">
+        <v>0.0858483420562948</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4.162280894934</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="25" t="n">
+        <v>0.0141742089005532</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>11.3832671605332</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1276.06</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.243740988673165</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.122600161613828</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>3.00051480320737</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="25" t="n">
+        <v>0.0162094513521557</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>3.19226785638621</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>9.54813216436608</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1276.06</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>3.49452531337901</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.122600161613828</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>13.042611359173</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="25" t="n">
+        <v>0.0148325327507379</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1733.14</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="25" t="n">
+        <v>0.0775543912150806</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.346713028636503</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="25" t="n">
+        <v>0.0270356845332595</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>2.57417709180406</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>2.87224516711447</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>14.5861799249095</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>2.57887732799694</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1733.14</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>17.1649659667583</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="25" t="n">
+        <v>0.0775543912150806</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="25" t="n">
+        <v>0.0240218462854766</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1145.54</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.139727826991123</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="25" t="n">
+        <v>0.00539919856208694</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.787616519847601</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1.9896617741242</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>18.7412552816673</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>2.61417434358327</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>3.31350624995081</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>22.0546920049182</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1145.54</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.139727826991123</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="25" t="n">
+        <v>0.00467317393173504</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.454771937101082</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>2.23547135492507</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>2.6637119688558</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5586,7 +6453,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="20" zoomScaleNormal="20" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:O61 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5612,7 +6479,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="20" zoomScaleNormal="20" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:O61 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="318" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="318" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Calc_apparent_k" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Tromp_Boudreau" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="sed-rate" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="invariant_k" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Calc_apparent_k" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tromp_Boudreau" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="sed-rate" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -19,7 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="60">
+  <si>
+    <t>Experiments 13.06.2017</t>
+  </si>
+  <si>
+    <t>USE THIS FOR GENIE-OMEN runs using invariant k1 and k2</t>
+  </si>
+  <si>
+    <t>FROM experiments 12.06.20417 I kniw:</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>needs to be higher than 0.0001 to get OMEN wt% lower</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>needs to be smaller than 0.005 otherwise no trend between bin-classes</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>k1/k2_order</t>
+  </si>
+  <si>
+    <t>THIS IS THE BEST – BUT k2 still too low! And k1 can be actually larger than 0.005 (See this result plot)</t>
+  </si>
   <si>
     <t>Examples of invariant rates used in HAMOCC</t>
   </si>
@@ -49,12 +79,6 @@
   </si>
   <si>
     <t>f2 (refrac)</t>
-  </si>
-  <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>k2</t>
   </si>
   <si>
     <t>k_Apparent check</t>
@@ -129,55 +153,52 @@
     <t>4 years</t>
   </si>
   <si>
-    <t> dum_D </t>
+    <t>dum_D</t>
   </si>
   <si>
-    <t> loc_new_sed_vol Middelburg </t>
+    <t>loc_new_sed_vol Middelburg</t>
   </si>
   <si>
-    <t> loc_new_sed_vol GENIE </t>
+    <t>loc_new_sed_vol GENIE</t>
   </si>
   <si>
-    <t> k1, k2 </t>
+    <t>k1, k2</t>
   </si>
   <si>
-    <t>  9.99999999999999955E-007  9.99999999999999955E-007</t>
+    <t>9.99999999999999955E-007  9.99999999999999955E-007</t>
   </si>
   <si>
-    <t> boudreau1997 oxic k1, k2 </t>
+    <t>boudreau1997 oxic k1, k2</t>
   </si>
   <si>
-    <t>  0.19638394253086039       1.96383942530860408E-003</t>
+    <t>0.19638394253086039       1.96383942530860408E-003</t>
   </si>
   <si>
-    <t> dum_POC1_conc_swi </t>
+    <t>dum_POC1_conc_swi</t>
   </si>
   <si>
-    <t> dum_POC2_conc_swi </t>
+    <t>dum_POC2_conc_swi</t>
   </si>
   <si>
-    <t> loc_mean_OM </t>
+    <t>loc_mean_OM</t>
   </si>
   <si>
-    <t>  </t>
+    <t>5.27435245328635449E-002  5.27435245328635480E-004</t>
   </si>
   <si>
-    <t>  5.27435245328635449E-002  5.27435245328635480E-004</t>
+    <t>4.48806848341056636E-002  4.48806848341056636E-004</t>
   </si>
   <si>
-    <t>  4.48806848341056636E-002  4.48806848341056636E-004</t>
+    <t>4.83438195143225044E-002  4.83438195143225027E-004</t>
   </si>
   <si>
-    <t>  4.83438195143225044E-002  4.83438195143225027E-004</t>
+    <t>4.31183093186053093E-002  4.31183093186053080E-004</t>
   </si>
   <si>
-    <t>  4.31183093186053093E-002  4.31183093186053080E-004</t>
+    <t>4.94627074871127198E-002  4.94627074871127181E-004</t>
   </si>
   <si>
-    <t>  4.94627074871127198E-002  4.94627074871127181E-004</t>
-  </si>
-  <si>
-    <t>  1.88274354166577604E-002  1.88274354166577596E-004</t>
+    <t>1.88274354166577604E-002  1.88274354166577596E-004</t>
   </si>
 </sst>
 </file>
@@ -192,7 +213,7 @@
     <numFmt numFmtId="168" formatCode="0.00E+000"/>
     <numFmt numFmtId="169" formatCode="0.00000000E+000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -213,6 +234,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -356,8 +384,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,7 +405,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,11 +413,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,15 +425,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,11 +469,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,10 +486,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,7 +573,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -573,7 +605,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="3"/>
+            <c:size val="2"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -917,7 +949,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="3"/>
+            <c:size val="2"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1261,7 +1293,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="3"/>
+            <c:size val="2"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1605,7 +1637,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="3"/>
+            <c:size val="2"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1926,11 +1958,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76981233"/>
-        <c:axId val="24182822"/>
+        <c:axId val="37643097"/>
+        <c:axId val="22268238"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76981233"/>
+        <c:axId val="37643097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,11 +1978,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24182822"/>
+        <c:crossAx val="22268238"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24182822"/>
+        <c:axId val="22268238"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +2007,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="76981233"/>
+        <c:crossAx val="37643097"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2014,16 +2046,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>808560</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>362160</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:colOff>415440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2031,8 +2063,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7237080" y="243360"/>
-        <a:ext cx="8536320" cy="6771960"/>
+        <a:off x="7291080" y="225360"/>
+        <a:ext cx="8535600" cy="6771240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2050,9 +2082,765 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">B10*D10</f>
+        <v>0.0002</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">B11*D11</f>
+        <v>0.0004</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">B12*D12</f>
+        <v>0.001</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">B13*D13</f>
+        <v>0.002</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">B14*D14</f>
+        <v>0.004</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <f aca="false">B15*D15</f>
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <f aca="false">B16*D16</f>
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">B17*D17</f>
+        <v>0.0005</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">B18*D18</f>
+        <v>0.001</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">B19*D19</f>
+        <v>0.0025</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">B20*D20</f>
+        <v>0.005</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <f aca="false">B21*D21</f>
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <f aca="false">B22*D22</f>
+        <v>0.025</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <f aca="false">B23*D23</f>
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">B24*D24</f>
+        <v>0.0008</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">B25*D25</f>
+        <v>0.0016</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">B26*D26</f>
+        <v>0.004</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <f aca="false">B27*D27</f>
+        <v>0.008</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <f aca="false">B28*D28</f>
+        <v>0.016</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <f aca="false">B29*D29</f>
+        <v>0.04</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <f aca="false">B30*D30</f>
+        <v>0.08</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">B31*D31</f>
+        <v>0.001</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">B32*D32</f>
+        <v>0.002</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">B33*D33</f>
+        <v>0.005</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <f aca="false">B34*D34</f>
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <f aca="false">B35*D35</f>
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <f aca="false">B36*D36</f>
+        <v>0.05</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <f aca="false">B37*D37</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <f aca="false">B38*D38</f>
+        <v>0.0015</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <f aca="false">B39*D39</f>
+        <v>0.003</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <f aca="false">B40*D40</f>
+        <v>0.006</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <f aca="false">B41*D41</f>
+        <v>0.012</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <f aca="false">B42*D42</f>
+        <v>0.015</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <f aca="false">B43*D43</f>
+        <v>0.002</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <f aca="false">B44*D44</f>
+        <v>0.004</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <f aca="false">B45*D45</f>
+        <v>0.008</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <f aca="false">B46*D46</f>
+        <v>0.016</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <f aca="false">B47*D47</f>
+        <v>0.02</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <f aca="false">B48*D48</f>
+        <v>0.0025</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <f aca="false">B49*D49</f>
+        <v>0.005</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <f aca="false">B50*D50</f>
+        <v>0.01</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <f aca="false">B51*D51</f>
+        <v>0.02</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <f aca="false">B52*D52</f>
+        <v>0.025</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <f aca="false">B53*D53</f>
+        <v>0.003</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <f aca="false">B54*D54</f>
+        <v>0.006</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <f aca="false">B55*D55</f>
+        <v>0.009</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <f aca="false">B56*D56</f>
+        <v>0.012</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <f aca="false">B57*D57</f>
+        <v>0.015</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C1:O61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2072,2142 +2860,2142 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>12</v>
+      <c r="N4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="13"/>
-      <c r="E5" s="11" t="n">
+      <c r="C5" s="15"/>
+      <c r="E5" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="13" t="n">
         <f aca="false">1-E5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="16" t="n">
         <f aca="false">$F$3/(E5+F5/100)</f>
         <v>0.0105207785376118</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="16" t="n">
         <f aca="false">G5/100</f>
         <v>0.000105207785376118</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="13" t="n">
         <f aca="false">E5*G5+F5*H5</f>
         <v>0.01</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="13" t="n">
         <f aca="false">1-K5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M5" s="14" t="n">
+      <c r="M5" s="16" t="n">
         <f aca="false">$L$3/(K5+L5/100)</f>
         <v>0.00841662283008943</v>
       </c>
-      <c r="N5" s="14" t="n">
+      <c r="N5" s="16" t="n">
         <f aca="false">M5/100</f>
         <v>8.41662283008943E-005</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="14" t="n">
         <f aca="false">K5*M5+L5*N5</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13"/>
-      <c r="E6" s="11" t="n">
+      <c r="C6" s="15"/>
+      <c r="E6" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="13" t="n">
         <f aca="false">1-E6</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="16" t="n">
         <f aca="false">$F$3/(E6+F6/100)</f>
         <v>0.0110987791342952</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="16" t="n">
         <f aca="false">G6/100</f>
         <v>0.000110987791342952</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="13" t="n">
         <f aca="false">E6*G6+F6*H6</f>
         <v>0.01</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="13" t="n">
         <f aca="false">1-K6</f>
         <v>0.1</v>
       </c>
-      <c r="M6" s="14" t="n">
+      <c r="M6" s="16" t="n">
         <f aca="false">$L$3/(K6+L6/100)</f>
         <v>0.00887902330743618</v>
       </c>
-      <c r="N6" s="14" t="n">
+      <c r="N6" s="16" t="n">
         <f aca="false">M6/100</f>
         <v>8.87902330743618E-005</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="14" t="n">
         <f aca="false">K6*M6+L6*N6</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="13"/>
-      <c r="E7" s="11" t="n">
+      <c r="C7" s="15"/>
+      <c r="E7" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="13" t="n">
         <f aca="false">1-E7</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="16" t="n">
         <f aca="false">$F$3/(E7+F7/100)</f>
         <v>0.0124688279301746</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="16" t="n">
         <f aca="false">G7/100</f>
         <v>0.000124688279301746</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="13" t="n">
         <f aca="false">E7*G7+F7*H7</f>
         <v>0.01</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="13" t="n">
         <f aca="false">1-K7</f>
         <v>0.2</v>
       </c>
-      <c r="M7" s="14" t="n">
+      <c r="M7" s="16" t="n">
         <f aca="false">$L$3/(K7+L7/100)</f>
         <v>0.00997506234413965</v>
       </c>
-      <c r="N7" s="14" t="n">
+      <c r="N7" s="16" t="n">
         <f aca="false">M7/100</f>
         <v>9.97506234413965E-005</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="14" t="n">
         <f aca="false">K7*M7+L7*N7</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13"/>
-      <c r="E8" s="11" t="n">
+      <c r="C8" s="15"/>
+      <c r="E8" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="13" t="n">
         <f aca="false">1-E8</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="16" t="n">
         <f aca="false">$F$3/(E8+F8/100)</f>
         <v>0.0142247510668563</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="16" t="n">
         <f aca="false">G8/100</f>
         <v>0.000142247510668563</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="13" t="n">
         <f aca="false">E8*G8+F8*H8</f>
         <v>0.01</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="13" t="n">
         <f aca="false">1-K8</f>
         <v>0.3</v>
       </c>
-      <c r="M8" s="14" t="n">
+      <c r="M8" s="16" t="n">
         <f aca="false">$L$3/(K8+L8/100)</f>
         <v>0.0113798008534851</v>
       </c>
-      <c r="N8" s="14" t="n">
+      <c r="N8" s="16" t="n">
         <f aca="false">M8/100</f>
         <v>0.000113798008534851</v>
       </c>
-      <c r="O8" s="12" t="n">
+      <c r="O8" s="14" t="n">
         <f aca="false">K8*M8+L8*N8</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13"/>
-      <c r="E9" s="11" t="n">
+      <c r="C9" s="15"/>
+      <c r="E9" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="13" t="n">
         <f aca="false">1-E9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="16" t="n">
         <f aca="false">$F$3/(E9+F9/100)</f>
         <v>0.0165562913907285</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="16" t="n">
         <f aca="false">G9/100</f>
         <v>0.000165562913907285</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="13" t="n">
         <f aca="false">E9*G9+F9*H9</f>
         <v>0.01</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="13" t="n">
         <f aca="false">1-K9</f>
         <v>0.4</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="M9" s="16" t="n">
         <f aca="false">$L$3/(K9+L9/100)</f>
         <v>0.0132450331125828</v>
       </c>
-      <c r="N9" s="14" t="n">
+      <c r="N9" s="16" t="n">
         <f aca="false">M9/100</f>
         <v>0.000132450331125828</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="14" t="n">
         <f aca="false">K9*M9+L9*N9</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13"/>
-      <c r="E10" s="11" t="n">
+      <c r="C10" s="15"/>
+      <c r="E10" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="13" t="n">
         <f aca="false">1-E10</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="16" t="n">
         <f aca="false">$F$3/(E10+F10/100)</f>
         <v>0.0198019801980198</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="16" t="n">
         <f aca="false">G10/100</f>
         <v>0.000198019801980198</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="13" t="n">
         <f aca="false">E10*G10+F10*H10</f>
         <v>0.01</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="13" t="n">
         <f aca="false">1-K10</f>
         <v>0.5</v>
       </c>
-      <c r="M10" s="14" t="n">
+      <c r="M10" s="16" t="n">
         <f aca="false">$L$3/(K10+L10/100)</f>
         <v>0.0158415841584158</v>
       </c>
-      <c r="N10" s="14" t="n">
+      <c r="N10" s="16" t="n">
         <f aca="false">M10/100</f>
         <v>0.000158415841584158</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="14" t="n">
         <f aca="false">K10*M10+L10*N10</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13"/>
-      <c r="E11" s="11" t="n">
+      <c r="C11" s="15"/>
+      <c r="E11" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="13" t="n">
         <f aca="false">1-E11</f>
         <v>0.6</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="16" t="n">
         <f aca="false">$F$3/(E11+F11/100)</f>
         <v>0.0246305418719212</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="16" t="n">
         <f aca="false">G11/100</f>
         <v>0.000246305418719212</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="13" t="n">
         <f aca="false">E11*G11+F11*H11</f>
         <v>0.01</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="13" t="n">
         <f aca="false">1-K11</f>
         <v>0.6</v>
       </c>
-      <c r="M11" s="14" t="n">
+      <c r="M11" s="16" t="n">
         <f aca="false">$L$3/(K11+L11/100)</f>
         <v>0.0197044334975369</v>
       </c>
-      <c r="N11" s="14" t="n">
+      <c r="N11" s="16" t="n">
         <f aca="false">M11/100</f>
         <v>0.000197044334975369</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="14" t="n">
         <f aca="false">K11*M11+L11*N11</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13"/>
-      <c r="E12" s="11" t="n">
+      <c r="C12" s="15"/>
+      <c r="E12" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="13" t="n">
         <f aca="false">1-E12</f>
         <v>0.7</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G12" s="16" t="n">
         <f aca="false">$F$3/(E12+F12/100)</f>
         <v>0.0325732899022801</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="16" t="n">
         <f aca="false">G12/100</f>
         <v>0.000325732899022801</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="13" t="n">
         <f aca="false">E12*G12+F12*H12</f>
         <v>0.01</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="13" t="n">
         <f aca="false">1-K12</f>
         <v>0.7</v>
       </c>
-      <c r="M12" s="14" t="n">
+      <c r="M12" s="16" t="n">
         <f aca="false">$L$3/(K12+L12/100)</f>
         <v>0.0260586319218241</v>
       </c>
-      <c r="N12" s="14" t="n">
+      <c r="N12" s="16" t="n">
         <f aca="false">M12/100</f>
         <v>0.000260586319218241</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="14" t="n">
         <f aca="false">K12*M12+L12*N12</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="13"/>
-      <c r="E13" s="11" t="n">
+      <c r="C13" s="15"/>
+      <c r="E13" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="13" t="n">
         <f aca="false">1-E13</f>
         <v>0.8</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="16" t="n">
         <f aca="false">$F$3/(E13+F13/100)</f>
-        <v>0.048076923076923</v>
-      </c>
-      <c r="H13" s="14" t="n">
+        <v>0.0480769230769231</v>
+      </c>
+      <c r="H13" s="16" t="n">
         <f aca="false">G13/100</f>
-        <v>0.00048076923076923</v>
-      </c>
-      <c r="I13" s="11" t="n">
+        <v>0.000480769230769231</v>
+      </c>
+      <c r="I13" s="13" t="n">
         <f aca="false">E13*G13+F13*H13</f>
         <v>0.01</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="K13" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="13" t="n">
         <f aca="false">1-K13</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="14" t="n">
+      <c r="M13" s="16" t="n">
         <f aca="false">$L$3/(K13+L13/100)</f>
-        <v>0.0384615384615384</v>
-      </c>
-      <c r="N13" s="14" t="n">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="N13" s="16" t="n">
         <f aca="false">M13/100</f>
-        <v>0.000384615384615384</v>
-      </c>
-      <c r="O13" s="12" t="n">
+        <v>0.000384615384615385</v>
+      </c>
+      <c r="O13" s="14" t="n">
         <f aca="false">K13*M13+L13*N13</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="13"/>
-      <c r="E14" s="11" t="n">
+      <c r="C14" s="15"/>
+      <c r="E14" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="13" t="n">
         <f aca="false">1-E14</f>
         <v>0.9</v>
       </c>
-      <c r="G14" s="14" t="n">
+      <c r="G14" s="16" t="n">
         <f aca="false">$F$3/(E14+F14/100)</f>
-        <v>0.0917431192660549</v>
-      </c>
-      <c r="H14" s="14" t="n">
+        <v>0.091743119266055</v>
+      </c>
+      <c r="H14" s="16" t="n">
         <f aca="false">G14/100</f>
-        <v>0.000917431192660549</v>
-      </c>
-      <c r="I14" s="11" t="n">
+        <v>0.00091743119266055</v>
+      </c>
+      <c r="I14" s="13" t="n">
         <f aca="false">E14*G14+F14*H14</f>
         <v>0.01</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="K14" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="13" t="n">
         <f aca="false">1-K14</f>
         <v>0.9</v>
       </c>
-      <c r="M14" s="14" t="n">
+      <c r="M14" s="16" t="n">
         <f aca="false">$L$3/(K14+L14/100)</f>
-        <v>0.0733944954128439</v>
-      </c>
-      <c r="N14" s="14" t="n">
+        <v>0.073394495412844</v>
+      </c>
+      <c r="N14" s="16" t="n">
         <f aca="false">M14/100</f>
-        <v>0.000733944954128439</v>
-      </c>
-      <c r="O14" s="12" t="n">
+        <v>0.00073394495412844</v>
+      </c>
+      <c r="O14" s="14" t="n">
         <f aca="false">K14*M14+L14*N14</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="13"/>
-      <c r="E15" s="11" t="n">
+      <c r="C15" s="15"/>
+      <c r="E15" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="13" t="n">
         <f aca="false">1-E15</f>
         <v>0.99</v>
       </c>
-      <c r="G15" s="14" t="n">
+      <c r="G15" s="16" t="n">
         <f aca="false">$F$3/(E15+F15/100)</f>
         <v>0.50251256281407</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="16" t="n">
         <f aca="false">G15/100</f>
         <v>0.0050251256281407</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="13" t="n">
         <f aca="false">E15*G15+F15*H15</f>
         <v>0.01</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="13" t="n">
         <f aca="false">1-K15</f>
         <v>0.99</v>
       </c>
-      <c r="M15" s="14" t="n">
+      <c r="M15" s="16" t="n">
         <f aca="false">$L$3/(K15+L15/100)</f>
         <v>0.402010050251256</v>
       </c>
-      <c r="N15" s="14" t="n">
+      <c r="N15" s="16" t="n">
         <f aca="false">M15/100</f>
         <v>0.00402010050251256</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="14" t="n">
         <f aca="false">K15*M15+L15*N15</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="13"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="11"/>
-      <c r="O16" s="7"/>
+      <c r="C16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="13"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="13"/>
+      <c r="C17" s="15"/>
       <c r="E17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10" t="n">
         <v>0.005</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>13</v>
+      <c r="G17" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L17" s="10" t="n">
         <v>0.002</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="7"/>
+      <c r="M17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="13"/>
-      <c r="E18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>12</v>
+      <c r="C18" s="15"/>
+      <c r="E18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="13"/>
-      <c r="E19" s="11" t="n">
+      <c r="C19" s="15"/>
+      <c r="E19" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="13" t="n">
         <f aca="false">1-E19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G19" s="14" t="n">
+      <c r="G19" s="16" t="n">
         <f aca="false">$F$17/(E19+F19/100)</f>
         <v>0.00526038926880589</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="16" t="n">
         <f aca="false">G19/100</f>
         <v>5.26038926880589E-005</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="13" t="n">
         <f aca="false">E19*G19+F19*H19</f>
         <v>0.005</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="L19" s="11" t="n">
+      <c r="L19" s="13" t="n">
         <f aca="false">1-K19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M19" s="14" t="n">
+      <c r="M19" s="16" t="n">
         <f aca="false">$L$17/(K19+L19/100)</f>
         <v>0.00210415570752236</v>
       </c>
-      <c r="N19" s="14" t="n">
+      <c r="N19" s="16" t="n">
         <f aca="false">M19/100</f>
         <v>2.10415570752236E-005</v>
       </c>
-      <c r="O19" s="12" t="n">
+      <c r="O19" s="14" t="n">
         <f aca="false">K19*M19+L19*N19</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="13"/>
-      <c r="E20" s="11" t="n">
+      <c r="C20" s="15"/>
+      <c r="E20" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="13" t="n">
         <f aca="false">1-E20</f>
         <v>0.1</v>
       </c>
-      <c r="G20" s="14" t="n">
+      <c r="G20" s="16" t="n">
         <f aca="false">$F$17/(E20+F20/100)</f>
         <v>0.00554938956714761</v>
       </c>
-      <c r="H20" s="14" t="n">
+      <c r="H20" s="16" t="n">
         <f aca="false">G20/100</f>
         <v>5.54938956714761E-005</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="13" t="n">
         <f aca="false">E20*G20+F20*H20</f>
         <v>0.005</v>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="K20" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="L20" s="11" t="n">
+      <c r="L20" s="13" t="n">
         <f aca="false">1-K20</f>
         <v>0.1</v>
       </c>
-      <c r="M20" s="14" t="n">
+      <c r="M20" s="16" t="n">
         <f aca="false">$L$17/(K20+L20/100)</f>
         <v>0.00221975582685905</v>
       </c>
-      <c r="N20" s="14" t="n">
+      <c r="N20" s="16" t="n">
         <f aca="false">M20/100</f>
         <v>2.21975582685905E-005</v>
       </c>
-      <c r="O20" s="12" t="n">
+      <c r="O20" s="14" t="n">
         <f aca="false">K20*M20+L20*N20</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="13"/>
-      <c r="E21" s="11" t="n">
+      <c r="C21" s="15"/>
+      <c r="E21" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="13" t="n">
         <f aca="false">1-E21</f>
         <v>0.2</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="G21" s="16" t="n">
         <f aca="false">$F$17/(E21+F21/100)</f>
         <v>0.00623441396508728</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="16" t="n">
         <f aca="false">G21/100</f>
         <v>6.23441396508728E-005</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="13" t="n">
         <f aca="false">E21*G21+F21*H21</f>
         <v>0.005</v>
       </c>
-      <c r="K21" s="11" t="n">
+      <c r="K21" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="L21" s="11" t="n">
+      <c r="L21" s="13" t="n">
         <f aca="false">1-K21</f>
         <v>0.2</v>
       </c>
-      <c r="M21" s="14" t="n">
+      <c r="M21" s="16" t="n">
         <f aca="false">$L$17/(K21+L21/100)</f>
         <v>0.00249376558603491</v>
       </c>
-      <c r="N21" s="14" t="n">
+      <c r="N21" s="16" t="n">
         <f aca="false">M21/100</f>
         <v>2.49376558603491E-005</v>
       </c>
-      <c r="O21" s="12" t="n">
+      <c r="O21" s="14" t="n">
         <f aca="false">K21*M21+L21*N21</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="13"/>
-      <c r="E22" s="11" t="n">
+      <c r="C22" s="15"/>
+      <c r="E22" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="13" t="n">
         <f aca="false">1-E22</f>
         <v>0.3</v>
       </c>
-      <c r="G22" s="14" t="n">
+      <c r="G22" s="16" t="n">
         <f aca="false">$F$17/(E22+F22/100)</f>
         <v>0.00711237553342816</v>
       </c>
-      <c r="H22" s="14" t="n">
+      <c r="H22" s="16" t="n">
         <f aca="false">G22/100</f>
         <v>7.11237553342816E-005</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="13" t="n">
         <f aca="false">E22*G22+F22*H22</f>
         <v>0.005</v>
       </c>
-      <c r="K22" s="11" t="n">
+      <c r="K22" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="L22" s="11" t="n">
+      <c r="L22" s="13" t="n">
         <f aca="false">1-K22</f>
         <v>0.3</v>
       </c>
-      <c r="M22" s="14" t="n">
+      <c r="M22" s="16" t="n">
         <f aca="false">$L$17/(K22+L22/100)</f>
         <v>0.00284495021337127</v>
       </c>
-      <c r="N22" s="14" t="n">
+      <c r="N22" s="16" t="n">
         <f aca="false">M22/100</f>
         <v>2.84495021337127E-005</v>
       </c>
-      <c r="O22" s="12" t="n">
+      <c r="O22" s="14" t="n">
         <f aca="false">K22*M22+L22*N22</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="13"/>
-      <c r="E23" s="11" t="n">
+      <c r="C23" s="15"/>
+      <c r="E23" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="13" t="n">
         <f aca="false">1-E23</f>
         <v>0.4</v>
       </c>
-      <c r="G23" s="14" t="n">
+      <c r="G23" s="16" t="n">
         <f aca="false">$F$17/(E23+F23/100)</f>
         <v>0.00827814569536424</v>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H23" s="16" t="n">
         <f aca="false">G23/100</f>
         <v>8.27814569536424E-005</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="13" t="n">
         <f aca="false">E23*G23+F23*H23</f>
         <v>0.005</v>
       </c>
-      <c r="K23" s="11" t="n">
+      <c r="K23" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="L23" s="11" t="n">
+      <c r="L23" s="13" t="n">
         <f aca="false">1-K23</f>
         <v>0.4</v>
       </c>
-      <c r="M23" s="14" t="n">
+      <c r="M23" s="16" t="n">
         <f aca="false">$L$17/(K23+L23/100)</f>
         <v>0.00331125827814569</v>
       </c>
-      <c r="N23" s="14" t="n">
+      <c r="N23" s="16" t="n">
         <f aca="false">M23/100</f>
         <v>3.31125827814569E-005</v>
       </c>
-      <c r="O23" s="12" t="n">
+      <c r="O23" s="14" t="n">
         <f aca="false">K23*M23+L23*N23</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="13"/>
-      <c r="E24" s="11" t="n">
+      <c r="C24" s="15"/>
+      <c r="E24" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="13" t="n">
         <f aca="false">1-E24</f>
         <v>0.5</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G24" s="16" t="n">
         <f aca="false">$F$17/(E24+F24/100)</f>
         <v>0.0099009900990099</v>
       </c>
-      <c r="H24" s="14" t="n">
+      <c r="H24" s="16" t="n">
         <f aca="false">G24/100</f>
         <v>9.9009900990099E-005</v>
       </c>
-      <c r="I24" s="11" t="n">
+      <c r="I24" s="13" t="n">
         <f aca="false">E24*G24+F24*H24</f>
         <v>0.005</v>
       </c>
-      <c r="K24" s="11" t="n">
+      <c r="K24" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="L24" s="11" t="n">
+      <c r="L24" s="13" t="n">
         <f aca="false">1-K24</f>
         <v>0.5</v>
       </c>
-      <c r="M24" s="14" t="n">
+      <c r="M24" s="16" t="n">
         <f aca="false">$L$17/(K24+L24/100)</f>
         <v>0.00396039603960396</v>
       </c>
-      <c r="N24" s="14" t="n">
+      <c r="N24" s="16" t="n">
         <f aca="false">M24/100</f>
         <v>3.96039603960396E-005</v>
       </c>
-      <c r="O24" s="12" t="n">
+      <c r="O24" s="14" t="n">
         <f aca="false">K24*M24+L24*N24</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="13"/>
-      <c r="E25" s="11" t="n">
+      <c r="C25" s="15"/>
+      <c r="E25" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="13" t="n">
         <f aca="false">1-E25</f>
         <v>0.6</v>
       </c>
-      <c r="G25" s="14" t="n">
+      <c r="G25" s="16" t="n">
         <f aca="false">$F$17/(E25+F25/100)</f>
         <v>0.0123152709359606</v>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H25" s="16" t="n">
         <f aca="false">G25/100</f>
         <v>0.000123152709359606</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="13" t="n">
         <f aca="false">E25*G25+F25*H25</f>
         <v>0.005</v>
       </c>
-      <c r="K25" s="11" t="n">
+      <c r="K25" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="L25" s="11" t="n">
+      <c r="L25" s="13" t="n">
         <f aca="false">1-K25</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="14" t="n">
+      <c r="M25" s="16" t="n">
         <f aca="false">$L$17/(K25+L25/100)</f>
         <v>0.00492610837438424</v>
       </c>
-      <c r="N25" s="14" t="n">
+      <c r="N25" s="16" t="n">
         <f aca="false">M25/100</f>
-        <v>4.92610837438423E-005</v>
-      </c>
-      <c r="O25" s="12" t="n">
+        <v>4.92610837438424E-005</v>
+      </c>
+      <c r="O25" s="14" t="n">
         <f aca="false">K25*M25+L25*N25</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="13"/>
-      <c r="E26" s="11" t="n">
+      <c r="C26" s="15"/>
+      <c r="E26" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="13" t="n">
         <f aca="false">1-E26</f>
         <v>0.7</v>
       </c>
-      <c r="G26" s="14" t="n">
+      <c r="G26" s="16" t="n">
         <f aca="false">$F$17/(E26+F26/100)</f>
         <v>0.0162866449511401</v>
       </c>
-      <c r="H26" s="14" t="n">
+      <c r="H26" s="16" t="n">
         <f aca="false">G26/100</f>
         <v>0.000162866449511401</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="I26" s="13" t="n">
         <f aca="false">E26*G26+F26*H26</f>
         <v>0.005</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="L26" s="11" t="n">
+      <c r="L26" s="13" t="n">
         <f aca="false">1-K26</f>
         <v>0.7</v>
       </c>
-      <c r="M26" s="14" t="n">
+      <c r="M26" s="16" t="n">
         <f aca="false">$L$17/(K26+L26/100)</f>
-        <v>0.00651465798045602</v>
-      </c>
-      <c r="N26" s="14" t="n">
+        <v>0.00651465798045603</v>
+      </c>
+      <c r="N26" s="16" t="n">
         <f aca="false">M26/100</f>
-        <v>6.51465798045602E-005</v>
-      </c>
-      <c r="O26" s="12" t="n">
+        <v>6.51465798045603E-005</v>
+      </c>
+      <c r="O26" s="14" t="n">
         <f aca="false">K26*M26+L26*N26</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="13"/>
-      <c r="E27" s="11" t="n">
+      <c r="C27" s="15"/>
+      <c r="E27" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="13" t="n">
         <f aca="false">1-E27</f>
         <v>0.8</v>
       </c>
-      <c r="G27" s="14" t="n">
+      <c r="G27" s="16" t="n">
         <f aca="false">$F$17/(E27+F27/100)</f>
         <v>0.0240384615384615</v>
       </c>
-      <c r="H27" s="14" t="n">
+      <c r="H27" s="16" t="n">
         <f aca="false">G27/100</f>
         <v>0.000240384615384615</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="13" t="n">
         <f aca="false">E27*G27+F27*H27</f>
         <v>0.005</v>
       </c>
-      <c r="K27" s="11" t="n">
+      <c r="K27" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="L27" s="11" t="n">
+      <c r="L27" s="13" t="n">
         <f aca="false">1-K27</f>
         <v>0.8</v>
       </c>
-      <c r="M27" s="14" t="n">
+      <c r="M27" s="16" t="n">
         <f aca="false">$L$17/(K27+L27/100)</f>
         <v>0.00961538461538461</v>
       </c>
-      <c r="N27" s="14" t="n">
+      <c r="N27" s="16" t="n">
         <f aca="false">M27/100</f>
         <v>9.61538461538461E-005</v>
       </c>
-      <c r="O27" s="12" t="n">
+      <c r="O27" s="14" t="n">
         <f aca="false">K27*M27+L27*N27</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="13"/>
-      <c r="E28" s="11" t="n">
+      <c r="C28" s="15"/>
+      <c r="E28" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="13" t="n">
         <f aca="false">1-E28</f>
         <v>0.9</v>
       </c>
-      <c r="G28" s="14" t="n">
+      <c r="G28" s="16" t="n">
         <f aca="false">$F$17/(E28+F28/100)</f>
-        <v>0.0458715596330274</v>
-      </c>
-      <c r="H28" s="14" t="n">
+        <v>0.0458715596330275</v>
+      </c>
+      <c r="H28" s="16" t="n">
         <f aca="false">G28/100</f>
-        <v>0.000458715596330274</v>
-      </c>
-      <c r="I28" s="11" t="n">
+        <v>0.000458715596330275</v>
+      </c>
+      <c r="I28" s="13" t="n">
         <f aca="false">E28*G28+F28*H28</f>
         <v>0.005</v>
       </c>
-      <c r="K28" s="11" t="n">
+      <c r="K28" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L28" s="11" t="n">
+      <c r="L28" s="13" t="n">
         <f aca="false">1-K28</f>
         <v>0.9</v>
       </c>
-      <c r="M28" s="14" t="n">
+      <c r="M28" s="16" t="n">
         <f aca="false">$L$17/(K28+L28/100)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N28" s="14" t="n">
+      <c r="N28" s="16" t="n">
         <f aca="false">M28/100</f>
         <v>0.00018348623853211</v>
       </c>
-      <c r="O28" s="12" t="n">
+      <c r="O28" s="14" t="n">
         <f aca="false">K28*M28+L28*N28</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="13"/>
-      <c r="E29" s="11" t="n">
+      <c r="C29" s="15"/>
+      <c r="E29" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="13" t="n">
         <f aca="false">1-E29</f>
         <v>0.99</v>
       </c>
-      <c r="G29" s="14" t="n">
+      <c r="G29" s="16" t="n">
         <f aca="false">$F$17/(E29+F29/100)</f>
         <v>0.251256281407035</v>
       </c>
-      <c r="H29" s="14" t="n">
+      <c r="H29" s="16" t="n">
         <f aca="false">G29/100</f>
         <v>0.00251256281407035</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="13" t="n">
         <f aca="false">E29*G29+F29*H29</f>
         <v>0.005</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="L29" s="11" t="n">
+      <c r="L29" s="13" t="n">
         <f aca="false">1-K29</f>
         <v>0.99</v>
       </c>
-      <c r="M29" s="14" t="n">
+      <c r="M29" s="16" t="n">
         <f aca="false">$L$17/(K29+L29/100)</f>
         <v>0.100502512562814</v>
       </c>
-      <c r="N29" s="14" t="n">
+      <c r="N29" s="16" t="n">
         <f aca="false">M29/100</f>
         <v>0.00100502512562814</v>
       </c>
-      <c r="O29" s="12" t="n">
+      <c r="O29" s="14" t="n">
         <f aca="false">K29*M29+L29*N29</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="10" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="I35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" s="8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>12</v>
+      <c r="N35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="11" t="n">
+      <c r="C36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="13" t="n">
         <f aca="false">1-E36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G36" s="14" t="n">
+      <c r="G36" s="16" t="n">
         <f aca="false">$F$3/(E36+F36/10)</f>
         <v>0.0104712041884817</v>
       </c>
-      <c r="H36" s="14" t="n">
+      <c r="H36" s="16" t="n">
         <f aca="false">G36/10</f>
         <v>0.00104712041884817</v>
       </c>
-      <c r="I36" s="11" t="n">
+      <c r="I36" s="13" t="n">
         <f aca="false">E36*G36+F36*H36</f>
         <v>0.01</v>
       </c>
-      <c r="K36" s="11" t="n">
+      <c r="K36" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="L36" s="11" t="n">
+      <c r="L36" s="13" t="n">
         <f aca="false">1-K36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M36" s="14" t="n">
+      <c r="M36" s="16" t="n">
         <f aca="false">$L$3/(K36+L36/10)</f>
         <v>0.00837696335078534</v>
       </c>
-      <c r="N36" s="14" t="n">
+      <c r="N36" s="16" t="n">
         <f aca="false">M36/10</f>
         <v>0.000837696335078534</v>
       </c>
-      <c r="O36" s="12" t="n">
+      <c r="O36" s="14" t="n">
         <f aca="false">K36*M36+L36*N36</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="11" t="n">
+      <c r="C37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="F37" s="11" t="n">
+      <c r="F37" s="13" t="n">
         <f aca="false">1-E37</f>
         <v>0.1</v>
       </c>
-      <c r="G37" s="14" t="n">
+      <c r="G37" s="16" t="n">
         <f aca="false">$F$3/(E37+F37/10)</f>
         <v>0.010989010989011</v>
       </c>
-      <c r="H37" s="14" t="n">
+      <c r="H37" s="16" t="n">
         <f aca="false">G37/10</f>
         <v>0.0010989010989011</v>
       </c>
-      <c r="I37" s="11" t="n">
+      <c r="I37" s="13" t="n">
         <f aca="false">E37*G37+F37*H37</f>
         <v>0.01</v>
       </c>
-      <c r="K37" s="11" t="n">
+      <c r="K37" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="L37" s="11" t="n">
+      <c r="L37" s="13" t="n">
         <f aca="false">1-K37</f>
         <v>0.1</v>
       </c>
-      <c r="M37" s="14" t="n">
+      <c r="M37" s="16" t="n">
         <f aca="false">$L$3/(K37+L37/10)</f>
         <v>0.00879120879120879</v>
       </c>
-      <c r="N37" s="14" t="n">
+      <c r="N37" s="16" t="n">
         <f aca="false">M37/10</f>
         <v>0.000879120879120879</v>
       </c>
-      <c r="O37" s="12" t="n">
+      <c r="O37" s="14" t="n">
         <f aca="false">K37*M37+L37*N37</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="11" t="n">
+      <c r="C38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="F38" s="11" t="n">
+      <c r="F38" s="13" t="n">
         <f aca="false">1-E38</f>
         <v>0.2</v>
       </c>
-      <c r="G38" s="14" t="n">
+      <c r="G38" s="16" t="n">
         <f aca="false">$F$3/(E38+F38/10)</f>
         <v>0.0121951219512195</v>
       </c>
-      <c r="H38" s="14" t="n">
+      <c r="H38" s="16" t="n">
         <f aca="false">G38/10</f>
         <v>0.00121951219512195</v>
       </c>
-      <c r="I38" s="11" t="n">
+      <c r="I38" s="13" t="n">
         <f aca="false">E38*G38+F38*H38</f>
         <v>0.01</v>
       </c>
-      <c r="K38" s="11" t="n">
+      <c r="K38" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="L38" s="11" t="n">
+      <c r="L38" s="13" t="n">
         <f aca="false">1-K38</f>
         <v>0.2</v>
       </c>
-      <c r="M38" s="14" t="n">
+      <c r="M38" s="16" t="n">
         <f aca="false">$L$3/(K38+L38/10)</f>
         <v>0.00975609756097561</v>
       </c>
-      <c r="N38" s="14" t="n">
+      <c r="N38" s="16" t="n">
         <f aca="false">M38/10</f>
         <v>0.000975609756097561</v>
       </c>
-      <c r="O38" s="12" t="n">
+      <c r="O38" s="14" t="n">
         <f aca="false">K38*M38+L38*N38</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="13"/>
-      <c r="E39" s="11" t="n">
+      <c r="C39" s="15"/>
+      <c r="E39" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="F39" s="11" t="n">
+      <c r="F39" s="13" t="n">
         <f aca="false">1-E39</f>
         <v>0.3</v>
       </c>
-      <c r="G39" s="14" t="n">
+      <c r="G39" s="16" t="n">
         <f aca="false">$F$3/(E39+F39/10)</f>
         <v>0.0136986301369863</v>
       </c>
-      <c r="H39" s="14" t="n">
+      <c r="H39" s="16" t="n">
         <f aca="false">G39/10</f>
         <v>0.00136986301369863</v>
       </c>
-      <c r="I39" s="11" t="n">
+      <c r="I39" s="13" t="n">
         <f aca="false">E39*G39+F39*H39</f>
         <v>0.01</v>
       </c>
-      <c r="K39" s="11" t="n">
+      <c r="K39" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="L39" s="11" t="n">
+      <c r="L39" s="13" t="n">
         <f aca="false">1-K39</f>
         <v>0.3</v>
       </c>
-      <c r="M39" s="14" t="n">
+      <c r="M39" s="16" t="n">
         <f aca="false">$L$3/(K39+L39/10)</f>
         <v>0.010958904109589</v>
       </c>
-      <c r="N39" s="14" t="n">
+      <c r="N39" s="16" t="n">
         <f aca="false">M39/10</f>
         <v>0.0010958904109589</v>
       </c>
-      <c r="O39" s="12" t="n">
+      <c r="O39" s="14" t="n">
         <f aca="false">K39*M39+L39*N39</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="13"/>
-      <c r="E40" s="11" t="n">
+      <c r="C40" s="15"/>
+      <c r="E40" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="F40" s="11" t="n">
+      <c r="F40" s="13" t="n">
         <f aca="false">1-E40</f>
         <v>0.4</v>
       </c>
-      <c r="G40" s="14" t="n">
+      <c r="G40" s="16" t="n">
         <f aca="false">$F$3/(E40+F40/10)</f>
         <v>0.015625</v>
       </c>
-      <c r="H40" s="14" t="n">
+      <c r="H40" s="16" t="n">
         <f aca="false">G40/10</f>
         <v>0.0015625</v>
       </c>
-      <c r="I40" s="11" t="n">
+      <c r="I40" s="13" t="n">
         <f aca="false">E40*G40+F40*H40</f>
         <v>0.01</v>
       </c>
-      <c r="K40" s="11" t="n">
+      <c r="K40" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="L40" s="11" t="n">
+      <c r="L40" s="13" t="n">
         <f aca="false">1-K40</f>
         <v>0.4</v>
       </c>
-      <c r="M40" s="14" t="n">
+      <c r="M40" s="16" t="n">
         <f aca="false">$L$3/(K40+L40/10)</f>
         <v>0.0125</v>
       </c>
-      <c r="N40" s="14" t="n">
+      <c r="N40" s="16" t="n">
         <f aca="false">M40/10</f>
         <v>0.00125</v>
       </c>
-      <c r="O40" s="12" t="n">
+      <c r="O40" s="14" t="n">
         <f aca="false">K40*M40+L40*N40</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="13"/>
-      <c r="E41" s="11" t="n">
+      <c r="C41" s="15"/>
+      <c r="E41" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="F41" s="11" t="n">
+      <c r="F41" s="13" t="n">
         <f aca="false">1-E41</f>
         <v>0.5</v>
       </c>
-      <c r="G41" s="14" t="n">
+      <c r="G41" s="16" t="n">
         <f aca="false">$F$3/(E41+F41/10)</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="H41" s="14" t="n">
+      <c r="H41" s="16" t="n">
         <f aca="false">G41/10</f>
         <v>0.00181818181818182</v>
       </c>
-      <c r="I41" s="11" t="n">
+      <c r="I41" s="13" t="n">
         <f aca="false">E41*G41+F41*H41</f>
         <v>0.01</v>
       </c>
-      <c r="K41" s="11" t="n">
+      <c r="K41" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="L41" s="11" t="n">
+      <c r="L41" s="13" t="n">
         <f aca="false">1-K41</f>
         <v>0.5</v>
       </c>
-      <c r="M41" s="14" t="n">
+      <c r="M41" s="16" t="n">
         <f aca="false">$L$3/(K41+L41/10)</f>
         <v>0.0145454545454545</v>
       </c>
-      <c r="N41" s="14" t="n">
+      <c r="N41" s="16" t="n">
         <f aca="false">M41/10</f>
         <v>0.00145454545454545</v>
       </c>
-      <c r="O41" s="12" t="n">
+      <c r="O41" s="14" t="n">
         <f aca="false">K41*M41+L41*N41</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="13"/>
-      <c r="E42" s="11" t="n">
+      <c r="C42" s="15"/>
+      <c r="E42" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="F42" s="11" t="n">
+      <c r="F42" s="13" t="n">
         <f aca="false">1-E42</f>
         <v>0.6</v>
       </c>
-      <c r="G42" s="14" t="n">
+      <c r="G42" s="16" t="n">
         <f aca="false">$F$3/(E42+F42/10)</f>
         <v>0.0217391304347826</v>
       </c>
-      <c r="H42" s="14" t="n">
+      <c r="H42" s="16" t="n">
         <f aca="false">G42/10</f>
         <v>0.00217391304347826</v>
       </c>
-      <c r="I42" s="11" t="n">
+      <c r="I42" s="13" t="n">
         <f aca="false">E42*G42+F42*H42</f>
         <v>0.01</v>
       </c>
-      <c r="K42" s="11" t="n">
+      <c r="K42" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="L42" s="11" t="n">
+      <c r="L42" s="13" t="n">
         <f aca="false">1-K42</f>
         <v>0.6</v>
       </c>
-      <c r="M42" s="14" t="n">
+      <c r="M42" s="16" t="n">
         <f aca="false">$L$3/(K42+L42/10)</f>
         <v>0.0173913043478261</v>
       </c>
-      <c r="N42" s="14" t="n">
+      <c r="N42" s="16" t="n">
         <f aca="false">M42/10</f>
         <v>0.00173913043478261</v>
       </c>
-      <c r="O42" s="12" t="n">
+      <c r="O42" s="14" t="n">
         <f aca="false">K42*M42+L42*N42</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="13"/>
-      <c r="E43" s="11" t="n">
+      <c r="C43" s="15"/>
+      <c r="E43" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="F43" s="11" t="n">
+      <c r="F43" s="13" t="n">
         <f aca="false">1-E43</f>
         <v>0.7</v>
       </c>
-      <c r="G43" s="14" t="n">
+      <c r="G43" s="16" t="n">
         <f aca="false">$F$3/(E43+F43/10)</f>
         <v>0.027027027027027</v>
       </c>
-      <c r="H43" s="14" t="n">
+      <c r="H43" s="16" t="n">
         <f aca="false">G43/10</f>
         <v>0.0027027027027027</v>
       </c>
-      <c r="I43" s="11" t="n">
+      <c r="I43" s="13" t="n">
         <f aca="false">E43*G43+F43*H43</f>
         <v>0.01</v>
       </c>
-      <c r="K43" s="11" t="n">
+      <c r="K43" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="L43" s="11" t="n">
+      <c r="L43" s="13" t="n">
         <f aca="false">1-K43</f>
         <v>0.7</v>
       </c>
-      <c r="M43" s="14" t="n">
+      <c r="M43" s="16" t="n">
         <f aca="false">$L$3/(K43+L43/10)</f>
         <v>0.0216216216216216</v>
       </c>
-      <c r="N43" s="14" t="n">
+      <c r="N43" s="16" t="n">
         <f aca="false">M43/10</f>
         <v>0.00216216216216216</v>
       </c>
-      <c r="O43" s="12" t="n">
+      <c r="O43" s="14" t="n">
         <f aca="false">K43*M43+L43*N43</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="13"/>
-      <c r="E44" s="11" t="n">
+      <c r="C44" s="15"/>
+      <c r="E44" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F44" s="11" t="n">
+      <c r="F44" s="13" t="n">
         <f aca="false">1-E44</f>
         <v>0.8</v>
       </c>
-      <c r="G44" s="14" t="n">
+      <c r="G44" s="16" t="n">
         <f aca="false">$F$3/(E44+F44/10)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="H44" s="14" t="n">
+      <c r="H44" s="16" t="n">
         <f aca="false">G44/10</f>
         <v>0.00357142857142857</v>
       </c>
-      <c r="I44" s="11" t="n">
+      <c r="I44" s="13" t="n">
         <f aca="false">E44*G44+F44*H44</f>
         <v>0.01</v>
       </c>
-      <c r="K44" s="11" t="n">
+      <c r="K44" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="L44" s="11" t="n">
+      <c r="L44" s="13" t="n">
         <f aca="false">1-K44</f>
         <v>0.8</v>
       </c>
-      <c r="M44" s="14" t="n">
+      <c r="M44" s="16" t="n">
         <f aca="false">$L$3/(K44+L44/10)</f>
         <v>0.0285714285714286</v>
       </c>
-      <c r="N44" s="14" t="n">
+      <c r="N44" s="16" t="n">
         <f aca="false">M44/10</f>
         <v>0.00285714285714286</v>
       </c>
-      <c r="O44" s="12" t="n">
+      <c r="O44" s="14" t="n">
         <f aca="false">K44*M44+L44*N44</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="13"/>
-      <c r="E45" s="11" t="n">
+      <c r="C45" s="15"/>
+      <c r="E45" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="F45" s="11" t="n">
+      <c r="F45" s="13" t="n">
         <f aca="false">1-E45</f>
         <v>0.9</v>
       </c>
-      <c r="G45" s="14" t="n">
+      <c r="G45" s="16" t="n">
         <f aca="false">$F$3/(E45+F45/10)</f>
         <v>0.0526315789473684</v>
       </c>
-      <c r="H45" s="14" t="n">
+      <c r="H45" s="16" t="n">
         <f aca="false">G45/10</f>
         <v>0.00526315789473684</v>
       </c>
-      <c r="I45" s="11" t="n">
+      <c r="I45" s="13" t="n">
         <f aca="false">E45*G45+F45*H45</f>
         <v>0.01</v>
       </c>
-      <c r="K45" s="11" t="n">
+      <c r="K45" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L45" s="11" t="n">
+      <c r="L45" s="13" t="n">
         <f aca="false">1-K45</f>
         <v>0.9</v>
       </c>
-      <c r="M45" s="14" t="n">
+      <c r="M45" s="16" t="n">
         <f aca="false">$L$3/(K45+L45/10)</f>
         <v>0.0421052631578947</v>
       </c>
-      <c r="N45" s="14" t="n">
+      <c r="N45" s="16" t="n">
         <f aca="false">M45/10</f>
         <v>0.00421052631578947</v>
       </c>
-      <c r="O45" s="12" t="n">
+      <c r="O45" s="14" t="n">
         <f aca="false">K45*M45+L45*N45</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="13"/>
-      <c r="E46" s="11" t="n">
+      <c r="C46" s="15"/>
+      <c r="E46" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="F46" s="11" t="n">
+      <c r="F46" s="13" t="n">
         <f aca="false">1-E46</f>
         <v>0.99</v>
       </c>
-      <c r="G46" s="14" t="n">
+      <c r="G46" s="16" t="n">
         <f aca="false">$F$3/(E46+F46/10)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H46" s="14" t="n">
+      <c r="H46" s="16" t="n">
         <f aca="false">G46/10</f>
         <v>0.0091743119266055</v>
       </c>
-      <c r="I46" s="11" t="n">
+      <c r="I46" s="13" t="n">
         <f aca="false">E46*G46+F46*H46</f>
         <v>0.01</v>
       </c>
-      <c r="K46" s="11" t="n">
+      <c r="K46" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="L46" s="11" t="n">
+      <c r="L46" s="13" t="n">
         <f aca="false">1-K46</f>
         <v>0.99</v>
       </c>
-      <c r="M46" s="14" t="n">
+      <c r="M46" s="16" t="n">
         <f aca="false">$L$3/(K46+L46/10)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N46" s="14" t="n">
+      <c r="N46" s="16" t="n">
         <f aca="false">M46/10</f>
         <v>0.0073394495412844</v>
       </c>
-      <c r="O46" s="12" t="n">
+      <c r="O46" s="14" t="n">
         <f aca="false">K46*M46+L46*N46</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="13"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="11"/>
-      <c r="O47" s="7"/>
+      <c r="C47" s="15"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="13"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="13"/>
+      <c r="C48" s="15"/>
       <c r="E48" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F48" s="10" t="n">
         <v>0.005</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>13</v>
+      <c r="G48" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L48" s="10" t="n">
         <v>0.002</v>
       </c>
-      <c r="M48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O48" s="7"/>
+      <c r="M48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="13"/>
-      <c r="E49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>12</v>
+      <c r="C49" s="15"/>
+      <c r="E49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="13"/>
-      <c r="E50" s="11" t="n">
+      <c r="C50" s="15"/>
+      <c r="E50" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="F50" s="11" t="n">
+      <c r="F50" s="13" t="n">
         <f aca="false">1-E50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G50" s="14" t="n">
+      <c r="G50" s="16" t="n">
         <f aca="false">$F$17/(E50+F50/10)</f>
         <v>0.00523560209424084</v>
       </c>
-      <c r="H50" s="14" t="n">
+      <c r="H50" s="16" t="n">
         <f aca="false">G50/10</f>
         <v>0.000523560209424084</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="I50" s="13" t="n">
         <f aca="false">E50*G50+F50*H50</f>
         <v>0.005</v>
       </c>
-      <c r="K50" s="11" t="n">
+      <c r="K50" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="L50" s="11" t="n">
+      <c r="L50" s="13" t="n">
         <f aca="false">1-K50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M50" s="14" t="n">
+      <c r="M50" s="16" t="n">
         <f aca="false">$L$17/(K50+L50/10)</f>
         <v>0.00209424083769633</v>
       </c>
-      <c r="N50" s="14" t="n">
+      <c r="N50" s="16" t="n">
         <f aca="false">M50/10</f>
         <v>0.000209424083769633</v>
       </c>
-      <c r="O50" s="12" t="n">
+      <c r="O50" s="14" t="n">
         <f aca="false">K50*M50+L50*N50</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="13"/>
-      <c r="E51" s="11" t="n">
+      <c r="C51" s="15"/>
+      <c r="E51" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="F51" s="11" t="n">
+      <c r="F51" s="13" t="n">
         <f aca="false">1-E51</f>
         <v>0.1</v>
       </c>
-      <c r="G51" s="14" t="n">
+      <c r="G51" s="16" t="n">
         <f aca="false">$F$17/(E51+F51/10)</f>
         <v>0.00549450549450549</v>
       </c>
-      <c r="H51" s="14" t="n">
+      <c r="H51" s="16" t="n">
         <f aca="false">G51/10</f>
         <v>0.000549450549450549</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="13" t="n">
         <f aca="false">E51*G51+F51*H51</f>
         <v>0.005</v>
       </c>
-      <c r="K51" s="11" t="n">
+      <c r="K51" s="13" t="n">
         <v>0.9</v>
       </c>
-      <c r="L51" s="11" t="n">
+      <c r="L51" s="13" t="n">
         <f aca="false">1-K51</f>
         <v>0.1</v>
       </c>
-      <c r="M51" s="14" t="n">
+      <c r="M51" s="16" t="n">
         <f aca="false">$L$17/(K51+L51/10)</f>
         <v>0.0021978021978022</v>
       </c>
-      <c r="N51" s="14" t="n">
+      <c r="N51" s="16" t="n">
         <f aca="false">M51/10</f>
         <v>0.00021978021978022</v>
       </c>
-      <c r="O51" s="12" t="n">
+      <c r="O51" s="14" t="n">
         <f aca="false">K51*M51+L51*N51</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="13"/>
-      <c r="E52" s="11" t="n">
+      <c r="C52" s="15"/>
+      <c r="E52" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="F52" s="11" t="n">
+      <c r="F52" s="13" t="n">
         <f aca="false">1-E52</f>
         <v>0.2</v>
       </c>
-      <c r="G52" s="14" t="n">
+      <c r="G52" s="16" t="n">
         <f aca="false">$F$17/(E52+F52/10)</f>
         <v>0.00609756097560976</v>
       </c>
-      <c r="H52" s="14" t="n">
+      <c r="H52" s="16" t="n">
         <f aca="false">G52/10</f>
         <v>0.000609756097560975</v>
       </c>
-      <c r="I52" s="11" t="n">
+      <c r="I52" s="13" t="n">
         <f aca="false">E52*G52+F52*H52</f>
         <v>0.005</v>
       </c>
-      <c r="K52" s="11" t="n">
+      <c r="K52" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="L52" s="11" t="n">
+      <c r="L52" s="13" t="n">
         <f aca="false">1-K52</f>
         <v>0.2</v>
       </c>
-      <c r="M52" s="14" t="n">
+      <c r="M52" s="16" t="n">
         <f aca="false">$L$17/(K52+L52/10)</f>
         <v>0.0024390243902439</v>
       </c>
-      <c r="N52" s="14" t="n">
+      <c r="N52" s="16" t="n">
         <f aca="false">M52/10</f>
         <v>0.00024390243902439</v>
       </c>
-      <c r="O52" s="12" t="n">
+      <c r="O52" s="14" t="n">
         <f aca="false">K52*M52+L52*N52</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="13"/>
-      <c r="E53" s="11" t="n">
+      <c r="C53" s="15"/>
+      <c r="E53" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="F53" s="11" t="n">
+      <c r="F53" s="13" t="n">
         <f aca="false">1-E53</f>
         <v>0.3</v>
       </c>
-      <c r="G53" s="14" t="n">
+      <c r="G53" s="16" t="n">
         <f aca="false">$F$17/(E53+F53/10)</f>
         <v>0.00684931506849315</v>
       </c>
-      <c r="H53" s="14" t="n">
+      <c r="H53" s="16" t="n">
         <f aca="false">G53/10</f>
         <v>0.000684931506849315</v>
       </c>
-      <c r="I53" s="11" t="n">
+      <c r="I53" s="13" t="n">
         <f aca="false">E53*G53+F53*H53</f>
         <v>0.005</v>
       </c>
-      <c r="K53" s="11" t="n">
+      <c r="K53" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="L53" s="11" t="n">
+      <c r="L53" s="13" t="n">
         <f aca="false">1-K53</f>
         <v>0.3</v>
       </c>
-      <c r="M53" s="14" t="n">
+      <c r="M53" s="16" t="n">
         <f aca="false">$L$17/(K53+L53/10)</f>
         <v>0.00273972602739726</v>
       </c>
-      <c r="N53" s="14" t="n">
+      <c r="N53" s="16" t="n">
         <f aca="false">M53/10</f>
         <v>0.000273972602739726</v>
       </c>
-      <c r="O53" s="12" t="n">
+      <c r="O53" s="14" t="n">
         <f aca="false">K53*M53+L53*N53</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="13"/>
-      <c r="E54" s="11" t="n">
+      <c r="C54" s="15"/>
+      <c r="E54" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="F54" s="11" t="n">
+      <c r="F54" s="13" t="n">
         <f aca="false">1-E54</f>
         <v>0.4</v>
       </c>
-      <c r="G54" s="14" t="n">
+      <c r="G54" s="16" t="n">
         <f aca="false">$F$17/(E54+F54/10)</f>
         <v>0.0078125</v>
       </c>
-      <c r="H54" s="14" t="n">
+      <c r="H54" s="16" t="n">
         <f aca="false">G54/10</f>
         <v>0.00078125</v>
       </c>
-      <c r="I54" s="11" t="n">
+      <c r="I54" s="13" t="n">
         <f aca="false">E54*G54+F54*H54</f>
         <v>0.005</v>
       </c>
-      <c r="K54" s="11" t="n">
+      <c r="K54" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="L54" s="11" t="n">
+      <c r="L54" s="13" t="n">
         <f aca="false">1-K54</f>
         <v>0.4</v>
       </c>
-      <c r="M54" s="14" t="n">
+      <c r="M54" s="16" t="n">
         <f aca="false">$L$17/(K54+L54/10)</f>
         <v>0.003125</v>
       </c>
-      <c r="N54" s="14" t="n">
+      <c r="N54" s="16" t="n">
         <f aca="false">M54/10</f>
         <v>0.0003125</v>
       </c>
-      <c r="O54" s="12" t="n">
+      <c r="O54" s="14" t="n">
         <f aca="false">K54*M54+L54*N54</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="13"/>
-      <c r="E55" s="11" t="n">
+      <c r="C55" s="15"/>
+      <c r="E55" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="F55" s="11" t="n">
+      <c r="F55" s="13" t="n">
         <f aca="false">1-E55</f>
         <v>0.5</v>
       </c>
-      <c r="G55" s="14" t="n">
+      <c r="G55" s="16" t="n">
         <f aca="false">$F$17/(E55+F55/10)</f>
         <v>0.00909090909090909</v>
       </c>
-      <c r="H55" s="14" t="n">
+      <c r="H55" s="16" t="n">
         <f aca="false">G55/10</f>
         <v>0.000909090909090909</v>
       </c>
-      <c r="I55" s="11" t="n">
+      <c r="I55" s="13" t="n">
         <f aca="false">E55*G55+F55*H55</f>
         <v>0.005</v>
       </c>
-      <c r="K55" s="11" t="n">
+      <c r="K55" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="L55" s="11" t="n">
+      <c r="L55" s="13" t="n">
         <f aca="false">1-K55</f>
         <v>0.5</v>
       </c>
-      <c r="M55" s="14" t="n">
+      <c r="M55" s="16" t="n">
         <f aca="false">$L$17/(K55+L55/10)</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="N55" s="14" t="n">
+      <c r="N55" s="16" t="n">
         <f aca="false">M55/10</f>
         <v>0.000363636363636364</v>
       </c>
-      <c r="O55" s="12" t="n">
+      <c r="O55" s="14" t="n">
         <f aca="false">K55*M55+L55*N55</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="13"/>
-      <c r="E56" s="11" t="n">
+      <c r="C56" s="15"/>
+      <c r="E56" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="F56" s="11" t="n">
+      <c r="F56" s="13" t="n">
         <f aca="false">1-E56</f>
         <v>0.6</v>
       </c>
-      <c r="G56" s="14" t="n">
+      <c r="G56" s="16" t="n">
         <f aca="false">$F$17/(E56+F56/10)</f>
         <v>0.0108695652173913</v>
       </c>
-      <c r="H56" s="14" t="n">
+      <c r="H56" s="16" t="n">
         <f aca="false">G56/10</f>
         <v>0.00108695652173913</v>
       </c>
-      <c r="I56" s="11" t="n">
+      <c r="I56" s="13" t="n">
         <f aca="false">E56*G56+F56*H56</f>
         <v>0.005</v>
       </c>
-      <c r="K56" s="11" t="n">
+      <c r="K56" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="L56" s="11" t="n">
+      <c r="L56" s="13" t="n">
         <f aca="false">1-K56</f>
         <v>0.6</v>
       </c>
-      <c r="M56" s="14" t="n">
+      <c r="M56" s="16" t="n">
         <f aca="false">$L$17/(K56+L56/10)</f>
         <v>0.00434782608695652</v>
       </c>
-      <c r="N56" s="14" t="n">
+      <c r="N56" s="16" t="n">
         <f aca="false">M56/10</f>
         <v>0.000434782608695652</v>
       </c>
-      <c r="O56" s="12" t="n">
+      <c r="O56" s="14" t="n">
         <f aca="false">K56*M56+L56*N56</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="13"/>
-      <c r="E57" s="11" t="n">
+      <c r="C57" s="15"/>
+      <c r="E57" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="F57" s="11" t="n">
+      <c r="F57" s="13" t="n">
         <f aca="false">1-E57</f>
         <v>0.7</v>
       </c>
-      <c r="G57" s="14" t="n">
+      <c r="G57" s="16" t="n">
         <f aca="false">$F$17/(E57+F57/10)</f>
         <v>0.0135135135135135</v>
       </c>
-      <c r="H57" s="14" t="n">
+      <c r="H57" s="16" t="n">
         <f aca="false">G57/10</f>
         <v>0.00135135135135135</v>
       </c>
-      <c r="I57" s="11" t="n">
+      <c r="I57" s="13" t="n">
         <f aca="false">E57*G57+F57*H57</f>
         <v>0.005</v>
       </c>
-      <c r="K57" s="11" t="n">
+      <c r="K57" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="L57" s="11" t="n">
+      <c r="L57" s="13" t="n">
         <f aca="false">1-K57</f>
         <v>0.7</v>
       </c>
-      <c r="M57" s="14" t="n">
+      <c r="M57" s="16" t="n">
         <f aca="false">$L$17/(K57+L57/10)</f>
         <v>0.0054054054054054</v>
       </c>
-      <c r="N57" s="14" t="n">
+      <c r="N57" s="16" t="n">
         <f aca="false">M57/10</f>
         <v>0.00054054054054054</v>
       </c>
-      <c r="O57" s="12" t="n">
+      <c r="O57" s="14" t="n">
         <f aca="false">K57*M57+L57*N57</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="13"/>
-      <c r="E58" s="11" t="n">
+      <c r="C58" s="15"/>
+      <c r="E58" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F58" s="11" t="n">
+      <c r="F58" s="13" t="n">
         <f aca="false">1-E58</f>
         <v>0.8</v>
       </c>
-      <c r="G58" s="14" t="n">
+      <c r="G58" s="16" t="n">
         <f aca="false">$F$17/(E58+F58/10)</f>
         <v>0.0178571428571429</v>
       </c>
-      <c r="H58" s="14" t="n">
+      <c r="H58" s="16" t="n">
         <f aca="false">G58/10</f>
         <v>0.00178571428571429</v>
       </c>
-      <c r="I58" s="11" t="n">
+      <c r="I58" s="13" t="n">
         <f aca="false">E58*G58+F58*H58</f>
         <v>0.005</v>
       </c>
-      <c r="K58" s="11" t="n">
+      <c r="K58" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="L58" s="11" t="n">
+      <c r="L58" s="13" t="n">
         <f aca="false">1-K58</f>
         <v>0.8</v>
       </c>
-      <c r="M58" s="14" t="n">
+      <c r="M58" s="16" t="n">
         <f aca="false">$L$17/(K58+L58/10)</f>
         <v>0.00714285714285714</v>
       </c>
-      <c r="N58" s="14" t="n">
+      <c r="N58" s="16" t="n">
         <f aca="false">M58/10</f>
         <v>0.000714285714285714</v>
       </c>
-      <c r="O58" s="12" t="n">
+      <c r="O58" s="14" t="n">
         <f aca="false">K58*M58+L58*N58</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="13"/>
-      <c r="E59" s="11" t="n">
+      <c r="C59" s="15"/>
+      <c r="E59" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="F59" s="11" t="n">
+      <c r="F59" s="13" t="n">
         <f aca="false">1-E59</f>
         <v>0.9</v>
       </c>
-      <c r="G59" s="14" t="n">
+      <c r="G59" s="16" t="n">
         <f aca="false">$F$17/(E59+F59/10)</f>
         <v>0.0263157894736842</v>
       </c>
-      <c r="H59" s="14" t="n">
+      <c r="H59" s="16" t="n">
         <f aca="false">G59/10</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="I59" s="11" t="n">
+      <c r="I59" s="13" t="n">
         <f aca="false">E59*G59+F59*H59</f>
         <v>0.005</v>
       </c>
-      <c r="K59" s="11" t="n">
+      <c r="K59" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L59" s="11" t="n">
+      <c r="L59" s="13" t="n">
         <f aca="false">1-K59</f>
         <v>0.9</v>
       </c>
-      <c r="M59" s="14" t="n">
+      <c r="M59" s="16" t="n">
         <f aca="false">$L$17/(K59+L59/10)</f>
         <v>0.0105263157894737</v>
       </c>
-      <c r="N59" s="14" t="n">
+      <c r="N59" s="16" t="n">
         <f aca="false">M59/10</f>
         <v>0.00105263157894737</v>
       </c>
-      <c r="O59" s="12" t="n">
+      <c r="O59" s="14" t="n">
         <f aca="false">K59*M59+L59*N59</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="13"/>
-      <c r="E60" s="11" t="n">
+      <c r="C60" s="15"/>
+      <c r="E60" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="F60" s="11" t="n">
+      <c r="F60" s="13" t="n">
         <f aca="false">1-E60</f>
         <v>0.99</v>
       </c>
-      <c r="G60" s="14" t="n">
+      <c r="G60" s="16" t="n">
         <f aca="false">$F$17/(E60+F60/10)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H60" s="14" t="n">
+      <c r="H60" s="16" t="n">
         <f aca="false">G60/10</f>
         <v>0.00458715596330275</v>
       </c>
-      <c r="I60" s="11" t="n">
+      <c r="I60" s="13" t="n">
         <f aca="false">E60*G60+F60*H60</f>
         <v>0.005</v>
       </c>
-      <c r="K60" s="11" t="n">
+      <c r="K60" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="L60" s="11" t="n">
+      <c r="L60" s="13" t="n">
         <f aca="false">1-K60</f>
         <v>0.99</v>
       </c>
-      <c r="M60" s="14" t="n">
+      <c r="M60" s="16" t="n">
         <f aca="false">$L$17/(K60+L60/10)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N60" s="14" t="n">
+      <c r="N60" s="16" t="n">
         <f aca="false">M60/10</f>
         <v>0.0018348623853211</v>
       </c>
-      <c r="O60" s="12" t="n">
+      <c r="O60" s="14" t="n">
         <f aca="false">K60*M60+L60*N60</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4220,14 +5008,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:V60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -4238,53 +5026,53 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="24" t="n">
         <f aca="false">2.97*B4^(0.62)</f>
         <v>0.170905661389136</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="25" t="n">
         <f aca="false">0.057*B4^(1.944)</f>
         <v>7.37691629626492E-006</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="24" t="n">
         <f aca="false">0.38*B4^0.59</f>
         <v>0.0251063510242887</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="25" t="n">
         <f aca="false">0.04*B4^2</f>
         <v>4E-006</v>
       </c>
@@ -4294,19 +5082,19 @@
         <f aca="false">B4-0.0002</f>
         <v>0.0098</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="24" t="n">
         <f aca="false">2.97*B5^(0.62)</f>
         <v>0.168778303131111</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="25" t="n">
         <f aca="false">0.057*B5^(1.944)</f>
         <v>7.09281033579122E-006</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="24" t="n">
         <f aca="false">0.38*B5^0.59</f>
         <v>0.0248088698797865</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="25" t="n">
         <f aca="false">0.04*B5^2</f>
         <v>3.8416E-006</v>
       </c>
@@ -4316,19 +5104,19 @@
         <f aca="false">B5-0.0002</f>
         <v>0.0096</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="24" t="n">
         <f aca="false">2.97*B6^(0.62)</f>
         <v>0.166634381481985</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="25" t="n">
         <f aca="false">0.057*B6^(1.944)</f>
         <v>6.81412557411232E-006</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="24" t="n">
         <f aca="false">0.38*B6^0.59</f>
         <v>0.0245088889545415</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="25" t="n">
         <f aca="false">0.04*B6^2</f>
         <v>3.6864E-006</v>
       </c>
@@ -4338,222 +5126,222 @@
         <f aca="false">B6-0.0002</f>
         <v>0.0094</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="24" t="n">
         <f aca="false">2.97*B7^(0.62)</f>
         <v>0.164473418285553</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="25" t="n">
         <f aca="false">0.057*B7^(1.944)</f>
         <v>6.54086827506298E-006</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="24" t="n">
         <f aca="false">0.38*B7^0.59</f>
         <v>0.0242063344923744</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="25" t="n">
         <f aca="false">0.04*B7^2</f>
         <v>3.5344E-006</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <f aca="false">B7-0.0002</f>
         <v>0.0092</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="24" t="n">
         <f aca="false">2.97*B8^(0.62)</f>
         <v>0.162294911069372</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="25" t="n">
         <f aca="false">0.057*B8^(1.944)</f>
         <v>6.27304484184586E-006</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="24" t="n">
         <f aca="false">0.38*B8^0.59</f>
         <v>0.0239011289378076</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="25" t="n">
         <f aca="false">0.04*B8^2</f>
         <v>3.3856E-006</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <f aca="false">B8-0.0002</f>
         <v>0.009</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="24" t="n">
         <f aca="false">2.97*B9^(0.62)</f>
         <v>0.160098331250151</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="25" t="n">
         <f aca="false">0.057*B9^(1.944)</f>
         <v>6.01066182319956E-006</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="24" t="n">
         <f aca="false">0.38*B9^0.59</f>
         <v>0.0235931906530846</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="25" t="n">
         <f aca="false">0.04*B9^2</f>
         <v>3.24E-006</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <f aca="false">B9-0.0002</f>
         <v>0.0088</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="24" t="n">
         <f aca="false">2.97*B10^(0.62)</f>
         <v>0.157883122163658</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="25" t="n">
         <f aca="false">0.057*B10^(1.944)</f>
         <v>5.75372591998125E-006</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="24" t="n">
         <f aca="false">0.38*B10^0.59</f>
         <v>0.0232824336073207</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="25" t="n">
         <f aca="false">0.04*B10^2</f>
         <v>3.0976E-006</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <f aca="false">B10-0.0002</f>
         <v>0.0086</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="24" t="n">
         <f aca="false">2.97*B11^(0.62)</f>
         <v>0.155648696897595</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="25" t="n">
         <f aca="false">0.057*B11^(1.944)</f>
         <v>5.50224399220194E-006</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="24" t="n">
         <f aca="false">0.38*B11^0.59</f>
         <v>0.022968767034342</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="25" t="n">
         <f aca="false">0.04*B11^2</f>
         <v>2.9584E-006</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
         <f aca="false">B11-0.0002</f>
         <v>0.0084</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="24" t="n">
         <f aca="false">2.97*B12^(0.62)</f>
         <v>0.153394435902666</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="25" t="n">
         <f aca="false">0.057*B12^(1.944)</f>
         <v>5.25622306655658E-006</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="24" t="n">
         <f aca="false">0.38*B12^0.59</f>
         <v>0.022652095055251</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="25" t="n">
         <f aca="false">0.04*B12^2</f>
         <v>2.8224E-006</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
         <f aca="false">B12-0.0002</f>
         <v>0.0082</v>
       </c>
-      <c r="C13" s="22" t="n">
+      <c r="C13" s="24" t="n">
         <f aca="false">2.97*B13^(0.62)</f>
         <v>0.15111968435328</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="25" t="n">
         <f aca="false">0.057*B13^(1.944)</f>
         <v>5.0156703444962E-006</v>
       </c>
-      <c r="E13" s="22" t="n">
+      <c r="E13" s="24" t="n">
         <f aca="false">0.38*B13^0.59</f>
         <v>0.0223323162611514</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="25" t="n">
         <f aca="false">0.04*B13^2</f>
         <v>2.6896E-006</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
         <f aca="false">B13-0.0002</f>
         <v>0.008</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="24" t="n">
         <f aca="false">2.97*B14^(0.62)</f>
         <v>0.148823749224871</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="25" t="n">
         <f aca="false">0.057*B14^(1.944)</f>
         <v>4.78059321089525E-006</v>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="24" t="n">
         <f aca="false">0.38*B14^0.59</f>
         <v>0.0220093232507475</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="25" t="n">
         <f aca="false">0.04*B14^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <f aca="false">B14-0.0002</f>
         <v>0.0078</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="24" t="n">
         <f aca="false">2.97*B15^(0.62)</f>
         <v>0.146505896049517</v>
       </c>
-      <c r="D15" s="23" t="n">
+      <c r="D15" s="25" t="n">
         <f aca="false">0.057*B15^(1.944)</f>
         <v>4.55099924337378E-006</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="24" t="n">
         <f aca="false">0.38*B15^0.59</f>
         <v>0.0216830021166786</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="25" t="n">
         <f aca="false">0.04*B15^2</f>
         <v>2.4336E-006</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
         <f aca="false">B15-0.0002</f>
         <v>0.0076</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="24" t="n">
         <f aca="false">2.97*B16^(0.62)</f>
         <v>0.14416534530524</v>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" s="25" t="n">
         <f aca="false">0.057*B16^(1.944)</f>
         <v>4.3268962223418E-006</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="24" t="n">
         <f aca="false">0.38*B16^0.59</f>
         <v>0.0213532318734356</v>
       </c>
-      <c r="F16" s="23" t="n">
+      <c r="F16" s="25" t="n">
         <f aca="false">0.04*B16^2</f>
         <v>2.3104E-006</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>27</v>
+      <c r="S16" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,75 +5349,75 @@
         <f aca="false">B16-0.0002</f>
         <v>0.0074</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="24" t="n">
         <f aca="false">2.97*B17^(0.62)</f>
         <v>0.141801268386831</v>
       </c>
-      <c r="D17" s="23" t="n">
+      <c r="D17" s="25" t="n">
         <f aca="false">0.057*B17^(1.944)</f>
         <v>4.10829214184202E-006</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="24" t="n">
         <f aca="false">0.38*B17^0.59</f>
         <v>0.0210198838184959</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="25" t="n">
         <f aca="false">0.04*B17^2</f>
         <v>2.1904E-006</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
         <f aca="false">B17-0.0002</f>
         <v>0.0072</v>
       </c>
-      <c r="C18" s="22" t="n">
+      <c r="C18" s="24" t="n">
         <f aca="false">2.97*B18^(0.62)</f>
         <v>0.139412783096999</v>
       </c>
-      <c r="D18" s="23" t="n">
+      <c r="D18" s="25" t="n">
         <f aca="false">0.057*B18^(1.944)</f>
         <v>3.89519522127748E-006</v>
       </c>
-      <c r="E18" s="22" t="n">
+      <c r="E18" s="24" t="n">
         <f aca="false">0.38*B18^0.59</f>
         <v>0.0206828208168481</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="25" t="n">
         <f aca="false">0.04*B18^2</f>
         <v>2.0736E-006</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <f aca="false">B18-0.0002</f>
         <v>0.007</v>
       </c>
-      <c r="C19" s="22" t="n">
+      <c r="C19" s="24" t="n">
         <f aca="false">2.97*B19^(0.62)</f>
         <v>0.136998948585751</v>
       </c>
-      <c r="D19" s="23" t="n">
+      <c r="D19" s="25" t="n">
         <f aca="false">0.057*B19^(1.944)</f>
         <v>3.68761391812255E-006</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="E19" s="24" t="n">
         <f aca="false">0.38*B19^0.59</f>
         <v>0.0203418964973235</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="25" t="n">
         <f aca="false">0.04*B19^2</f>
         <v>1.96E-006</v>
       </c>
@@ -4644,24 +5432,24 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <f aca="false">B19-0.0002</f>
         <v>0.0068</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="24" t="n">
         <f aca="false">2.97*B20^(0.62)</f>
         <v>0.134558759652636</v>
       </c>
-      <c r="D20" s="23" t="n">
+      <c r="D20" s="25" t="n">
         <f aca="false">0.057*B20^(1.944)</f>
         <v>3.48555694172981E-006</v>
       </c>
-      <c r="E20" s="22" t="n">
+      <c r="E20" s="24" t="n">
         <f aca="false">0.38*B20^0.59</f>
         <v>0.0199969543470115</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="25" t="n">
         <f aca="false">0.04*B20^2</f>
         <v>1.8496E-006</v>
       </c>
@@ -4676,24 +5464,24 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
         <f aca="false">B20-0.0002</f>
         <v>0.0066</v>
       </c>
-      <c r="C21" s="22" t="n">
+      <c r="C21" s="24" t="n">
         <f aca="false">2.97*B21^(0.62)</f>
         <v>0.132091140310434</v>
       </c>
-      <c r="D21" s="23" t="n">
+      <c r="D21" s="25" t="n">
         <f aca="false">0.057*B21^(1.944)</f>
         <v>3.28903326836194E-006</v>
       </c>
-      <c r="E21" s="22" t="n">
+      <c r="E21" s="24" t="n">
         <f aca="false">0.38*B21^0.59</f>
         <v>0.0196478266874332</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="25" t="n">
         <f aca="false">0.04*B21^2</f>
         <v>1.7424E-006</v>
       </c>
@@ -4708,24 +5496,24 @@
         <v>24.2333333333333</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <f aca="false">B21-0.0002</f>
         <v>0.0064</v>
       </c>
-      <c r="C22" s="22" t="n">
+      <c r="C22" s="24" t="n">
         <f aca="false">2.97*B22^(0.62)</f>
         <v>0.129594936489068</v>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="25" t="n">
         <f aca="false">0.057*B22^(1.944)</f>
         <v>3.09805215759724E-006</v>
       </c>
-      <c r="E22" s="22" t="n">
+      <c r="E22" s="24" t="n">
         <f aca="false">0.38*B22^0.59</f>
         <v>0.0192943335129531</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="25" t="n">
         <f aca="false">0.04*B22^2</f>
         <v>1.6384E-006</v>
       </c>
@@ -4740,24 +5528,24 @@
         <v>24.05</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
         <f aca="false">B22-0.0002</f>
         <v>0.0062</v>
       </c>
-      <c r="C23" s="22" t="n">
+      <c r="C23" s="24" t="n">
         <f aca="false">2.97*B23^(0.62)</f>
         <v>0.127068907734232</v>
       </c>
-      <c r="D23" s="23" t="n">
+      <c r="D23" s="25" t="n">
         <f aca="false">0.057*B23^(1.944)</f>
         <v>2.91262317028041E-006</v>
       </c>
-      <c r="E23" s="22" t="n">
+      <c r="E23" s="24" t="n">
         <f aca="false">0.38*B23^0.59</f>
         <v>0.0189362811679701</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="25" t="n">
         <f aca="false">0.04*B23^2</f>
         <v>1.5376E-006</v>
       </c>
@@ -4776,51 +5564,51 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
         <f aca="false">B23-0.0002</f>
         <v>0.006</v>
       </c>
-      <c r="C24" s="22" t="n">
+      <c r="C24" s="24" t="n">
         <f aca="false">2.97*B24^(0.62)</f>
         <v>0.124511717725026</v>
       </c>
-      <c r="D24" s="23" t="n">
+      <c r="D24" s="25" t="n">
         <f aca="false">0.057*B24^(1.944)</f>
         <v>2.73275618821812E-006</v>
       </c>
-      <c r="E24" s="22" t="n">
+      <c r="E24" s="24" t="n">
         <f aca="false">0.38*B24^0.59</f>
         <v>0.0185734608345414</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="25" t="n">
         <f aca="false">0.04*B24^2</f>
         <v>1.44E-006</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
         <f aca="false">B24-0.0002</f>
         <v>0.0058</v>
       </c>
-      <c r="C25" s="22" t="n">
+      <c r="C25" s="24" t="n">
         <f aca="false">2.97*B25^(0.62)</f>
         <v>0.121921923397288</v>
       </c>
-      <c r="D25" s="23" t="n">
+      <c r="D25" s="25" t="n">
         <f aca="false">0.057*B25^(1.944)</f>
         <v>2.55846143585184E-006</v>
       </c>
-      <c r="E25" s="22" t="n">
+      <c r="E25" s="24" t="n">
         <f aca="false">0.38*B25^0.59</f>
         <v>0.0182056467959893</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="25" t="n">
         <f aca="false">0.04*B25^2</f>
         <v>1.3456E-006</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1195</v>
@@ -4830,200 +5618,200 @@
         <v>19.9166666666667</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
         <f aca="false">B25-0.0002</f>
         <v>0.0056</v>
       </c>
-      <c r="C26" s="22" t="n">
+      <c r="C26" s="24" t="n">
         <f aca="false">2.97*B26^(0.62)</f>
         <v>0.119297962411986</v>
       </c>
-      <c r="D26" s="23" t="n">
+      <c r="D26" s="25" t="n">
         <f aca="false">0.057*B26^(1.944)</f>
         <v>2.38974950418042E-006</v>
       </c>
-      <c r="E26" s="22" t="n">
+      <c r="E26" s="24" t="n">
         <f aca="false">0.38*B26^0.59</f>
         <v>0.017832594434361</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="25" t="n">
         <f aca="false">0.04*B26^2</f>
         <v>1.2544E-006</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
         <f aca="false">B26-0.0002</f>
         <v>0.0054</v>
       </c>
-      <c r="C27" s="22" t="n">
+      <c r="C27" s="24" t="n">
         <f aca="false">2.97*B27^(0.62)</f>
         <v>0.116638138648189</v>
       </c>
-      <c r="D27" s="23" t="n">
+      <c r="D27" s="25" t="n">
         <f aca="false">0.057*B27^(1.944)</f>
         <v>2.22663137725334E-006</v>
       </c>
-      <c r="E27" s="22" t="n">
+      <c r="E27" s="24" t="n">
         <f aca="false">0.38*B27^0.59</f>
         <v>0.0174540379098898</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="25" t="n">
         <f aca="false">0.04*B27^2</f>
         <v>1.1664E-006</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <f aca="false">B27-0.0002</f>
         <v>0.0052</v>
       </c>
-      <c r="C28" s="22" t="n">
+      <c r="C28" s="24" t="n">
         <f aca="false">2.97*B28^(0.62)</f>
         <v>0.113940605323781</v>
       </c>
-      <c r="D28" s="23" t="n">
+      <c r="D28" s="25" t="n">
         <f aca="false">0.057*B28^(1.944)</f>
         <v>2.06911846161483E-006</v>
       </c>
-      <c r="E28" s="22" t="n">
+      <c r="E28" s="24" t="n">
         <f aca="false">0.38*B28^0.59</f>
         <v>0.0170696874581801</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="F28" s="25" t="n">
         <f aca="false">0.04*B28^2</f>
         <v>1.0816E-006</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
         <f aca="false">B28-0.0002</f>
         <v>0.005</v>
       </c>
-      <c r="C29" s="22" t="n">
+      <c r="C29" s="24" t="n">
         <f aca="false">2.97*B29^(0.62)</f>
         <v>0.111203345248834</v>
       </c>
-      <c r="D29" s="23" t="n">
+      <c r="D29" s="25" t="n">
         <f aca="false">0.057*B29^(1.944)</f>
         <v>1.9172226191516E-006</v>
       </c>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="24" t="n">
         <f aca="false">0.38*B29^0.59</f>
         <v>0.0166792262248499</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="25" t="n">
         <f aca="false">0.04*B29^2</f>
         <v>1E-006</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <f aca="false">B29-0.0002</f>
         <v>0.0048</v>
       </c>
-      <c r="C30" s="22" t="n">
+      <c r="C30" s="24" t="n">
         <f aca="false">2.97*B30^(0.62)</f>
         <v>0.108424147589092</v>
       </c>
-      <c r="D30" s="23" t="n">
+      <c r="D30" s="25" t="n">
         <f aca="false">0.057*B30^(1.944)</f>
         <v>1.77095620388728E-006</v>
       </c>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="24" t="n">
         <f aca="false">0.38*B30^0.59</f>
         <v>0.016282306536583</v>
       </c>
-      <c r="F30" s="23" t="n">
+      <c r="F30" s="25" t="n">
         <f aca="false">0.04*B30^2</f>
         <v>9.216E-007</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <f aca="false">B30-0.0002</f>
         <v>0.0046</v>
       </c>
-      <c r="C31" s="22" t="n">
+      <c r="C31" s="24" t="n">
         <f aca="false">2.97*B31^(0.62)</f>
         <v>0.1056005803499</v>
       </c>
-      <c r="D31" s="23" t="n">
+      <c r="D31" s="25" t="n">
         <f aca="false">0.057*B31^(1.944)</f>
         <v>1.63033210337883E-006</v>
       </c>
-      <c r="E31" s="22" t="n">
+      <c r="E31" s="24" t="n">
         <f aca="false">0.38*B31^0.59</f>
         <v>0.0158785454802783</v>
       </c>
-      <c r="F31" s="23" t="n">
+      <c r="F31" s="25" t="n">
         <f aca="false">0.04*B31^2</f>
         <v>8.464E-007</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
         <f aca="false">B31-0.0002</f>
         <v>0.0044</v>
       </c>
-      <c r="C32" s="22" t="n">
+      <c r="C32" s="24" t="n">
         <f aca="false">2.97*B32^(0.62)</f>
         <v>0.10272995756971</v>
       </c>
-      <c r="D32" s="23" t="n">
+      <c r="D32" s="25" t="n">
         <f aca="false">0.057*B32^(1.944)</f>
         <v>1.49536378551187E-006</v>
       </c>
-      <c r="E32" s="22" t="n">
+      <c r="E32" s="24" t="n">
         <f aca="false">0.38*B32^0.59</f>
         <v>0.0154675196258454</v>
       </c>
-      <c r="F32" s="23" t="n">
+      <c r="F32" s="25" t="n">
         <f aca="false">0.04*B32^2</f>
         <v>7.74400000000001E-007</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
         <f aca="false">B32-0.0002</f>
         <v>0.0042</v>
       </c>
-      <c r="C33" s="22" t="n">
+      <c r="C33" s="24" t="n">
         <f aca="false">2.97*B33^(0.62)</f>
         <v>0.0998092999160222</v>
       </c>
-      <c r="D33" s="23" t="n">
+      <c r="D33" s="25" t="n">
         <f aca="false">0.057*B33^(1.944)</f>
         <v>1.36606535167154E-006</v>
       </c>
-      <c r="E33" s="22" t="n">
+      <c r="E33" s="24" t="n">
         <f aca="false">0.38*B33^0.59</f>
         <v>0.0150487586797388</v>
       </c>
-      <c r="F33" s="23" t="n">
+      <c r="F33" s="25" t="n">
         <f aca="false">0.04*B33^2</f>
         <v>7.05600000000001E-007</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
         <f aca="false">B33-0.0002</f>
         <v>0.004</v>
       </c>
-      <c r="C34" s="22" t="n">
+      <c r="C34" s="24" t="n">
         <f aca="false">2.97*B34^(0.62)</f>
         <v>0.0968352869750591</v>
       </c>
-      <c r="D34" s="23" t="n">
+      <c r="D34" s="25" t="n">
         <f aca="false">0.057*B34^(1.944)</f>
         <v>1.24245159749632E-006</v>
       </c>
-      <c r="E34" s="22" t="n">
+      <c r="E34" s="24" t="n">
         <f aca="false">0.38*B34^0.59</f>
         <v>0.0146217377905664</v>
       </c>
-      <c r="F34" s="23" t="n">
+      <c r="F34" s="25" t="n">
         <f aca="false">0.04*B34^2</f>
         <v>6.40000000000001E-007</v>
       </c>
@@ -5033,19 +5821,19 @@
         <f aca="false">B34-0.0002</f>
         <v>0.0038</v>
       </c>
-      <c r="C35" s="22" t="n">
+      <c r="C35" s="24" t="n">
         <f aca="false">2.97*B35^(0.62)</f>
         <v>0.0938041989749743</v>
       </c>
-      <c r="D35" s="23" t="n">
+      <c r="D35" s="25" t="n">
         <f aca="false">0.057*B35^(1.944)</f>
         <v>1.12453808272104E-006</v>
       </c>
-      <c r="E35" s="22" t="n">
+      <c r="E35" s="24" t="n">
         <f aca="false">0.38*B35^0.59</f>
         <v>0.0141858681376737</v>
       </c>
-      <c r="F35" s="23" t="n">
+      <c r="F35" s="25" t="n">
         <f aca="false">0.04*B35^2</f>
         <v>5.77600000000001E-007</v>
       </c>
@@ -5055,19 +5843,19 @@
         <f aca="false">B35-0.0002</f>
         <v>0.0036</v>
       </c>
-      <c r="C36" s="22" t="n">
+      <c r="C36" s="24" t="n">
         <f aca="false">2.97*B36^(0.62)</f>
         <v>0.0907118449138866</v>
       </c>
-      <c r="D36" s="23" t="n">
+      <c r="D36" s="25" t="n">
         <f aca="false">0.057*B36^(1.944)</f>
         <v>1.01234121200827E-006</v>
       </c>
-      <c r="E36" s="22" t="n">
+      <c r="E36" s="24" t="n">
         <f aca="false">0.38*B36^0.59</f>
         <v>0.0137404853074231</v>
       </c>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="25" t="n">
         <f aca="false">0.04*B36^2</f>
         <v>5.18400000000001E-007</v>
       </c>
@@ -5077,63 +5865,63 @@
         <f aca="false">B36-0.0002</f>
         <v>0.0034</v>
       </c>
-      <c r="C37" s="22" t="n">
+      <c r="C37" s="24" t="n">
         <f aca="false">2.97*B37^(0.62)</f>
         <v>0.0875534729761634</v>
       </c>
-      <c r="D37" s="23" t="n">
+      <c r="D37" s="25" t="n">
         <f aca="false">0.057*B37^(1.944)</f>
         <v>9.05878329188687E-007</v>
       </c>
-      <c r="E37" s="22" t="n">
+      <c r="E37" s="24" t="n">
         <f aca="false">0.38*B37^0.59</f>
         <v>0.0132848347830049</v>
       </c>
-      <c r="F37" s="23" t="n">
+      <c r="F37" s="25" t="n">
         <f aca="false">0.04*B37^2</f>
         <v>4.62400000000001E-007</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
         <f aca="false">B37-0.0002</f>
         <v>0.0032</v>
       </c>
-      <c r="C38" s="22" t="n">
+      <c r="C38" s="24" t="n">
         <f aca="false">2.97*B38^(0.62)</f>
         <v>0.0843236575532816</v>
       </c>
-      <c r="D38" s="23" t="n">
+      <c r="D38" s="25" t="n">
         <f aca="false">0.057*B38^(1.944)</f>
         <v>8.05167828034625E-007</v>
       </c>
-      <c r="E38" s="22" t="n">
+      <c r="E38" s="24" t="n">
         <f aca="false">0.38*B38^0.59</f>
         <v>0.0128180536155539</v>
       </c>
-      <c r="F38" s="23" t="n">
+      <c r="F38" s="25" t="n">
         <f aca="false">0.04*B38^2</f>
         <v>4.096E-007</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
         <f aca="false">B38-0.0002</f>
         <v>0.003</v>
       </c>
-      <c r="C39" s="22" t="n">
+      <c r="C39" s="24" t="n">
         <f aca="false">2.97*B39^(0.62)</f>
         <v>0.0810161548842737</v>
       </c>
-      <c r="D39" s="23" t="n">
+      <c r="D39" s="25" t="n">
         <f aca="false">0.057*B39^(1.944)</f>
         <v>7.10229283654885E-007</v>
       </c>
-      <c r="E39" s="22" t="n">
+      <c r="E39" s="24" t="n">
         <f aca="false">0.38*B39^0.59</f>
         <v>0.0123391469647662</v>
       </c>
-      <c r="F39" s="23" t="n">
+      <c r="F39" s="25" t="n">
         <f aca="false">0.04*B39^2</f>
         <v>3.6E-007</v>
       </c>
@@ -5143,19 +5931,19 @@
         <f aca="false">B39-0.0002</f>
         <v>0.0028</v>
       </c>
-      <c r="C40" s="22" t="n">
+      <c r="C40" s="24" t="n">
         <f aca="false">2.97*B40^(0.62)</f>
         <v>0.0776237158778282</v>
       </c>
-      <c r="D40" s="23" t="n">
+      <c r="D40" s="25" t="n">
         <f aca="false">0.057*B40^(1.944)</f>
         <v>6.21083609941571E-007</v>
       </c>
-      <c r="E40" s="22" t="n">
+      <c r="E40" s="24" t="n">
         <f aca="false">0.38*B40^0.59</f>
         <v>0.0118469576267359</v>
       </c>
-      <c r="F40" s="23" t="n">
+      <c r="F40" s="25" t="n">
         <f aca="false">0.04*B40^2</f>
         <v>3.136E-007</v>
       </c>
@@ -5165,19 +5953,19 @@
         <f aca="false">B40-0.0002</f>
         <v>0.0026</v>
       </c>
-      <c r="C41" s="22" t="n">
+      <c r="C41" s="24" t="n">
         <f aca="false">2.97*B41^(0.62)</f>
         <v>0.074137839371113</v>
       </c>
-      <c r="D41" s="23" t="n">
+      <c r="D41" s="25" t="n">
         <f aca="false">0.057*B41^(1.944)</f>
         <v>5.37753250409072E-007</v>
       </c>
-      <c r="E41" s="22" t="n">
+      <c r="E41" s="24" t="n">
         <f aca="false">0.38*B41^0.59</f>
         <v>0.0113401257883725</v>
       </c>
-      <c r="F41" s="23" t="n">
+      <c r="F41" s="25" t="n">
         <f aca="false">0.04*B41^2</f>
         <v>2.704E-007</v>
       </c>
@@ -5187,19 +5975,19 @@
         <f aca="false">B41-0.0002</f>
         <v>0.0024</v>
       </c>
-      <c r="C42" s="22" t="n">
+      <c r="C42" s="24" t="n">
         <f aca="false">2.97*B42^(0.62)</f>
         <v>0.0705484406991499</v>
       </c>
-      <c r="D42" s="23" t="n">
+      <c r="D42" s="25" t="n">
         <f aca="false">0.057*B42^(1.944)</f>
         <v>4.60262412539324E-007</v>
       </c>
-      <c r="E42" s="22" t="n">
+      <c r="E42" s="24" t="n">
         <f aca="false">0.38*B42^0.59</f>
         <v>0.0108170348579644</v>
       </c>
-      <c r="F42" s="23" t="n">
+      <c r="F42" s="25" t="n">
         <f aca="false">0.04*B42^2</f>
         <v>2.304E-007</v>
       </c>
@@ -5209,19 +5997,19 @@
         <f aca="false">B42-0.0002</f>
         <v>0.0022</v>
       </c>
-      <c r="C43" s="22" t="n">
+      <c r="C43" s="24" t="n">
         <f aca="false">2.97*B43^(0.62)</f>
         <v>0.066843396796619</v>
       </c>
-      <c r="D43" s="23" t="n">
+      <c r="D43" s="25" t="n">
         <f aca="false">0.057*B43^(1.944)</f>
         <v>3.88637359880999E-007</v>
       </c>
-      <c r="E43" s="22" t="n">
+      <c r="E43" s="24" t="n">
         <f aca="false">0.38*B43^0.59</f>
         <v>0.0102757369530601</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="25" t="n">
         <f aca="false">0.04*B43^2</f>
         <v>1.936E-007</v>
       </c>
@@ -5231,19 +6019,19 @@
         <f aca="false">B43-0.0002</f>
         <v>0.002</v>
       </c>
-      <c r="C44" s="22" t="n">
+      <c r="C44" s="24" t="n">
         <f aca="false">2.97*B44^(0.62)</f>
         <v>0.0630079060121878</v>
       </c>
-      <c r="D44" s="23" t="n">
+      <c r="D44" s="25" t="n">
         <f aca="false">0.057*B44^(1.944)</f>
         <v>3.22906782489461E-007</v>
       </c>
-      <c r="E44" s="22" t="n">
+      <c r="E44" s="24" t="n">
         <f aca="false">0.38*B44^0.59</f>
         <v>0.00971384778988223</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="25" t="n">
         <f aca="false">0.04*B44^2</f>
         <v>1.6E-007</v>
       </c>
@@ -5253,19 +6041,19 @@
         <f aca="false">B44-0.0002</f>
         <v>0.0018</v>
       </c>
-      <c r="C45" s="22" t="n">
+      <c r="C45" s="24" t="n">
         <f aca="false">2.97*B45^(0.62)</f>
         <v>0.0590235602853991</v>
       </c>
-      <c r="D45" s="23" t="n">
+      <c r="D45" s="25" t="n">
         <f aca="false">0.057*B45^(1.944)</f>
         <v>2.63102276346055E-007</v>
       </c>
-      <c r="E45" s="22" t="n">
+      <c r="E45" s="24" t="n">
         <f aca="false">0.38*B45^0.59</f>
         <v>0.00912839395338729</v>
       </c>
-      <c r="F45" s="23" t="n">
+      <c r="F45" s="25" t="n">
         <f aca="false">0.04*B45^2</f>
         <v>1.296E-007</v>
       </c>
@@ -5275,19 +6063,19 @@
         <f aca="false">B45-0.0002</f>
         <v>0.0016</v>
       </c>
-      <c r="C46" s="22" t="n">
+      <c r="C46" s="24" t="n">
         <f aca="false">2.97*B46^(0.62)</f>
         <v>0.0548669524890189</v>
       </c>
-      <c r="D46" s="23" t="n">
+      <c r="D46" s="25" t="n">
         <f aca="false">0.057*B46^(1.944)</f>
         <v>2.09258978972385E-007</v>
       </c>
-      <c r="E46" s="22" t="n">
+      <c r="E46" s="24" t="n">
         <f aca="false">0.38*B46^0.59</f>
         <v>0.00851558300165745</v>
       </c>
-      <c r="F46" s="23" t="n">
+      <c r="F46" s="25" t="n">
         <f aca="false">0.04*B46^2</f>
         <v>1.024E-007</v>
       </c>
@@ -5297,19 +6085,19 @@
         <f aca="false">B46-0.0002</f>
         <v>0.0014</v>
       </c>
-      <c r="C47" s="22" t="n">
+      <c r="C47" s="24" t="n">
         <f aca="false">2.97*B47^(0.62)</f>
         <v>0.0505074952233752</v>
       </c>
-      <c r="D47" s="23" t="n">
+      <c r="D47" s="25" t="n">
         <f aca="false">0.057*B47^(1.944)</f>
         <v>1.6141643710492E-007</v>
       </c>
-      <c r="E47" s="22" t="n">
+      <c r="E47" s="24" t="n">
         <f aca="false">0.38*B47^0.59</f>
         <v>0.00787044226942325</v>
       </c>
-      <c r="F47" s="23" t="n">
+      <c r="F47" s="25" t="n">
         <f aca="false">0.04*B47^2</f>
         <v>7.84000000000001E-008</v>
       </c>
@@ -5319,19 +6107,19 @@
         <f aca="false">B47-0.0002</f>
         <v>0.0012</v>
       </c>
-      <c r="C48" s="22" t="n">
+      <c r="C48" s="24" t="n">
         <f aca="false">2.97*B48^(0.62)</f>
         <v>0.0459038193589834</v>
       </c>
-      <c r="D48" s="23" t="n">
+      <c r="D48" s="25" t="n">
         <f aca="false">0.057*B48^(1.944)</f>
         <v>1.1961983471501E-007</v>
       </c>
-      <c r="E48" s="22" t="n">
+      <c r="E48" s="24" t="n">
         <f aca="false">0.38*B48^0.59</f>
         <v>0.00718622038318236</v>
       </c>
-      <c r="F48" s="23" t="n">
+      <c r="F48" s="25" t="n">
         <f aca="false">0.04*B48^2</f>
         <v>5.76000000000001E-008</v>
       </c>
@@ -5341,19 +6129,19 @@
         <f aca="false">B48-0.0002</f>
         <v>0.001</v>
       </c>
-      <c r="C49" s="22" t="n">
+      <c r="C49" s="24" t="n">
         <f aca="false">2.97*B49^(0.62)</f>
         <v>0.0409974126587057</v>
       </c>
-      <c r="D49" s="23" t="n">
+      <c r="D49" s="25" t="n">
         <f aca="false">0.057*B49^(1.944)</f>
         <v>8.39218126386651E-008</v>
       </c>
-      <c r="E49" s="22" t="n">
+      <c r="E49" s="24" t="n">
         <f aca="false">0.38*B49^0.59</f>
         <v>0.00645332587935463</v>
       </c>
-      <c r="F49" s="23" t="n">
+      <c r="F49" s="25" t="n">
         <f aca="false">0.04*B49^2</f>
         <v>4E-008</v>
       </c>
@@ -5363,19 +6151,19 @@
         <f aca="false">B49-0.0002</f>
         <v>0.0008</v>
       </c>
-      <c r="C50" s="22" t="n">
+      <c r="C50" s="24" t="n">
         <f aca="false">2.97*B50^(0.62)</f>
         <v>0.0357003308772521</v>
       </c>
-      <c r="D50" s="23" t="n">
+      <c r="D50" s="25" t="n">
         <f aca="false">0.057*B50^(1.944)</f>
         <v>5.4385332791367E-008</v>
       </c>
-      <c r="E50" s="22" t="n">
+      <c r="E50" s="24" t="n">
         <f aca="false">0.38*B50^0.59</f>
         <v>0.00565726716653182</v>
       </c>
-      <c r="F50" s="23" t="n">
+      <c r="F50" s="25" t="n">
         <f aca="false">0.04*B50^2</f>
         <v>2.56E-008</v>
       </c>
@@ -5385,19 +6173,19 @@
         <f aca="false">B50-0.0002</f>
         <v>0.0006</v>
       </c>
-      <c r="C51" s="22" t="n">
+      <c r="C51" s="24" t="n">
         <f aca="false">2.97*B51^(0.62)</f>
         <v>0.0298682807282454</v>
       </c>
-      <c r="D51" s="23" t="n">
+      <c r="D51" s="25" t="n">
         <f aca="false">0.057*B51^(1.944)</f>
         <v>3.10885800521977E-008</v>
       </c>
-      <c r="E51" s="22" t="n">
+      <c r="E51" s="24" t="n">
         <f aca="false">0.38*B51^0.59</f>
         <v>0.0047741145400528</v>
       </c>
-      <c r="F51" s="23" t="n">
+      <c r="F51" s="25" t="n">
         <f aca="false">0.04*B51^2</f>
         <v>1.44E-008</v>
       </c>
@@ -5407,19 +6195,19 @@
         <f aca="false">B51-0.0002</f>
         <v>0.0004</v>
       </c>
-      <c r="C52" s="22" t="n">
+      <c r="C52" s="24" t="n">
         <f aca="false">2.97*B52^(0.62)</f>
         <v>0.0232291674118471</v>
       </c>
-      <c r="D52" s="23" t="n">
+      <c r="D52" s="25" t="n">
         <f aca="false">0.057*B52^(1.944)</f>
         <v>1.41344683862672E-008</v>
       </c>
-      <c r="E52" s="22" t="n">
+      <c r="E52" s="24" t="n">
         <f aca="false">0.38*B52^0.59</f>
         <v>0.0037583653153624</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="25" t="n">
         <f aca="false">0.04*B52^2</f>
         <v>6.40000000000002E-009</v>
       </c>
@@ -5429,19 +6217,19 @@
         <f aca="false">B52-0.0002</f>
         <v>0.0002</v>
       </c>
-      <c r="C53" s="22" t="n">
+      <c r="C53" s="24" t="n">
         <f aca="false">2.97*B53^(0.62)</f>
         <v>0.0151145439100522</v>
       </c>
-      <c r="D53" s="23" t="n">
+      <c r="D53" s="25" t="n">
         <f aca="false">0.057*B53^(1.944)</f>
         <v>3.67347566537464E-009</v>
       </c>
-      <c r="E53" s="22" t="n">
+      <c r="E53" s="24" t="n">
         <f aca="false">0.38*B53^0.59</f>
         <v>0.00249684333935719</v>
       </c>
-      <c r="F53" s="23" t="n">
+      <c r="F53" s="25" t="n">
         <f aca="false">0.04*B53^2</f>
         <v>1.60000000000001E-009</v>
       </c>
@@ -5455,7 +6243,7 @@
         <f aca="false">2.97*B54^(0.62)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="24" t="n">
+      <c r="D54" s="2" t="n">
         <f aca="false">0.057*B54^(1.944)</f>
         <v>0</v>
       </c>
@@ -5463,36 +6251,36 @@
         <f aca="false">0.38*B54^0.59</f>
         <v>0</v>
       </c>
-      <c r="F54" s="24" t="n">
+      <c r="F54" s="2" t="n">
         <f aca="false">0.04*B54^2</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>33</v>
+      <c r="A55" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>270.737</v>
       </c>
-      <c r="B56" s="25" t="n">
+      <c r="B56" s="26" t="n">
         <v>0.00448963749440691</v>
       </c>
-      <c r="C56" s="26" t="n">
+      <c r="C56" s="27" t="n">
         <f aca="false">2.97*B56^(0.62)</f>
         <v>0.104022536776874</v>
       </c>
-      <c r="D56" s="27" t="n">
+      <c r="D56" s="28" t="n">
         <f aca="false">0.057*B56^(1.944)</f>
         <v>1.55515462681334E-006</v>
       </c>
-      <c r="E56" s="26" t="n">
+      <c r="E56" s="27" t="n">
         <f aca="false">0.38*B56^0.59</f>
         <v>0.0156526635261272</v>
       </c>
-      <c r="F56" s="27" t="n">
+      <c r="F56" s="28" t="n">
         <f aca="false">0.04*B56^2</f>
         <v>8.06273793247375E-007</v>
       </c>
@@ -5501,22 +6289,22 @@
       <c r="A57" s="0" t="n">
         <v>847.58</v>
       </c>
-      <c r="B57" s="25" t="n">
+      <c r="B57" s="26" t="n">
         <v>0.00326686414564173</v>
       </c>
-      <c r="C57" s="26" t="n">
+      <c r="C57" s="27" t="n">
         <f aca="false">2.97*B57^(0.62)</f>
         <v>0.0854117687386061</v>
       </c>
-      <c r="D57" s="27" t="n">
+      <c r="D57" s="28" t="n">
         <f aca="false">0.057*B57^(1.944)</f>
         <v>8.38196155302728E-007</v>
       </c>
-      <c r="E57" s="26" t="n">
+      <c r="E57" s="27" t="n">
         <f aca="false">0.38*B57^0.59</f>
         <v>0.01297540524603</v>
       </c>
-      <c r="F57" s="27" t="n">
+      <c r="F57" s="28" t="n">
         <f aca="false">0.04*B57^2</f>
         <v>4.26896053843179E-007</v>
       </c>
@@ -5525,22 +6313,22 @@
       <c r="A58" s="0" t="n">
         <v>2738</v>
       </c>
-      <c r="B58" s="25" t="n">
+      <c r="B58" s="26" t="n">
         <v>0.00148681748399815</v>
       </c>
-      <c r="C58" s="26" t="n">
+      <c r="C58" s="27" t="n">
         <f aca="false">2.97*B58^(0.62)</f>
         <v>0.0524271437927417</v>
       </c>
-      <c r="D58" s="27" t="n">
+      <c r="D58" s="28" t="n">
         <f aca="false">0.057*B58^(1.944)</f>
         <v>1.81444473852152E-007</v>
       </c>
-      <c r="E58" s="26" t="n">
+      <c r="E58" s="27" t="n">
         <f aca="false">0.38*B58^0.59</f>
         <v>0.00815484321487877</v>
       </c>
-      <c r="F58" s="27" t="n">
+      <c r="F58" s="28" t="n">
         <f aca="false">0.04*B58^2</f>
         <v>8.84250492289036E-008</v>
       </c>
@@ -5549,22 +6337,22 @@
       <c r="A59" s="0" t="n">
         <v>4338.66</v>
       </c>
-      <c r="B59" s="25" t="n">
+      <c r="B59" s="26" t="n">
         <v>0.00165426731175644</v>
       </c>
-      <c r="C59" s="26" t="n">
+      <c r="C59" s="27" t="n">
         <f aca="false">2.97*B59^(0.62)</f>
         <v>0.0560134052823008</v>
       </c>
-      <c r="D59" s="27" t="n">
+      <c r="D59" s="28" t="n">
         <f aca="false">0.057*B59^(1.944)</f>
         <v>2.23277167228799E-007</v>
       </c>
-      <c r="E59" s="26" t="n">
+      <c r="E59" s="27" t="n">
         <f aca="false">0.38*B59^0.59</f>
         <v>0.00868482261731556</v>
       </c>
-      <c r="F59" s="27" t="n">
+      <c r="F59" s="28" t="n">
         <f aca="false">0.04*B59^2</f>
         <v>1.09464013549835E-007</v>
       </c>
@@ -5573,22 +6361,22 @@
       <c r="A60" s="0" t="n">
         <v>5086.67</v>
       </c>
-      <c r="B60" s="25" t="n">
+      <c r="B60" s="26" t="n">
         <v>0.00172994925903795</v>
       </c>
-      <c r="C60" s="26" t="n">
+      <c r="C60" s="27" t="n">
         <f aca="false">2.97*B60^(0.62)</f>
         <v>0.0575886815321441</v>
       </c>
-      <c r="D60" s="27" t="n">
+      <c r="D60" s="28" t="n">
         <f aca="false">0.057*B60^(1.944)</f>
         <v>2.43563225835732E-007</v>
       </c>
-      <c r="E60" s="26" t="n">
+      <c r="E60" s="27" t="n">
         <f aca="false">0.38*B60^0.59</f>
         <v>0.00891709271065583</v>
       </c>
-      <c r="F60" s="27" t="n">
+      <c r="F60" s="28" t="n">
         <f aca="false">0.04*B60^2</f>
         <v>1.19708977553838E-007</v>
       </c>
@@ -5609,14 +6397,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5629,30 +6417,30 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>35</v>
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3224.39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3224.39</v>
@@ -5660,94 +6448,91 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="B4" s="26" t="n">
         <v>0.0174073913465891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="H4" s="26" t="n">
         <v>0.0174073913465891</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B5" s="26" t="n">
         <v>0.00905420943797329</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="H5" s="26" t="n">
         <v>0.00838855821647622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.733567390573683</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.16628412805505</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="25" t="n">
+        <v>51</v>
+      </c>
+      <c r="H8" s="26" t="n">
         <v>0.0105579786502628</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6.89970872110144</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1.85502754530844</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1.7860288485136</v>
@@ -5755,24 +6540,21 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1885.33</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="B12" s="26" t="n">
         <v>0.0665863915555153</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1885.33</v>
@@ -5780,80 +6562,77 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B13" s="26" t="n">
         <v>0.0121820294071994</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="H13" s="26" t="n">
         <v>0.0665863915555153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="H14" s="26" t="n">
         <v>0.0112686798808896</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4.82102591004869</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4.7100584682048</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.53102565960586</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.126974631540773</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3.09742234137423</v>
@@ -5861,13 +6640,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1707.04</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>3.18462410915096</v>
@@ -5875,24 +6654,21 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="B20" s="26" t="n">
         <v>0.0796091569963983</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B21" s="26" t="n">
         <v>0.0133703247435226</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1707.04</v>
@@ -5900,66 +6676,63 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="H22" s="26" t="n">
         <v>0.0796091569963983</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>7.15329229537103</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="H23" s="26" t="n">
         <v>0.0124963864811004</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4.12322934641132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11.2764625888247</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.230555884990333</v>
@@ -5967,13 +6740,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1631.73</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2.94768993553845</v>
@@ -5981,13 +6754,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="B28" s="26" t="n">
         <v>0.0858483420562948</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>3.12901332289223</v>
@@ -5995,24 +6768,21 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B29" s="26" t="n">
         <v>0.0147866557709214</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1631.73</v>
@@ -6020,66 +6790,63 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>7.22104189591477</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="H31" s="26" t="n">
         <v>0.0858483420562948</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4.162280894934</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="H32" s="26" t="n">
         <v>0.0141742089005532</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>11.3832671605332</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1276.06</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.243740988673165</v>
@@ -6087,13 +6854,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.122600161613828</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3.00051480320737</v>
@@ -6101,13 +6868,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B37" s="26" t="n">
         <v>0.0162094513521557</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3.19226785638621</v>
@@ -6115,24 +6882,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>9.54813216436608</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1276.06</v>
@@ -6140,13 +6904,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3.49452531337901</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.122600161613828</v>
@@ -6154,52 +6918,49 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13.042611359173</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="H41" s="26" t="n">
         <v>0.0148325327507379</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G42" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1733.14</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="B44" s="26" t="n">
         <v>0.0775543912150806</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0.346713028636503</v>
@@ -6207,13 +6968,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B45" s="26" t="n">
         <v>0.0270356845332595</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2.57417709180406</v>
@@ -6221,13 +6982,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2.87224516711447</v>
@@ -6235,24 +6996,21 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14.5861799249095</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.57887732799694</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1733.14</v>
@@ -6260,66 +7018,63 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>17.1649659667583</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="H49" s="26" t="n">
         <v>0.0775543912150806</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="G50" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="26" t="n">
         <v>0.0240218462854766</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1145.54</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.139727826991123</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B53" s="26" t="n">
         <v>0.00539919856208694</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0.787616519847601</v>
@@ -6327,13 +7082,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1.9896617741242</v>
@@ -6341,13 +7096,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>18.7412552816673</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.61417434358327</v>
@@ -6355,24 +7110,21 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.31350624995081</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>22.0546920049182</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1145.54</v>
@@ -6380,7 +7132,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0.139727826991123</v>
@@ -6388,31 +7140,31 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="H59" s="26" t="n">
         <v>0.00467317393173504</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0.454771937101082</v>
@@ -6420,7 +7172,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>2.23547135492507</v>
@@ -6428,39 +7180,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G64" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>2.6637119688558</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="20" zoomScaleNormal="20" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6478,7 +7204,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="20" zoomScaleNormal="20" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="318" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="159" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="invariant_k" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
   <si>
     <t>Experiments 13.06.2017</t>
   </si>
@@ -49,6 +49,30 @@
   </si>
   <si>
     <t>THIS IS THE BEST – BUT k2 still too low! And k1 can be actually larger than 0.005 (See this result plot)</t>
+  </si>
+  <si>
+    <t>k2 still too low also k1 can be higher than this</t>
+  </si>
+  <si>
+    <t>RUNS 1406</t>
+  </si>
+  <si>
+    <t>INCLUDED IN FIGURE</t>
+  </si>
+  <si>
+    <t>not ready yet</t>
+  </si>
+  <si>
+    <t>parallel to 1:1</t>
+  </si>
+  <si>
+    <t>k1 needs  higher! </t>
+  </si>
+  <si>
+    <t>k1 needs  higher!  1000M does not get further down</t>
+  </si>
+  <si>
+    <t>poor R2 due to upper 1000m</t>
   </si>
   <si>
     <t>Examples of invariant rates used in HAMOCC</t>
@@ -286,12 +310,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -303,14 +333,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left/>
       <right/>
       <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="hair"/>
       <right/>
       <top style="hair"/>
       <bottom/>
@@ -384,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,11 +431,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,10 +464,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,7 +619,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1958,11 +2004,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="37643097"/>
-        <c:axId val="22268238"/>
+        <c:axId val="38432366"/>
+        <c:axId val="21412513"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37643097"/>
+        <c:axId val="38432366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,11 +2024,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22268238"/>
+        <c:crossAx val="21412513"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22268238"/>
+        <c:axId val="21412513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2053,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37643097"/>
+        <c:crossAx val="38432366"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2047,15 +2093,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>415440</xdr:colOff>
+      <xdr:colOff>442080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2063,8 +2109,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7291080" y="225360"/>
-        <a:ext cx="8535600" cy="6771240"/>
+        <a:off x="7318080" y="216360"/>
+        <a:ext cx="8535240" cy="6770880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2082,10 +2128,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2598,17 +2644,17 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.002</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="4" t="n">
         <f aca="false">B43*D43</f>
         <v>0.002</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,17 +2719,17 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.0025</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="4" t="n">
         <f aca="false">B48*D48</f>
         <v>0.0025</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,17 +2794,17 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.003</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="4" t="n">
         <f aca="false">B53*D53</f>
         <v>0.003</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2820,6 +2866,443 @@
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <f aca="false">B62*D62</f>
+        <v>0.024</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <f aca="false">B63*D63</f>
+        <v>0.03</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <f aca="false">B64*D64</f>
+        <v>0.0035</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <f aca="false">B65*D65</f>
+        <v>0.007</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <f aca="false">B66*D66</f>
+        <v>0.014</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <f aca="false">B67*D67</f>
+        <v>0.0175</v>
+      </c>
+      <c r="D67" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <f aca="false">B68*D68</f>
+        <v>0.028</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <f aca="false">B69*D69</f>
+        <v>0.035</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <f aca="false">B70*D70</f>
+        <v>0.004</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C71" s="6" t="n">
+        <f aca="false">B71*D71</f>
+        <v>0.008</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C72" s="6" t="n">
+        <f aca="false">B72*D72</f>
+        <v>0.016</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C73" s="6" t="n">
+        <f aca="false">B73*D73</f>
+        <v>0.02</v>
+      </c>
+      <c r="D73" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C74" s="6" t="n">
+        <f aca="false">B74*D74</f>
+        <v>0.032</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C75" s="6" t="n">
+        <f aca="false">B75*D75</f>
+        <v>0.04</v>
+      </c>
+      <c r="D75" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <f aca="false">B76*D76</f>
+        <v>0.0045</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C77" s="6" t="n">
+        <f aca="false">B77*D77</f>
+        <v>0.009</v>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C78" s="6" t="n">
+        <f aca="false">B78*D78</f>
+        <v>0.018</v>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C79" s="6" t="n">
+        <f aca="false">B79*D79</f>
+        <v>0.0225</v>
+      </c>
+      <c r="D79" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C80" s="6" t="n">
+        <f aca="false">B80*D80</f>
+        <v>0.036</v>
+      </c>
+      <c r="D80" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C81" s="6" t="n">
+        <f aca="false">B81*D81</f>
+        <v>0.045</v>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <f aca="false">B82*D82</f>
+        <v>0.005</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C83" s="6" t="n">
+        <f aca="false">B83*D83</f>
+        <v>0.01</v>
+      </c>
+      <c r="D83" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B84" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C84" s="6" t="n">
+        <f aca="false">B84*D84</f>
+        <v>0.02</v>
+      </c>
+      <c r="D84" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C85" s="6" t="n">
+        <f aca="false">B85*D85</f>
+        <v>0.025</v>
+      </c>
+      <c r="D85" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C86" s="6" t="n">
+        <f aca="false">B86*D86</f>
+        <v>0.04</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C87" s="6" t="n">
+        <f aca="false">B87*D87</f>
+        <v>0.05</v>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +3323,7 @@
   </sheetPr>
   <dimension ref="C1:O61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2860,2142 +3343,2142 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="6"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="9"/>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="7" t="s">
-        <v>13</v>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" s="14" t="n">
         <v>0.01</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>15</v>
+      <c r="G3" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" s="14" t="n">
         <v>0.008</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="9"/>
+      <c r="M3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="I4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>20</v>
+      <c r="O4" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="15"/>
-      <c r="E5" s="13" t="n">
+      <c r="C5" s="19"/>
+      <c r="E5" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="17" t="n">
         <f aca="false">1-E5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="G5" s="20" t="n">
         <f aca="false">$F$3/(E5+F5/100)</f>
         <v>0.0105207785376118</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="20" t="n">
         <f aca="false">G5/100</f>
         <v>0.000105207785376118</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="17" t="n">
         <f aca="false">E5*G5+F5*H5</f>
         <v>0.01</v>
       </c>
-      <c r="K5" s="13" t="n">
+      <c r="K5" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="17" t="n">
         <f aca="false">1-K5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M5" s="16" t="n">
+      <c r="M5" s="20" t="n">
         <f aca="false">$L$3/(K5+L5/100)</f>
         <v>0.00841662283008943</v>
       </c>
-      <c r="N5" s="16" t="n">
+      <c r="N5" s="20" t="n">
         <f aca="false">M5/100</f>
         <v>8.41662283008943E-005</v>
       </c>
-      <c r="O5" s="14" t="n">
+      <c r="O5" s="18" t="n">
         <f aca="false">K5*M5+L5*N5</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="15"/>
-      <c r="E6" s="13" t="n">
+      <c r="C6" s="19"/>
+      <c r="E6" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="17" t="n">
         <f aca="false">1-E6</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="20" t="n">
         <f aca="false">$F$3/(E6+F6/100)</f>
         <v>0.0110987791342952</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="20" t="n">
         <f aca="false">G6/100</f>
         <v>0.000110987791342952</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="17" t="n">
         <f aca="false">E6*G6+F6*H6</f>
         <v>0.01</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="17" t="n">
         <f aca="false">1-K6</f>
         <v>0.1</v>
       </c>
-      <c r="M6" s="16" t="n">
+      <c r="M6" s="20" t="n">
         <f aca="false">$L$3/(K6+L6/100)</f>
         <v>0.00887902330743618</v>
       </c>
-      <c r="N6" s="16" t="n">
+      <c r="N6" s="20" t="n">
         <f aca="false">M6/100</f>
         <v>8.87902330743618E-005</v>
       </c>
-      <c r="O6" s="14" t="n">
+      <c r="O6" s="18" t="n">
         <f aca="false">K6*M6+L6*N6</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="15"/>
-      <c r="E7" s="13" t="n">
+      <c r="C7" s="19"/>
+      <c r="E7" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="17" t="n">
         <f aca="false">1-E7</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="20" t="n">
         <f aca="false">$F$3/(E7+F7/100)</f>
         <v>0.0124688279301746</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="20" t="n">
         <f aca="false">G7/100</f>
         <v>0.000124688279301746</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="17" t="n">
         <f aca="false">E7*G7+F7*H7</f>
         <v>0.01</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="17" t="n">
         <f aca="false">1-K7</f>
         <v>0.2</v>
       </c>
-      <c r="M7" s="16" t="n">
+      <c r="M7" s="20" t="n">
         <f aca="false">$L$3/(K7+L7/100)</f>
         <v>0.00997506234413965</v>
       </c>
-      <c r="N7" s="16" t="n">
+      <c r="N7" s="20" t="n">
         <f aca="false">M7/100</f>
         <v>9.97506234413965E-005</v>
       </c>
-      <c r="O7" s="14" t="n">
+      <c r="O7" s="18" t="n">
         <f aca="false">K7*M7+L7*N7</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="15"/>
-      <c r="E8" s="13" t="n">
+      <c r="C8" s="19"/>
+      <c r="E8" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="17" t="n">
         <f aca="false">1-E8</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="20" t="n">
         <f aca="false">$F$3/(E8+F8/100)</f>
         <v>0.0142247510668563</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="20" t="n">
         <f aca="false">G8/100</f>
         <v>0.000142247510668563</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="17" t="n">
         <f aca="false">E8*G8+F8*H8</f>
         <v>0.01</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="17" t="n">
         <f aca="false">1-K8</f>
         <v>0.3</v>
       </c>
-      <c r="M8" s="16" t="n">
+      <c r="M8" s="20" t="n">
         <f aca="false">$L$3/(K8+L8/100)</f>
         <v>0.0113798008534851</v>
       </c>
-      <c r="N8" s="16" t="n">
+      <c r="N8" s="20" t="n">
         <f aca="false">M8/100</f>
         <v>0.000113798008534851</v>
       </c>
-      <c r="O8" s="14" t="n">
+      <c r="O8" s="18" t="n">
         <f aca="false">K8*M8+L8*N8</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="15"/>
-      <c r="E9" s="13" t="n">
+      <c r="C9" s="19"/>
+      <c r="E9" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="17" t="n">
         <f aca="false">1-E9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="20" t="n">
         <f aca="false">$F$3/(E9+F9/100)</f>
         <v>0.0165562913907285</v>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="20" t="n">
         <f aca="false">G9/100</f>
         <v>0.000165562913907285</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="17" t="n">
         <f aca="false">E9*G9+F9*H9</f>
         <v>0.01</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="L9" s="17" t="n">
         <f aca="false">1-K9</f>
         <v>0.4</v>
       </c>
-      <c r="M9" s="16" t="n">
+      <c r="M9" s="20" t="n">
         <f aca="false">$L$3/(K9+L9/100)</f>
         <v>0.0132450331125828</v>
       </c>
-      <c r="N9" s="16" t="n">
+      <c r="N9" s="20" t="n">
         <f aca="false">M9/100</f>
         <v>0.000132450331125828</v>
       </c>
-      <c r="O9" s="14" t="n">
+      <c r="O9" s="18" t="n">
         <f aca="false">K9*M9+L9*N9</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15"/>
-      <c r="E10" s="13" t="n">
+      <c r="C10" s="19"/>
+      <c r="E10" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="17" t="n">
         <f aca="false">1-E10</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="20" t="n">
         <f aca="false">$F$3/(E10+F10/100)</f>
         <v>0.0198019801980198</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="20" t="n">
         <f aca="false">G10/100</f>
         <v>0.000198019801980198</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="17" t="n">
         <f aca="false">E10*G10+F10*H10</f>
         <v>0.01</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L10" s="13" t="n">
+      <c r="L10" s="17" t="n">
         <f aca="false">1-K10</f>
         <v>0.5</v>
       </c>
-      <c r="M10" s="16" t="n">
+      <c r="M10" s="20" t="n">
         <f aca="false">$L$3/(K10+L10/100)</f>
         <v>0.0158415841584158</v>
       </c>
-      <c r="N10" s="16" t="n">
+      <c r="N10" s="20" t="n">
         <f aca="false">M10/100</f>
         <v>0.000158415841584158</v>
       </c>
-      <c r="O10" s="14" t="n">
+      <c r="O10" s="18" t="n">
         <f aca="false">K10*M10+L10*N10</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15"/>
-      <c r="E11" s="13" t="n">
+      <c r="C11" s="19"/>
+      <c r="E11" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="17" t="n">
         <f aca="false">1-E11</f>
         <v>0.6</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="20" t="n">
         <f aca="false">$F$3/(E11+F11/100)</f>
         <v>0.0246305418719212</v>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="20" t="n">
         <f aca="false">G11/100</f>
         <v>0.000246305418719212</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="17" t="n">
         <f aca="false">E11*G11+F11*H11</f>
         <v>0.01</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="17" t="n">
         <f aca="false">1-K11</f>
         <v>0.6</v>
       </c>
-      <c r="M11" s="16" t="n">
+      <c r="M11" s="20" t="n">
         <f aca="false">$L$3/(K11+L11/100)</f>
         <v>0.0197044334975369</v>
       </c>
-      <c r="N11" s="16" t="n">
+      <c r="N11" s="20" t="n">
         <f aca="false">M11/100</f>
         <v>0.000197044334975369</v>
       </c>
-      <c r="O11" s="14" t="n">
+      <c r="O11" s="18" t="n">
         <f aca="false">K11*M11+L11*N11</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="15"/>
-      <c r="E12" s="13" t="n">
+      <c r="C12" s="19"/>
+      <c r="E12" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="17" t="n">
         <f aca="false">1-E12</f>
         <v>0.7</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="20" t="n">
         <f aca="false">$F$3/(E12+F12/100)</f>
         <v>0.0325732899022801</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="20" t="n">
         <f aca="false">G12/100</f>
         <v>0.000325732899022801</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="17" t="n">
         <f aca="false">E12*G12+F12*H12</f>
         <v>0.01</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="17" t="n">
         <f aca="false">1-K12</f>
         <v>0.7</v>
       </c>
-      <c r="M12" s="16" t="n">
+      <c r="M12" s="20" t="n">
         <f aca="false">$L$3/(K12+L12/100)</f>
         <v>0.0260586319218241</v>
       </c>
-      <c r="N12" s="16" t="n">
+      <c r="N12" s="20" t="n">
         <f aca="false">M12/100</f>
         <v>0.000260586319218241</v>
       </c>
-      <c r="O12" s="14" t="n">
+      <c r="O12" s="18" t="n">
         <f aca="false">K12*M12+L12*N12</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="15"/>
-      <c r="E13" s="13" t="n">
+      <c r="C13" s="19"/>
+      <c r="E13" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="17" t="n">
         <f aca="false">1-E13</f>
         <v>0.8</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="20" t="n">
         <f aca="false">$F$3/(E13+F13/100)</f>
         <v>0.0480769230769231</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="20" t="n">
         <f aca="false">G13/100</f>
         <v>0.000480769230769231</v>
       </c>
-      <c r="I13" s="13" t="n">
+      <c r="I13" s="17" t="n">
         <f aca="false">E13*G13+F13*H13</f>
         <v>0.01</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="17" t="n">
         <f aca="false">1-K13</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="16" t="n">
+      <c r="M13" s="20" t="n">
         <f aca="false">$L$3/(K13+L13/100)</f>
         <v>0.0384615384615385</v>
       </c>
-      <c r="N13" s="16" t="n">
+      <c r="N13" s="20" t="n">
         <f aca="false">M13/100</f>
         <v>0.000384615384615385</v>
       </c>
-      <c r="O13" s="14" t="n">
+      <c r="O13" s="18" t="n">
         <f aca="false">K13*M13+L13*N13</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="15"/>
-      <c r="E14" s="13" t="n">
+      <c r="C14" s="19"/>
+      <c r="E14" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="17" t="n">
         <f aca="false">1-E14</f>
         <v>0.9</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="20" t="n">
         <f aca="false">$F$3/(E14+F14/100)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="20" t="n">
         <f aca="false">G14/100</f>
         <v>0.00091743119266055</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="17" t="n">
         <f aca="false">E14*G14+F14*H14</f>
         <v>0.01</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="17" t="n">
         <f aca="false">1-K14</f>
         <v>0.9</v>
       </c>
-      <c r="M14" s="16" t="n">
+      <c r="M14" s="20" t="n">
         <f aca="false">$L$3/(K14+L14/100)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N14" s="16" t="n">
+      <c r="N14" s="20" t="n">
         <f aca="false">M14/100</f>
         <v>0.00073394495412844</v>
       </c>
-      <c r="O14" s="14" t="n">
+      <c r="O14" s="18" t="n">
         <f aca="false">K14*M14+L14*N14</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="15"/>
-      <c r="E15" s="13" t="n">
+      <c r="C15" s="19"/>
+      <c r="E15" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="17" t="n">
         <f aca="false">1-E15</f>
         <v>0.99</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="20" t="n">
         <f aca="false">$F$3/(E15+F15/100)</f>
         <v>0.50251256281407</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="20" t="n">
         <f aca="false">G15/100</f>
         <v>0.0050251256281407</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="17" t="n">
         <f aca="false">E15*G15+F15*H15</f>
         <v>0.01</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="17" t="n">
         <f aca="false">1-K15</f>
         <v>0.99</v>
       </c>
-      <c r="M15" s="16" t="n">
+      <c r="M15" s="20" t="n">
         <f aca="false">$L$3/(K15+L15/100)</f>
         <v>0.402010050251256</v>
       </c>
-      <c r="N15" s="16" t="n">
+      <c r="N15" s="20" t="n">
         <f aca="false">M15/100</f>
         <v>0.00402010050251256</v>
       </c>
-      <c r="O15" s="14" t="n">
+      <c r="O15" s="18" t="n">
         <f aca="false">K15*M15+L15*N15</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="15"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="13"/>
-      <c r="O16" s="9"/>
+      <c r="C16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="15"/>
+      <c r="C17" s="19"/>
       <c r="E17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F17" s="14" t="n">
         <v>0.005</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>21</v>
+      <c r="G17" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="L17" s="14" t="n">
         <v>0.002</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="9"/>
+      <c r="M17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15"/>
-      <c r="E18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="C18" s="19"/>
+      <c r="E18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="I18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="14" t="s">
-        <v>20</v>
+      <c r="O18" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15"/>
-      <c r="E19" s="13" t="n">
+      <c r="C19" s="19"/>
+      <c r="E19" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="F19" s="13" t="n">
+      <c r="F19" s="17" t="n">
         <f aca="false">1-E19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="20" t="n">
         <f aca="false">$F$17/(E19+F19/100)</f>
         <v>0.00526038926880589</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="20" t="n">
         <f aca="false">G19/100</f>
         <v>5.26038926880589E-005</v>
       </c>
-      <c r="I19" s="13" t="n">
+      <c r="I19" s="17" t="n">
         <f aca="false">E19*G19+F19*H19</f>
         <v>0.005</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="L19" s="13" t="n">
+      <c r="L19" s="17" t="n">
         <f aca="false">1-K19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M19" s="16" t="n">
+      <c r="M19" s="20" t="n">
         <f aca="false">$L$17/(K19+L19/100)</f>
         <v>0.00210415570752236</v>
       </c>
-      <c r="N19" s="16" t="n">
+      <c r="N19" s="20" t="n">
         <f aca="false">M19/100</f>
         <v>2.10415570752236E-005</v>
       </c>
-      <c r="O19" s="14" t="n">
+      <c r="O19" s="18" t="n">
         <f aca="false">K19*M19+L19*N19</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15"/>
-      <c r="E20" s="13" t="n">
+      <c r="C20" s="19"/>
+      <c r="E20" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="F20" s="13" t="n">
+      <c r="F20" s="17" t="n">
         <f aca="false">1-E20</f>
         <v>0.1</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="20" t="n">
         <f aca="false">$F$17/(E20+F20/100)</f>
         <v>0.00554938956714761</v>
       </c>
-      <c r="H20" s="16" t="n">
+      <c r="H20" s="20" t="n">
         <f aca="false">G20/100</f>
         <v>5.54938956714761E-005</v>
       </c>
-      <c r="I20" s="13" t="n">
+      <c r="I20" s="17" t="n">
         <f aca="false">E20*G20+F20*H20</f>
         <v>0.005</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="L20" s="13" t="n">
+      <c r="L20" s="17" t="n">
         <f aca="false">1-K20</f>
         <v>0.1</v>
       </c>
-      <c r="M20" s="16" t="n">
+      <c r="M20" s="20" t="n">
         <f aca="false">$L$17/(K20+L20/100)</f>
         <v>0.00221975582685905</v>
       </c>
-      <c r="N20" s="16" t="n">
+      <c r="N20" s="20" t="n">
         <f aca="false">M20/100</f>
         <v>2.21975582685905E-005</v>
       </c>
-      <c r="O20" s="14" t="n">
+      <c r="O20" s="18" t="n">
         <f aca="false">K20*M20+L20*N20</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15"/>
-      <c r="E21" s="13" t="n">
+      <c r="C21" s="19"/>
+      <c r="E21" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="F21" s="13" t="n">
+      <c r="F21" s="17" t="n">
         <f aca="false">1-E21</f>
         <v>0.2</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="20" t="n">
         <f aca="false">$F$17/(E21+F21/100)</f>
         <v>0.00623441396508728</v>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="20" t="n">
         <f aca="false">G21/100</f>
         <v>6.23441396508728E-005</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="17" t="n">
         <f aca="false">E21*G21+F21*H21</f>
         <v>0.005</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="L21" s="13" t="n">
+      <c r="L21" s="17" t="n">
         <f aca="false">1-K21</f>
         <v>0.2</v>
       </c>
-      <c r="M21" s="16" t="n">
+      <c r="M21" s="20" t="n">
         <f aca="false">$L$17/(K21+L21/100)</f>
         <v>0.00249376558603491</v>
       </c>
-      <c r="N21" s="16" t="n">
+      <c r="N21" s="20" t="n">
         <f aca="false">M21/100</f>
         <v>2.49376558603491E-005</v>
       </c>
-      <c r="O21" s="14" t="n">
+      <c r="O21" s="18" t="n">
         <f aca="false">K21*M21+L21*N21</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="15"/>
-      <c r="E22" s="13" t="n">
+      <c r="C22" s="19"/>
+      <c r="E22" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="17" t="n">
         <f aca="false">1-E22</f>
         <v>0.3</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="20" t="n">
         <f aca="false">$F$17/(E22+F22/100)</f>
         <v>0.00711237553342816</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="20" t="n">
         <f aca="false">G22/100</f>
         <v>7.11237553342816E-005</v>
       </c>
-      <c r="I22" s="13" t="n">
+      <c r="I22" s="17" t="n">
         <f aca="false">E22*G22+F22*H22</f>
         <v>0.005</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="L22" s="13" t="n">
+      <c r="L22" s="17" t="n">
         <f aca="false">1-K22</f>
         <v>0.3</v>
       </c>
-      <c r="M22" s="16" t="n">
+      <c r="M22" s="20" t="n">
         <f aca="false">$L$17/(K22+L22/100)</f>
         <v>0.00284495021337127</v>
       </c>
-      <c r="N22" s="16" t="n">
+      <c r="N22" s="20" t="n">
         <f aca="false">M22/100</f>
         <v>2.84495021337127E-005</v>
       </c>
-      <c r="O22" s="14" t="n">
+      <c r="O22" s="18" t="n">
         <f aca="false">K22*M22+L22*N22</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="15"/>
-      <c r="E23" s="13" t="n">
+      <c r="C23" s="19"/>
+      <c r="E23" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="17" t="n">
         <f aca="false">1-E23</f>
         <v>0.4</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="20" t="n">
         <f aca="false">$F$17/(E23+F23/100)</f>
         <v>0.00827814569536424</v>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="H23" s="20" t="n">
         <f aca="false">G23/100</f>
         <v>8.27814569536424E-005</v>
       </c>
-      <c r="I23" s="13" t="n">
+      <c r="I23" s="17" t="n">
         <f aca="false">E23*G23+F23*H23</f>
         <v>0.005</v>
       </c>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="L23" s="13" t="n">
+      <c r="L23" s="17" t="n">
         <f aca="false">1-K23</f>
         <v>0.4</v>
       </c>
-      <c r="M23" s="16" t="n">
+      <c r="M23" s="20" t="n">
         <f aca="false">$L$17/(K23+L23/100)</f>
         <v>0.00331125827814569</v>
       </c>
-      <c r="N23" s="16" t="n">
+      <c r="N23" s="20" t="n">
         <f aca="false">M23/100</f>
         <v>3.31125827814569E-005</v>
       </c>
-      <c r="O23" s="14" t="n">
+      <c r="O23" s="18" t="n">
         <f aca="false">K23*M23+L23*N23</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="15"/>
-      <c r="E24" s="13" t="n">
+      <c r="C24" s="19"/>
+      <c r="E24" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="F24" s="13" t="n">
+      <c r="F24" s="17" t="n">
         <f aca="false">1-E24</f>
         <v>0.5</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="20" t="n">
         <f aca="false">$F$17/(E24+F24/100)</f>
         <v>0.0099009900990099</v>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="20" t="n">
         <f aca="false">G24/100</f>
         <v>9.9009900990099E-005</v>
       </c>
-      <c r="I24" s="13" t="n">
+      <c r="I24" s="17" t="n">
         <f aca="false">E24*G24+F24*H24</f>
         <v>0.005</v>
       </c>
-      <c r="K24" s="13" t="n">
+      <c r="K24" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L24" s="13" t="n">
+      <c r="L24" s="17" t="n">
         <f aca="false">1-K24</f>
         <v>0.5</v>
       </c>
-      <c r="M24" s="16" t="n">
+      <c r="M24" s="20" t="n">
         <f aca="false">$L$17/(K24+L24/100)</f>
         <v>0.00396039603960396</v>
       </c>
-      <c r="N24" s="16" t="n">
+      <c r="N24" s="20" t="n">
         <f aca="false">M24/100</f>
         <v>3.96039603960396E-005</v>
       </c>
-      <c r="O24" s="14" t="n">
+      <c r="O24" s="18" t="n">
         <f aca="false">K24*M24+L24*N24</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="15"/>
-      <c r="E25" s="13" t="n">
+      <c r="C25" s="19"/>
+      <c r="E25" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="F25" s="17" t="n">
         <f aca="false">1-E25</f>
         <v>0.6</v>
       </c>
-      <c r="G25" s="16" t="n">
+      <c r="G25" s="20" t="n">
         <f aca="false">$F$17/(E25+F25/100)</f>
         <v>0.0123152709359606</v>
       </c>
-      <c r="H25" s="16" t="n">
+      <c r="H25" s="20" t="n">
         <f aca="false">G25/100</f>
         <v>0.000123152709359606</v>
       </c>
-      <c r="I25" s="13" t="n">
+      <c r="I25" s="17" t="n">
         <f aca="false">E25*G25+F25*H25</f>
         <v>0.005</v>
       </c>
-      <c r="K25" s="13" t="n">
+      <c r="K25" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="L25" s="13" t="n">
+      <c r="L25" s="17" t="n">
         <f aca="false">1-K25</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="16" t="n">
+      <c r="M25" s="20" t="n">
         <f aca="false">$L$17/(K25+L25/100)</f>
         <v>0.00492610837438424</v>
       </c>
-      <c r="N25" s="16" t="n">
+      <c r="N25" s="20" t="n">
         <f aca="false">M25/100</f>
         <v>4.92610837438424E-005</v>
       </c>
-      <c r="O25" s="14" t="n">
+      <c r="O25" s="18" t="n">
         <f aca="false">K25*M25+L25*N25</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15"/>
-      <c r="E26" s="13" t="n">
+      <c r="C26" s="19"/>
+      <c r="E26" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="17" t="n">
         <f aca="false">1-E26</f>
         <v>0.7</v>
       </c>
-      <c r="G26" s="16" t="n">
+      <c r="G26" s="20" t="n">
         <f aca="false">$F$17/(E26+F26/100)</f>
         <v>0.0162866449511401</v>
       </c>
-      <c r="H26" s="16" t="n">
+      <c r="H26" s="20" t="n">
         <f aca="false">G26/100</f>
         <v>0.000162866449511401</v>
       </c>
-      <c r="I26" s="13" t="n">
+      <c r="I26" s="17" t="n">
         <f aca="false">E26*G26+F26*H26</f>
         <v>0.005</v>
       </c>
-      <c r="K26" s="13" t="n">
+      <c r="K26" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="L26" s="13" t="n">
+      <c r="L26" s="17" t="n">
         <f aca="false">1-K26</f>
         <v>0.7</v>
       </c>
-      <c r="M26" s="16" t="n">
+      <c r="M26" s="20" t="n">
         <f aca="false">$L$17/(K26+L26/100)</f>
         <v>0.00651465798045603</v>
       </c>
-      <c r="N26" s="16" t="n">
+      <c r="N26" s="20" t="n">
         <f aca="false">M26/100</f>
         <v>6.51465798045603E-005</v>
       </c>
-      <c r="O26" s="14" t="n">
+      <c r="O26" s="18" t="n">
         <f aca="false">K26*M26+L26*N26</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15"/>
-      <c r="E27" s="13" t="n">
+      <c r="C27" s="19"/>
+      <c r="E27" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F27" s="17" t="n">
         <f aca="false">1-E27</f>
         <v>0.8</v>
       </c>
-      <c r="G27" s="16" t="n">
+      <c r="G27" s="20" t="n">
         <f aca="false">$F$17/(E27+F27/100)</f>
         <v>0.0240384615384615</v>
       </c>
-      <c r="H27" s="16" t="n">
+      <c r="H27" s="20" t="n">
         <f aca="false">G27/100</f>
         <v>0.000240384615384615</v>
       </c>
-      <c r="I27" s="13" t="n">
+      <c r="I27" s="17" t="n">
         <f aca="false">E27*G27+F27*H27</f>
         <v>0.005</v>
       </c>
-      <c r="K27" s="13" t="n">
+      <c r="K27" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="L27" s="13" t="n">
+      <c r="L27" s="17" t="n">
         <f aca="false">1-K27</f>
         <v>0.8</v>
       </c>
-      <c r="M27" s="16" t="n">
+      <c r="M27" s="20" t="n">
         <f aca="false">$L$17/(K27+L27/100)</f>
         <v>0.00961538461538461</v>
       </c>
-      <c r="N27" s="16" t="n">
+      <c r="N27" s="20" t="n">
         <f aca="false">M27/100</f>
         <v>9.61538461538461E-005</v>
       </c>
-      <c r="O27" s="14" t="n">
+      <c r="O27" s="18" t="n">
         <f aca="false">K27*M27+L27*N27</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="15"/>
-      <c r="E28" s="13" t="n">
+      <c r="C28" s="19"/>
+      <c r="E28" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="F28" s="13" t="n">
+      <c r="F28" s="17" t="n">
         <f aca="false">1-E28</f>
         <v>0.9</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="20" t="n">
         <f aca="false">$F$17/(E28+F28/100)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H28" s="16" t="n">
+      <c r="H28" s="20" t="n">
         <f aca="false">G28/100</f>
         <v>0.000458715596330275</v>
       </c>
-      <c r="I28" s="13" t="n">
+      <c r="I28" s="17" t="n">
         <f aca="false">E28*G28+F28*H28</f>
         <v>0.005</v>
       </c>
-      <c r="K28" s="13" t="n">
+      <c r="K28" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="L28" s="13" t="n">
+      <c r="L28" s="17" t="n">
         <f aca="false">1-K28</f>
         <v>0.9</v>
       </c>
-      <c r="M28" s="16" t="n">
+      <c r="M28" s="20" t="n">
         <f aca="false">$L$17/(K28+L28/100)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N28" s="16" t="n">
+      <c r="N28" s="20" t="n">
         <f aca="false">M28/100</f>
         <v>0.00018348623853211</v>
       </c>
-      <c r="O28" s="14" t="n">
+      <c r="O28" s="18" t="n">
         <f aca="false">K28*M28+L28*N28</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15"/>
-      <c r="E29" s="13" t="n">
+      <c r="C29" s="19"/>
+      <c r="E29" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="13" t="n">
+      <c r="F29" s="17" t="n">
         <f aca="false">1-E29</f>
         <v>0.99</v>
       </c>
-      <c r="G29" s="16" t="n">
+      <c r="G29" s="20" t="n">
         <f aca="false">$F$17/(E29+F29/100)</f>
         <v>0.251256281407035</v>
       </c>
-      <c r="H29" s="16" t="n">
+      <c r="H29" s="20" t="n">
         <f aca="false">G29/100</f>
         <v>0.00251256281407035</v>
       </c>
-      <c r="I29" s="13" t="n">
+      <c r="I29" s="17" t="n">
         <f aca="false">E29*G29+F29*H29</f>
         <v>0.005</v>
       </c>
-      <c r="K29" s="13" t="n">
+      <c r="K29" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="L29" s="13" t="n">
+      <c r="L29" s="17" t="n">
         <f aca="false">1-K29</f>
         <v>0.99</v>
       </c>
-      <c r="M29" s="16" t="n">
+      <c r="M29" s="20" t="n">
         <f aca="false">$L$17/(K29+L29/100)</f>
         <v>0.100502512562814</v>
       </c>
-      <c r="N29" s="16" t="n">
+      <c r="N29" s="20" t="n">
         <f aca="false">M29/100</f>
         <v>0.00100502512562814</v>
       </c>
-      <c r="O29" s="14" t="n">
+      <c r="O29" s="18" t="n">
         <f aca="false">K29*M29+L29*N29</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="6"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="9"/>
+      <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="7" t="s">
-        <v>13</v>
+      <c r="C34" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" s="14" t="n">
         <v>0.01</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>15</v>
+      <c r="G34" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="L34" s="14" t="n">
         <v>0.008</v>
       </c>
-      <c r="M34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O34" s="9"/>
+      <c r="M34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="12" t="s">
+      <c r="C35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="12" t="s">
+      <c r="I35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="14" t="s">
-        <v>20</v>
+      <c r="O35" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="13" t="n">
+      <c r="C36" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="F36" s="13" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">1-E36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G36" s="16" t="n">
+      <c r="G36" s="20" t="n">
         <f aca="false">$F$3/(E36+F36/10)</f>
         <v>0.0104712041884817</v>
       </c>
-      <c r="H36" s="16" t="n">
+      <c r="H36" s="20" t="n">
         <f aca="false">G36/10</f>
         <v>0.00104712041884817</v>
       </c>
-      <c r="I36" s="13" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">E36*G36+F36*H36</f>
         <v>0.01</v>
       </c>
-      <c r="K36" s="13" t="n">
+      <c r="K36" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="L36" s="13" t="n">
+      <c r="L36" s="17" t="n">
         <f aca="false">1-K36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M36" s="16" t="n">
+      <c r="M36" s="20" t="n">
         <f aca="false">$L$3/(K36+L36/10)</f>
         <v>0.00837696335078534</v>
       </c>
-      <c r="N36" s="16" t="n">
+      <c r="N36" s="20" t="n">
         <f aca="false">M36/10</f>
         <v>0.000837696335078534</v>
       </c>
-      <c r="O36" s="14" t="n">
+      <c r="O36" s="18" t="n">
         <f aca="false">K36*M36+L36*N36</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="13" t="n">
+      <c r="C37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="F37" s="13" t="n">
+      <c r="F37" s="17" t="n">
         <f aca="false">1-E37</f>
         <v>0.1</v>
       </c>
-      <c r="G37" s="16" t="n">
+      <c r="G37" s="20" t="n">
         <f aca="false">$F$3/(E37+F37/10)</f>
         <v>0.010989010989011</v>
       </c>
-      <c r="H37" s="16" t="n">
+      <c r="H37" s="20" t="n">
         <f aca="false">G37/10</f>
         <v>0.0010989010989011</v>
       </c>
-      <c r="I37" s="13" t="n">
+      <c r="I37" s="17" t="n">
         <f aca="false">E37*G37+F37*H37</f>
         <v>0.01</v>
       </c>
-      <c r="K37" s="13" t="n">
+      <c r="K37" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="L37" s="13" t="n">
+      <c r="L37" s="17" t="n">
         <f aca="false">1-K37</f>
         <v>0.1</v>
       </c>
-      <c r="M37" s="16" t="n">
+      <c r="M37" s="20" t="n">
         <f aca="false">$L$3/(K37+L37/10)</f>
         <v>0.00879120879120879</v>
       </c>
-      <c r="N37" s="16" t="n">
+      <c r="N37" s="20" t="n">
         <f aca="false">M37/10</f>
         <v>0.000879120879120879</v>
       </c>
-      <c r="O37" s="14" t="n">
+      <c r="O37" s="18" t="n">
         <f aca="false">K37*M37+L37*N37</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="13" t="n">
+      <c r="C38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="F38" s="13" t="n">
+      <c r="F38" s="17" t="n">
         <f aca="false">1-E38</f>
         <v>0.2</v>
       </c>
-      <c r="G38" s="16" t="n">
+      <c r="G38" s="20" t="n">
         <f aca="false">$F$3/(E38+F38/10)</f>
         <v>0.0121951219512195</v>
       </c>
-      <c r="H38" s="16" t="n">
+      <c r="H38" s="20" t="n">
         <f aca="false">G38/10</f>
         <v>0.00121951219512195</v>
       </c>
-      <c r="I38" s="13" t="n">
+      <c r="I38" s="17" t="n">
         <f aca="false">E38*G38+F38*H38</f>
         <v>0.01</v>
       </c>
-      <c r="K38" s="13" t="n">
+      <c r="K38" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="L38" s="13" t="n">
+      <c r="L38" s="17" t="n">
         <f aca="false">1-K38</f>
         <v>0.2</v>
       </c>
-      <c r="M38" s="16" t="n">
+      <c r="M38" s="20" t="n">
         <f aca="false">$L$3/(K38+L38/10)</f>
         <v>0.00975609756097561</v>
       </c>
-      <c r="N38" s="16" t="n">
+      <c r="N38" s="20" t="n">
         <f aca="false">M38/10</f>
         <v>0.000975609756097561</v>
       </c>
-      <c r="O38" s="14" t="n">
+      <c r="O38" s="18" t="n">
         <f aca="false">K38*M38+L38*N38</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="15"/>
-      <c r="E39" s="13" t="n">
+      <c r="C39" s="19"/>
+      <c r="E39" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="F39" s="13" t="n">
+      <c r="F39" s="17" t="n">
         <f aca="false">1-E39</f>
         <v>0.3</v>
       </c>
-      <c r="G39" s="16" t="n">
+      <c r="G39" s="20" t="n">
         <f aca="false">$F$3/(E39+F39/10)</f>
         <v>0.0136986301369863</v>
       </c>
-      <c r="H39" s="16" t="n">
+      <c r="H39" s="20" t="n">
         <f aca="false">G39/10</f>
         <v>0.00136986301369863</v>
       </c>
-      <c r="I39" s="13" t="n">
+      <c r="I39" s="17" t="n">
         <f aca="false">E39*G39+F39*H39</f>
         <v>0.01</v>
       </c>
-      <c r="K39" s="13" t="n">
+      <c r="K39" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="L39" s="13" t="n">
+      <c r="L39" s="17" t="n">
         <f aca="false">1-K39</f>
         <v>0.3</v>
       </c>
-      <c r="M39" s="16" t="n">
+      <c r="M39" s="20" t="n">
         <f aca="false">$L$3/(K39+L39/10)</f>
         <v>0.010958904109589</v>
       </c>
-      <c r="N39" s="16" t="n">
+      <c r="N39" s="20" t="n">
         <f aca="false">M39/10</f>
         <v>0.0010958904109589</v>
       </c>
-      <c r="O39" s="14" t="n">
+      <c r="O39" s="18" t="n">
         <f aca="false">K39*M39+L39*N39</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="15"/>
-      <c r="E40" s="13" t="n">
+      <c r="C40" s="19"/>
+      <c r="E40" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="F40" s="13" t="n">
+      <c r="F40" s="17" t="n">
         <f aca="false">1-E40</f>
         <v>0.4</v>
       </c>
-      <c r="G40" s="16" t="n">
+      <c r="G40" s="20" t="n">
         <f aca="false">$F$3/(E40+F40/10)</f>
         <v>0.015625</v>
       </c>
-      <c r="H40" s="16" t="n">
+      <c r="H40" s="20" t="n">
         <f aca="false">G40/10</f>
         <v>0.0015625</v>
       </c>
-      <c r="I40" s="13" t="n">
+      <c r="I40" s="17" t="n">
         <f aca="false">E40*G40+F40*H40</f>
         <v>0.01</v>
       </c>
-      <c r="K40" s="13" t="n">
+      <c r="K40" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="L40" s="13" t="n">
+      <c r="L40" s="17" t="n">
         <f aca="false">1-K40</f>
         <v>0.4</v>
       </c>
-      <c r="M40" s="16" t="n">
+      <c r="M40" s="20" t="n">
         <f aca="false">$L$3/(K40+L40/10)</f>
         <v>0.0125</v>
       </c>
-      <c r="N40" s="16" t="n">
+      <c r="N40" s="20" t="n">
         <f aca="false">M40/10</f>
         <v>0.00125</v>
       </c>
-      <c r="O40" s="14" t="n">
+      <c r="O40" s="18" t="n">
         <f aca="false">K40*M40+L40*N40</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="15"/>
-      <c r="E41" s="13" t="n">
+      <c r="C41" s="19"/>
+      <c r="E41" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="17" t="n">
         <f aca="false">1-E41</f>
         <v>0.5</v>
       </c>
-      <c r="G41" s="16" t="n">
+      <c r="G41" s="20" t="n">
         <f aca="false">$F$3/(E41+F41/10)</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="H41" s="16" t="n">
+      <c r="H41" s="20" t="n">
         <f aca="false">G41/10</f>
         <v>0.00181818181818182</v>
       </c>
-      <c r="I41" s="13" t="n">
+      <c r="I41" s="17" t="n">
         <f aca="false">E41*G41+F41*H41</f>
         <v>0.01</v>
       </c>
-      <c r="K41" s="13" t="n">
+      <c r="K41" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L41" s="13" t="n">
+      <c r="L41" s="17" t="n">
         <f aca="false">1-K41</f>
         <v>0.5</v>
       </c>
-      <c r="M41" s="16" t="n">
+      <c r="M41" s="20" t="n">
         <f aca="false">$L$3/(K41+L41/10)</f>
         <v>0.0145454545454545</v>
       </c>
-      <c r="N41" s="16" t="n">
+      <c r="N41" s="20" t="n">
         <f aca="false">M41/10</f>
         <v>0.00145454545454545</v>
       </c>
-      <c r="O41" s="14" t="n">
+      <c r="O41" s="18" t="n">
         <f aca="false">K41*M41+L41*N41</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="15"/>
-      <c r="E42" s="13" t="n">
+      <c r="C42" s="19"/>
+      <c r="E42" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="F42" s="13" t="n">
+      <c r="F42" s="17" t="n">
         <f aca="false">1-E42</f>
         <v>0.6</v>
       </c>
-      <c r="G42" s="16" t="n">
+      <c r="G42" s="20" t="n">
         <f aca="false">$F$3/(E42+F42/10)</f>
         <v>0.0217391304347826</v>
       </c>
-      <c r="H42" s="16" t="n">
+      <c r="H42" s="20" t="n">
         <f aca="false">G42/10</f>
         <v>0.00217391304347826</v>
       </c>
-      <c r="I42" s="13" t="n">
+      <c r="I42" s="17" t="n">
         <f aca="false">E42*G42+F42*H42</f>
         <v>0.01</v>
       </c>
-      <c r="K42" s="13" t="n">
+      <c r="K42" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="L42" s="13" t="n">
+      <c r="L42" s="17" t="n">
         <f aca="false">1-K42</f>
         <v>0.6</v>
       </c>
-      <c r="M42" s="16" t="n">
+      <c r="M42" s="20" t="n">
         <f aca="false">$L$3/(K42+L42/10)</f>
         <v>0.0173913043478261</v>
       </c>
-      <c r="N42" s="16" t="n">
+      <c r="N42" s="20" t="n">
         <f aca="false">M42/10</f>
         <v>0.00173913043478261</v>
       </c>
-      <c r="O42" s="14" t="n">
+      <c r="O42" s="18" t="n">
         <f aca="false">K42*M42+L42*N42</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15"/>
-      <c r="E43" s="13" t="n">
+      <c r="C43" s="19"/>
+      <c r="E43" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="F43" s="13" t="n">
+      <c r="F43" s="17" t="n">
         <f aca="false">1-E43</f>
         <v>0.7</v>
       </c>
-      <c r="G43" s="16" t="n">
+      <c r="G43" s="20" t="n">
         <f aca="false">$F$3/(E43+F43/10)</f>
         <v>0.027027027027027</v>
       </c>
-      <c r="H43" s="16" t="n">
+      <c r="H43" s="20" t="n">
         <f aca="false">G43/10</f>
         <v>0.0027027027027027</v>
       </c>
-      <c r="I43" s="13" t="n">
+      <c r="I43" s="17" t="n">
         <f aca="false">E43*G43+F43*H43</f>
         <v>0.01</v>
       </c>
-      <c r="K43" s="13" t="n">
+      <c r="K43" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="L43" s="13" t="n">
+      <c r="L43" s="17" t="n">
         <f aca="false">1-K43</f>
         <v>0.7</v>
       </c>
-      <c r="M43" s="16" t="n">
+      <c r="M43" s="20" t="n">
         <f aca="false">$L$3/(K43+L43/10)</f>
         <v>0.0216216216216216</v>
       </c>
-      <c r="N43" s="16" t="n">
+      <c r="N43" s="20" t="n">
         <f aca="false">M43/10</f>
         <v>0.00216216216216216</v>
       </c>
-      <c r="O43" s="14" t="n">
+      <c r="O43" s="18" t="n">
         <f aca="false">K43*M43+L43*N43</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="15"/>
-      <c r="E44" s="13" t="n">
+      <c r="C44" s="19"/>
+      <c r="E44" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F44" s="17" t="n">
         <f aca="false">1-E44</f>
         <v>0.8</v>
       </c>
-      <c r="G44" s="16" t="n">
+      <c r="G44" s="20" t="n">
         <f aca="false">$F$3/(E44+F44/10)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="H44" s="16" t="n">
+      <c r="H44" s="20" t="n">
         <f aca="false">G44/10</f>
         <v>0.00357142857142857</v>
       </c>
-      <c r="I44" s="13" t="n">
+      <c r="I44" s="17" t="n">
         <f aca="false">E44*G44+F44*H44</f>
         <v>0.01</v>
       </c>
-      <c r="K44" s="13" t="n">
+      <c r="K44" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="L44" s="13" t="n">
+      <c r="L44" s="17" t="n">
         <f aca="false">1-K44</f>
         <v>0.8</v>
       </c>
-      <c r="M44" s="16" t="n">
+      <c r="M44" s="20" t="n">
         <f aca="false">$L$3/(K44+L44/10)</f>
         <v>0.0285714285714286</v>
       </c>
-      <c r="N44" s="16" t="n">
+      <c r="N44" s="20" t="n">
         <f aca="false">M44/10</f>
         <v>0.00285714285714286</v>
       </c>
-      <c r="O44" s="14" t="n">
+      <c r="O44" s="18" t="n">
         <f aca="false">K44*M44+L44*N44</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="15"/>
-      <c r="E45" s="13" t="n">
+      <c r="C45" s="19"/>
+      <c r="E45" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="F45" s="13" t="n">
+      <c r="F45" s="17" t="n">
         <f aca="false">1-E45</f>
         <v>0.9</v>
       </c>
-      <c r="G45" s="16" t="n">
+      <c r="G45" s="20" t="n">
         <f aca="false">$F$3/(E45+F45/10)</f>
         <v>0.0526315789473684</v>
       </c>
-      <c r="H45" s="16" t="n">
+      <c r="H45" s="20" t="n">
         <f aca="false">G45/10</f>
         <v>0.00526315789473684</v>
       </c>
-      <c r="I45" s="13" t="n">
+      <c r="I45" s="17" t="n">
         <f aca="false">E45*G45+F45*H45</f>
         <v>0.01</v>
       </c>
-      <c r="K45" s="13" t="n">
+      <c r="K45" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="L45" s="13" t="n">
+      <c r="L45" s="17" t="n">
         <f aca="false">1-K45</f>
         <v>0.9</v>
       </c>
-      <c r="M45" s="16" t="n">
+      <c r="M45" s="20" t="n">
         <f aca="false">$L$3/(K45+L45/10)</f>
         <v>0.0421052631578947</v>
       </c>
-      <c r="N45" s="16" t="n">
+      <c r="N45" s="20" t="n">
         <f aca="false">M45/10</f>
         <v>0.00421052631578947</v>
       </c>
-      <c r="O45" s="14" t="n">
+      <c r="O45" s="18" t="n">
         <f aca="false">K45*M45+L45*N45</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="15"/>
-      <c r="E46" s="13" t="n">
+      <c r="C46" s="19"/>
+      <c r="E46" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="17" t="n">
         <f aca="false">1-E46</f>
         <v>0.99</v>
       </c>
-      <c r="G46" s="16" t="n">
+      <c r="G46" s="20" t="n">
         <f aca="false">$F$3/(E46+F46/10)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H46" s="16" t="n">
+      <c r="H46" s="20" t="n">
         <f aca="false">G46/10</f>
         <v>0.0091743119266055</v>
       </c>
-      <c r="I46" s="13" t="n">
+      <c r="I46" s="17" t="n">
         <f aca="false">E46*G46+F46*H46</f>
         <v>0.01</v>
       </c>
-      <c r="K46" s="13" t="n">
+      <c r="K46" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="L46" s="13" t="n">
+      <c r="L46" s="17" t="n">
         <f aca="false">1-K46</f>
         <v>0.99</v>
       </c>
-      <c r="M46" s="16" t="n">
+      <c r="M46" s="20" t="n">
         <f aca="false">$L$3/(K46+L46/10)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N46" s="16" t="n">
+      <c r="N46" s="20" t="n">
         <f aca="false">M46/10</f>
         <v>0.0073394495412844</v>
       </c>
-      <c r="O46" s="14" t="n">
+      <c r="O46" s="18" t="n">
         <f aca="false">K46*M46+L46*N46</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="15"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="13"/>
-      <c r="O47" s="9"/>
+      <c r="C47" s="19"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="17"/>
+      <c r="O47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="15"/>
+      <c r="C48" s="19"/>
       <c r="E48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F48" s="14" t="n">
         <v>0.005</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>21</v>
+      <c r="G48" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="L48" s="14" t="n">
         <v>0.002</v>
       </c>
-      <c r="M48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" s="9"/>
+      <c r="M48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="15"/>
-      <c r="E49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="12" t="s">
+      <c r="C49" s="19"/>
+      <c r="E49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M49" s="12" t="s">
+      <c r="I49" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="14" t="s">
-        <v>20</v>
+      <c r="O49" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="15"/>
-      <c r="E50" s="13" t="n">
+      <c r="C50" s="19"/>
+      <c r="E50" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="F50" s="13" t="n">
+      <c r="F50" s="17" t="n">
         <f aca="false">1-E50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G50" s="16" t="n">
+      <c r="G50" s="20" t="n">
         <f aca="false">$F$17/(E50+F50/10)</f>
         <v>0.00523560209424084</v>
       </c>
-      <c r="H50" s="16" t="n">
+      <c r="H50" s="20" t="n">
         <f aca="false">G50/10</f>
         <v>0.000523560209424084</v>
       </c>
-      <c r="I50" s="13" t="n">
+      <c r="I50" s="17" t="n">
         <f aca="false">E50*G50+F50*H50</f>
         <v>0.005</v>
       </c>
-      <c r="K50" s="13" t="n">
+      <c r="K50" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="L50" s="13" t="n">
+      <c r="L50" s="17" t="n">
         <f aca="false">1-K50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M50" s="16" t="n">
+      <c r="M50" s="20" t="n">
         <f aca="false">$L$17/(K50+L50/10)</f>
         <v>0.00209424083769633</v>
       </c>
-      <c r="N50" s="16" t="n">
+      <c r="N50" s="20" t="n">
         <f aca="false">M50/10</f>
         <v>0.000209424083769633</v>
       </c>
-      <c r="O50" s="14" t="n">
+      <c r="O50" s="18" t="n">
         <f aca="false">K50*M50+L50*N50</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="15"/>
-      <c r="E51" s="13" t="n">
+      <c r="C51" s="19"/>
+      <c r="E51" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="F51" s="13" t="n">
+      <c r="F51" s="17" t="n">
         <f aca="false">1-E51</f>
         <v>0.1</v>
       </c>
-      <c r="G51" s="16" t="n">
+      <c r="G51" s="20" t="n">
         <f aca="false">$F$17/(E51+F51/10)</f>
         <v>0.00549450549450549</v>
       </c>
-      <c r="H51" s="16" t="n">
+      <c r="H51" s="20" t="n">
         <f aca="false">G51/10</f>
         <v>0.000549450549450549</v>
       </c>
-      <c r="I51" s="13" t="n">
+      <c r="I51" s="17" t="n">
         <f aca="false">E51*G51+F51*H51</f>
         <v>0.005</v>
       </c>
-      <c r="K51" s="13" t="n">
+      <c r="K51" s="17" t="n">
         <v>0.9</v>
       </c>
-      <c r="L51" s="13" t="n">
+      <c r="L51" s="17" t="n">
         <f aca="false">1-K51</f>
         <v>0.1</v>
       </c>
-      <c r="M51" s="16" t="n">
+      <c r="M51" s="20" t="n">
         <f aca="false">$L$17/(K51+L51/10)</f>
         <v>0.0021978021978022</v>
       </c>
-      <c r="N51" s="16" t="n">
+      <c r="N51" s="20" t="n">
         <f aca="false">M51/10</f>
         <v>0.00021978021978022</v>
       </c>
-      <c r="O51" s="14" t="n">
+      <c r="O51" s="18" t="n">
         <f aca="false">K51*M51+L51*N51</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="15"/>
-      <c r="E52" s="13" t="n">
+      <c r="C52" s="19"/>
+      <c r="E52" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="F52" s="13" t="n">
+      <c r="F52" s="17" t="n">
         <f aca="false">1-E52</f>
         <v>0.2</v>
       </c>
-      <c r="G52" s="16" t="n">
+      <c r="G52" s="20" t="n">
         <f aca="false">$F$17/(E52+F52/10)</f>
         <v>0.00609756097560976</v>
       </c>
-      <c r="H52" s="16" t="n">
+      <c r="H52" s="20" t="n">
         <f aca="false">G52/10</f>
         <v>0.000609756097560975</v>
       </c>
-      <c r="I52" s="13" t="n">
+      <c r="I52" s="17" t="n">
         <f aca="false">E52*G52+F52*H52</f>
         <v>0.005</v>
       </c>
-      <c r="K52" s="13" t="n">
+      <c r="K52" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="L52" s="13" t="n">
+      <c r="L52" s="17" t="n">
         <f aca="false">1-K52</f>
         <v>0.2</v>
       </c>
-      <c r="M52" s="16" t="n">
+      <c r="M52" s="20" t="n">
         <f aca="false">$L$17/(K52+L52/10)</f>
         <v>0.0024390243902439</v>
       </c>
-      <c r="N52" s="16" t="n">
+      <c r="N52" s="20" t="n">
         <f aca="false">M52/10</f>
         <v>0.00024390243902439</v>
       </c>
-      <c r="O52" s="14" t="n">
+      <c r="O52" s="18" t="n">
         <f aca="false">K52*M52+L52*N52</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="15"/>
-      <c r="E53" s="13" t="n">
+      <c r="C53" s="19"/>
+      <c r="E53" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="F53" s="13" t="n">
+      <c r="F53" s="17" t="n">
         <f aca="false">1-E53</f>
         <v>0.3</v>
       </c>
-      <c r="G53" s="16" t="n">
+      <c r="G53" s="20" t="n">
         <f aca="false">$F$17/(E53+F53/10)</f>
         <v>0.00684931506849315</v>
       </c>
-      <c r="H53" s="16" t="n">
+      <c r="H53" s="20" t="n">
         <f aca="false">G53/10</f>
         <v>0.000684931506849315</v>
       </c>
-      <c r="I53" s="13" t="n">
+      <c r="I53" s="17" t="n">
         <f aca="false">E53*G53+F53*H53</f>
         <v>0.005</v>
       </c>
-      <c r="K53" s="13" t="n">
+      <c r="K53" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="L53" s="13" t="n">
+      <c r="L53" s="17" t="n">
         <f aca="false">1-K53</f>
         <v>0.3</v>
       </c>
-      <c r="M53" s="16" t="n">
+      <c r="M53" s="20" t="n">
         <f aca="false">$L$17/(K53+L53/10)</f>
         <v>0.00273972602739726</v>
       </c>
-      <c r="N53" s="16" t="n">
+      <c r="N53" s="20" t="n">
         <f aca="false">M53/10</f>
         <v>0.000273972602739726</v>
       </c>
-      <c r="O53" s="14" t="n">
+      <c r="O53" s="18" t="n">
         <f aca="false">K53*M53+L53*N53</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="15"/>
-      <c r="E54" s="13" t="n">
+      <c r="C54" s="19"/>
+      <c r="E54" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="F54" s="13" t="n">
+      <c r="F54" s="17" t="n">
         <f aca="false">1-E54</f>
         <v>0.4</v>
       </c>
-      <c r="G54" s="16" t="n">
+      <c r="G54" s="20" t="n">
         <f aca="false">$F$17/(E54+F54/10)</f>
         <v>0.0078125</v>
       </c>
-      <c r="H54" s="16" t="n">
+      <c r="H54" s="20" t="n">
         <f aca="false">G54/10</f>
         <v>0.00078125</v>
       </c>
-      <c r="I54" s="13" t="n">
+      <c r="I54" s="17" t="n">
         <f aca="false">E54*G54+F54*H54</f>
         <v>0.005</v>
       </c>
-      <c r="K54" s="13" t="n">
+      <c r="K54" s="17" t="n">
         <v>0.6</v>
       </c>
-      <c r="L54" s="13" t="n">
+      <c r="L54" s="17" t="n">
         <f aca="false">1-K54</f>
         <v>0.4</v>
       </c>
-      <c r="M54" s="16" t="n">
+      <c r="M54" s="20" t="n">
         <f aca="false">$L$17/(K54+L54/10)</f>
         <v>0.003125</v>
       </c>
-      <c r="N54" s="16" t="n">
+      <c r="N54" s="20" t="n">
         <f aca="false">M54/10</f>
         <v>0.0003125</v>
       </c>
-      <c r="O54" s="14" t="n">
+      <c r="O54" s="18" t="n">
         <f aca="false">K54*M54+L54*N54</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="15"/>
-      <c r="E55" s="13" t="n">
+      <c r="C55" s="19"/>
+      <c r="E55" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="F55" s="13" t="n">
+      <c r="F55" s="17" t="n">
         <f aca="false">1-E55</f>
         <v>0.5</v>
       </c>
-      <c r="G55" s="16" t="n">
+      <c r="G55" s="20" t="n">
         <f aca="false">$F$17/(E55+F55/10)</f>
         <v>0.00909090909090909</v>
       </c>
-      <c r="H55" s="16" t="n">
+      <c r="H55" s="20" t="n">
         <f aca="false">G55/10</f>
         <v>0.000909090909090909</v>
       </c>
-      <c r="I55" s="13" t="n">
+      <c r="I55" s="17" t="n">
         <f aca="false">E55*G55+F55*H55</f>
         <v>0.005</v>
       </c>
-      <c r="K55" s="13" t="n">
+      <c r="K55" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L55" s="13" t="n">
+      <c r="L55" s="17" t="n">
         <f aca="false">1-K55</f>
         <v>0.5</v>
       </c>
-      <c r="M55" s="16" t="n">
+      <c r="M55" s="20" t="n">
         <f aca="false">$L$17/(K55+L55/10)</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="N55" s="16" t="n">
+      <c r="N55" s="20" t="n">
         <f aca="false">M55/10</f>
         <v>0.000363636363636364</v>
       </c>
-      <c r="O55" s="14" t="n">
+      <c r="O55" s="18" t="n">
         <f aca="false">K55*M55+L55*N55</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="15"/>
-      <c r="E56" s="13" t="n">
+      <c r="C56" s="19"/>
+      <c r="E56" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="F56" s="13" t="n">
+      <c r="F56" s="17" t="n">
         <f aca="false">1-E56</f>
         <v>0.6</v>
       </c>
-      <c r="G56" s="16" t="n">
+      <c r="G56" s="20" t="n">
         <f aca="false">$F$17/(E56+F56/10)</f>
         <v>0.0108695652173913</v>
       </c>
-      <c r="H56" s="16" t="n">
+      <c r="H56" s="20" t="n">
         <f aca="false">G56/10</f>
         <v>0.00108695652173913</v>
       </c>
-      <c r="I56" s="13" t="n">
+      <c r="I56" s="17" t="n">
         <f aca="false">E56*G56+F56*H56</f>
         <v>0.005</v>
       </c>
-      <c r="K56" s="13" t="n">
+      <c r="K56" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="L56" s="13" t="n">
+      <c r="L56" s="17" t="n">
         <f aca="false">1-K56</f>
         <v>0.6</v>
       </c>
-      <c r="M56" s="16" t="n">
+      <c r="M56" s="20" t="n">
         <f aca="false">$L$17/(K56+L56/10)</f>
         <v>0.00434782608695652</v>
       </c>
-      <c r="N56" s="16" t="n">
+      <c r="N56" s="20" t="n">
         <f aca="false">M56/10</f>
         <v>0.000434782608695652</v>
       </c>
-      <c r="O56" s="14" t="n">
+      <c r="O56" s="18" t="n">
         <f aca="false">K56*M56+L56*N56</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="15"/>
-      <c r="E57" s="13" t="n">
+      <c r="C57" s="19"/>
+      <c r="E57" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="F57" s="13" t="n">
+      <c r="F57" s="17" t="n">
         <f aca="false">1-E57</f>
         <v>0.7</v>
       </c>
-      <c r="G57" s="16" t="n">
+      <c r="G57" s="20" t="n">
         <f aca="false">$F$17/(E57+F57/10)</f>
         <v>0.0135135135135135</v>
       </c>
-      <c r="H57" s="16" t="n">
+      <c r="H57" s="20" t="n">
         <f aca="false">G57/10</f>
         <v>0.00135135135135135</v>
       </c>
-      <c r="I57" s="13" t="n">
+      <c r="I57" s="17" t="n">
         <f aca="false">E57*G57+F57*H57</f>
         <v>0.005</v>
       </c>
-      <c r="K57" s="13" t="n">
+      <c r="K57" s="17" t="n">
         <v>0.3</v>
       </c>
-      <c r="L57" s="13" t="n">
+      <c r="L57" s="17" t="n">
         <f aca="false">1-K57</f>
         <v>0.7</v>
       </c>
-      <c r="M57" s="16" t="n">
+      <c r="M57" s="20" t="n">
         <f aca="false">$L$17/(K57+L57/10)</f>
         <v>0.0054054054054054</v>
       </c>
-      <c r="N57" s="16" t="n">
+      <c r="N57" s="20" t="n">
         <f aca="false">M57/10</f>
         <v>0.00054054054054054</v>
       </c>
-      <c r="O57" s="14" t="n">
+      <c r="O57" s="18" t="n">
         <f aca="false">K57*M57+L57*N57</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="15"/>
-      <c r="E58" s="13" t="n">
+      <c r="C58" s="19"/>
+      <c r="E58" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="F58" s="13" t="n">
+      <c r="F58" s="17" t="n">
         <f aca="false">1-E58</f>
         <v>0.8</v>
       </c>
-      <c r="G58" s="16" t="n">
+      <c r="G58" s="20" t="n">
         <f aca="false">$F$17/(E58+F58/10)</f>
         <v>0.0178571428571429</v>
       </c>
-      <c r="H58" s="16" t="n">
+      <c r="H58" s="20" t="n">
         <f aca="false">G58/10</f>
         <v>0.00178571428571429</v>
       </c>
-      <c r="I58" s="13" t="n">
+      <c r="I58" s="17" t="n">
         <f aca="false">E58*G58+F58*H58</f>
         <v>0.005</v>
       </c>
-      <c r="K58" s="13" t="n">
+      <c r="K58" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="L58" s="13" t="n">
+      <c r="L58" s="17" t="n">
         <f aca="false">1-K58</f>
         <v>0.8</v>
       </c>
-      <c r="M58" s="16" t="n">
+      <c r="M58" s="20" t="n">
         <f aca="false">$L$17/(K58+L58/10)</f>
         <v>0.00714285714285714</v>
       </c>
-      <c r="N58" s="16" t="n">
+      <c r="N58" s="20" t="n">
         <f aca="false">M58/10</f>
         <v>0.000714285714285714</v>
       </c>
-      <c r="O58" s="14" t="n">
+      <c r="O58" s="18" t="n">
         <f aca="false">K58*M58+L58*N58</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="15"/>
-      <c r="E59" s="13" t="n">
+      <c r="C59" s="19"/>
+      <c r="E59" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="F59" s="13" t="n">
+      <c r="F59" s="17" t="n">
         <f aca="false">1-E59</f>
         <v>0.9</v>
       </c>
-      <c r="G59" s="16" t="n">
+      <c r="G59" s="20" t="n">
         <f aca="false">$F$17/(E59+F59/10)</f>
         <v>0.0263157894736842</v>
       </c>
-      <c r="H59" s="16" t="n">
+      <c r="H59" s="20" t="n">
         <f aca="false">G59/10</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="I59" s="13" t="n">
+      <c r="I59" s="17" t="n">
         <f aca="false">E59*G59+F59*H59</f>
         <v>0.005</v>
       </c>
-      <c r="K59" s="13" t="n">
+      <c r="K59" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="L59" s="13" t="n">
+      <c r="L59" s="17" t="n">
         <f aca="false">1-K59</f>
         <v>0.9</v>
       </c>
-      <c r="M59" s="16" t="n">
+      <c r="M59" s="20" t="n">
         <f aca="false">$L$17/(K59+L59/10)</f>
         <v>0.0105263157894737</v>
       </c>
-      <c r="N59" s="16" t="n">
+      <c r="N59" s="20" t="n">
         <f aca="false">M59/10</f>
         <v>0.00105263157894737</v>
       </c>
-      <c r="O59" s="14" t="n">
+      <c r="O59" s="18" t="n">
         <f aca="false">K59*M59+L59*N59</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="15"/>
-      <c r="E60" s="13" t="n">
+      <c r="C60" s="19"/>
+      <c r="E60" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="F60" s="13" t="n">
+      <c r="F60" s="17" t="n">
         <f aca="false">1-E60</f>
         <v>0.99</v>
       </c>
-      <c r="G60" s="16" t="n">
+      <c r="G60" s="20" t="n">
         <f aca="false">$F$17/(E60+F60/10)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H60" s="16" t="n">
+      <c r="H60" s="20" t="n">
         <f aca="false">G60/10</f>
         <v>0.00458715596330275</v>
       </c>
-      <c r="I60" s="13" t="n">
+      <c r="I60" s="17" t="n">
         <f aca="false">E60*G60+F60*H60</f>
         <v>0.005</v>
       </c>
-      <c r="K60" s="13" t="n">
+      <c r="K60" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="L60" s="13" t="n">
+      <c r="L60" s="17" t="n">
         <f aca="false">1-K60</f>
         <v>0.99</v>
       </c>
-      <c r="M60" s="16" t="n">
+      <c r="M60" s="20" t="n">
         <f aca="false">$L$17/(K60+L60/10)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N60" s="16" t="n">
+      <c r="N60" s="20" t="n">
         <f aca="false">M60/10</f>
         <v>0.0018348623853211</v>
       </c>
-      <c r="O60" s="14" t="n">
+      <c r="O60" s="18" t="n">
         <f aca="false">K60*M60+L60*N60</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="20"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5015,7 +5498,7 @@
   </sheetPr>
   <dimension ref="A2:V60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -5027,52 +5510,52 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="C2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="28" t="n">
         <f aca="false">2.97*B4^(0.62)</f>
         <v>0.170905661389136</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="29" t="n">
         <f aca="false">0.057*B4^(1.944)</f>
         <v>7.37691629626492E-006</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="28" t="n">
         <f aca="false">0.38*B4^0.59</f>
         <v>0.0251063510242887</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="29" t="n">
         <f aca="false">0.04*B4^2</f>
         <v>4E-006</v>
       </c>
@@ -5082,19 +5565,19 @@
         <f aca="false">B4-0.0002</f>
         <v>0.0098</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="28" t="n">
         <f aca="false">2.97*B5^(0.62)</f>
         <v>0.168778303131111</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="29" t="n">
         <f aca="false">0.057*B5^(1.944)</f>
         <v>7.09281033579122E-006</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="28" t="n">
         <f aca="false">0.38*B5^0.59</f>
         <v>0.0248088698797865</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="29" t="n">
         <f aca="false">0.04*B5^2</f>
         <v>3.8416E-006</v>
       </c>
@@ -5104,19 +5587,19 @@
         <f aca="false">B5-0.0002</f>
         <v>0.0096</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="28" t="n">
         <f aca="false">2.97*B6^(0.62)</f>
         <v>0.166634381481985</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="29" t="n">
         <f aca="false">0.057*B6^(1.944)</f>
         <v>6.81412557411232E-006</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="28" t="n">
         <f aca="false">0.38*B6^0.59</f>
         <v>0.0245088889545415</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="29" t="n">
         <f aca="false">0.04*B6^2</f>
         <v>3.6864E-006</v>
       </c>
@@ -5126,19 +5609,19 @@
         <f aca="false">B6-0.0002</f>
         <v>0.0094</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="28" t="n">
         <f aca="false">2.97*B7^(0.62)</f>
         <v>0.164473418285553</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="29" t="n">
         <f aca="false">0.057*B7^(1.944)</f>
         <v>6.54086827506298E-006</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="28" t="n">
         <f aca="false">0.38*B7^0.59</f>
         <v>0.0242063344923744</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="29" t="n">
         <f aca="false">0.04*B7^2</f>
         <v>3.5344E-006</v>
       </c>
@@ -5148,19 +5631,19 @@
         <f aca="false">B7-0.0002</f>
         <v>0.0092</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="28" t="n">
         <f aca="false">2.97*B8^(0.62)</f>
         <v>0.162294911069372</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="29" t="n">
         <f aca="false">0.057*B8^(1.944)</f>
         <v>6.27304484184586E-006</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="28" t="n">
         <f aca="false">0.38*B8^0.59</f>
         <v>0.0239011289378076</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="29" t="n">
         <f aca="false">0.04*B8^2</f>
         <v>3.3856E-006</v>
       </c>
@@ -5170,19 +5653,19 @@
         <f aca="false">B8-0.0002</f>
         <v>0.009</v>
       </c>
-      <c r="C9" s="24" t="n">
+      <c r="C9" s="28" t="n">
         <f aca="false">2.97*B9^(0.62)</f>
         <v>0.160098331250151</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="29" t="n">
         <f aca="false">0.057*B9^(1.944)</f>
         <v>6.01066182319956E-006</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="28" t="n">
         <f aca="false">0.38*B9^0.59</f>
         <v>0.0235931906530846</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="29" t="n">
         <f aca="false">0.04*B9^2</f>
         <v>3.24E-006</v>
       </c>
@@ -5192,19 +5675,19 @@
         <f aca="false">B9-0.0002</f>
         <v>0.0088</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="28" t="n">
         <f aca="false">2.97*B10^(0.62)</f>
         <v>0.157883122163658</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="29" t="n">
         <f aca="false">0.057*B10^(1.944)</f>
         <v>5.75372591998125E-006</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="28" t="n">
         <f aca="false">0.38*B10^0.59</f>
         <v>0.0232824336073207</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="29" t="n">
         <f aca="false">0.04*B10^2</f>
         <v>3.0976E-006</v>
       </c>
@@ -5214,19 +5697,19 @@
         <f aca="false">B10-0.0002</f>
         <v>0.0086</v>
       </c>
-      <c r="C11" s="24" t="n">
+      <c r="C11" s="28" t="n">
         <f aca="false">2.97*B11^(0.62)</f>
         <v>0.155648696897595</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="29" t="n">
         <f aca="false">0.057*B11^(1.944)</f>
         <v>5.50224399220194E-006</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="28" t="n">
         <f aca="false">0.38*B11^0.59</f>
         <v>0.022968767034342</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="29" t="n">
         <f aca="false">0.04*B11^2</f>
         <v>2.9584E-006</v>
       </c>
@@ -5236,19 +5719,19 @@
         <f aca="false">B11-0.0002</f>
         <v>0.0084</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="28" t="n">
         <f aca="false">2.97*B12^(0.62)</f>
         <v>0.153394435902666</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="29" t="n">
         <f aca="false">0.057*B12^(1.944)</f>
         <v>5.25622306655658E-006</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="28" t="n">
         <f aca="false">0.38*B12^0.59</f>
         <v>0.022652095055251</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="29" t="n">
         <f aca="false">0.04*B12^2</f>
         <v>2.8224E-006</v>
       </c>
@@ -5258,19 +5741,19 @@
         <f aca="false">B12-0.0002</f>
         <v>0.0082</v>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="28" t="n">
         <f aca="false">2.97*B13^(0.62)</f>
         <v>0.15111968435328</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="29" t="n">
         <f aca="false">0.057*B13^(1.944)</f>
         <v>5.0156703444962E-006</v>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="28" t="n">
         <f aca="false">0.38*B13^0.59</f>
         <v>0.0223323162611514</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="29" t="n">
         <f aca="false">0.04*B13^2</f>
         <v>2.6896E-006</v>
       </c>
@@ -5280,19 +5763,19 @@
         <f aca="false">B13-0.0002</f>
         <v>0.008</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="28" t="n">
         <f aca="false">2.97*B14^(0.62)</f>
         <v>0.148823749224871</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="29" t="n">
         <f aca="false">0.057*B14^(1.944)</f>
         <v>4.78059321089525E-006</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="28" t="n">
         <f aca="false">0.38*B14^0.59</f>
         <v>0.0220093232507475</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="29" t="n">
         <f aca="false">0.04*B14^2</f>
         <v>2.56E-006</v>
       </c>
@@ -5302,19 +5785,19 @@
         <f aca="false">B14-0.0002</f>
         <v>0.0078</v>
       </c>
-      <c r="C15" s="24" t="n">
+      <c r="C15" s="28" t="n">
         <f aca="false">2.97*B15^(0.62)</f>
         <v>0.146505896049517</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="29" t="n">
         <f aca="false">0.057*B15^(1.944)</f>
         <v>4.55099924337378E-006</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="28" t="n">
         <f aca="false">0.38*B15^0.59</f>
         <v>0.0216830021166786</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="29" t="n">
         <f aca="false">0.04*B15^2</f>
         <v>2.4336E-006</v>
       </c>
@@ -5324,24 +5807,24 @@
         <f aca="false">B15-0.0002</f>
         <v>0.0076</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="28" t="n">
         <f aca="false">2.97*B16^(0.62)</f>
         <v>0.14416534530524</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="29" t="n">
         <f aca="false">0.057*B16^(1.944)</f>
         <v>4.3268962223418E-006</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="28" t="n">
         <f aca="false">0.38*B16^0.59</f>
         <v>0.0213532318734356</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="29" t="n">
         <f aca="false">0.04*B16^2</f>
         <v>2.3104E-006</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>35</v>
+      <c r="S16" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,24 +5832,24 @@
         <f aca="false">B16-0.0002</f>
         <v>0.0074</v>
       </c>
-      <c r="C17" s="24" t="n">
+      <c r="C17" s="28" t="n">
         <f aca="false">2.97*B17^(0.62)</f>
         <v>0.141801268386831</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="29" t="n">
         <f aca="false">0.057*B17^(1.944)</f>
         <v>4.10829214184202E-006</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="28" t="n">
         <f aca="false">0.38*B17^0.59</f>
         <v>0.0210198838184959</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="29" t="n">
         <f aca="false">0.04*B17^2</f>
         <v>2.1904E-006</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>36</v>
+      <c r="S17" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,30 +5857,30 @@
         <f aca="false">B17-0.0002</f>
         <v>0.0072</v>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="28" t="n">
         <f aca="false">2.97*B18^(0.62)</f>
         <v>0.139412783096999</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="29" t="n">
         <f aca="false">0.057*B18^(1.944)</f>
         <v>3.89519522127748E-006</v>
       </c>
-      <c r="E18" s="24" t="n">
+      <c r="E18" s="28" t="n">
         <f aca="false">0.38*B18^0.59</f>
         <v>0.0206828208168481</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="29" t="n">
         <f aca="false">0.04*B18^2</f>
         <v>2.0736E-006</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,19 +5888,19 @@
         <f aca="false">B18-0.0002</f>
         <v>0.007</v>
       </c>
-      <c r="C19" s="24" t="n">
+      <c r="C19" s="28" t="n">
         <f aca="false">2.97*B19^(0.62)</f>
         <v>0.136998948585751</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="29" t="n">
         <f aca="false">0.057*B19^(1.944)</f>
         <v>3.68761391812255E-006</v>
       </c>
-      <c r="E19" s="24" t="n">
+      <c r="E19" s="28" t="n">
         <f aca="false">0.38*B19^0.59</f>
         <v>0.0203418964973235</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="29" t="n">
         <f aca="false">0.04*B19^2</f>
         <v>1.96E-006</v>
       </c>
@@ -5437,19 +5920,19 @@
         <f aca="false">B19-0.0002</f>
         <v>0.0068</v>
       </c>
-      <c r="C20" s="24" t="n">
+      <c r="C20" s="28" t="n">
         <f aca="false">2.97*B20^(0.62)</f>
         <v>0.134558759652636</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="29" t="n">
         <f aca="false">0.057*B20^(1.944)</f>
         <v>3.48555694172981E-006</v>
       </c>
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="28" t="n">
         <f aca="false">0.38*B20^0.59</f>
         <v>0.0199969543470115</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="29" t="n">
         <f aca="false">0.04*B20^2</f>
         <v>1.8496E-006</v>
       </c>
@@ -5469,19 +5952,19 @@
         <f aca="false">B20-0.0002</f>
         <v>0.0066</v>
       </c>
-      <c r="C21" s="24" t="n">
+      <c r="C21" s="28" t="n">
         <f aca="false">2.97*B21^(0.62)</f>
         <v>0.132091140310434</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="29" t="n">
         <f aca="false">0.057*B21^(1.944)</f>
         <v>3.28903326836194E-006</v>
       </c>
-      <c r="E21" s="24" t="n">
+      <c r="E21" s="28" t="n">
         <f aca="false">0.38*B21^0.59</f>
         <v>0.0196478266874332</v>
       </c>
-      <c r="F21" s="25" t="n">
+      <c r="F21" s="29" t="n">
         <f aca="false">0.04*B21^2</f>
         <v>1.7424E-006</v>
       </c>
@@ -5501,19 +5984,19 @@
         <f aca="false">B21-0.0002</f>
         <v>0.0064</v>
       </c>
-      <c r="C22" s="24" t="n">
+      <c r="C22" s="28" t="n">
         <f aca="false">2.97*B22^(0.62)</f>
         <v>0.129594936489068</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="29" t="n">
         <f aca="false">0.057*B22^(1.944)</f>
         <v>3.09805215759724E-006</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="28" t="n">
         <f aca="false">0.38*B22^0.59</f>
         <v>0.0192943335129531</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="29" t="n">
         <f aca="false">0.04*B22^2</f>
         <v>1.6384E-006</v>
       </c>
@@ -5533,19 +6016,19 @@
         <f aca="false">B22-0.0002</f>
         <v>0.0062</v>
       </c>
-      <c r="C23" s="24" t="n">
+      <c r="C23" s="28" t="n">
         <f aca="false">2.97*B23^(0.62)</f>
         <v>0.127068907734232</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="29" t="n">
         <f aca="false">0.057*B23^(1.944)</f>
         <v>2.91262317028041E-006</v>
       </c>
-      <c r="E23" s="24" t="n">
+      <c r="E23" s="28" t="n">
         <f aca="false">0.38*B23^0.59</f>
         <v>0.0189362811679701</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="29" t="n">
         <f aca="false">0.04*B23^2</f>
         <v>1.5376E-006</v>
       </c>
@@ -5569,19 +6052,19 @@
         <f aca="false">B23-0.0002</f>
         <v>0.006</v>
       </c>
-      <c r="C24" s="24" t="n">
+      <c r="C24" s="28" t="n">
         <f aca="false">2.97*B24^(0.62)</f>
         <v>0.124511717725026</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="29" t="n">
         <f aca="false">0.057*B24^(1.944)</f>
         <v>2.73275618821812E-006</v>
       </c>
-      <c r="E24" s="24" t="n">
+      <c r="E24" s="28" t="n">
         <f aca="false">0.38*B24^0.59</f>
         <v>0.0185734608345414</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="29" t="n">
         <f aca="false">0.04*B24^2</f>
         <v>1.44E-006</v>
       </c>
@@ -5591,24 +6074,24 @@
         <f aca="false">B24-0.0002</f>
         <v>0.0058</v>
       </c>
-      <c r="C25" s="24" t="n">
+      <c r="C25" s="28" t="n">
         <f aca="false">2.97*B25^(0.62)</f>
         <v>0.121921923397288</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="29" t="n">
         <f aca="false">0.057*B25^(1.944)</f>
         <v>2.55846143585184E-006</v>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="28" t="n">
         <f aca="false">0.38*B25^0.59</f>
         <v>0.0182056467959893</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="29" t="n">
         <f aca="false">0.04*B25^2</f>
         <v>1.3456E-006</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1195</v>
@@ -5623,19 +6106,19 @@
         <f aca="false">B25-0.0002</f>
         <v>0.0056</v>
       </c>
-      <c r="C26" s="24" t="n">
+      <c r="C26" s="28" t="n">
         <f aca="false">2.97*B26^(0.62)</f>
         <v>0.119297962411986</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D26" s="29" t="n">
         <f aca="false">0.057*B26^(1.944)</f>
         <v>2.38974950418042E-006</v>
       </c>
-      <c r="E26" s="24" t="n">
+      <c r="E26" s="28" t="n">
         <f aca="false">0.38*B26^0.59</f>
         <v>0.017832594434361</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="29" t="n">
         <f aca="false">0.04*B26^2</f>
         <v>1.2544E-006</v>
       </c>
@@ -5645,19 +6128,19 @@
         <f aca="false">B26-0.0002</f>
         <v>0.0054</v>
       </c>
-      <c r="C27" s="24" t="n">
+      <c r="C27" s="28" t="n">
         <f aca="false">2.97*B27^(0.62)</f>
         <v>0.116638138648189</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D27" s="29" t="n">
         <f aca="false">0.057*B27^(1.944)</f>
         <v>2.22663137725334E-006</v>
       </c>
-      <c r="E27" s="24" t="n">
+      <c r="E27" s="28" t="n">
         <f aca="false">0.38*B27^0.59</f>
         <v>0.0174540379098898</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="29" t="n">
         <f aca="false">0.04*B27^2</f>
         <v>1.1664E-006</v>
       </c>
@@ -5667,19 +6150,19 @@
         <f aca="false">B27-0.0002</f>
         <v>0.0052</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="28" t="n">
         <f aca="false">2.97*B28^(0.62)</f>
         <v>0.113940605323781</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="29" t="n">
         <f aca="false">0.057*B28^(1.944)</f>
         <v>2.06911846161483E-006</v>
       </c>
-      <c r="E28" s="24" t="n">
+      <c r="E28" s="28" t="n">
         <f aca="false">0.38*B28^0.59</f>
         <v>0.0170696874581801</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="29" t="n">
         <f aca="false">0.04*B28^2</f>
         <v>1.0816E-006</v>
       </c>
@@ -5689,19 +6172,19 @@
         <f aca="false">B28-0.0002</f>
         <v>0.005</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="28" t="n">
         <f aca="false">2.97*B29^(0.62)</f>
         <v>0.111203345248834</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="29" t="n">
         <f aca="false">0.057*B29^(1.944)</f>
         <v>1.9172226191516E-006</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="28" t="n">
         <f aca="false">0.38*B29^0.59</f>
         <v>0.0166792262248499</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="29" t="n">
         <f aca="false">0.04*B29^2</f>
         <v>1E-006</v>
       </c>
@@ -5711,19 +6194,19 @@
         <f aca="false">B29-0.0002</f>
         <v>0.0048</v>
       </c>
-      <c r="C30" s="24" t="n">
+      <c r="C30" s="28" t="n">
         <f aca="false">2.97*B30^(0.62)</f>
         <v>0.108424147589092</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="29" t="n">
         <f aca="false">0.057*B30^(1.944)</f>
         <v>1.77095620388728E-006</v>
       </c>
-      <c r="E30" s="24" t="n">
+      <c r="E30" s="28" t="n">
         <f aca="false">0.38*B30^0.59</f>
         <v>0.016282306536583</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="29" t="n">
         <f aca="false">0.04*B30^2</f>
         <v>9.216E-007</v>
       </c>
@@ -5733,19 +6216,19 @@
         <f aca="false">B30-0.0002</f>
         <v>0.0046</v>
       </c>
-      <c r="C31" s="24" t="n">
+      <c r="C31" s="28" t="n">
         <f aca="false">2.97*B31^(0.62)</f>
         <v>0.1056005803499</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="29" t="n">
         <f aca="false">0.057*B31^(1.944)</f>
         <v>1.63033210337883E-006</v>
       </c>
-      <c r="E31" s="24" t="n">
+      <c r="E31" s="28" t="n">
         <f aca="false">0.38*B31^0.59</f>
         <v>0.0158785454802783</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="29" t="n">
         <f aca="false">0.04*B31^2</f>
         <v>8.464E-007</v>
       </c>
@@ -5755,19 +6238,19 @@
         <f aca="false">B31-0.0002</f>
         <v>0.0044</v>
       </c>
-      <c r="C32" s="24" t="n">
+      <c r="C32" s="28" t="n">
         <f aca="false">2.97*B32^(0.62)</f>
         <v>0.10272995756971</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="29" t="n">
         <f aca="false">0.057*B32^(1.944)</f>
         <v>1.49536378551187E-006</v>
       </c>
-      <c r="E32" s="24" t="n">
+      <c r="E32" s="28" t="n">
         <f aca="false">0.38*B32^0.59</f>
         <v>0.0154675196258454</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="29" t="n">
         <f aca="false">0.04*B32^2</f>
         <v>7.74400000000001E-007</v>
       </c>
@@ -5777,19 +6260,19 @@
         <f aca="false">B32-0.0002</f>
         <v>0.0042</v>
       </c>
-      <c r="C33" s="24" t="n">
+      <c r="C33" s="28" t="n">
         <f aca="false">2.97*B33^(0.62)</f>
         <v>0.0998092999160222</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="29" t="n">
         <f aca="false">0.057*B33^(1.944)</f>
         <v>1.36606535167154E-006</v>
       </c>
-      <c r="E33" s="24" t="n">
+      <c r="E33" s="28" t="n">
         <f aca="false">0.38*B33^0.59</f>
         <v>0.0150487586797388</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="29" t="n">
         <f aca="false">0.04*B33^2</f>
         <v>7.05600000000001E-007</v>
       </c>
@@ -5799,19 +6282,19 @@
         <f aca="false">B33-0.0002</f>
         <v>0.004</v>
       </c>
-      <c r="C34" s="24" t="n">
+      <c r="C34" s="28" t="n">
         <f aca="false">2.97*B34^(0.62)</f>
         <v>0.0968352869750591</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="29" t="n">
         <f aca="false">0.057*B34^(1.944)</f>
         <v>1.24245159749632E-006</v>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="28" t="n">
         <f aca="false">0.38*B34^0.59</f>
         <v>0.0146217377905664</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="29" t="n">
         <f aca="false">0.04*B34^2</f>
         <v>6.40000000000001E-007</v>
       </c>
@@ -5821,19 +6304,19 @@
         <f aca="false">B34-0.0002</f>
         <v>0.0038</v>
       </c>
-      <c r="C35" s="24" t="n">
+      <c r="C35" s="28" t="n">
         <f aca="false">2.97*B35^(0.62)</f>
         <v>0.0938041989749743</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="29" t="n">
         <f aca="false">0.057*B35^(1.944)</f>
         <v>1.12453808272104E-006</v>
       </c>
-      <c r="E35" s="24" t="n">
+      <c r="E35" s="28" t="n">
         <f aca="false">0.38*B35^0.59</f>
         <v>0.0141858681376737</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="29" t="n">
         <f aca="false">0.04*B35^2</f>
         <v>5.77600000000001E-007</v>
       </c>
@@ -5843,19 +6326,19 @@
         <f aca="false">B35-0.0002</f>
         <v>0.0036</v>
       </c>
-      <c r="C36" s="24" t="n">
+      <c r="C36" s="28" t="n">
         <f aca="false">2.97*B36^(0.62)</f>
         <v>0.0907118449138866</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="29" t="n">
         <f aca="false">0.057*B36^(1.944)</f>
         <v>1.01234121200827E-006</v>
       </c>
-      <c r="E36" s="24" t="n">
+      <c r="E36" s="28" t="n">
         <f aca="false">0.38*B36^0.59</f>
         <v>0.0137404853074231</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="29" t="n">
         <f aca="false">0.04*B36^2</f>
         <v>5.18400000000001E-007</v>
       </c>
@@ -5865,19 +6348,19 @@
         <f aca="false">B36-0.0002</f>
         <v>0.0034</v>
       </c>
-      <c r="C37" s="24" t="n">
+      <c r="C37" s="28" t="n">
         <f aca="false">2.97*B37^(0.62)</f>
         <v>0.0875534729761634</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="29" t="n">
         <f aca="false">0.057*B37^(1.944)</f>
         <v>9.05878329188687E-007</v>
       </c>
-      <c r="E37" s="24" t="n">
+      <c r="E37" s="28" t="n">
         <f aca="false">0.38*B37^0.59</f>
         <v>0.0132848347830049</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="29" t="n">
         <f aca="false">0.04*B37^2</f>
         <v>4.62400000000001E-007</v>
       </c>
@@ -5887,19 +6370,19 @@
         <f aca="false">B37-0.0002</f>
         <v>0.0032</v>
       </c>
-      <c r="C38" s="24" t="n">
+      <c r="C38" s="28" t="n">
         <f aca="false">2.97*B38^(0.62)</f>
         <v>0.0843236575532816</v>
       </c>
-      <c r="D38" s="25" t="n">
+      <c r="D38" s="29" t="n">
         <f aca="false">0.057*B38^(1.944)</f>
         <v>8.05167828034625E-007</v>
       </c>
-      <c r="E38" s="24" t="n">
+      <c r="E38" s="28" t="n">
         <f aca="false">0.38*B38^0.59</f>
         <v>0.0128180536155539</v>
       </c>
-      <c r="F38" s="25" t="n">
+      <c r="F38" s="29" t="n">
         <f aca="false">0.04*B38^2</f>
         <v>4.096E-007</v>
       </c>
@@ -5909,19 +6392,19 @@
         <f aca="false">B38-0.0002</f>
         <v>0.003</v>
       </c>
-      <c r="C39" s="24" t="n">
+      <c r="C39" s="28" t="n">
         <f aca="false">2.97*B39^(0.62)</f>
         <v>0.0810161548842737</v>
       </c>
-      <c r="D39" s="25" t="n">
+      <c r="D39" s="29" t="n">
         <f aca="false">0.057*B39^(1.944)</f>
         <v>7.10229283654885E-007</v>
       </c>
-      <c r="E39" s="24" t="n">
+      <c r="E39" s="28" t="n">
         <f aca="false">0.38*B39^0.59</f>
         <v>0.0123391469647662</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="29" t="n">
         <f aca="false">0.04*B39^2</f>
         <v>3.6E-007</v>
       </c>
@@ -5931,19 +6414,19 @@
         <f aca="false">B39-0.0002</f>
         <v>0.0028</v>
       </c>
-      <c r="C40" s="24" t="n">
+      <c r="C40" s="28" t="n">
         <f aca="false">2.97*B40^(0.62)</f>
         <v>0.0776237158778282</v>
       </c>
-      <c r="D40" s="25" t="n">
+      <c r="D40" s="29" t="n">
         <f aca="false">0.057*B40^(1.944)</f>
         <v>6.21083609941571E-007</v>
       </c>
-      <c r="E40" s="24" t="n">
+      <c r="E40" s="28" t="n">
         <f aca="false">0.38*B40^0.59</f>
         <v>0.0118469576267359</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="29" t="n">
         <f aca="false">0.04*B40^2</f>
         <v>3.136E-007</v>
       </c>
@@ -5953,19 +6436,19 @@
         <f aca="false">B40-0.0002</f>
         <v>0.0026</v>
       </c>
-      <c r="C41" s="24" t="n">
+      <c r="C41" s="28" t="n">
         <f aca="false">2.97*B41^(0.62)</f>
         <v>0.074137839371113</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="D41" s="29" t="n">
         <f aca="false">0.057*B41^(1.944)</f>
         <v>5.37753250409072E-007</v>
       </c>
-      <c r="E41" s="24" t="n">
+      <c r="E41" s="28" t="n">
         <f aca="false">0.38*B41^0.59</f>
         <v>0.0113401257883725</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="29" t="n">
         <f aca="false">0.04*B41^2</f>
         <v>2.704E-007</v>
       </c>
@@ -5975,19 +6458,19 @@
         <f aca="false">B41-0.0002</f>
         <v>0.0024</v>
       </c>
-      <c r="C42" s="24" t="n">
+      <c r="C42" s="28" t="n">
         <f aca="false">2.97*B42^(0.62)</f>
         <v>0.0705484406991499</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D42" s="29" t="n">
         <f aca="false">0.057*B42^(1.944)</f>
         <v>4.60262412539324E-007</v>
       </c>
-      <c r="E42" s="24" t="n">
+      <c r="E42" s="28" t="n">
         <f aca="false">0.38*B42^0.59</f>
         <v>0.0108170348579644</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="29" t="n">
         <f aca="false">0.04*B42^2</f>
         <v>2.304E-007</v>
       </c>
@@ -5997,19 +6480,19 @@
         <f aca="false">B42-0.0002</f>
         <v>0.0022</v>
       </c>
-      <c r="C43" s="24" t="n">
+      <c r="C43" s="28" t="n">
         <f aca="false">2.97*B43^(0.62)</f>
         <v>0.066843396796619</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="29" t="n">
         <f aca="false">0.057*B43^(1.944)</f>
         <v>3.88637359880999E-007</v>
       </c>
-      <c r="E43" s="24" t="n">
+      <c r="E43" s="28" t="n">
         <f aca="false">0.38*B43^0.59</f>
         <v>0.0102757369530601</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="29" t="n">
         <f aca="false">0.04*B43^2</f>
         <v>1.936E-007</v>
       </c>
@@ -6019,19 +6502,19 @@
         <f aca="false">B43-0.0002</f>
         <v>0.002</v>
       </c>
-      <c r="C44" s="24" t="n">
+      <c r="C44" s="28" t="n">
         <f aca="false">2.97*B44^(0.62)</f>
         <v>0.0630079060121878</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="29" t="n">
         <f aca="false">0.057*B44^(1.944)</f>
         <v>3.22906782489461E-007</v>
       </c>
-      <c r="E44" s="24" t="n">
+      <c r="E44" s="28" t="n">
         <f aca="false">0.38*B44^0.59</f>
         <v>0.00971384778988223</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="29" t="n">
         <f aca="false">0.04*B44^2</f>
         <v>1.6E-007</v>
       </c>
@@ -6041,19 +6524,19 @@
         <f aca="false">B44-0.0002</f>
         <v>0.0018</v>
       </c>
-      <c r="C45" s="24" t="n">
+      <c r="C45" s="28" t="n">
         <f aca="false">2.97*B45^(0.62)</f>
         <v>0.0590235602853991</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="29" t="n">
         <f aca="false">0.057*B45^(1.944)</f>
         <v>2.63102276346055E-007</v>
       </c>
-      <c r="E45" s="24" t="n">
+      <c r="E45" s="28" t="n">
         <f aca="false">0.38*B45^0.59</f>
         <v>0.00912839395338729</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="29" t="n">
         <f aca="false">0.04*B45^2</f>
         <v>1.296E-007</v>
       </c>
@@ -6063,19 +6546,19 @@
         <f aca="false">B45-0.0002</f>
         <v>0.0016</v>
       </c>
-      <c r="C46" s="24" t="n">
+      <c r="C46" s="28" t="n">
         <f aca="false">2.97*B46^(0.62)</f>
         <v>0.0548669524890189</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D46" s="29" t="n">
         <f aca="false">0.057*B46^(1.944)</f>
         <v>2.09258978972385E-007</v>
       </c>
-      <c r="E46" s="24" t="n">
+      <c r="E46" s="28" t="n">
         <f aca="false">0.38*B46^0.59</f>
         <v>0.00851558300165745</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="29" t="n">
         <f aca="false">0.04*B46^2</f>
         <v>1.024E-007</v>
       </c>
@@ -6085,19 +6568,19 @@
         <f aca="false">B46-0.0002</f>
         <v>0.0014</v>
       </c>
-      <c r="C47" s="24" t="n">
+      <c r="C47" s="28" t="n">
         <f aca="false">2.97*B47^(0.62)</f>
         <v>0.0505074952233752</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="29" t="n">
         <f aca="false">0.057*B47^(1.944)</f>
         <v>1.6141643710492E-007</v>
       </c>
-      <c r="E47" s="24" t="n">
+      <c r="E47" s="28" t="n">
         <f aca="false">0.38*B47^0.59</f>
         <v>0.00787044226942325</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="29" t="n">
         <f aca="false">0.04*B47^2</f>
         <v>7.84000000000001E-008</v>
       </c>
@@ -6107,19 +6590,19 @@
         <f aca="false">B47-0.0002</f>
         <v>0.0012</v>
       </c>
-      <c r="C48" s="24" t="n">
+      <c r="C48" s="28" t="n">
         <f aca="false">2.97*B48^(0.62)</f>
         <v>0.0459038193589834</v>
       </c>
-      <c r="D48" s="25" t="n">
+      <c r="D48" s="29" t="n">
         <f aca="false">0.057*B48^(1.944)</f>
         <v>1.1961983471501E-007</v>
       </c>
-      <c r="E48" s="24" t="n">
+      <c r="E48" s="28" t="n">
         <f aca="false">0.38*B48^0.59</f>
         <v>0.00718622038318236</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="29" t="n">
         <f aca="false">0.04*B48^2</f>
         <v>5.76000000000001E-008</v>
       </c>
@@ -6129,19 +6612,19 @@
         <f aca="false">B48-0.0002</f>
         <v>0.001</v>
       </c>
-      <c r="C49" s="24" t="n">
+      <c r="C49" s="28" t="n">
         <f aca="false">2.97*B49^(0.62)</f>
         <v>0.0409974126587057</v>
       </c>
-      <c r="D49" s="25" t="n">
+      <c r="D49" s="29" t="n">
         <f aca="false">0.057*B49^(1.944)</f>
         <v>8.39218126386651E-008</v>
       </c>
-      <c r="E49" s="24" t="n">
+      <c r="E49" s="28" t="n">
         <f aca="false">0.38*B49^0.59</f>
         <v>0.00645332587935463</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="29" t="n">
         <f aca="false">0.04*B49^2</f>
         <v>4E-008</v>
       </c>
@@ -6151,19 +6634,19 @@
         <f aca="false">B49-0.0002</f>
         <v>0.0008</v>
       </c>
-      <c r="C50" s="24" t="n">
+      <c r="C50" s="28" t="n">
         <f aca="false">2.97*B50^(0.62)</f>
         <v>0.0357003308772521</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="29" t="n">
         <f aca="false">0.057*B50^(1.944)</f>
         <v>5.4385332791367E-008</v>
       </c>
-      <c r="E50" s="24" t="n">
+      <c r="E50" s="28" t="n">
         <f aca="false">0.38*B50^0.59</f>
         <v>0.00565726716653182</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="29" t="n">
         <f aca="false">0.04*B50^2</f>
         <v>2.56E-008</v>
       </c>
@@ -6173,19 +6656,19 @@
         <f aca="false">B50-0.0002</f>
         <v>0.0006</v>
       </c>
-      <c r="C51" s="24" t="n">
+      <c r="C51" s="28" t="n">
         <f aca="false">2.97*B51^(0.62)</f>
         <v>0.0298682807282454</v>
       </c>
-      <c r="D51" s="25" t="n">
+      <c r="D51" s="29" t="n">
         <f aca="false">0.057*B51^(1.944)</f>
         <v>3.10885800521977E-008</v>
       </c>
-      <c r="E51" s="24" t="n">
+      <c r="E51" s="28" t="n">
         <f aca="false">0.38*B51^0.59</f>
         <v>0.0047741145400528</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="29" t="n">
         <f aca="false">0.04*B51^2</f>
         <v>1.44E-008</v>
       </c>
@@ -6195,19 +6678,19 @@
         <f aca="false">B51-0.0002</f>
         <v>0.0004</v>
       </c>
-      <c r="C52" s="24" t="n">
+      <c r="C52" s="28" t="n">
         <f aca="false">2.97*B52^(0.62)</f>
         <v>0.0232291674118471</v>
       </c>
-      <c r="D52" s="25" t="n">
+      <c r="D52" s="29" t="n">
         <f aca="false">0.057*B52^(1.944)</f>
         <v>1.41344683862672E-008</v>
       </c>
-      <c r="E52" s="24" t="n">
+      <c r="E52" s="28" t="n">
         <f aca="false">0.38*B52^0.59</f>
         <v>0.0037583653153624</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="29" t="n">
         <f aca="false">0.04*B52^2</f>
         <v>6.40000000000002E-009</v>
       </c>
@@ -6217,19 +6700,19 @@
         <f aca="false">B52-0.0002</f>
         <v>0.0002</v>
       </c>
-      <c r="C53" s="24" t="n">
+      <c r="C53" s="28" t="n">
         <f aca="false">2.97*B53^(0.62)</f>
         <v>0.0151145439100522</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="29" t="n">
         <f aca="false">0.057*B53^(1.944)</f>
         <v>3.67347566537464E-009</v>
       </c>
-      <c r="E53" s="24" t="n">
+      <c r="E53" s="28" t="n">
         <f aca="false">0.38*B53^0.59</f>
         <v>0.00249684333935719</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="29" t="n">
         <f aca="false">0.04*B53^2</f>
         <v>1.60000000000001E-009</v>
       </c>
@@ -6257,30 +6740,30 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>41</v>
+      <c r="A55" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>270.737</v>
       </c>
-      <c r="B56" s="26" t="n">
+      <c r="B56" s="30" t="n">
         <v>0.00448963749440691</v>
       </c>
-      <c r="C56" s="27" t="n">
+      <c r="C56" s="31" t="n">
         <f aca="false">2.97*B56^(0.62)</f>
         <v>0.104022536776874</v>
       </c>
-      <c r="D56" s="28" t="n">
+      <c r="D56" s="32" t="n">
         <f aca="false">0.057*B56^(1.944)</f>
         <v>1.55515462681334E-006</v>
       </c>
-      <c r="E56" s="27" t="n">
+      <c r="E56" s="31" t="n">
         <f aca="false">0.38*B56^0.59</f>
         <v>0.0156526635261272</v>
       </c>
-      <c r="F56" s="28" t="n">
+      <c r="F56" s="32" t="n">
         <f aca="false">0.04*B56^2</f>
         <v>8.06273793247375E-007</v>
       </c>
@@ -6289,22 +6772,22 @@
       <c r="A57" s="0" t="n">
         <v>847.58</v>
       </c>
-      <c r="B57" s="26" t="n">
+      <c r="B57" s="30" t="n">
         <v>0.00326686414564173</v>
       </c>
-      <c r="C57" s="27" t="n">
+      <c r="C57" s="31" t="n">
         <f aca="false">2.97*B57^(0.62)</f>
         <v>0.0854117687386061</v>
       </c>
-      <c r="D57" s="28" t="n">
+      <c r="D57" s="32" t="n">
         <f aca="false">0.057*B57^(1.944)</f>
         <v>8.38196155302728E-007</v>
       </c>
-      <c r="E57" s="27" t="n">
+      <c r="E57" s="31" t="n">
         <f aca="false">0.38*B57^0.59</f>
         <v>0.01297540524603</v>
       </c>
-      <c r="F57" s="28" t="n">
+      <c r="F57" s="32" t="n">
         <f aca="false">0.04*B57^2</f>
         <v>4.26896053843179E-007</v>
       </c>
@@ -6313,22 +6796,22 @@
       <c r="A58" s="0" t="n">
         <v>2738</v>
       </c>
-      <c r="B58" s="26" t="n">
+      <c r="B58" s="30" t="n">
         <v>0.00148681748399815</v>
       </c>
-      <c r="C58" s="27" t="n">
+      <c r="C58" s="31" t="n">
         <f aca="false">2.97*B58^(0.62)</f>
         <v>0.0524271437927417</v>
       </c>
-      <c r="D58" s="28" t="n">
+      <c r="D58" s="32" t="n">
         <f aca="false">0.057*B58^(1.944)</f>
         <v>1.81444473852152E-007</v>
       </c>
-      <c r="E58" s="27" t="n">
+      <c r="E58" s="31" t="n">
         <f aca="false">0.38*B58^0.59</f>
         <v>0.00815484321487877</v>
       </c>
-      <c r="F58" s="28" t="n">
+      <c r="F58" s="32" t="n">
         <f aca="false">0.04*B58^2</f>
         <v>8.84250492289036E-008</v>
       </c>
@@ -6337,22 +6820,22 @@
       <c r="A59" s="0" t="n">
         <v>4338.66</v>
       </c>
-      <c r="B59" s="26" t="n">
+      <c r="B59" s="30" t="n">
         <v>0.00165426731175644</v>
       </c>
-      <c r="C59" s="27" t="n">
+      <c r="C59" s="31" t="n">
         <f aca="false">2.97*B59^(0.62)</f>
         <v>0.0560134052823008</v>
       </c>
-      <c r="D59" s="28" t="n">
+      <c r="D59" s="32" t="n">
         <f aca="false">0.057*B59^(1.944)</f>
         <v>2.23277167228799E-007</v>
       </c>
-      <c r="E59" s="27" t="n">
+      <c r="E59" s="31" t="n">
         <f aca="false">0.38*B59^0.59</f>
         <v>0.00868482261731556</v>
       </c>
-      <c r="F59" s="28" t="n">
+      <c r="F59" s="32" t="n">
         <f aca="false">0.04*B59^2</f>
         <v>1.09464013549835E-007</v>
       </c>
@@ -6361,22 +6844,22 @@
       <c r="A60" s="0" t="n">
         <v>5086.67</v>
       </c>
-      <c r="B60" s="26" t="n">
+      <c r="B60" s="30" t="n">
         <v>0.00172994925903795</v>
       </c>
-      <c r="C60" s="27" t="n">
+      <c r="C60" s="31" t="n">
         <f aca="false">2.97*B60^(0.62)</f>
         <v>0.0575886815321441</v>
       </c>
-      <c r="D60" s="28" t="n">
+      <c r="D60" s="32" t="n">
         <f aca="false">0.057*B60^(1.944)</f>
         <v>2.43563225835732E-007</v>
       </c>
-      <c r="E60" s="27" t="n">
+      <c r="E60" s="31" t="n">
         <f aca="false">0.38*B60^0.59</f>
         <v>0.00891709271065583</v>
       </c>
-      <c r="F60" s="28" t="n">
+      <c r="F60" s="32" t="n">
         <f aca="false">0.04*B60^2</f>
         <v>1.19708977553838E-007</v>
       </c>
@@ -6404,7 +6887,7 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6417,30 +6900,30 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>43</v>
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3224.39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3224.39</v>
@@ -6448,83 +6931,83 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" s="30" t="n">
         <v>0.0174073913465891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="H4" s="30" t="n">
         <v>0.0174073913465891</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" s="30" t="n">
         <v>0.00905420943797329</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H5" s="30" t="n">
         <v>0.00838855821647622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.733567390573683</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.16628412805505</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="26" t="n">
+        <v>59</v>
+      </c>
+      <c r="H8" s="30" t="n">
         <v>0.0105579786502628</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6.89970872110144</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1.85502754530844</v>
@@ -6532,7 +7015,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1.7860288485136</v>
@@ -6540,7 +7023,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1885.33</v>
@@ -6548,13 +7031,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B12" s="30" t="n">
         <v>0.0665863915555153</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1885.33</v>
@@ -6562,69 +7045,69 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B13" s="30" t="n">
         <v>0.0121820294071994</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="H13" s="30" t="n">
         <v>0.0665863915555153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H14" s="30" t="n">
         <v>0.0112686798808896</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4.82102591004869</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4.7100584682048</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.53102565960586</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.126974631540773</v>
@@ -6632,7 +7115,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3.09742234137423</v>
@@ -6640,13 +7123,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1707.04</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>3.18462410915096</v>
@@ -6654,21 +7137,21 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B20" s="30" t="n">
         <v>0.0796091569963983</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B21" s="30" t="n">
         <v>0.0133703247435226</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1707.04</v>
@@ -6676,63 +7159,63 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="H22" s="30" t="n">
         <v>0.0796091569963983</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>7.15329229537103</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H23" s="30" t="n">
         <v>0.0124963864811004</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4.12322934641132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11.2764625888247</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.230555884990333</v>
@@ -6740,13 +7223,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1631.73</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2.94768993553845</v>
@@ -6754,13 +7237,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B28" s="30" t="n">
         <v>0.0858483420562948</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>3.12901332289223</v>
@@ -6768,21 +7251,21 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B29" s="30" t="n">
         <v>0.0147866557709214</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1631.73</v>
@@ -6790,63 +7273,63 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>7.22104189591477</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="H31" s="30" t="n">
         <v>0.0858483420562948</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4.162280894934</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H32" s="30" t="n">
         <v>0.0141742089005532</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>11.3832671605332</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1276.06</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.243740988673165</v>
@@ -6854,13 +7337,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.122600161613828</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3.00051480320737</v>
@@ -6868,13 +7351,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B37" s="30" t="n">
         <v>0.0162094513521557</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3.19226785638621</v>
@@ -6882,21 +7365,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>9.54813216436608</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1276.06</v>
@@ -6904,13 +7387,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3.49452531337901</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.122600161613828</v>
@@ -6918,49 +7401,49 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13.042611359173</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H41" s="30" t="n">
         <v>0.0148325327507379</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1733.14</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="B44" s="30" t="n">
         <v>0.0775543912150806</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0.346713028636503</v>
@@ -6968,13 +7451,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B45" s="30" t="n">
         <v>0.0270356845332595</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2.57417709180406</v>
@@ -6982,13 +7465,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2.87224516711447</v>
@@ -6996,7 +7479,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14.5861799249095</v>
@@ -7004,13 +7487,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.57887732799694</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1733.14</v>
@@ -7018,63 +7501,63 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>17.1649659667583</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="H49" s="30" t="n">
         <v>0.0775543912150806</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H50" s="30" t="n">
         <v>0.0240218462854766</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1145.54</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.139727826991123</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="B53" s="30" t="n">
         <v>0.00539919856208694</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0.787616519847601</v>
@@ -7082,13 +7565,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1.9896617741242</v>
@@ -7096,13 +7579,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>18.7412552816673</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.61417434358327</v>
@@ -7110,7 +7593,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.31350624995081</v>
@@ -7118,13 +7601,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>22.0546920049182</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1145.54</v>
@@ -7132,7 +7615,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0.139727826991123</v>
@@ -7140,31 +7623,31 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H59" s="30" t="n">
         <v>0.00467317393173504</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0.454771937101082</v>
@@ -7172,7 +7655,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>2.23547135492507</v>
@@ -7180,7 +7663,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G64" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>2.6637119688558</v>
@@ -7204,7 +7687,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="159" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="223" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="invariant_k" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="67">
   <si>
     <t>Experiments 13.06.2017</t>
   </si>
@@ -60,13 +60,10 @@
     <t>INCLUDED IN FIGURE</t>
   </si>
   <si>
-    <t>not ready yet</t>
-  </si>
-  <si>
     <t>parallel to 1:1</t>
   </si>
   <si>
-    <t>k1 needs  higher! </t>
+    <t>k1 needs  higher!</t>
   </si>
   <si>
     <t>k1 needs  higher!  1000M does not get further down</t>
@@ -619,7 +616,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2004,11 +2001,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="38432366"/>
-        <c:axId val="21412513"/>
+        <c:axId val="61650144"/>
+        <c:axId val="85958370"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38432366"/>
+        <c:axId val="61650144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,11 +2021,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="21412513"/>
+        <c:crossAx val="85958370"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21412513"/>
+        <c:axId val="85958370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2050,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38432366"/>
+        <c:crossAx val="61650144"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2093,15 +2090,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>100080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>442080</xdr:colOff>
+      <xdr:colOff>468720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2109,8 +2106,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7318080" y="216360"/>
-        <a:ext cx="8535240" cy="6770880"/>
+        <a:off x="7345080" y="207360"/>
+        <a:ext cx="8534880" cy="6770520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2130,8 +2127,8 @@
   </sheetPr>
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2968,9 +2965,6 @@
       <c r="D66" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -2987,7 +2981,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +3059,7 @@
         <v>4</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,7 +3077,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,9 +3142,6 @@
       <c r="D77" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -3210,9 +3201,6 @@
       </c>
       <c r="D81" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,7 +3334,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="3"/>
       <c r="E1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3361,46 +3349,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="O2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="14" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="14" t="n">
         <v>0.008</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>5</v>
@@ -3409,13 +3397,13 @@
         <v>3</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>5</v>
@@ -3424,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,32 +3878,32 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="19"/>
       <c r="E17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="14" t="n">
         <v>0.005</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="14" t="n">
         <v>0.002</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="19"/>
       <c r="E18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>5</v>
@@ -3924,13 +3912,13 @@
         <v>3</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>5</v>
@@ -3939,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,7 +4400,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="3"/>
       <c r="E32" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4427,46 +4415,46 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="O33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F34" s="14" t="n">
         <v>0.01</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" s="14" t="n">
         <v>0.008</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>5</v>
@@ -4475,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>5</v>
@@ -4490,12 +4478,12 @@
         <v>3</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="17" t="n">
         <v>0.95</v>
@@ -4538,7 +4526,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="17" t="n">
         <v>0.9</v>
@@ -4581,7 +4569,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="17" t="n">
         <v>0.8</v>
@@ -4962,32 +4950,32 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="19"/>
       <c r="E48" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" s="14" t="n">
         <v>0.005</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L48" s="14" t="n">
         <v>0.002</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="19"/>
       <c r="E49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>5</v>
@@ -4996,13 +4984,13 @@
         <v>3</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="M49" s="16" t="s">
         <v>5</v>
@@ -5011,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,32 +5499,32 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5812,7 @@
         <v>2.3104E-006</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5849,7 +5837,7 @@
         <v>2.1904E-006</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5874,13 +5862,13 @@
         <v>2.0736E-006</v>
       </c>
       <c r="S18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="U18" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="U18" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,7 +6079,7 @@
         <v>1.3456E-006</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1195</v>
@@ -6741,7 +6729,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,29 +6889,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3224.39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3224.39</v>
@@ -6931,13 +6919,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="30" t="n">
         <v>0.0174073913465891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="30" t="n">
         <v>0.0174073913465891</v>
@@ -6945,13 +6933,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="30" t="n">
         <v>0.00905420943797329</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="30" t="n">
         <v>0.00838855821647622</v>
@@ -6959,41 +6947,41 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.733567390573683</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.16628412805505</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="30" t="n">
         <v>0.0105579786502628</v>
@@ -7001,13 +6989,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6.89970872110144</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1.85502754530844</v>
@@ -7015,7 +7003,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1.7860288485136</v>
@@ -7023,7 +7011,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1885.33</v>
@@ -7031,13 +7019,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="30" t="n">
         <v>0.0665863915555153</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1885.33</v>
@@ -7045,13 +7033,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="30" t="n">
         <v>0.0121820294071994</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="30" t="n">
         <v>0.0665863915555153</v>
@@ -7059,13 +7047,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="30" t="n">
         <v>0.0112686798808896</v>
@@ -7073,41 +7061,41 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4.82102591004869</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4.7100584682048</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.53102565960586</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.126974631540773</v>
@@ -7115,7 +7103,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3.09742234137423</v>
@@ -7123,13 +7111,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1707.04</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>3.18462410915096</v>
@@ -7137,7 +7125,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="30" t="n">
         <v>0.0796091569963983</v>
@@ -7145,13 +7133,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="30" t="n">
         <v>0.0133703247435226</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1707.04</v>
@@ -7159,13 +7147,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="30" t="n">
         <v>0.0796091569963983</v>
@@ -7173,13 +7161,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>7.15329229537103</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="30" t="n">
         <v>0.0124963864811004</v>
@@ -7187,35 +7175,35 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4.12322934641132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11.2764625888247</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.230555884990333</v>
@@ -7223,13 +7211,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1631.73</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2.94768993553845</v>
@@ -7237,13 +7225,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="30" t="n">
         <v>0.0858483420562948</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>3.12901332289223</v>
@@ -7251,7 +7239,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="30" t="n">
         <v>0.0147866557709214</v>
@@ -7259,13 +7247,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1631.73</v>
@@ -7273,13 +7261,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>7.22104189591477</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="30" t="n">
         <v>0.0858483420562948</v>
@@ -7287,13 +7275,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4.162280894934</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="30" t="n">
         <v>0.0141742089005532</v>
@@ -7301,35 +7289,35 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>11.3832671605332</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1276.06</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.243740988673165</v>
@@ -7337,13 +7325,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.122600161613828</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3.00051480320737</v>
@@ -7351,13 +7339,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="30" t="n">
         <v>0.0162094513521557</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3.19226785638621</v>
@@ -7365,21 +7353,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>9.54813216436608</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1276.06</v>
@@ -7387,13 +7375,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3.49452531337901</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.122600161613828</v>
@@ -7401,13 +7389,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13.042611359173</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H41" s="30" t="n">
         <v>0.0148325327507379</v>
@@ -7415,35 +7403,35 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1733.14</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="30" t="n">
         <v>0.0775543912150806</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0.346713028636503</v>
@@ -7451,13 +7439,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="30" t="n">
         <v>0.0270356845332595</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2.57417709180406</v>
@@ -7465,13 +7453,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="G46" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2.87224516711447</v>
@@ -7479,7 +7467,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14.5861799249095</v>
@@ -7487,13 +7475,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.57887732799694</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1733.14</v>
@@ -7501,13 +7489,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>17.1649659667583</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H49" s="30" t="n">
         <v>0.0775543912150806</v>
@@ -7515,7 +7503,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H50" s="30" t="n">
         <v>0.0240218462854766</v>
@@ -7523,41 +7511,41 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1145.54</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.139727826991123</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="30" t="n">
         <v>0.00539919856208694</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0.787616519847601</v>
@@ -7565,13 +7553,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="G54" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1.9896617741242</v>
@@ -7579,13 +7567,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>18.7412552816673</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.61417434358327</v>
@@ -7593,7 +7581,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.31350624995081</v>
@@ -7601,13 +7589,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>22.0546920049182</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1145.54</v>
@@ -7615,7 +7603,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0.139727826991123</v>
@@ -7623,7 +7611,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H59" s="30" t="n">
         <v>0.00467317393173504</v>
@@ -7631,23 +7619,23 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0.454771937101082</v>
@@ -7655,7 +7643,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>2.23547135492507</v>
@@ -7663,7 +7651,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G64" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>2.6637119688558</v>

--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="223" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="238" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="invariant_k" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
   <si>
     <t>Experiments 13.06.2017</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>poor R2 due to upper 1000m</t>
+  </si>
+  <si>
+    <t>RUNS 1507</t>
   </si>
   <si>
     <t>Examples of invariant rates used in HAMOCC</t>
@@ -228,10 +231,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000E+000"/>
-    <numFmt numFmtId="168" formatCode="0.00E+000"/>
+    <numFmt numFmtId="165" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000E+000"/>
     <numFmt numFmtId="169" formatCode="0.00000000E+000"/>
   </numFmts>
   <fonts count="11">
@@ -411,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,6 +443,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,19 +459,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,28 +515,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -524,15 +535,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2001,11 +2008,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61650144"/>
-        <c:axId val="85958370"/>
+        <c:axId val="86251564"/>
+        <c:axId val="76568060"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61650144"/>
+        <c:axId val="86251564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,11 +2028,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85958370"/>
+        <c:crossAx val="76568060"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85958370"/>
+        <c:axId val="76568060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2057,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61650144"/>
+        <c:crossAx val="86251564"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2090,15 +2097,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>468720</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2106,8 +2113,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7345080" y="207360"/>
-        <a:ext cx="8534880" cy="6770520"/>
+        <a:off x="7399080" y="189360"/>
+        <a:ext cx="8534160" cy="6769800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2125,10 +2132,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G112" activeCellId="0" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2920,6 +2927,13 @@
       <c r="D63" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="J63" s="0" t="n">
+        <v>0.147575606681183</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">+J63/8</f>
+        <v>0.0184469508351479</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
@@ -2935,6 +2949,13 @@
       <c r="D64" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="J64" s="7" t="n">
+        <v>0.0430956792471808</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">+J64/8</f>
+        <v>0.0053869599058976</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -2965,6 +2986,7 @@
       <c r="D66" s="6" t="n">
         <v>4</v>
       </c>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -2977,7 +2999,7 @@
         <f aca="false">B67*D67</f>
         <v>0.0175</v>
       </c>
-      <c r="D67" s="7" t="n">
+      <c r="D67" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E67" s="0" t="s">
@@ -3000,7 +3022,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B69" s="6" t="n">
@@ -3073,7 +3095,7 @@
         <f aca="false">B73*D73</f>
         <v>0.02</v>
       </c>
-      <c r="D73" s="7" t="n">
+      <c r="D73" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E73" s="0" t="s">
@@ -3081,7 +3103,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="n">
+      <c r="A74" s="9" t="n">
         <v>13</v>
       </c>
       <c r="B74" s="6" t="n">
@@ -3159,7 +3181,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
+      <c r="A79" s="9" t="n">
         <v>18</v>
       </c>
       <c r="B79" s="6" t="n">
@@ -3169,7 +3191,7 @@
         <f aca="false">B79*D79</f>
         <v>0.0225</v>
       </c>
-      <c r="D79" s="7" t="n">
+      <c r="D79" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3234,7 +3256,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="n">
+      <c r="A84" s="9" t="n">
         <v>23</v>
       </c>
       <c r="B84" s="6" t="n">
@@ -3259,7 +3281,7 @@
         <f aca="false">B85*D85</f>
         <v>0.025</v>
       </c>
-      <c r="D85" s="7" t="n">
+      <c r="D85" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3290,6 +3312,515 @@
         <v>0.05</v>
       </c>
       <c r="D87" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <f aca="false">C95*E95</f>
+        <v>0.008</v>
+      </c>
+      <c r="E95" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C96" s="13" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D96" s="13" t="n">
+        <f aca="false">C96*E96</f>
+        <v>0.016</v>
+      </c>
+      <c r="E96" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C97" s="13" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D97" s="13" t="n">
+        <f aca="false">C97*E97</f>
+        <v>0.02</v>
+      </c>
+      <c r="E97" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" s="13" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D98" s="13" t="n">
+        <f aca="false">C98*E98</f>
+        <v>0.032</v>
+      </c>
+      <c r="E98" s="14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C99" s="16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D99" s="16" t="n">
+        <f aca="false">C99*E99</f>
+        <v>0.04</v>
+      </c>
+      <c r="E99" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B100" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <f aca="false">C95+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <f aca="false">C100*E100</f>
+        <v>0.009</v>
+      </c>
+      <c r="E100" s="11" t="n">
+        <f aca="false">E95</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B101" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <f aca="false">C96+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="D101" s="13" t="n">
+        <f aca="false">C101*E101</f>
+        <v>0.018</v>
+      </c>
+      <c r="E101" s="14" t="n">
+        <f aca="false">E96</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B102" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <f aca="false">C97+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="D102" s="13" t="n">
+        <f aca="false">C102*E102</f>
+        <v>0.0225</v>
+      </c>
+      <c r="E102" s="14" t="n">
+        <f aca="false">E97</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B103" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <f aca="false">C98+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="D103" s="13" t="n">
+        <f aca="false">C103*E103</f>
+        <v>0.036</v>
+      </c>
+      <c r="E103" s="14" t="n">
+        <f aca="false">E98</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B104" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C104" s="16" t="n">
+        <f aca="false">C99+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="D104" s="16" t="n">
+        <f aca="false">C104*E104</f>
+        <v>0.045</v>
+      </c>
+      <c r="E104" s="17" t="n">
+        <f aca="false">E99</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B105" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <f aca="false">C100+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <f aca="false">C105*E105</f>
+        <v>0.01</v>
+      </c>
+      <c r="E105" s="11" t="n">
+        <f aca="false">E100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B106" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <f aca="false">C101+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="D106" s="13" t="n">
+        <f aca="false">C106*E106</f>
+        <v>0.02</v>
+      </c>
+      <c r="E106" s="14" t="n">
+        <f aca="false">E101</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B107" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <f aca="false">C102+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="D107" s="13" t="n">
+        <f aca="false">C107*E107</f>
+        <v>0.025</v>
+      </c>
+      <c r="E107" s="14" t="n">
+        <f aca="false">E102</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B108" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <f aca="false">C103+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="D108" s="13" t="n">
+        <f aca="false">C108*E108</f>
+        <v>0.04</v>
+      </c>
+      <c r="E108" s="14" t="n">
+        <f aca="false">E103</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B109" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C109" s="16" t="n">
+        <f aca="false">C104+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="D109" s="16" t="n">
+        <f aca="false">C109*E109</f>
+        <v>0.05</v>
+      </c>
+      <c r="E109" s="17" t="n">
+        <f aca="false">E104</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B110" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <f aca="false">C105+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="D110" s="3" t="n">
+        <f aca="false">C110*E110</f>
+        <v>0.011</v>
+      </c>
+      <c r="E110" s="11" t="n">
+        <f aca="false">E105</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B111" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <f aca="false">C106+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="D111" s="13" t="n">
+        <f aca="false">C111*E111</f>
+        <v>0.022</v>
+      </c>
+      <c r="E111" s="14" t="n">
+        <f aca="false">E106</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B112" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <f aca="false">C107+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="D112" s="13" t="n">
+        <f aca="false">C112*E112</f>
+        <v>0.0275</v>
+      </c>
+      <c r="E112" s="14" t="n">
+        <f aca="false">E107</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B113" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <f aca="false">C108+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="D113" s="13" t="n">
+        <f aca="false">C113*E113</f>
+        <v>0.044</v>
+      </c>
+      <c r="E113" s="14" t="n">
+        <f aca="false">E108</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B114" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="C114" s="16" t="n">
+        <f aca="false">C109+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="D114" s="16" t="n">
+        <f aca="false">C114*E114</f>
+        <v>0.055</v>
+      </c>
+      <c r="E114" s="17" t="n">
+        <f aca="false">E109</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B115" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <f aca="false">C110+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="D115" s="3" t="n">
+        <f aca="false">C115*E115</f>
+        <v>0.012</v>
+      </c>
+      <c r="E115" s="11" t="n">
+        <f aca="false">E110</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B116" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <f aca="false">C111+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="D116" s="13" t="n">
+        <f aca="false">C116*E116</f>
+        <v>0.024</v>
+      </c>
+      <c r="E116" s="14" t="n">
+        <f aca="false">E111</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B117" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <f aca="false">C112+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="D117" s="13" t="n">
+        <f aca="false">C117*E117</f>
+        <v>0.03</v>
+      </c>
+      <c r="E117" s="14" t="n">
+        <f aca="false">E112</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B118" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <f aca="false">C113+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="D118" s="13" t="n">
+        <f aca="false">C118*E118</f>
+        <v>0.048</v>
+      </c>
+      <c r="E118" s="14" t="n">
+        <f aca="false">E113</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B119" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C119" s="16" t="n">
+        <f aca="false">C114+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="D119" s="16" t="n">
+        <f aca="false">C119*E119</f>
+        <v>0.06</v>
+      </c>
+      <c r="E119" s="17" t="n">
+        <f aca="false">E114</f>
         <v>10</v>
       </c>
     </row>
@@ -3311,7 +3842,7 @@
   </sheetPr>
   <dimension ref="C1:O61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3331,10 +3862,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="9"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
+      <c r="E1" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3348,1059 +3879,1059 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="12" t="s">
-        <v>18</v>
+      <c r="C2" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="12" t="s">
-        <v>20</v>
+      <c r="C3" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="20" t="n">
         <v>0.008</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="13"/>
+      <c r="M3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>27</v>
+      <c r="O4" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="19"/>
-      <c r="E5" s="17" t="n">
+      <c r="C5" s="12"/>
+      <c r="E5" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="23" t="n">
         <f aca="false">1-E5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="25" t="n">
         <f aca="false">$F$3/(E5+F5/100)</f>
         <v>0.0105207785376118</v>
       </c>
-      <c r="H5" s="20" t="n">
+      <c r="H5" s="25" t="n">
         <f aca="false">G5/100</f>
         <v>0.000105207785376118</v>
       </c>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="23" t="n">
         <f aca="false">E5*G5+F5*H5</f>
         <v>0.01</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="L5" s="17" t="n">
+      <c r="L5" s="23" t="n">
         <f aca="false">1-K5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M5" s="20" t="n">
+      <c r="M5" s="25" t="n">
         <f aca="false">$L$3/(K5+L5/100)</f>
         <v>0.00841662283008943</v>
       </c>
-      <c r="N5" s="20" t="n">
+      <c r="N5" s="25" t="n">
         <f aca="false">M5/100</f>
         <v>8.41662283008943E-005</v>
       </c>
-      <c r="O5" s="18" t="n">
+      <c r="O5" s="24" t="n">
         <f aca="false">K5*M5+L5*N5</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="19"/>
-      <c r="E6" s="17" t="n">
+      <c r="C6" s="12"/>
+      <c r="E6" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="23" t="n">
         <f aca="false">1-E6</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="G6" s="25" t="n">
         <f aca="false">$F$3/(E6+F6/100)</f>
         <v>0.0110987791342952</v>
       </c>
-      <c r="H6" s="20" t="n">
+      <c r="H6" s="25" t="n">
         <f aca="false">G6/100</f>
         <v>0.000110987791342952</v>
       </c>
-      <c r="I6" s="17" t="n">
+      <c r="I6" s="23" t="n">
         <f aca="false">E6*G6+F6*H6</f>
         <v>0.01</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="L6" s="17" t="n">
+      <c r="L6" s="23" t="n">
         <f aca="false">1-K6</f>
         <v>0.1</v>
       </c>
-      <c r="M6" s="20" t="n">
+      <c r="M6" s="25" t="n">
         <f aca="false">$L$3/(K6+L6/100)</f>
         <v>0.00887902330743618</v>
       </c>
-      <c r="N6" s="20" t="n">
+      <c r="N6" s="25" t="n">
         <f aca="false">M6/100</f>
         <v>8.87902330743618E-005</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="24" t="n">
         <f aca="false">K6*M6+L6*N6</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="19"/>
-      <c r="E7" s="17" t="n">
+      <c r="C7" s="12"/>
+      <c r="E7" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="23" t="n">
         <f aca="false">1-E7</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="20" t="n">
+      <c r="G7" s="25" t="n">
         <f aca="false">$F$3/(E7+F7/100)</f>
         <v>0.0124688279301746</v>
       </c>
-      <c r="H7" s="20" t="n">
+      <c r="H7" s="25" t="n">
         <f aca="false">G7/100</f>
         <v>0.000124688279301746</v>
       </c>
-      <c r="I7" s="17" t="n">
+      <c r="I7" s="23" t="n">
         <f aca="false">E7*G7+F7*H7</f>
         <v>0.01</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="23" t="n">
         <f aca="false">1-K7</f>
         <v>0.2</v>
       </c>
-      <c r="M7" s="20" t="n">
+      <c r="M7" s="25" t="n">
         <f aca="false">$L$3/(K7+L7/100)</f>
         <v>0.00997506234413965</v>
       </c>
-      <c r="N7" s="20" t="n">
+      <c r="N7" s="25" t="n">
         <f aca="false">M7/100</f>
         <v>9.97506234413965E-005</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="24" t="n">
         <f aca="false">K7*M7+L7*N7</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="19"/>
-      <c r="E8" s="17" t="n">
+      <c r="C8" s="12"/>
+      <c r="E8" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="23" t="n">
         <f aca="false">1-E8</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="G8" s="25" t="n">
         <f aca="false">$F$3/(E8+F8/100)</f>
         <v>0.0142247510668563</v>
       </c>
-      <c r="H8" s="20" t="n">
+      <c r="H8" s="25" t="n">
         <f aca="false">G8/100</f>
         <v>0.000142247510668563</v>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="23" t="n">
         <f aca="false">E8*G8+F8*H8</f>
         <v>0.01</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="L8" s="17" t="n">
+      <c r="L8" s="23" t="n">
         <f aca="false">1-K8</f>
         <v>0.3</v>
       </c>
-      <c r="M8" s="20" t="n">
+      <c r="M8" s="25" t="n">
         <f aca="false">$L$3/(K8+L8/100)</f>
         <v>0.0113798008534851</v>
       </c>
-      <c r="N8" s="20" t="n">
+      <c r="N8" s="25" t="n">
         <f aca="false">M8/100</f>
         <v>0.000113798008534851</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="24" t="n">
         <f aca="false">K8*M8+L8*N8</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="19"/>
-      <c r="E9" s="17" t="n">
+      <c r="C9" s="12"/>
+      <c r="E9" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="23" t="n">
         <f aca="false">1-E9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="G9" s="25" t="n">
         <f aca="false">$F$3/(E9+F9/100)</f>
         <v>0.0165562913907285</v>
       </c>
-      <c r="H9" s="20" t="n">
+      <c r="H9" s="25" t="n">
         <f aca="false">G9/100</f>
         <v>0.000165562913907285</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="23" t="n">
         <f aca="false">E9*G9+F9*H9</f>
         <v>0.01</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="L9" s="17" t="n">
+      <c r="L9" s="23" t="n">
         <f aca="false">1-K9</f>
         <v>0.4</v>
       </c>
-      <c r="M9" s="20" t="n">
+      <c r="M9" s="25" t="n">
         <f aca="false">$L$3/(K9+L9/100)</f>
         <v>0.0132450331125828</v>
       </c>
-      <c r="N9" s="20" t="n">
+      <c r="N9" s="25" t="n">
         <f aca="false">M9/100</f>
         <v>0.000132450331125828</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="24" t="n">
         <f aca="false">K9*M9+L9*N9</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="19"/>
-      <c r="E10" s="17" t="n">
+      <c r="C10" s="12"/>
+      <c r="E10" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="23" t="n">
         <f aca="false">1-E10</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="G10" s="25" t="n">
         <f aca="false">$F$3/(E10+F10/100)</f>
         <v>0.0198019801980198</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="H10" s="25" t="n">
         <f aca="false">G10/100</f>
         <v>0.000198019801980198</v>
       </c>
-      <c r="I10" s="17" t="n">
+      <c r="I10" s="23" t="n">
         <f aca="false">E10*G10+F10*H10</f>
         <v>0.01</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="L10" s="17" t="n">
+      <c r="L10" s="23" t="n">
         <f aca="false">1-K10</f>
         <v>0.5</v>
       </c>
-      <c r="M10" s="20" t="n">
+      <c r="M10" s="25" t="n">
         <f aca="false">$L$3/(K10+L10/100)</f>
         <v>0.0158415841584158</v>
       </c>
-      <c r="N10" s="20" t="n">
+      <c r="N10" s="25" t="n">
         <f aca="false">M10/100</f>
         <v>0.000158415841584158</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="24" t="n">
         <f aca="false">K10*M10+L10*N10</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="19"/>
-      <c r="E11" s="17" t="n">
+      <c r="C11" s="12"/>
+      <c r="E11" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="23" t="n">
         <f aca="false">1-E11</f>
         <v>0.6</v>
       </c>
-      <c r="G11" s="20" t="n">
+      <c r="G11" s="25" t="n">
         <f aca="false">$F$3/(E11+F11/100)</f>
         <v>0.0246305418719212</v>
       </c>
-      <c r="H11" s="20" t="n">
+      <c r="H11" s="25" t="n">
         <f aca="false">G11/100</f>
         <v>0.000246305418719212</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="23" t="n">
         <f aca="false">E11*G11+F11*H11</f>
         <v>0.01</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="L11" s="17" t="n">
+      <c r="L11" s="23" t="n">
         <f aca="false">1-K11</f>
         <v>0.6</v>
       </c>
-      <c r="M11" s="20" t="n">
+      <c r="M11" s="25" t="n">
         <f aca="false">$L$3/(K11+L11/100)</f>
         <v>0.0197044334975369</v>
       </c>
-      <c r="N11" s="20" t="n">
+      <c r="N11" s="25" t="n">
         <f aca="false">M11/100</f>
         <v>0.000197044334975369</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="24" t="n">
         <f aca="false">K11*M11+L11*N11</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="19"/>
-      <c r="E12" s="17" t="n">
+      <c r="C12" s="12"/>
+      <c r="E12" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="23" t="n">
         <f aca="false">1-E12</f>
         <v>0.7</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="G12" s="25" t="n">
         <f aca="false">$F$3/(E12+F12/100)</f>
         <v>0.0325732899022801</v>
       </c>
-      <c r="H12" s="20" t="n">
+      <c r="H12" s="25" t="n">
         <f aca="false">G12/100</f>
         <v>0.000325732899022801</v>
       </c>
-      <c r="I12" s="17" t="n">
+      <c r="I12" s="23" t="n">
         <f aca="false">E12*G12+F12*H12</f>
         <v>0.01</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="L12" s="17" t="n">
+      <c r="L12" s="23" t="n">
         <f aca="false">1-K12</f>
         <v>0.7</v>
       </c>
-      <c r="M12" s="20" t="n">
+      <c r="M12" s="25" t="n">
         <f aca="false">$L$3/(K12+L12/100)</f>
         <v>0.0260586319218241</v>
       </c>
-      <c r="N12" s="20" t="n">
+      <c r="N12" s="25" t="n">
         <f aca="false">M12/100</f>
         <v>0.000260586319218241</v>
       </c>
-      <c r="O12" s="18" t="n">
+      <c r="O12" s="24" t="n">
         <f aca="false">K12*M12+L12*N12</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="19"/>
-      <c r="E13" s="17" t="n">
+      <c r="C13" s="12"/>
+      <c r="E13" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="23" t="n">
         <f aca="false">1-E13</f>
         <v>0.8</v>
       </c>
-      <c r="G13" s="20" t="n">
+      <c r="G13" s="25" t="n">
         <f aca="false">$F$3/(E13+F13/100)</f>
         <v>0.0480769230769231</v>
       </c>
-      <c r="H13" s="20" t="n">
+      <c r="H13" s="25" t="n">
         <f aca="false">G13/100</f>
         <v>0.000480769230769231</v>
       </c>
-      <c r="I13" s="17" t="n">
+      <c r="I13" s="23" t="n">
         <f aca="false">E13*G13+F13*H13</f>
         <v>0.01</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="L13" s="17" t="n">
+      <c r="L13" s="23" t="n">
         <f aca="false">1-K13</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="20" t="n">
+      <c r="M13" s="25" t="n">
         <f aca="false">$L$3/(K13+L13/100)</f>
         <v>0.0384615384615385</v>
       </c>
-      <c r="N13" s="20" t="n">
+      <c r="N13" s="25" t="n">
         <f aca="false">M13/100</f>
         <v>0.000384615384615385</v>
       </c>
-      <c r="O13" s="18" t="n">
+      <c r="O13" s="24" t="n">
         <f aca="false">K13*M13+L13*N13</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="19"/>
-      <c r="E14" s="17" t="n">
+      <c r="C14" s="12"/>
+      <c r="E14" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="F14" s="23" t="n">
         <f aca="false">1-E14</f>
         <v>0.9</v>
       </c>
-      <c r="G14" s="20" t="n">
+      <c r="G14" s="25" t="n">
         <f aca="false">$F$3/(E14+F14/100)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H14" s="20" t="n">
+      <c r="H14" s="25" t="n">
         <f aca="false">G14/100</f>
         <v>0.00091743119266055</v>
       </c>
-      <c r="I14" s="17" t="n">
+      <c r="I14" s="23" t="n">
         <f aca="false">E14*G14+F14*H14</f>
         <v>0.01</v>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="K14" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="L14" s="17" t="n">
+      <c r="L14" s="23" t="n">
         <f aca="false">1-K14</f>
         <v>0.9</v>
       </c>
-      <c r="M14" s="20" t="n">
+      <c r="M14" s="25" t="n">
         <f aca="false">$L$3/(K14+L14/100)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N14" s="20" t="n">
+      <c r="N14" s="25" t="n">
         <f aca="false">M14/100</f>
         <v>0.00073394495412844</v>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="O14" s="24" t="n">
         <f aca="false">K14*M14+L14*N14</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="19"/>
-      <c r="E15" s="17" t="n">
+      <c r="C15" s="12"/>
+      <c r="E15" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="23" t="n">
         <f aca="false">1-E15</f>
         <v>0.99</v>
       </c>
-      <c r="G15" s="20" t="n">
+      <c r="G15" s="25" t="n">
         <f aca="false">$F$3/(E15+F15/100)</f>
         <v>0.50251256281407</v>
       </c>
-      <c r="H15" s="20" t="n">
+      <c r="H15" s="25" t="n">
         <f aca="false">G15/100</f>
         <v>0.0050251256281407</v>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="23" t="n">
         <f aca="false">E15*G15+F15*H15</f>
         <v>0.01</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="K15" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="L15" s="17" t="n">
+      <c r="L15" s="23" t="n">
         <f aca="false">1-K15</f>
         <v>0.99</v>
       </c>
-      <c r="M15" s="20" t="n">
+      <c r="M15" s="25" t="n">
         <f aca="false">$L$3/(K15+L15/100)</f>
         <v>0.402010050251256</v>
       </c>
-      <c r="N15" s="20" t="n">
+      <c r="N15" s="25" t="n">
         <f aca="false">M15/100</f>
         <v>0.00402010050251256</v>
       </c>
-      <c r="O15" s="18" t="n">
+      <c r="O15" s="24" t="n">
         <f aca="false">K15*M15+L15*N15</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="19"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="17"/>
-      <c r="O16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="23"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="19"/>
+      <c r="C17" s="12"/>
       <c r="E17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <v>0.005</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="12"/>
+      <c r="E18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="19"/>
-      <c r="E18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="K18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="L18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="N18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>27</v>
+      <c r="O18" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="19"/>
-      <c r="E19" s="17" t="n">
+      <c r="C19" s="12"/>
+      <c r="E19" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="F19" s="17" t="n">
+      <c r="F19" s="23" t="n">
         <f aca="false">1-E19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G19" s="20" t="n">
+      <c r="G19" s="25" t="n">
         <f aca="false">$F$17/(E19+F19/100)</f>
         <v>0.00526038926880589</v>
       </c>
-      <c r="H19" s="20" t="n">
+      <c r="H19" s="25" t="n">
         <f aca="false">G19/100</f>
         <v>5.26038926880589E-005</v>
       </c>
-      <c r="I19" s="17" t="n">
+      <c r="I19" s="23" t="n">
         <f aca="false">E19*G19+F19*H19</f>
         <v>0.005</v>
       </c>
-      <c r="K19" s="17" t="n">
+      <c r="K19" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="L19" s="17" t="n">
+      <c r="L19" s="23" t="n">
         <f aca="false">1-K19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M19" s="20" t="n">
+      <c r="M19" s="25" t="n">
         <f aca="false">$L$17/(K19+L19/100)</f>
         <v>0.00210415570752236</v>
       </c>
-      <c r="N19" s="20" t="n">
+      <c r="N19" s="25" t="n">
         <f aca="false">M19/100</f>
         <v>2.10415570752236E-005</v>
       </c>
-      <c r="O19" s="18" t="n">
+      <c r="O19" s="24" t="n">
         <f aca="false">K19*M19+L19*N19</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="19"/>
-      <c r="E20" s="17" t="n">
+      <c r="C20" s="12"/>
+      <c r="E20" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="23" t="n">
         <f aca="false">1-E20</f>
         <v>0.1</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="G20" s="25" t="n">
         <f aca="false">$F$17/(E20+F20/100)</f>
         <v>0.00554938956714761</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="H20" s="25" t="n">
         <f aca="false">G20/100</f>
         <v>5.54938956714761E-005</v>
       </c>
-      <c r="I20" s="17" t="n">
+      <c r="I20" s="23" t="n">
         <f aca="false">E20*G20+F20*H20</f>
         <v>0.005</v>
       </c>
-      <c r="K20" s="17" t="n">
+      <c r="K20" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="L20" s="17" t="n">
+      <c r="L20" s="23" t="n">
         <f aca="false">1-K20</f>
         <v>0.1</v>
       </c>
-      <c r="M20" s="20" t="n">
+      <c r="M20" s="25" t="n">
         <f aca="false">$L$17/(K20+L20/100)</f>
         <v>0.00221975582685905</v>
       </c>
-      <c r="N20" s="20" t="n">
+      <c r="N20" s="25" t="n">
         <f aca="false">M20/100</f>
         <v>2.21975582685905E-005</v>
       </c>
-      <c r="O20" s="18" t="n">
+      <c r="O20" s="24" t="n">
         <f aca="false">K20*M20+L20*N20</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="19"/>
-      <c r="E21" s="17" t="n">
+      <c r="C21" s="12"/>
+      <c r="E21" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="F21" s="17" t="n">
+      <c r="F21" s="23" t="n">
         <f aca="false">1-E21</f>
         <v>0.2</v>
       </c>
-      <c r="G21" s="20" t="n">
+      <c r="G21" s="25" t="n">
         <f aca="false">$F$17/(E21+F21/100)</f>
         <v>0.00623441396508728</v>
       </c>
-      <c r="H21" s="20" t="n">
+      <c r="H21" s="25" t="n">
         <f aca="false">G21/100</f>
         <v>6.23441396508728E-005</v>
       </c>
-      <c r="I21" s="17" t="n">
+      <c r="I21" s="23" t="n">
         <f aca="false">E21*G21+F21*H21</f>
         <v>0.005</v>
       </c>
-      <c r="K21" s="17" t="n">
+      <c r="K21" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="L21" s="17" t="n">
+      <c r="L21" s="23" t="n">
         <f aca="false">1-K21</f>
         <v>0.2</v>
       </c>
-      <c r="M21" s="20" t="n">
+      <c r="M21" s="25" t="n">
         <f aca="false">$L$17/(K21+L21/100)</f>
         <v>0.00249376558603491</v>
       </c>
-      <c r="N21" s="20" t="n">
+      <c r="N21" s="25" t="n">
         <f aca="false">M21/100</f>
         <v>2.49376558603491E-005</v>
       </c>
-      <c r="O21" s="18" t="n">
+      <c r="O21" s="24" t="n">
         <f aca="false">K21*M21+L21*N21</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="19"/>
-      <c r="E22" s="17" t="n">
+      <c r="C22" s="12"/>
+      <c r="E22" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="23" t="n">
         <f aca="false">1-E22</f>
         <v>0.3</v>
       </c>
-      <c r="G22" s="20" t="n">
+      <c r="G22" s="25" t="n">
         <f aca="false">$F$17/(E22+F22/100)</f>
         <v>0.00711237553342816</v>
       </c>
-      <c r="H22" s="20" t="n">
+      <c r="H22" s="25" t="n">
         <f aca="false">G22/100</f>
         <v>7.11237553342816E-005</v>
       </c>
-      <c r="I22" s="17" t="n">
+      <c r="I22" s="23" t="n">
         <f aca="false">E22*G22+F22*H22</f>
         <v>0.005</v>
       </c>
-      <c r="K22" s="17" t="n">
+      <c r="K22" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="L22" s="17" t="n">
+      <c r="L22" s="23" t="n">
         <f aca="false">1-K22</f>
         <v>0.3</v>
       </c>
-      <c r="M22" s="20" t="n">
+      <c r="M22" s="25" t="n">
         <f aca="false">$L$17/(K22+L22/100)</f>
         <v>0.00284495021337127</v>
       </c>
-      <c r="N22" s="20" t="n">
+      <c r="N22" s="25" t="n">
         <f aca="false">M22/100</f>
         <v>2.84495021337127E-005</v>
       </c>
-      <c r="O22" s="18" t="n">
+      <c r="O22" s="24" t="n">
         <f aca="false">K22*M22+L22*N22</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="19"/>
-      <c r="E23" s="17" t="n">
+      <c r="C23" s="12"/>
+      <c r="E23" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="23" t="n">
         <f aca="false">1-E23</f>
         <v>0.4</v>
       </c>
-      <c r="G23" s="20" t="n">
+      <c r="G23" s="25" t="n">
         <f aca="false">$F$17/(E23+F23/100)</f>
         <v>0.00827814569536424</v>
       </c>
-      <c r="H23" s="20" t="n">
+      <c r="H23" s="25" t="n">
         <f aca="false">G23/100</f>
         <v>8.27814569536424E-005</v>
       </c>
-      <c r="I23" s="17" t="n">
+      <c r="I23" s="23" t="n">
         <f aca="false">E23*G23+F23*H23</f>
         <v>0.005</v>
       </c>
-      <c r="K23" s="17" t="n">
+      <c r="K23" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="L23" s="17" t="n">
+      <c r="L23" s="23" t="n">
         <f aca="false">1-K23</f>
         <v>0.4</v>
       </c>
-      <c r="M23" s="20" t="n">
+      <c r="M23" s="25" t="n">
         <f aca="false">$L$17/(K23+L23/100)</f>
         <v>0.00331125827814569</v>
       </c>
-      <c r="N23" s="20" t="n">
+      <c r="N23" s="25" t="n">
         <f aca="false">M23/100</f>
         <v>3.31125827814569E-005</v>
       </c>
-      <c r="O23" s="18" t="n">
+      <c r="O23" s="24" t="n">
         <f aca="false">K23*M23+L23*N23</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="19"/>
-      <c r="E24" s="17" t="n">
+      <c r="C24" s="12"/>
+      <c r="E24" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F24" s="17" t="n">
+      <c r="F24" s="23" t="n">
         <f aca="false">1-E24</f>
         <v>0.5</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="25" t="n">
         <f aca="false">$F$17/(E24+F24/100)</f>
         <v>0.0099009900990099</v>
       </c>
-      <c r="H24" s="20" t="n">
+      <c r="H24" s="25" t="n">
         <f aca="false">G24/100</f>
         <v>9.9009900990099E-005</v>
       </c>
-      <c r="I24" s="17" t="n">
+      <c r="I24" s="23" t="n">
         <f aca="false">E24*G24+F24*H24</f>
         <v>0.005</v>
       </c>
-      <c r="K24" s="17" t="n">
+      <c r="K24" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="L24" s="17" t="n">
+      <c r="L24" s="23" t="n">
         <f aca="false">1-K24</f>
         <v>0.5</v>
       </c>
-      <c r="M24" s="20" t="n">
+      <c r="M24" s="25" t="n">
         <f aca="false">$L$17/(K24+L24/100)</f>
         <v>0.00396039603960396</v>
       </c>
-      <c r="N24" s="20" t="n">
+      <c r="N24" s="25" t="n">
         <f aca="false">M24/100</f>
         <v>3.96039603960396E-005</v>
       </c>
-      <c r="O24" s="18" t="n">
+      <c r="O24" s="24" t="n">
         <f aca="false">K24*M24+L24*N24</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="19"/>
-      <c r="E25" s="17" t="n">
+      <c r="C25" s="12"/>
+      <c r="E25" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="F25" s="17" t="n">
+      <c r="F25" s="23" t="n">
         <f aca="false">1-E25</f>
         <v>0.6</v>
       </c>
-      <c r="G25" s="20" t="n">
+      <c r="G25" s="25" t="n">
         <f aca="false">$F$17/(E25+F25/100)</f>
         <v>0.0123152709359606</v>
       </c>
-      <c r="H25" s="20" t="n">
+      <c r="H25" s="25" t="n">
         <f aca="false">G25/100</f>
         <v>0.000123152709359606</v>
       </c>
-      <c r="I25" s="17" t="n">
+      <c r="I25" s="23" t="n">
         <f aca="false">E25*G25+F25*H25</f>
         <v>0.005</v>
       </c>
-      <c r="K25" s="17" t="n">
+      <c r="K25" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="L25" s="17" t="n">
+      <c r="L25" s="23" t="n">
         <f aca="false">1-K25</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="20" t="n">
+      <c r="M25" s="25" t="n">
         <f aca="false">$L$17/(K25+L25/100)</f>
         <v>0.00492610837438424</v>
       </c>
-      <c r="N25" s="20" t="n">
+      <c r="N25" s="25" t="n">
         <f aca="false">M25/100</f>
         <v>4.92610837438424E-005</v>
       </c>
-      <c r="O25" s="18" t="n">
+      <c r="O25" s="24" t="n">
         <f aca="false">K25*M25+L25*N25</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="19"/>
-      <c r="E26" s="17" t="n">
+      <c r="C26" s="12"/>
+      <c r="E26" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="F26" s="17" t="n">
+      <c r="F26" s="23" t="n">
         <f aca="false">1-E26</f>
         <v>0.7</v>
       </c>
-      <c r="G26" s="20" t="n">
+      <c r="G26" s="25" t="n">
         <f aca="false">$F$17/(E26+F26/100)</f>
         <v>0.0162866449511401</v>
       </c>
-      <c r="H26" s="20" t="n">
+      <c r="H26" s="25" t="n">
         <f aca="false">G26/100</f>
         <v>0.000162866449511401</v>
       </c>
-      <c r="I26" s="17" t="n">
+      <c r="I26" s="23" t="n">
         <f aca="false">E26*G26+F26*H26</f>
         <v>0.005</v>
       </c>
-      <c r="K26" s="17" t="n">
+      <c r="K26" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="L26" s="17" t="n">
+      <c r="L26" s="23" t="n">
         <f aca="false">1-K26</f>
         <v>0.7</v>
       </c>
-      <c r="M26" s="20" t="n">
+      <c r="M26" s="25" t="n">
         <f aca="false">$L$17/(K26+L26/100)</f>
         <v>0.00651465798045603</v>
       </c>
-      <c r="N26" s="20" t="n">
+      <c r="N26" s="25" t="n">
         <f aca="false">M26/100</f>
         <v>6.51465798045603E-005</v>
       </c>
-      <c r="O26" s="18" t="n">
+      <c r="O26" s="24" t="n">
         <f aca="false">K26*M26+L26*N26</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="19"/>
-      <c r="E27" s="17" t="n">
+      <c r="C27" s="12"/>
+      <c r="E27" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="F27" s="17" t="n">
+      <c r="F27" s="23" t="n">
         <f aca="false">1-E27</f>
         <v>0.8</v>
       </c>
-      <c r="G27" s="20" t="n">
+      <c r="G27" s="25" t="n">
         <f aca="false">$F$17/(E27+F27/100)</f>
         <v>0.0240384615384615</v>
       </c>
-      <c r="H27" s="20" t="n">
+      <c r="H27" s="25" t="n">
         <f aca="false">G27/100</f>
         <v>0.000240384615384615</v>
       </c>
-      <c r="I27" s="17" t="n">
+      <c r="I27" s="23" t="n">
         <f aca="false">E27*G27+F27*H27</f>
         <v>0.005</v>
       </c>
-      <c r="K27" s="17" t="n">
+      <c r="K27" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="L27" s="17" t="n">
+      <c r="L27" s="23" t="n">
         <f aca="false">1-K27</f>
         <v>0.8</v>
       </c>
-      <c r="M27" s="20" t="n">
+      <c r="M27" s="25" t="n">
         <f aca="false">$L$17/(K27+L27/100)</f>
         <v>0.00961538461538461</v>
       </c>
-      <c r="N27" s="20" t="n">
+      <c r="N27" s="25" t="n">
         <f aca="false">M27/100</f>
         <v>9.61538461538461E-005</v>
       </c>
-      <c r="O27" s="18" t="n">
+      <c r="O27" s="24" t="n">
         <f aca="false">K27*M27+L27*N27</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="19"/>
-      <c r="E28" s="17" t="n">
+      <c r="C28" s="12"/>
+      <c r="E28" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="F28" s="17" t="n">
+      <c r="F28" s="23" t="n">
         <f aca="false">1-E28</f>
         <v>0.9</v>
       </c>
-      <c r="G28" s="20" t="n">
+      <c r="G28" s="25" t="n">
         <f aca="false">$F$17/(E28+F28/100)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H28" s="20" t="n">
+      <c r="H28" s="25" t="n">
         <f aca="false">G28/100</f>
         <v>0.000458715596330275</v>
       </c>
-      <c r="I28" s="17" t="n">
+      <c r="I28" s="23" t="n">
         <f aca="false">E28*G28+F28*H28</f>
         <v>0.005</v>
       </c>
-      <c r="K28" s="17" t="n">
+      <c r="K28" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="L28" s="17" t="n">
+      <c r="L28" s="23" t="n">
         <f aca="false">1-K28</f>
         <v>0.9</v>
       </c>
-      <c r="M28" s="20" t="n">
+      <c r="M28" s="25" t="n">
         <f aca="false">$L$17/(K28+L28/100)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N28" s="20" t="n">
+      <c r="N28" s="25" t="n">
         <f aca="false">M28/100</f>
         <v>0.00018348623853211</v>
       </c>
-      <c r="O28" s="18" t="n">
+      <c r="O28" s="24" t="n">
         <f aca="false">K28*M28+L28*N28</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="19"/>
-      <c r="E29" s="17" t="n">
+      <c r="C29" s="12"/>
+      <c r="E29" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="17" t="n">
+      <c r="F29" s="23" t="n">
         <f aca="false">1-E29</f>
         <v>0.99</v>
       </c>
-      <c r="G29" s="20" t="n">
+      <c r="G29" s="25" t="n">
         <f aca="false">$F$17/(E29+F29/100)</f>
         <v>0.251256281407035</v>
       </c>
-      <c r="H29" s="20" t="n">
+      <c r="H29" s="25" t="n">
         <f aca="false">G29/100</f>
         <v>0.00251256281407035</v>
       </c>
-      <c r="I29" s="17" t="n">
+      <c r="I29" s="23" t="n">
         <f aca="false">E29*G29+F29*H29</f>
         <v>0.005</v>
       </c>
-      <c r="K29" s="17" t="n">
+      <c r="K29" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="L29" s="17" t="n">
+      <c r="L29" s="23" t="n">
         <f aca="false">1-K29</f>
         <v>0.99</v>
       </c>
-      <c r="M29" s="20" t="n">
+      <c r="M29" s="25" t="n">
         <f aca="false">$L$17/(K29+L29/100)</f>
         <v>0.100502512562814</v>
       </c>
-      <c r="N29" s="20" t="n">
+      <c r="N29" s="25" t="n">
         <f aca="false">M29/100</f>
         <v>0.00100502512562814</v>
       </c>
-      <c r="O29" s="18" t="n">
+      <c r="O29" s="24" t="n">
         <f aca="false">K29*M29+L29*N29</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="10" t="s">
-        <v>17</v>
+      <c r="E32" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4414,1059 +4945,1059 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="12" t="s">
-        <v>18</v>
+      <c r="C33" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O33" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="O33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="12" t="s">
-        <v>20</v>
+      <c r="C34" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="14" t="n">
+      <c r="L34" s="20" t="n">
         <v>0.008</v>
       </c>
-      <c r="M34" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O34" s="13"/>
+      <c r="M34" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="16" t="s">
+      <c r="C35" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" s="16" t="s">
+      <c r="M35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="18" t="s">
-        <v>27</v>
+      <c r="O35" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="17" t="n">
+      <c r="C36" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="F36" s="17" t="n">
+      <c r="F36" s="23" t="n">
         <f aca="false">1-E36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G36" s="20" t="n">
+      <c r="G36" s="25" t="n">
         <f aca="false">$F$3/(E36+F36/10)</f>
         <v>0.0104712041884817</v>
       </c>
-      <c r="H36" s="20" t="n">
+      <c r="H36" s="25" t="n">
         <f aca="false">G36/10</f>
         <v>0.00104712041884817</v>
       </c>
-      <c r="I36" s="17" t="n">
+      <c r="I36" s="23" t="n">
         <f aca="false">E36*G36+F36*H36</f>
         <v>0.01</v>
       </c>
-      <c r="K36" s="17" t="n">
+      <c r="K36" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="L36" s="17" t="n">
+      <c r="L36" s="23" t="n">
         <f aca="false">1-K36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M36" s="20" t="n">
+      <c r="M36" s="25" t="n">
         <f aca="false">$L$3/(K36+L36/10)</f>
         <v>0.00837696335078534</v>
       </c>
-      <c r="N36" s="20" t="n">
+      <c r="N36" s="25" t="n">
         <f aca="false">M36/10</f>
         <v>0.000837696335078534</v>
       </c>
-      <c r="O36" s="18" t="n">
+      <c r="O36" s="24" t="n">
         <f aca="false">K36*M36+L36*N36</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="17" t="n">
+      <c r="C37" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="F37" s="17" t="n">
+      <c r="F37" s="23" t="n">
         <f aca="false">1-E37</f>
         <v>0.1</v>
       </c>
-      <c r="G37" s="20" t="n">
+      <c r="G37" s="25" t="n">
         <f aca="false">$F$3/(E37+F37/10)</f>
         <v>0.010989010989011</v>
       </c>
-      <c r="H37" s="20" t="n">
+      <c r="H37" s="25" t="n">
         <f aca="false">G37/10</f>
         <v>0.0010989010989011</v>
       </c>
-      <c r="I37" s="17" t="n">
+      <c r="I37" s="23" t="n">
         <f aca="false">E37*G37+F37*H37</f>
         <v>0.01</v>
       </c>
-      <c r="K37" s="17" t="n">
+      <c r="K37" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="L37" s="17" t="n">
+      <c r="L37" s="23" t="n">
         <f aca="false">1-K37</f>
         <v>0.1</v>
       </c>
-      <c r="M37" s="20" t="n">
+      <c r="M37" s="25" t="n">
         <f aca="false">$L$3/(K37+L37/10)</f>
         <v>0.00879120879120879</v>
       </c>
-      <c r="N37" s="20" t="n">
+      <c r="N37" s="25" t="n">
         <f aca="false">M37/10</f>
         <v>0.000879120879120879</v>
       </c>
-      <c r="O37" s="18" t="n">
+      <c r="O37" s="24" t="n">
         <f aca="false">K37*M37+L37*N37</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="17" t="n">
+      <c r="C38" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="F38" s="17" t="n">
+      <c r="F38" s="23" t="n">
         <f aca="false">1-E38</f>
         <v>0.2</v>
       </c>
-      <c r="G38" s="20" t="n">
+      <c r="G38" s="25" t="n">
         <f aca="false">$F$3/(E38+F38/10)</f>
         <v>0.0121951219512195</v>
       </c>
-      <c r="H38" s="20" t="n">
+      <c r="H38" s="25" t="n">
         <f aca="false">G38/10</f>
         <v>0.00121951219512195</v>
       </c>
-      <c r="I38" s="17" t="n">
+      <c r="I38" s="23" t="n">
         <f aca="false">E38*G38+F38*H38</f>
         <v>0.01</v>
       </c>
-      <c r="K38" s="17" t="n">
+      <c r="K38" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="L38" s="17" t="n">
+      <c r="L38" s="23" t="n">
         <f aca="false">1-K38</f>
         <v>0.2</v>
       </c>
-      <c r="M38" s="20" t="n">
+      <c r="M38" s="25" t="n">
         <f aca="false">$L$3/(K38+L38/10)</f>
         <v>0.00975609756097561</v>
       </c>
-      <c r="N38" s="20" t="n">
+      <c r="N38" s="25" t="n">
         <f aca="false">M38/10</f>
         <v>0.000975609756097561</v>
       </c>
-      <c r="O38" s="18" t="n">
+      <c r="O38" s="24" t="n">
         <f aca="false">K38*M38+L38*N38</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="19"/>
-      <c r="E39" s="17" t="n">
+      <c r="C39" s="12"/>
+      <c r="E39" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="F39" s="17" t="n">
+      <c r="F39" s="23" t="n">
         <f aca="false">1-E39</f>
         <v>0.3</v>
       </c>
-      <c r="G39" s="20" t="n">
+      <c r="G39" s="25" t="n">
         <f aca="false">$F$3/(E39+F39/10)</f>
         <v>0.0136986301369863</v>
       </c>
-      <c r="H39" s="20" t="n">
+      <c r="H39" s="25" t="n">
         <f aca="false">G39/10</f>
         <v>0.00136986301369863</v>
       </c>
-      <c r="I39" s="17" t="n">
+      <c r="I39" s="23" t="n">
         <f aca="false">E39*G39+F39*H39</f>
         <v>0.01</v>
       </c>
-      <c r="K39" s="17" t="n">
+      <c r="K39" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="L39" s="17" t="n">
+      <c r="L39" s="23" t="n">
         <f aca="false">1-K39</f>
         <v>0.3</v>
       </c>
-      <c r="M39" s="20" t="n">
+      <c r="M39" s="25" t="n">
         <f aca="false">$L$3/(K39+L39/10)</f>
         <v>0.010958904109589</v>
       </c>
-      <c r="N39" s="20" t="n">
+      <c r="N39" s="25" t="n">
         <f aca="false">M39/10</f>
         <v>0.0010958904109589</v>
       </c>
-      <c r="O39" s="18" t="n">
+      <c r="O39" s="24" t="n">
         <f aca="false">K39*M39+L39*N39</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="19"/>
-      <c r="E40" s="17" t="n">
+      <c r="C40" s="12"/>
+      <c r="E40" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="F40" s="17" t="n">
+      <c r="F40" s="23" t="n">
         <f aca="false">1-E40</f>
         <v>0.4</v>
       </c>
-      <c r="G40" s="20" t="n">
+      <c r="G40" s="25" t="n">
         <f aca="false">$F$3/(E40+F40/10)</f>
         <v>0.015625</v>
       </c>
-      <c r="H40" s="20" t="n">
+      <c r="H40" s="25" t="n">
         <f aca="false">G40/10</f>
         <v>0.0015625</v>
       </c>
-      <c r="I40" s="17" t="n">
+      <c r="I40" s="23" t="n">
         <f aca="false">E40*G40+F40*H40</f>
         <v>0.01</v>
       </c>
-      <c r="K40" s="17" t="n">
+      <c r="K40" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="L40" s="17" t="n">
+      <c r="L40" s="23" t="n">
         <f aca="false">1-K40</f>
         <v>0.4</v>
       </c>
-      <c r="M40" s="20" t="n">
+      <c r="M40" s="25" t="n">
         <f aca="false">$L$3/(K40+L40/10)</f>
         <v>0.0125</v>
       </c>
-      <c r="N40" s="20" t="n">
+      <c r="N40" s="25" t="n">
         <f aca="false">M40/10</f>
         <v>0.00125</v>
       </c>
-      <c r="O40" s="18" t="n">
+      <c r="O40" s="24" t="n">
         <f aca="false">K40*M40+L40*N40</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="19"/>
-      <c r="E41" s="17" t="n">
+      <c r="C41" s="12"/>
+      <c r="E41" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F41" s="17" t="n">
+      <c r="F41" s="23" t="n">
         <f aca="false">1-E41</f>
         <v>0.5</v>
       </c>
-      <c r="G41" s="20" t="n">
+      <c r="G41" s="25" t="n">
         <f aca="false">$F$3/(E41+F41/10)</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="H41" s="20" t="n">
+      <c r="H41" s="25" t="n">
         <f aca="false">G41/10</f>
         <v>0.00181818181818182</v>
       </c>
-      <c r="I41" s="17" t="n">
+      <c r="I41" s="23" t="n">
         <f aca="false">E41*G41+F41*H41</f>
         <v>0.01</v>
       </c>
-      <c r="K41" s="17" t="n">
+      <c r="K41" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="L41" s="17" t="n">
+      <c r="L41" s="23" t="n">
         <f aca="false">1-K41</f>
         <v>0.5</v>
       </c>
-      <c r="M41" s="20" t="n">
+      <c r="M41" s="25" t="n">
         <f aca="false">$L$3/(K41+L41/10)</f>
         <v>0.0145454545454545</v>
       </c>
-      <c r="N41" s="20" t="n">
+      <c r="N41" s="25" t="n">
         <f aca="false">M41/10</f>
         <v>0.00145454545454545</v>
       </c>
-      <c r="O41" s="18" t="n">
+      <c r="O41" s="24" t="n">
         <f aca="false">K41*M41+L41*N41</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="19"/>
-      <c r="E42" s="17" t="n">
+      <c r="C42" s="12"/>
+      <c r="E42" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="23" t="n">
         <f aca="false">1-E42</f>
         <v>0.6</v>
       </c>
-      <c r="G42" s="20" t="n">
+      <c r="G42" s="25" t="n">
         <f aca="false">$F$3/(E42+F42/10)</f>
         <v>0.0217391304347826</v>
       </c>
-      <c r="H42" s="20" t="n">
+      <c r="H42" s="25" t="n">
         <f aca="false">G42/10</f>
         <v>0.00217391304347826</v>
       </c>
-      <c r="I42" s="17" t="n">
+      <c r="I42" s="23" t="n">
         <f aca="false">E42*G42+F42*H42</f>
         <v>0.01</v>
       </c>
-      <c r="K42" s="17" t="n">
+      <c r="K42" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="L42" s="17" t="n">
+      <c r="L42" s="23" t="n">
         <f aca="false">1-K42</f>
         <v>0.6</v>
       </c>
-      <c r="M42" s="20" t="n">
+      <c r="M42" s="25" t="n">
         <f aca="false">$L$3/(K42+L42/10)</f>
         <v>0.0173913043478261</v>
       </c>
-      <c r="N42" s="20" t="n">
+      <c r="N42" s="25" t="n">
         <f aca="false">M42/10</f>
         <v>0.00173913043478261</v>
       </c>
-      <c r="O42" s="18" t="n">
+      <c r="O42" s="24" t="n">
         <f aca="false">K42*M42+L42*N42</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="19"/>
-      <c r="E43" s="17" t="n">
+      <c r="C43" s="12"/>
+      <c r="E43" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="23" t="n">
         <f aca="false">1-E43</f>
         <v>0.7</v>
       </c>
-      <c r="G43" s="20" t="n">
+      <c r="G43" s="25" t="n">
         <f aca="false">$F$3/(E43+F43/10)</f>
         <v>0.027027027027027</v>
       </c>
-      <c r="H43" s="20" t="n">
+      <c r="H43" s="25" t="n">
         <f aca="false">G43/10</f>
         <v>0.0027027027027027</v>
       </c>
-      <c r="I43" s="17" t="n">
+      <c r="I43" s="23" t="n">
         <f aca="false">E43*G43+F43*H43</f>
         <v>0.01</v>
       </c>
-      <c r="K43" s="17" t="n">
+      <c r="K43" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="L43" s="17" t="n">
+      <c r="L43" s="23" t="n">
         <f aca="false">1-K43</f>
         <v>0.7</v>
       </c>
-      <c r="M43" s="20" t="n">
+      <c r="M43" s="25" t="n">
         <f aca="false">$L$3/(K43+L43/10)</f>
         <v>0.0216216216216216</v>
       </c>
-      <c r="N43" s="20" t="n">
+      <c r="N43" s="25" t="n">
         <f aca="false">M43/10</f>
         <v>0.00216216216216216</v>
       </c>
-      <c r="O43" s="18" t="n">
+      <c r="O43" s="24" t="n">
         <f aca="false">K43*M43+L43*N43</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="19"/>
-      <c r="E44" s="17" t="n">
+      <c r="C44" s="12"/>
+      <c r="E44" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="F44" s="17" t="n">
+      <c r="F44" s="23" t="n">
         <f aca="false">1-E44</f>
         <v>0.8</v>
       </c>
-      <c r="G44" s="20" t="n">
+      <c r="G44" s="25" t="n">
         <f aca="false">$F$3/(E44+F44/10)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="H44" s="20" t="n">
+      <c r="H44" s="25" t="n">
         <f aca="false">G44/10</f>
         <v>0.00357142857142857</v>
       </c>
-      <c r="I44" s="17" t="n">
+      <c r="I44" s="23" t="n">
         <f aca="false">E44*G44+F44*H44</f>
         <v>0.01</v>
       </c>
-      <c r="K44" s="17" t="n">
+      <c r="K44" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="L44" s="17" t="n">
+      <c r="L44" s="23" t="n">
         <f aca="false">1-K44</f>
         <v>0.8</v>
       </c>
-      <c r="M44" s="20" t="n">
+      <c r="M44" s="25" t="n">
         <f aca="false">$L$3/(K44+L44/10)</f>
         <v>0.0285714285714286</v>
       </c>
-      <c r="N44" s="20" t="n">
+      <c r="N44" s="25" t="n">
         <f aca="false">M44/10</f>
         <v>0.00285714285714286</v>
       </c>
-      <c r="O44" s="18" t="n">
+      <c r="O44" s="24" t="n">
         <f aca="false">K44*M44+L44*N44</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="19"/>
-      <c r="E45" s="17" t="n">
+      <c r="C45" s="12"/>
+      <c r="E45" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="F45" s="17" t="n">
+      <c r="F45" s="23" t="n">
         <f aca="false">1-E45</f>
         <v>0.9</v>
       </c>
-      <c r="G45" s="20" t="n">
+      <c r="G45" s="25" t="n">
         <f aca="false">$F$3/(E45+F45/10)</f>
         <v>0.0526315789473684</v>
       </c>
-      <c r="H45" s="20" t="n">
+      <c r="H45" s="25" t="n">
         <f aca="false">G45/10</f>
         <v>0.00526315789473684</v>
       </c>
-      <c r="I45" s="17" t="n">
+      <c r="I45" s="23" t="n">
         <f aca="false">E45*G45+F45*H45</f>
         <v>0.01</v>
       </c>
-      <c r="K45" s="17" t="n">
+      <c r="K45" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="L45" s="17" t="n">
+      <c r="L45" s="23" t="n">
         <f aca="false">1-K45</f>
         <v>0.9</v>
       </c>
-      <c r="M45" s="20" t="n">
+      <c r="M45" s="25" t="n">
         <f aca="false">$L$3/(K45+L45/10)</f>
         <v>0.0421052631578947</v>
       </c>
-      <c r="N45" s="20" t="n">
+      <c r="N45" s="25" t="n">
         <f aca="false">M45/10</f>
         <v>0.00421052631578947</v>
       </c>
-      <c r="O45" s="18" t="n">
+      <c r="O45" s="24" t="n">
         <f aca="false">K45*M45+L45*N45</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="19"/>
-      <c r="E46" s="17" t="n">
+      <c r="C46" s="12"/>
+      <c r="E46" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="F46" s="17" t="n">
+      <c r="F46" s="23" t="n">
         <f aca="false">1-E46</f>
         <v>0.99</v>
       </c>
-      <c r="G46" s="20" t="n">
+      <c r="G46" s="25" t="n">
         <f aca="false">$F$3/(E46+F46/10)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H46" s="20" t="n">
+      <c r="H46" s="25" t="n">
         <f aca="false">G46/10</f>
         <v>0.0091743119266055</v>
       </c>
-      <c r="I46" s="17" t="n">
+      <c r="I46" s="23" t="n">
         <f aca="false">E46*G46+F46*H46</f>
         <v>0.01</v>
       </c>
-      <c r="K46" s="17" t="n">
+      <c r="K46" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="L46" s="17" t="n">
+      <c r="L46" s="23" t="n">
         <f aca="false">1-K46</f>
         <v>0.99</v>
       </c>
-      <c r="M46" s="20" t="n">
+      <c r="M46" s="25" t="n">
         <f aca="false">$L$3/(K46+L46/10)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N46" s="20" t="n">
+      <c r="N46" s="25" t="n">
         <f aca="false">M46/10</f>
         <v>0.0073394495412844</v>
       </c>
-      <c r="O46" s="18" t="n">
+      <c r="O46" s="24" t="n">
         <f aca="false">K46*M46+L46*N46</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="19"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="17"/>
-      <c r="O47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="23"/>
+      <c r="O47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="19"/>
+      <c r="C48" s="12"/>
       <c r="E48" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F48" s="20" t="n">
         <v>0.005</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M48" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="12"/>
+      <c r="E49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="19"/>
-      <c r="E49" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="16" t="s">
+      <c r="K49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="L49" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="N49" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="18" t="s">
-        <v>27</v>
+      <c r="O49" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="19"/>
-      <c r="E50" s="17" t="n">
+      <c r="C50" s="12"/>
+      <c r="E50" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="F50" s="17" t="n">
+      <c r="F50" s="23" t="n">
         <f aca="false">1-E50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G50" s="20" t="n">
+      <c r="G50" s="25" t="n">
         <f aca="false">$F$17/(E50+F50/10)</f>
         <v>0.00523560209424084</v>
       </c>
-      <c r="H50" s="20" t="n">
+      <c r="H50" s="25" t="n">
         <f aca="false">G50/10</f>
         <v>0.000523560209424084</v>
       </c>
-      <c r="I50" s="17" t="n">
+      <c r="I50" s="23" t="n">
         <f aca="false">E50*G50+F50*H50</f>
         <v>0.005</v>
       </c>
-      <c r="K50" s="17" t="n">
+      <c r="K50" s="23" t="n">
         <v>0.95</v>
       </c>
-      <c r="L50" s="17" t="n">
+      <c r="L50" s="23" t="n">
         <f aca="false">1-K50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M50" s="20" t="n">
+      <c r="M50" s="25" t="n">
         <f aca="false">$L$17/(K50+L50/10)</f>
         <v>0.00209424083769633</v>
       </c>
-      <c r="N50" s="20" t="n">
+      <c r="N50" s="25" t="n">
         <f aca="false">M50/10</f>
         <v>0.000209424083769633</v>
       </c>
-      <c r="O50" s="18" t="n">
+      <c r="O50" s="24" t="n">
         <f aca="false">K50*M50+L50*N50</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="19"/>
-      <c r="E51" s="17" t="n">
+      <c r="C51" s="12"/>
+      <c r="E51" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="F51" s="17" t="n">
+      <c r="F51" s="23" t="n">
         <f aca="false">1-E51</f>
         <v>0.1</v>
       </c>
-      <c r="G51" s="20" t="n">
+      <c r="G51" s="25" t="n">
         <f aca="false">$F$17/(E51+F51/10)</f>
         <v>0.00549450549450549</v>
       </c>
-      <c r="H51" s="20" t="n">
+      <c r="H51" s="25" t="n">
         <f aca="false">G51/10</f>
         <v>0.000549450549450549</v>
       </c>
-      <c r="I51" s="17" t="n">
+      <c r="I51" s="23" t="n">
         <f aca="false">E51*G51+F51*H51</f>
         <v>0.005</v>
       </c>
-      <c r="K51" s="17" t="n">
+      <c r="K51" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="L51" s="17" t="n">
+      <c r="L51" s="23" t="n">
         <f aca="false">1-K51</f>
         <v>0.1</v>
       </c>
-      <c r="M51" s="20" t="n">
+      <c r="M51" s="25" t="n">
         <f aca="false">$L$17/(K51+L51/10)</f>
         <v>0.0021978021978022</v>
       </c>
-      <c r="N51" s="20" t="n">
+      <c r="N51" s="25" t="n">
         <f aca="false">M51/10</f>
         <v>0.00021978021978022</v>
       </c>
-      <c r="O51" s="18" t="n">
+      <c r="O51" s="24" t="n">
         <f aca="false">K51*M51+L51*N51</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="19"/>
-      <c r="E52" s="17" t="n">
+      <c r="C52" s="12"/>
+      <c r="E52" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="F52" s="17" t="n">
+      <c r="F52" s="23" t="n">
         <f aca="false">1-E52</f>
         <v>0.2</v>
       </c>
-      <c r="G52" s="20" t="n">
+      <c r="G52" s="25" t="n">
         <f aca="false">$F$17/(E52+F52/10)</f>
         <v>0.00609756097560976</v>
       </c>
-      <c r="H52" s="20" t="n">
+      <c r="H52" s="25" t="n">
         <f aca="false">G52/10</f>
         <v>0.000609756097560975</v>
       </c>
-      <c r="I52" s="17" t="n">
+      <c r="I52" s="23" t="n">
         <f aca="false">E52*G52+F52*H52</f>
         <v>0.005</v>
       </c>
-      <c r="K52" s="17" t="n">
+      <c r="K52" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="L52" s="17" t="n">
+      <c r="L52" s="23" t="n">
         <f aca="false">1-K52</f>
         <v>0.2</v>
       </c>
-      <c r="M52" s="20" t="n">
+      <c r="M52" s="25" t="n">
         <f aca="false">$L$17/(K52+L52/10)</f>
         <v>0.0024390243902439</v>
       </c>
-      <c r="N52" s="20" t="n">
+      <c r="N52" s="25" t="n">
         <f aca="false">M52/10</f>
         <v>0.00024390243902439</v>
       </c>
-      <c r="O52" s="18" t="n">
+      <c r="O52" s="24" t="n">
         <f aca="false">K52*M52+L52*N52</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="19"/>
-      <c r="E53" s="17" t="n">
+      <c r="C53" s="12"/>
+      <c r="E53" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="F53" s="17" t="n">
+      <c r="F53" s="23" t="n">
         <f aca="false">1-E53</f>
         <v>0.3</v>
       </c>
-      <c r="G53" s="20" t="n">
+      <c r="G53" s="25" t="n">
         <f aca="false">$F$17/(E53+F53/10)</f>
         <v>0.00684931506849315</v>
       </c>
-      <c r="H53" s="20" t="n">
+      <c r="H53" s="25" t="n">
         <f aca="false">G53/10</f>
         <v>0.000684931506849315</v>
       </c>
-      <c r="I53" s="17" t="n">
+      <c r="I53" s="23" t="n">
         <f aca="false">E53*G53+F53*H53</f>
         <v>0.005</v>
       </c>
-      <c r="K53" s="17" t="n">
+      <c r="K53" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="L53" s="17" t="n">
+      <c r="L53" s="23" t="n">
         <f aca="false">1-K53</f>
         <v>0.3</v>
       </c>
-      <c r="M53" s="20" t="n">
+      <c r="M53" s="25" t="n">
         <f aca="false">$L$17/(K53+L53/10)</f>
         <v>0.00273972602739726</v>
       </c>
-      <c r="N53" s="20" t="n">
+      <c r="N53" s="25" t="n">
         <f aca="false">M53/10</f>
         <v>0.000273972602739726</v>
       </c>
-      <c r="O53" s="18" t="n">
+      <c r="O53" s="24" t="n">
         <f aca="false">K53*M53+L53*N53</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="19"/>
-      <c r="E54" s="17" t="n">
+      <c r="C54" s="12"/>
+      <c r="E54" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="F54" s="17" t="n">
+      <c r="F54" s="23" t="n">
         <f aca="false">1-E54</f>
         <v>0.4</v>
       </c>
-      <c r="G54" s="20" t="n">
+      <c r="G54" s="25" t="n">
         <f aca="false">$F$17/(E54+F54/10)</f>
         <v>0.0078125</v>
       </c>
-      <c r="H54" s="20" t="n">
+      <c r="H54" s="25" t="n">
         <f aca="false">G54/10</f>
         <v>0.00078125</v>
       </c>
-      <c r="I54" s="17" t="n">
+      <c r="I54" s="23" t="n">
         <f aca="false">E54*G54+F54*H54</f>
         <v>0.005</v>
       </c>
-      <c r="K54" s="17" t="n">
+      <c r="K54" s="23" t="n">
         <v>0.6</v>
       </c>
-      <c r="L54" s="17" t="n">
+      <c r="L54" s="23" t="n">
         <f aca="false">1-K54</f>
         <v>0.4</v>
       </c>
-      <c r="M54" s="20" t="n">
+      <c r="M54" s="25" t="n">
         <f aca="false">$L$17/(K54+L54/10)</f>
         <v>0.003125</v>
       </c>
-      <c r="N54" s="20" t="n">
+      <c r="N54" s="25" t="n">
         <f aca="false">M54/10</f>
         <v>0.0003125</v>
       </c>
-      <c r="O54" s="18" t="n">
+      <c r="O54" s="24" t="n">
         <f aca="false">K54*M54+L54*N54</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="19"/>
-      <c r="E55" s="17" t="n">
+      <c r="C55" s="12"/>
+      <c r="E55" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F55" s="17" t="n">
+      <c r="F55" s="23" t="n">
         <f aca="false">1-E55</f>
         <v>0.5</v>
       </c>
-      <c r="G55" s="20" t="n">
+      <c r="G55" s="25" t="n">
         <f aca="false">$F$17/(E55+F55/10)</f>
         <v>0.00909090909090909</v>
       </c>
-      <c r="H55" s="20" t="n">
+      <c r="H55" s="25" t="n">
         <f aca="false">G55/10</f>
         <v>0.000909090909090909</v>
       </c>
-      <c r="I55" s="17" t="n">
+      <c r="I55" s="23" t="n">
         <f aca="false">E55*G55+F55*H55</f>
         <v>0.005</v>
       </c>
-      <c r="K55" s="17" t="n">
+      <c r="K55" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="L55" s="17" t="n">
+      <c r="L55" s="23" t="n">
         <f aca="false">1-K55</f>
         <v>0.5</v>
       </c>
-      <c r="M55" s="20" t="n">
+      <c r="M55" s="25" t="n">
         <f aca="false">$L$17/(K55+L55/10)</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="N55" s="20" t="n">
+      <c r="N55" s="25" t="n">
         <f aca="false">M55/10</f>
         <v>0.000363636363636364</v>
       </c>
-      <c r="O55" s="18" t="n">
+      <c r="O55" s="24" t="n">
         <f aca="false">K55*M55+L55*N55</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="19"/>
-      <c r="E56" s="17" t="n">
+      <c r="C56" s="12"/>
+      <c r="E56" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="F56" s="17" t="n">
+      <c r="F56" s="23" t="n">
         <f aca="false">1-E56</f>
         <v>0.6</v>
       </c>
-      <c r="G56" s="20" t="n">
+      <c r="G56" s="25" t="n">
         <f aca="false">$F$17/(E56+F56/10)</f>
         <v>0.0108695652173913</v>
       </c>
-      <c r="H56" s="20" t="n">
+      <c r="H56" s="25" t="n">
         <f aca="false">G56/10</f>
         <v>0.00108695652173913</v>
       </c>
-      <c r="I56" s="17" t="n">
+      <c r="I56" s="23" t="n">
         <f aca="false">E56*G56+F56*H56</f>
         <v>0.005</v>
       </c>
-      <c r="K56" s="17" t="n">
+      <c r="K56" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="L56" s="17" t="n">
+      <c r="L56" s="23" t="n">
         <f aca="false">1-K56</f>
         <v>0.6</v>
       </c>
-      <c r="M56" s="20" t="n">
+      <c r="M56" s="25" t="n">
         <f aca="false">$L$17/(K56+L56/10)</f>
         <v>0.00434782608695652</v>
       </c>
-      <c r="N56" s="20" t="n">
+      <c r="N56" s="25" t="n">
         <f aca="false">M56/10</f>
         <v>0.000434782608695652</v>
       </c>
-      <c r="O56" s="18" t="n">
+      <c r="O56" s="24" t="n">
         <f aca="false">K56*M56+L56*N56</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="19"/>
-      <c r="E57" s="17" t="n">
+      <c r="C57" s="12"/>
+      <c r="E57" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="F57" s="17" t="n">
+      <c r="F57" s="23" t="n">
         <f aca="false">1-E57</f>
         <v>0.7</v>
       </c>
-      <c r="G57" s="20" t="n">
+      <c r="G57" s="25" t="n">
         <f aca="false">$F$17/(E57+F57/10)</f>
         <v>0.0135135135135135</v>
       </c>
-      <c r="H57" s="20" t="n">
+      <c r="H57" s="25" t="n">
         <f aca="false">G57/10</f>
         <v>0.00135135135135135</v>
       </c>
-      <c r="I57" s="17" t="n">
+      <c r="I57" s="23" t="n">
         <f aca="false">E57*G57+F57*H57</f>
         <v>0.005</v>
       </c>
-      <c r="K57" s="17" t="n">
+      <c r="K57" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="L57" s="17" t="n">
+      <c r="L57" s="23" t="n">
         <f aca="false">1-K57</f>
         <v>0.7</v>
       </c>
-      <c r="M57" s="20" t="n">
+      <c r="M57" s="25" t="n">
         <f aca="false">$L$17/(K57+L57/10)</f>
         <v>0.0054054054054054</v>
       </c>
-      <c r="N57" s="20" t="n">
+      <c r="N57" s="25" t="n">
         <f aca="false">M57/10</f>
         <v>0.00054054054054054</v>
       </c>
-      <c r="O57" s="18" t="n">
+      <c r="O57" s="24" t="n">
         <f aca="false">K57*M57+L57*N57</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="19"/>
-      <c r="E58" s="17" t="n">
+      <c r="C58" s="12"/>
+      <c r="E58" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="F58" s="17" t="n">
+      <c r="F58" s="23" t="n">
         <f aca="false">1-E58</f>
         <v>0.8</v>
       </c>
-      <c r="G58" s="20" t="n">
+      <c r="G58" s="25" t="n">
         <f aca="false">$F$17/(E58+F58/10)</f>
         <v>0.0178571428571429</v>
       </c>
-      <c r="H58" s="20" t="n">
+      <c r="H58" s="25" t="n">
         <f aca="false">G58/10</f>
         <v>0.00178571428571429</v>
       </c>
-      <c r="I58" s="17" t="n">
+      <c r="I58" s="23" t="n">
         <f aca="false">E58*G58+F58*H58</f>
         <v>0.005</v>
       </c>
-      <c r="K58" s="17" t="n">
+      <c r="K58" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="L58" s="17" t="n">
+      <c r="L58" s="23" t="n">
         <f aca="false">1-K58</f>
         <v>0.8</v>
       </c>
-      <c r="M58" s="20" t="n">
+      <c r="M58" s="25" t="n">
         <f aca="false">$L$17/(K58+L58/10)</f>
         <v>0.00714285714285714</v>
       </c>
-      <c r="N58" s="20" t="n">
+      <c r="N58" s="25" t="n">
         <f aca="false">M58/10</f>
         <v>0.000714285714285714</v>
       </c>
-      <c r="O58" s="18" t="n">
+      <c r="O58" s="24" t="n">
         <f aca="false">K58*M58+L58*N58</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="19"/>
-      <c r="E59" s="17" t="n">
+      <c r="C59" s="12"/>
+      <c r="E59" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="F59" s="17" t="n">
+      <c r="F59" s="23" t="n">
         <f aca="false">1-E59</f>
         <v>0.9</v>
       </c>
-      <c r="G59" s="20" t="n">
+      <c r="G59" s="25" t="n">
         <f aca="false">$F$17/(E59+F59/10)</f>
         <v>0.0263157894736842</v>
       </c>
-      <c r="H59" s="20" t="n">
+      <c r="H59" s="25" t="n">
         <f aca="false">G59/10</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="I59" s="17" t="n">
+      <c r="I59" s="23" t="n">
         <f aca="false">E59*G59+F59*H59</f>
         <v>0.005</v>
       </c>
-      <c r="K59" s="17" t="n">
+      <c r="K59" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="L59" s="17" t="n">
+      <c r="L59" s="23" t="n">
         <f aca="false">1-K59</f>
         <v>0.9</v>
       </c>
-      <c r="M59" s="20" t="n">
+      <c r="M59" s="25" t="n">
         <f aca="false">$L$17/(K59+L59/10)</f>
         <v>0.0105263157894737</v>
       </c>
-      <c r="N59" s="20" t="n">
+      <c r="N59" s="25" t="n">
         <f aca="false">M59/10</f>
         <v>0.00105263157894737</v>
       </c>
-      <c r="O59" s="18" t="n">
+      <c r="O59" s="24" t="n">
         <f aca="false">K59*M59+L59*N59</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="19"/>
-      <c r="E60" s="17" t="n">
+      <c r="C60" s="12"/>
+      <c r="E60" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="F60" s="17" t="n">
+      <c r="F60" s="23" t="n">
         <f aca="false">1-E60</f>
         <v>0.99</v>
       </c>
-      <c r="G60" s="20" t="n">
+      <c r="G60" s="25" t="n">
         <f aca="false">$F$17/(E60+F60/10)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H60" s="20" t="n">
+      <c r="H60" s="25" t="n">
         <f aca="false">G60/10</f>
         <v>0.00458715596330275</v>
       </c>
-      <c r="I60" s="17" t="n">
+      <c r="I60" s="23" t="n">
         <f aca="false">E60*G60+F60*H60</f>
         <v>0.005</v>
       </c>
-      <c r="K60" s="17" t="n">
+      <c r="K60" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="L60" s="17" t="n">
+      <c r="L60" s="23" t="n">
         <f aca="false">1-K60</f>
         <v>0.99</v>
       </c>
-      <c r="M60" s="20" t="n">
+      <c r="M60" s="25" t="n">
         <f aca="false">$L$17/(K60+L60/10)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N60" s="20" t="n">
+      <c r="N60" s="25" t="n">
         <f aca="false">M60/10</f>
         <v>0.0018348623853211</v>
       </c>
-      <c r="O60" s="18" t="n">
+      <c r="O60" s="24" t="n">
         <f aca="false">K60*M60+L60*N60</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="24"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5486,7 +6017,7 @@
   </sheetPr>
   <dimension ref="A2:V60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -5498,52 +6029,52 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="30" t="n">
         <f aca="false">2.97*B4^(0.62)</f>
         <v>0.170905661389136</v>
       </c>
-      <c r="D4" s="29" t="n">
+      <c r="D4" s="31" t="n">
         <f aca="false">0.057*B4^(1.944)</f>
         <v>7.37691629626492E-006</v>
       </c>
-      <c r="E4" s="28" t="n">
+      <c r="E4" s="30" t="n">
         <f aca="false">0.38*B4^0.59</f>
         <v>0.0251063510242887</v>
       </c>
-      <c r="F4" s="29" t="n">
+      <c r="F4" s="31" t="n">
         <f aca="false">0.04*B4^2</f>
         <v>4E-006</v>
       </c>
@@ -5553,19 +6084,19 @@
         <f aca="false">B4-0.0002</f>
         <v>0.0098</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="30" t="n">
         <f aca="false">2.97*B5^(0.62)</f>
         <v>0.168778303131111</v>
       </c>
-      <c r="D5" s="29" t="n">
+      <c r="D5" s="31" t="n">
         <f aca="false">0.057*B5^(1.944)</f>
         <v>7.09281033579122E-006</v>
       </c>
-      <c r="E5" s="28" t="n">
+      <c r="E5" s="30" t="n">
         <f aca="false">0.38*B5^0.59</f>
         <v>0.0248088698797865</v>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="31" t="n">
         <f aca="false">0.04*B5^2</f>
         <v>3.8416E-006</v>
       </c>
@@ -5575,19 +6106,19 @@
         <f aca="false">B5-0.0002</f>
         <v>0.0096</v>
       </c>
-      <c r="C6" s="28" t="n">
+      <c r="C6" s="30" t="n">
         <f aca="false">2.97*B6^(0.62)</f>
         <v>0.166634381481985</v>
       </c>
-      <c r="D6" s="29" t="n">
+      <c r="D6" s="31" t="n">
         <f aca="false">0.057*B6^(1.944)</f>
         <v>6.81412557411232E-006</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="30" t="n">
         <f aca="false">0.38*B6^0.59</f>
         <v>0.0245088889545415</v>
       </c>
-      <c r="F6" s="29" t="n">
+      <c r="F6" s="31" t="n">
         <f aca="false">0.04*B6^2</f>
         <v>3.6864E-006</v>
       </c>
@@ -5597,19 +6128,19 @@
         <f aca="false">B6-0.0002</f>
         <v>0.0094</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="30" t="n">
         <f aca="false">2.97*B7^(0.62)</f>
         <v>0.164473418285553</v>
       </c>
-      <c r="D7" s="29" t="n">
+      <c r="D7" s="31" t="n">
         <f aca="false">0.057*B7^(1.944)</f>
         <v>6.54086827506298E-006</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="30" t="n">
         <f aca="false">0.38*B7^0.59</f>
         <v>0.0242063344923744</v>
       </c>
-      <c r="F7" s="29" t="n">
+      <c r="F7" s="31" t="n">
         <f aca="false">0.04*B7^2</f>
         <v>3.5344E-006</v>
       </c>
@@ -5619,19 +6150,19 @@
         <f aca="false">B7-0.0002</f>
         <v>0.0092</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="30" t="n">
         <f aca="false">2.97*B8^(0.62)</f>
         <v>0.162294911069372</v>
       </c>
-      <c r="D8" s="29" t="n">
+      <c r="D8" s="31" t="n">
         <f aca="false">0.057*B8^(1.944)</f>
         <v>6.27304484184586E-006</v>
       </c>
-      <c r="E8" s="28" t="n">
+      <c r="E8" s="30" t="n">
         <f aca="false">0.38*B8^0.59</f>
         <v>0.0239011289378076</v>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="31" t="n">
         <f aca="false">0.04*B8^2</f>
         <v>3.3856E-006</v>
       </c>
@@ -5641,19 +6172,19 @@
         <f aca="false">B8-0.0002</f>
         <v>0.009</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="30" t="n">
         <f aca="false">2.97*B9^(0.62)</f>
         <v>0.160098331250151</v>
       </c>
-      <c r="D9" s="29" t="n">
+      <c r="D9" s="31" t="n">
         <f aca="false">0.057*B9^(1.944)</f>
         <v>6.01066182319956E-006</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="30" t="n">
         <f aca="false">0.38*B9^0.59</f>
         <v>0.0235931906530846</v>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="31" t="n">
         <f aca="false">0.04*B9^2</f>
         <v>3.24E-006</v>
       </c>
@@ -5663,19 +6194,19 @@
         <f aca="false">B9-0.0002</f>
         <v>0.0088</v>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="30" t="n">
         <f aca="false">2.97*B10^(0.62)</f>
         <v>0.157883122163658</v>
       </c>
-      <c r="D10" s="29" t="n">
+      <c r="D10" s="31" t="n">
         <f aca="false">0.057*B10^(1.944)</f>
         <v>5.75372591998125E-006</v>
       </c>
-      <c r="E10" s="28" t="n">
+      <c r="E10" s="30" t="n">
         <f aca="false">0.38*B10^0.59</f>
         <v>0.0232824336073207</v>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="31" t="n">
         <f aca="false">0.04*B10^2</f>
         <v>3.0976E-006</v>
       </c>
@@ -5685,19 +6216,19 @@
         <f aca="false">B10-0.0002</f>
         <v>0.0086</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="30" t="n">
         <f aca="false">2.97*B11^(0.62)</f>
         <v>0.155648696897595</v>
       </c>
-      <c r="D11" s="29" t="n">
+      <c r="D11" s="31" t="n">
         <f aca="false">0.057*B11^(1.944)</f>
         <v>5.50224399220194E-006</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="30" t="n">
         <f aca="false">0.38*B11^0.59</f>
         <v>0.022968767034342</v>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="31" t="n">
         <f aca="false">0.04*B11^2</f>
         <v>2.9584E-006</v>
       </c>
@@ -5707,19 +6238,19 @@
         <f aca="false">B11-0.0002</f>
         <v>0.0084</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="30" t="n">
         <f aca="false">2.97*B12^(0.62)</f>
         <v>0.153394435902666</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="D12" s="31" t="n">
         <f aca="false">0.057*B12^(1.944)</f>
         <v>5.25622306655658E-006</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="30" t="n">
         <f aca="false">0.38*B12^0.59</f>
         <v>0.022652095055251</v>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="31" t="n">
         <f aca="false">0.04*B12^2</f>
         <v>2.8224E-006</v>
       </c>
@@ -5729,19 +6260,19 @@
         <f aca="false">B12-0.0002</f>
         <v>0.0082</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="30" t="n">
         <f aca="false">2.97*B13^(0.62)</f>
         <v>0.15111968435328</v>
       </c>
-      <c r="D13" s="29" t="n">
+      <c r="D13" s="31" t="n">
         <f aca="false">0.057*B13^(1.944)</f>
         <v>5.0156703444962E-006</v>
       </c>
-      <c r="E13" s="28" t="n">
+      <c r="E13" s="30" t="n">
         <f aca="false">0.38*B13^0.59</f>
         <v>0.0223323162611514</v>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="31" t="n">
         <f aca="false">0.04*B13^2</f>
         <v>2.6896E-006</v>
       </c>
@@ -5751,19 +6282,19 @@
         <f aca="false">B13-0.0002</f>
         <v>0.008</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="30" t="n">
         <f aca="false">2.97*B14^(0.62)</f>
         <v>0.148823749224871</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="31" t="n">
         <f aca="false">0.057*B14^(1.944)</f>
         <v>4.78059321089525E-006</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="E14" s="30" t="n">
         <f aca="false">0.38*B14^0.59</f>
         <v>0.0220093232507475</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="31" t="n">
         <f aca="false">0.04*B14^2</f>
         <v>2.56E-006</v>
       </c>
@@ -5773,19 +6304,19 @@
         <f aca="false">B14-0.0002</f>
         <v>0.0078</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="30" t="n">
         <f aca="false">2.97*B15^(0.62)</f>
         <v>0.146505896049517</v>
       </c>
-      <c r="D15" s="29" t="n">
+      <c r="D15" s="31" t="n">
         <f aca="false">0.057*B15^(1.944)</f>
         <v>4.55099924337378E-006</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="30" t="n">
         <f aca="false">0.38*B15^0.59</f>
         <v>0.0216830021166786</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="31" t="n">
         <f aca="false">0.04*B15^2</f>
         <v>2.4336E-006</v>
       </c>
@@ -5795,24 +6326,24 @@
         <f aca="false">B15-0.0002</f>
         <v>0.0076</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="30" t="n">
         <f aca="false">2.97*B16^(0.62)</f>
         <v>0.14416534530524</v>
       </c>
-      <c r="D16" s="29" t="n">
+      <c r="D16" s="31" t="n">
         <f aca="false">0.057*B16^(1.944)</f>
         <v>4.3268962223418E-006</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="30" t="n">
         <f aca="false">0.38*B16^0.59</f>
         <v>0.0213532318734356</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="31" t="n">
         <f aca="false">0.04*B16^2</f>
         <v>2.3104E-006</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,24 +6351,24 @@
         <f aca="false">B16-0.0002</f>
         <v>0.0074</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="30" t="n">
         <f aca="false">2.97*B17^(0.62)</f>
         <v>0.141801268386831</v>
       </c>
-      <c r="D17" s="29" t="n">
+      <c r="D17" s="31" t="n">
         <f aca="false">0.057*B17^(1.944)</f>
         <v>4.10829214184202E-006</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="30" t="n">
         <f aca="false">0.38*B17^0.59</f>
         <v>0.0210198838184959</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="31" t="n">
         <f aca="false">0.04*B17^2</f>
         <v>2.1904E-006</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,30 +6376,30 @@
         <f aca="false">B17-0.0002</f>
         <v>0.0072</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="30" t="n">
         <f aca="false">2.97*B18^(0.62)</f>
         <v>0.139412783096999</v>
       </c>
-      <c r="D18" s="29" t="n">
+      <c r="D18" s="31" t="n">
         <f aca="false">0.057*B18^(1.944)</f>
         <v>3.89519522127748E-006</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="30" t="n">
         <f aca="false">0.38*B18^0.59</f>
         <v>0.0206828208168481</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="31" t="n">
         <f aca="false">0.04*B18^2</f>
         <v>2.0736E-006</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,19 +6407,19 @@
         <f aca="false">B18-0.0002</f>
         <v>0.007</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="30" t="n">
         <f aca="false">2.97*B19^(0.62)</f>
         <v>0.136998948585751</v>
       </c>
-      <c r="D19" s="29" t="n">
+      <c r="D19" s="31" t="n">
         <f aca="false">0.057*B19^(1.944)</f>
         <v>3.68761391812255E-006</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="30" t="n">
         <f aca="false">0.38*B19^0.59</f>
         <v>0.0203418964973235</v>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="31" t="n">
         <f aca="false">0.04*B19^2</f>
         <v>1.96E-006</v>
       </c>
@@ -5908,19 +6439,19 @@
         <f aca="false">B19-0.0002</f>
         <v>0.0068</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="30" t="n">
         <f aca="false">2.97*B20^(0.62)</f>
         <v>0.134558759652636</v>
       </c>
-      <c r="D20" s="29" t="n">
+      <c r="D20" s="31" t="n">
         <f aca="false">0.057*B20^(1.944)</f>
         <v>3.48555694172981E-006</v>
       </c>
-      <c r="E20" s="28" t="n">
+      <c r="E20" s="30" t="n">
         <f aca="false">0.38*B20^0.59</f>
         <v>0.0199969543470115</v>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="31" t="n">
         <f aca="false">0.04*B20^2</f>
         <v>1.8496E-006</v>
       </c>
@@ -5940,19 +6471,19 @@
         <f aca="false">B20-0.0002</f>
         <v>0.0066</v>
       </c>
-      <c r="C21" s="28" t="n">
+      <c r="C21" s="30" t="n">
         <f aca="false">2.97*B21^(0.62)</f>
         <v>0.132091140310434</v>
       </c>
-      <c r="D21" s="29" t="n">
+      <c r="D21" s="31" t="n">
         <f aca="false">0.057*B21^(1.944)</f>
         <v>3.28903326836194E-006</v>
       </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="30" t="n">
         <f aca="false">0.38*B21^0.59</f>
         <v>0.0196478266874332</v>
       </c>
-      <c r="F21" s="29" t="n">
+      <c r="F21" s="31" t="n">
         <f aca="false">0.04*B21^2</f>
         <v>1.7424E-006</v>
       </c>
@@ -5972,19 +6503,19 @@
         <f aca="false">B21-0.0002</f>
         <v>0.0064</v>
       </c>
-      <c r="C22" s="28" t="n">
+      <c r="C22" s="30" t="n">
         <f aca="false">2.97*B22^(0.62)</f>
         <v>0.129594936489068</v>
       </c>
-      <c r="D22" s="29" t="n">
+      <c r="D22" s="31" t="n">
         <f aca="false">0.057*B22^(1.944)</f>
         <v>3.09805215759724E-006</v>
       </c>
-      <c r="E22" s="28" t="n">
+      <c r="E22" s="30" t="n">
         <f aca="false">0.38*B22^0.59</f>
         <v>0.0192943335129531</v>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="31" t="n">
         <f aca="false">0.04*B22^2</f>
         <v>1.6384E-006</v>
       </c>
@@ -6004,19 +6535,19 @@
         <f aca="false">B22-0.0002</f>
         <v>0.0062</v>
       </c>
-      <c r="C23" s="28" t="n">
+      <c r="C23" s="30" t="n">
         <f aca="false">2.97*B23^(0.62)</f>
         <v>0.127068907734232</v>
       </c>
-      <c r="D23" s="29" t="n">
+      <c r="D23" s="31" t="n">
         <f aca="false">0.057*B23^(1.944)</f>
         <v>2.91262317028041E-006</v>
       </c>
-      <c r="E23" s="28" t="n">
+      <c r="E23" s="30" t="n">
         <f aca="false">0.38*B23^0.59</f>
         <v>0.0189362811679701</v>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="31" t="n">
         <f aca="false">0.04*B23^2</f>
         <v>1.5376E-006</v>
       </c>
@@ -6040,19 +6571,19 @@
         <f aca="false">B23-0.0002</f>
         <v>0.006</v>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="C24" s="30" t="n">
         <f aca="false">2.97*B24^(0.62)</f>
         <v>0.124511717725026</v>
       </c>
-      <c r="D24" s="29" t="n">
+      <c r="D24" s="31" t="n">
         <f aca="false">0.057*B24^(1.944)</f>
         <v>2.73275618821812E-006</v>
       </c>
-      <c r="E24" s="28" t="n">
+      <c r="E24" s="30" t="n">
         <f aca="false">0.38*B24^0.59</f>
         <v>0.0185734608345414</v>
       </c>
-      <c r="F24" s="29" t="n">
+      <c r="F24" s="31" t="n">
         <f aca="false">0.04*B24^2</f>
         <v>1.44E-006</v>
       </c>
@@ -6062,24 +6593,24 @@
         <f aca="false">B24-0.0002</f>
         <v>0.0058</v>
       </c>
-      <c r="C25" s="28" t="n">
+      <c r="C25" s="30" t="n">
         <f aca="false">2.97*B25^(0.62)</f>
         <v>0.121921923397288</v>
       </c>
-      <c r="D25" s="29" t="n">
+      <c r="D25" s="31" t="n">
         <f aca="false">0.057*B25^(1.944)</f>
         <v>2.55846143585184E-006</v>
       </c>
-      <c r="E25" s="28" t="n">
+      <c r="E25" s="30" t="n">
         <f aca="false">0.38*B25^0.59</f>
         <v>0.0182056467959893</v>
       </c>
-      <c r="F25" s="29" t="n">
+      <c r="F25" s="31" t="n">
         <f aca="false">0.04*B25^2</f>
         <v>1.3456E-006</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1195</v>
@@ -6094,19 +6625,19 @@
         <f aca="false">B25-0.0002</f>
         <v>0.0056</v>
       </c>
-      <c r="C26" s="28" t="n">
+      <c r="C26" s="30" t="n">
         <f aca="false">2.97*B26^(0.62)</f>
         <v>0.119297962411986</v>
       </c>
-      <c r="D26" s="29" t="n">
+      <c r="D26" s="31" t="n">
         <f aca="false">0.057*B26^(1.944)</f>
         <v>2.38974950418042E-006</v>
       </c>
-      <c r="E26" s="28" t="n">
+      <c r="E26" s="30" t="n">
         <f aca="false">0.38*B26^0.59</f>
         <v>0.017832594434361</v>
       </c>
-      <c r="F26" s="29" t="n">
+      <c r="F26" s="31" t="n">
         <f aca="false">0.04*B26^2</f>
         <v>1.2544E-006</v>
       </c>
@@ -6116,19 +6647,19 @@
         <f aca="false">B26-0.0002</f>
         <v>0.0054</v>
       </c>
-      <c r="C27" s="28" t="n">
+      <c r="C27" s="30" t="n">
         <f aca="false">2.97*B27^(0.62)</f>
         <v>0.116638138648189</v>
       </c>
-      <c r="D27" s="29" t="n">
+      <c r="D27" s="31" t="n">
         <f aca="false">0.057*B27^(1.944)</f>
         <v>2.22663137725334E-006</v>
       </c>
-      <c r="E27" s="28" t="n">
+      <c r="E27" s="30" t="n">
         <f aca="false">0.38*B27^0.59</f>
         <v>0.0174540379098898</v>
       </c>
-      <c r="F27" s="29" t="n">
+      <c r="F27" s="31" t="n">
         <f aca="false">0.04*B27^2</f>
         <v>1.1664E-006</v>
       </c>
@@ -6138,19 +6669,19 @@
         <f aca="false">B27-0.0002</f>
         <v>0.0052</v>
       </c>
-      <c r="C28" s="28" t="n">
+      <c r="C28" s="30" t="n">
         <f aca="false">2.97*B28^(0.62)</f>
         <v>0.113940605323781</v>
       </c>
-      <c r="D28" s="29" t="n">
+      <c r="D28" s="31" t="n">
         <f aca="false">0.057*B28^(1.944)</f>
         <v>2.06911846161483E-006</v>
       </c>
-      <c r="E28" s="28" t="n">
+      <c r="E28" s="30" t="n">
         <f aca="false">0.38*B28^0.59</f>
         <v>0.0170696874581801</v>
       </c>
-      <c r="F28" s="29" t="n">
+      <c r="F28" s="31" t="n">
         <f aca="false">0.04*B28^2</f>
         <v>1.0816E-006</v>
       </c>
@@ -6160,19 +6691,19 @@
         <f aca="false">B28-0.0002</f>
         <v>0.005</v>
       </c>
-      <c r="C29" s="28" t="n">
+      <c r="C29" s="30" t="n">
         <f aca="false">2.97*B29^(0.62)</f>
         <v>0.111203345248834</v>
       </c>
-      <c r="D29" s="29" t="n">
+      <c r="D29" s="31" t="n">
         <f aca="false">0.057*B29^(1.944)</f>
         <v>1.9172226191516E-006</v>
       </c>
-      <c r="E29" s="28" t="n">
+      <c r="E29" s="30" t="n">
         <f aca="false">0.38*B29^0.59</f>
         <v>0.0166792262248499</v>
       </c>
-      <c r="F29" s="29" t="n">
+      <c r="F29" s="31" t="n">
         <f aca="false">0.04*B29^2</f>
         <v>1E-006</v>
       </c>
@@ -6182,19 +6713,19 @@
         <f aca="false">B29-0.0002</f>
         <v>0.0048</v>
       </c>
-      <c r="C30" s="28" t="n">
+      <c r="C30" s="30" t="n">
         <f aca="false">2.97*B30^(0.62)</f>
         <v>0.108424147589092</v>
       </c>
-      <c r="D30" s="29" t="n">
+      <c r="D30" s="31" t="n">
         <f aca="false">0.057*B30^(1.944)</f>
         <v>1.77095620388728E-006</v>
       </c>
-      <c r="E30" s="28" t="n">
+      <c r="E30" s="30" t="n">
         <f aca="false">0.38*B30^0.59</f>
         <v>0.016282306536583</v>
       </c>
-      <c r="F30" s="29" t="n">
+      <c r="F30" s="31" t="n">
         <f aca="false">0.04*B30^2</f>
         <v>9.216E-007</v>
       </c>
@@ -6204,19 +6735,19 @@
         <f aca="false">B30-0.0002</f>
         <v>0.0046</v>
       </c>
-      <c r="C31" s="28" t="n">
+      <c r="C31" s="30" t="n">
         <f aca="false">2.97*B31^(0.62)</f>
         <v>0.1056005803499</v>
       </c>
-      <c r="D31" s="29" t="n">
+      <c r="D31" s="31" t="n">
         <f aca="false">0.057*B31^(1.944)</f>
         <v>1.63033210337883E-006</v>
       </c>
-      <c r="E31" s="28" t="n">
+      <c r="E31" s="30" t="n">
         <f aca="false">0.38*B31^0.59</f>
         <v>0.0158785454802783</v>
       </c>
-      <c r="F31" s="29" t="n">
+      <c r="F31" s="31" t="n">
         <f aca="false">0.04*B31^2</f>
         <v>8.464E-007</v>
       </c>
@@ -6226,19 +6757,19 @@
         <f aca="false">B31-0.0002</f>
         <v>0.0044</v>
       </c>
-      <c r="C32" s="28" t="n">
+      <c r="C32" s="30" t="n">
         <f aca="false">2.97*B32^(0.62)</f>
         <v>0.10272995756971</v>
       </c>
-      <c r="D32" s="29" t="n">
+      <c r="D32" s="31" t="n">
         <f aca="false">0.057*B32^(1.944)</f>
         <v>1.49536378551187E-006</v>
       </c>
-      <c r="E32" s="28" t="n">
+      <c r="E32" s="30" t="n">
         <f aca="false">0.38*B32^0.59</f>
         <v>0.0154675196258454</v>
       </c>
-      <c r="F32" s="29" t="n">
+      <c r="F32" s="31" t="n">
         <f aca="false">0.04*B32^2</f>
         <v>7.74400000000001E-007</v>
       </c>
@@ -6248,19 +6779,19 @@
         <f aca="false">B32-0.0002</f>
         <v>0.0042</v>
       </c>
-      <c r="C33" s="28" t="n">
+      <c r="C33" s="30" t="n">
         <f aca="false">2.97*B33^(0.62)</f>
         <v>0.0998092999160222</v>
       </c>
-      <c r="D33" s="29" t="n">
+      <c r="D33" s="31" t="n">
         <f aca="false">0.057*B33^(1.944)</f>
         <v>1.36606535167154E-006</v>
       </c>
-      <c r="E33" s="28" t="n">
+      <c r="E33" s="30" t="n">
         <f aca="false">0.38*B33^0.59</f>
         <v>0.0150487586797388</v>
       </c>
-      <c r="F33" s="29" t="n">
+      <c r="F33" s="31" t="n">
         <f aca="false">0.04*B33^2</f>
         <v>7.05600000000001E-007</v>
       </c>
@@ -6270,19 +6801,19 @@
         <f aca="false">B33-0.0002</f>
         <v>0.004</v>
       </c>
-      <c r="C34" s="28" t="n">
+      <c r="C34" s="30" t="n">
         <f aca="false">2.97*B34^(0.62)</f>
         <v>0.0968352869750591</v>
       </c>
-      <c r="D34" s="29" t="n">
+      <c r="D34" s="31" t="n">
         <f aca="false">0.057*B34^(1.944)</f>
         <v>1.24245159749632E-006</v>
       </c>
-      <c r="E34" s="28" t="n">
+      <c r="E34" s="30" t="n">
         <f aca="false">0.38*B34^0.59</f>
         <v>0.0146217377905664</v>
       </c>
-      <c r="F34" s="29" t="n">
+      <c r="F34" s="31" t="n">
         <f aca="false">0.04*B34^2</f>
         <v>6.40000000000001E-007</v>
       </c>
@@ -6292,19 +6823,19 @@
         <f aca="false">B34-0.0002</f>
         <v>0.0038</v>
       </c>
-      <c r="C35" s="28" t="n">
+      <c r="C35" s="30" t="n">
         <f aca="false">2.97*B35^(0.62)</f>
         <v>0.0938041989749743</v>
       </c>
-      <c r="D35" s="29" t="n">
+      <c r="D35" s="31" t="n">
         <f aca="false">0.057*B35^(1.944)</f>
         <v>1.12453808272104E-006</v>
       </c>
-      <c r="E35" s="28" t="n">
+      <c r="E35" s="30" t="n">
         <f aca="false">0.38*B35^0.59</f>
         <v>0.0141858681376737</v>
       </c>
-      <c r="F35" s="29" t="n">
+      <c r="F35" s="31" t="n">
         <f aca="false">0.04*B35^2</f>
         <v>5.77600000000001E-007</v>
       </c>
@@ -6314,19 +6845,19 @@
         <f aca="false">B35-0.0002</f>
         <v>0.0036</v>
       </c>
-      <c r="C36" s="28" t="n">
+      <c r="C36" s="30" t="n">
         <f aca="false">2.97*B36^(0.62)</f>
         <v>0.0907118449138866</v>
       </c>
-      <c r="D36" s="29" t="n">
+      <c r="D36" s="31" t="n">
         <f aca="false">0.057*B36^(1.944)</f>
         <v>1.01234121200827E-006</v>
       </c>
-      <c r="E36" s="28" t="n">
+      <c r="E36" s="30" t="n">
         <f aca="false">0.38*B36^0.59</f>
         <v>0.0137404853074231</v>
       </c>
-      <c r="F36" s="29" t="n">
+      <c r="F36" s="31" t="n">
         <f aca="false">0.04*B36^2</f>
         <v>5.18400000000001E-007</v>
       </c>
@@ -6336,19 +6867,19 @@
         <f aca="false">B36-0.0002</f>
         <v>0.0034</v>
       </c>
-      <c r="C37" s="28" t="n">
+      <c r="C37" s="30" t="n">
         <f aca="false">2.97*B37^(0.62)</f>
         <v>0.0875534729761634</v>
       </c>
-      <c r="D37" s="29" t="n">
+      <c r="D37" s="31" t="n">
         <f aca="false">0.057*B37^(1.944)</f>
         <v>9.05878329188687E-007</v>
       </c>
-      <c r="E37" s="28" t="n">
+      <c r="E37" s="30" t="n">
         <f aca="false">0.38*B37^0.59</f>
         <v>0.0132848347830049</v>
       </c>
-      <c r="F37" s="29" t="n">
+      <c r="F37" s="31" t="n">
         <f aca="false">0.04*B37^2</f>
         <v>4.62400000000001E-007</v>
       </c>
@@ -6358,19 +6889,19 @@
         <f aca="false">B37-0.0002</f>
         <v>0.0032</v>
       </c>
-      <c r="C38" s="28" t="n">
+      <c r="C38" s="30" t="n">
         <f aca="false">2.97*B38^(0.62)</f>
         <v>0.0843236575532816</v>
       </c>
-      <c r="D38" s="29" t="n">
+      <c r="D38" s="31" t="n">
         <f aca="false">0.057*B38^(1.944)</f>
         <v>8.05167828034625E-007</v>
       </c>
-      <c r="E38" s="28" t="n">
+      <c r="E38" s="30" t="n">
         <f aca="false">0.38*B38^0.59</f>
         <v>0.0128180536155539</v>
       </c>
-      <c r="F38" s="29" t="n">
+      <c r="F38" s="31" t="n">
         <f aca="false">0.04*B38^2</f>
         <v>4.096E-007</v>
       </c>
@@ -6380,19 +6911,19 @@
         <f aca="false">B38-0.0002</f>
         <v>0.003</v>
       </c>
-      <c r="C39" s="28" t="n">
+      <c r="C39" s="30" t="n">
         <f aca="false">2.97*B39^(0.62)</f>
         <v>0.0810161548842737</v>
       </c>
-      <c r="D39" s="29" t="n">
+      <c r="D39" s="31" t="n">
         <f aca="false">0.057*B39^(1.944)</f>
         <v>7.10229283654885E-007</v>
       </c>
-      <c r="E39" s="28" t="n">
+      <c r="E39" s="30" t="n">
         <f aca="false">0.38*B39^0.59</f>
         <v>0.0123391469647662</v>
       </c>
-      <c r="F39" s="29" t="n">
+      <c r="F39" s="31" t="n">
         <f aca="false">0.04*B39^2</f>
         <v>3.6E-007</v>
       </c>
@@ -6402,19 +6933,19 @@
         <f aca="false">B39-0.0002</f>
         <v>0.0028</v>
       </c>
-      <c r="C40" s="28" t="n">
+      <c r="C40" s="30" t="n">
         <f aca="false">2.97*B40^(0.62)</f>
         <v>0.0776237158778282</v>
       </c>
-      <c r="D40" s="29" t="n">
+      <c r="D40" s="31" t="n">
         <f aca="false">0.057*B40^(1.944)</f>
         <v>6.21083609941571E-007</v>
       </c>
-      <c r="E40" s="28" t="n">
+      <c r="E40" s="30" t="n">
         <f aca="false">0.38*B40^0.59</f>
         <v>0.0118469576267359</v>
       </c>
-      <c r="F40" s="29" t="n">
+      <c r="F40" s="31" t="n">
         <f aca="false">0.04*B40^2</f>
         <v>3.136E-007</v>
       </c>
@@ -6424,19 +6955,19 @@
         <f aca="false">B40-0.0002</f>
         <v>0.0026</v>
       </c>
-      <c r="C41" s="28" t="n">
+      <c r="C41" s="30" t="n">
         <f aca="false">2.97*B41^(0.62)</f>
         <v>0.074137839371113</v>
       </c>
-      <c r="D41" s="29" t="n">
+      <c r="D41" s="31" t="n">
         <f aca="false">0.057*B41^(1.944)</f>
         <v>5.37753250409072E-007</v>
       </c>
-      <c r="E41" s="28" t="n">
+      <c r="E41" s="30" t="n">
         <f aca="false">0.38*B41^0.59</f>
         <v>0.0113401257883725</v>
       </c>
-      <c r="F41" s="29" t="n">
+      <c r="F41" s="31" t="n">
         <f aca="false">0.04*B41^2</f>
         <v>2.704E-007</v>
       </c>
@@ -6446,19 +6977,19 @@
         <f aca="false">B41-0.0002</f>
         <v>0.0024</v>
       </c>
-      <c r="C42" s="28" t="n">
+      <c r="C42" s="30" t="n">
         <f aca="false">2.97*B42^(0.62)</f>
         <v>0.0705484406991499</v>
       </c>
-      <c r="D42" s="29" t="n">
+      <c r="D42" s="31" t="n">
         <f aca="false">0.057*B42^(1.944)</f>
         <v>4.60262412539324E-007</v>
       </c>
-      <c r="E42" s="28" t="n">
+      <c r="E42" s="30" t="n">
         <f aca="false">0.38*B42^0.59</f>
         <v>0.0108170348579644</v>
       </c>
-      <c r="F42" s="29" t="n">
+      <c r="F42" s="31" t="n">
         <f aca="false">0.04*B42^2</f>
         <v>2.304E-007</v>
       </c>
@@ -6468,19 +6999,19 @@
         <f aca="false">B42-0.0002</f>
         <v>0.0022</v>
       </c>
-      <c r="C43" s="28" t="n">
+      <c r="C43" s="30" t="n">
         <f aca="false">2.97*B43^(0.62)</f>
         <v>0.066843396796619</v>
       </c>
-      <c r="D43" s="29" t="n">
+      <c r="D43" s="31" t="n">
         <f aca="false">0.057*B43^(1.944)</f>
         <v>3.88637359880999E-007</v>
       </c>
-      <c r="E43" s="28" t="n">
+      <c r="E43" s="30" t="n">
         <f aca="false">0.38*B43^0.59</f>
         <v>0.0102757369530601</v>
       </c>
-      <c r="F43" s="29" t="n">
+      <c r="F43" s="31" t="n">
         <f aca="false">0.04*B43^2</f>
         <v>1.936E-007</v>
       </c>
@@ -6490,19 +7021,19 @@
         <f aca="false">B43-0.0002</f>
         <v>0.002</v>
       </c>
-      <c r="C44" s="28" t="n">
+      <c r="C44" s="30" t="n">
         <f aca="false">2.97*B44^(0.62)</f>
         <v>0.0630079060121878</v>
       </c>
-      <c r="D44" s="29" t="n">
+      <c r="D44" s="31" t="n">
         <f aca="false">0.057*B44^(1.944)</f>
         <v>3.22906782489461E-007</v>
       </c>
-      <c r="E44" s="28" t="n">
+      <c r="E44" s="30" t="n">
         <f aca="false">0.38*B44^0.59</f>
         <v>0.00971384778988223</v>
       </c>
-      <c r="F44" s="29" t="n">
+      <c r="F44" s="31" t="n">
         <f aca="false">0.04*B44^2</f>
         <v>1.6E-007</v>
       </c>
@@ -6512,19 +7043,19 @@
         <f aca="false">B44-0.0002</f>
         <v>0.0018</v>
       </c>
-      <c r="C45" s="28" t="n">
+      <c r="C45" s="30" t="n">
         <f aca="false">2.97*B45^(0.62)</f>
         <v>0.0590235602853991</v>
       </c>
-      <c r="D45" s="29" t="n">
+      <c r="D45" s="31" t="n">
         <f aca="false">0.057*B45^(1.944)</f>
         <v>2.63102276346055E-007</v>
       </c>
-      <c r="E45" s="28" t="n">
+      <c r="E45" s="30" t="n">
         <f aca="false">0.38*B45^0.59</f>
         <v>0.00912839395338729</v>
       </c>
-      <c r="F45" s="29" t="n">
+      <c r="F45" s="31" t="n">
         <f aca="false">0.04*B45^2</f>
         <v>1.296E-007</v>
       </c>
@@ -6534,19 +7065,19 @@
         <f aca="false">B45-0.0002</f>
         <v>0.0016</v>
       </c>
-      <c r="C46" s="28" t="n">
+      <c r="C46" s="30" t="n">
         <f aca="false">2.97*B46^(0.62)</f>
         <v>0.0548669524890189</v>
       </c>
-      <c r="D46" s="29" t="n">
+      <c r="D46" s="31" t="n">
         <f aca="false">0.057*B46^(1.944)</f>
         <v>2.09258978972385E-007</v>
       </c>
-      <c r="E46" s="28" t="n">
+      <c r="E46" s="30" t="n">
         <f aca="false">0.38*B46^0.59</f>
         <v>0.00851558300165745</v>
       </c>
-      <c r="F46" s="29" t="n">
+      <c r="F46" s="31" t="n">
         <f aca="false">0.04*B46^2</f>
         <v>1.024E-007</v>
       </c>
@@ -6556,19 +7087,19 @@
         <f aca="false">B46-0.0002</f>
         <v>0.0014</v>
       </c>
-      <c r="C47" s="28" t="n">
+      <c r="C47" s="30" t="n">
         <f aca="false">2.97*B47^(0.62)</f>
         <v>0.0505074952233752</v>
       </c>
-      <c r="D47" s="29" t="n">
+      <c r="D47" s="31" t="n">
         <f aca="false">0.057*B47^(1.944)</f>
         <v>1.6141643710492E-007</v>
       </c>
-      <c r="E47" s="28" t="n">
+      <c r="E47" s="30" t="n">
         <f aca="false">0.38*B47^0.59</f>
         <v>0.00787044226942325</v>
       </c>
-      <c r="F47" s="29" t="n">
+      <c r="F47" s="31" t="n">
         <f aca="false">0.04*B47^2</f>
         <v>7.84000000000001E-008</v>
       </c>
@@ -6578,19 +7109,19 @@
         <f aca="false">B47-0.0002</f>
         <v>0.0012</v>
       </c>
-      <c r="C48" s="28" t="n">
+      <c r="C48" s="30" t="n">
         <f aca="false">2.97*B48^(0.62)</f>
         <v>0.0459038193589834</v>
       </c>
-      <c r="D48" s="29" t="n">
+      <c r="D48" s="31" t="n">
         <f aca="false">0.057*B48^(1.944)</f>
         <v>1.1961983471501E-007</v>
       </c>
-      <c r="E48" s="28" t="n">
+      <c r="E48" s="30" t="n">
         <f aca="false">0.38*B48^0.59</f>
         <v>0.00718622038318236</v>
       </c>
-      <c r="F48" s="29" t="n">
+      <c r="F48" s="31" t="n">
         <f aca="false">0.04*B48^2</f>
         <v>5.76000000000001E-008</v>
       </c>
@@ -6600,19 +7131,19 @@
         <f aca="false">B48-0.0002</f>
         <v>0.001</v>
       </c>
-      <c r="C49" s="28" t="n">
+      <c r="C49" s="30" t="n">
         <f aca="false">2.97*B49^(0.62)</f>
         <v>0.0409974126587057</v>
       </c>
-      <c r="D49" s="29" t="n">
+      <c r="D49" s="31" t="n">
         <f aca="false">0.057*B49^(1.944)</f>
         <v>8.39218126386651E-008</v>
       </c>
-      <c r="E49" s="28" t="n">
+      <c r="E49" s="30" t="n">
         <f aca="false">0.38*B49^0.59</f>
         <v>0.00645332587935463</v>
       </c>
-      <c r="F49" s="29" t="n">
+      <c r="F49" s="31" t="n">
         <f aca="false">0.04*B49^2</f>
         <v>4E-008</v>
       </c>
@@ -6622,19 +7153,19 @@
         <f aca="false">B49-0.0002</f>
         <v>0.0008</v>
       </c>
-      <c r="C50" s="28" t="n">
+      <c r="C50" s="30" t="n">
         <f aca="false">2.97*B50^(0.62)</f>
         <v>0.0357003308772521</v>
       </c>
-      <c r="D50" s="29" t="n">
+      <c r="D50" s="31" t="n">
         <f aca="false">0.057*B50^(1.944)</f>
         <v>5.4385332791367E-008</v>
       </c>
-      <c r="E50" s="28" t="n">
+      <c r="E50" s="30" t="n">
         <f aca="false">0.38*B50^0.59</f>
         <v>0.00565726716653182</v>
       </c>
-      <c r="F50" s="29" t="n">
+      <c r="F50" s="31" t="n">
         <f aca="false">0.04*B50^2</f>
         <v>2.56E-008</v>
       </c>
@@ -6644,19 +7175,19 @@
         <f aca="false">B50-0.0002</f>
         <v>0.0006</v>
       </c>
-      <c r="C51" s="28" t="n">
+      <c r="C51" s="30" t="n">
         <f aca="false">2.97*B51^(0.62)</f>
         <v>0.0298682807282454</v>
       </c>
-      <c r="D51" s="29" t="n">
+      <c r="D51" s="31" t="n">
         <f aca="false">0.057*B51^(1.944)</f>
         <v>3.10885800521977E-008</v>
       </c>
-      <c r="E51" s="28" t="n">
+      <c r="E51" s="30" t="n">
         <f aca="false">0.38*B51^0.59</f>
         <v>0.0047741145400528</v>
       </c>
-      <c r="F51" s="29" t="n">
+      <c r="F51" s="31" t="n">
         <f aca="false">0.04*B51^2</f>
         <v>1.44E-008</v>
       </c>
@@ -6666,19 +7197,19 @@
         <f aca="false">B51-0.0002</f>
         <v>0.0004</v>
       </c>
-      <c r="C52" s="28" t="n">
+      <c r="C52" s="30" t="n">
         <f aca="false">2.97*B52^(0.62)</f>
         <v>0.0232291674118471</v>
       </c>
-      <c r="D52" s="29" t="n">
+      <c r="D52" s="31" t="n">
         <f aca="false">0.057*B52^(1.944)</f>
         <v>1.41344683862672E-008</v>
       </c>
-      <c r="E52" s="28" t="n">
+      <c r="E52" s="30" t="n">
         <f aca="false">0.38*B52^0.59</f>
         <v>0.0037583653153624</v>
       </c>
-      <c r="F52" s="29" t="n">
+      <c r="F52" s="31" t="n">
         <f aca="false">0.04*B52^2</f>
         <v>6.40000000000002E-009</v>
       </c>
@@ -6688,19 +7219,19 @@
         <f aca="false">B52-0.0002</f>
         <v>0.0002</v>
       </c>
-      <c r="C53" s="28" t="n">
+      <c r="C53" s="30" t="n">
         <f aca="false">2.97*B53^(0.62)</f>
         <v>0.0151145439100522</v>
       </c>
-      <c r="D53" s="29" t="n">
+      <c r="D53" s="31" t="n">
         <f aca="false">0.057*B53^(1.944)</f>
         <v>3.67347566537464E-009</v>
       </c>
-      <c r="E53" s="28" t="n">
+      <c r="E53" s="30" t="n">
         <f aca="false">0.38*B53^0.59</f>
         <v>0.00249684333935719</v>
       </c>
-      <c r="F53" s="29" t="n">
+      <c r="F53" s="31" t="n">
         <f aca="false">0.04*B53^2</f>
         <v>1.60000000000001E-009</v>
       </c>
@@ -6729,29 +7260,29 @@
     </row>
     <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>270.737</v>
       </c>
-      <c r="B56" s="30" t="n">
+      <c r="B56" s="7" t="n">
         <v>0.00448963749440691</v>
       </c>
-      <c r="C56" s="31" t="n">
+      <c r="C56" s="32" t="n">
         <f aca="false">2.97*B56^(0.62)</f>
         <v>0.104022536776874</v>
       </c>
-      <c r="D56" s="32" t="n">
+      <c r="D56" s="33" t="n">
         <f aca="false">0.057*B56^(1.944)</f>
         <v>1.55515462681334E-006</v>
       </c>
-      <c r="E56" s="31" t="n">
+      <c r="E56" s="32" t="n">
         <f aca="false">0.38*B56^0.59</f>
         <v>0.0156526635261272</v>
       </c>
-      <c r="F56" s="32" t="n">
+      <c r="F56" s="33" t="n">
         <f aca="false">0.04*B56^2</f>
         <v>8.06273793247375E-007</v>
       </c>
@@ -6760,22 +7291,22 @@
       <c r="A57" s="0" t="n">
         <v>847.58</v>
       </c>
-      <c r="B57" s="30" t="n">
+      <c r="B57" s="7" t="n">
         <v>0.00326686414564173</v>
       </c>
-      <c r="C57" s="31" t="n">
+      <c r="C57" s="32" t="n">
         <f aca="false">2.97*B57^(0.62)</f>
         <v>0.0854117687386061</v>
       </c>
-      <c r="D57" s="32" t="n">
+      <c r="D57" s="33" t="n">
         <f aca="false">0.057*B57^(1.944)</f>
         <v>8.38196155302728E-007</v>
       </c>
-      <c r="E57" s="31" t="n">
+      <c r="E57" s="32" t="n">
         <f aca="false">0.38*B57^0.59</f>
         <v>0.01297540524603</v>
       </c>
-      <c r="F57" s="32" t="n">
+      <c r="F57" s="33" t="n">
         <f aca="false">0.04*B57^2</f>
         <v>4.26896053843179E-007</v>
       </c>
@@ -6784,22 +7315,22 @@
       <c r="A58" s="0" t="n">
         <v>2738</v>
       </c>
-      <c r="B58" s="30" t="n">
+      <c r="B58" s="7" t="n">
         <v>0.00148681748399815</v>
       </c>
-      <c r="C58" s="31" t="n">
+      <c r="C58" s="32" t="n">
         <f aca="false">2.97*B58^(0.62)</f>
         <v>0.0524271437927417</v>
       </c>
-      <c r="D58" s="32" t="n">
+      <c r="D58" s="33" t="n">
         <f aca="false">0.057*B58^(1.944)</f>
         <v>1.81444473852152E-007</v>
       </c>
-      <c r="E58" s="31" t="n">
+      <c r="E58" s="32" t="n">
         <f aca="false">0.38*B58^0.59</f>
         <v>0.00815484321487877</v>
       </c>
-      <c r="F58" s="32" t="n">
+      <c r="F58" s="33" t="n">
         <f aca="false">0.04*B58^2</f>
         <v>8.84250492289036E-008</v>
       </c>
@@ -6808,22 +7339,22 @@
       <c r="A59" s="0" t="n">
         <v>4338.66</v>
       </c>
-      <c r="B59" s="30" t="n">
+      <c r="B59" s="7" t="n">
         <v>0.00165426731175644</v>
       </c>
-      <c r="C59" s="31" t="n">
+      <c r="C59" s="32" t="n">
         <f aca="false">2.97*B59^(0.62)</f>
         <v>0.0560134052823008</v>
       </c>
-      <c r="D59" s="32" t="n">
+      <c r="D59" s="33" t="n">
         <f aca="false">0.057*B59^(1.944)</f>
         <v>2.23277167228799E-007</v>
       </c>
-      <c r="E59" s="31" t="n">
+      <c r="E59" s="32" t="n">
         <f aca="false">0.38*B59^0.59</f>
         <v>0.00868482261731556</v>
       </c>
-      <c r="F59" s="32" t="n">
+      <c r="F59" s="33" t="n">
         <f aca="false">0.04*B59^2</f>
         <v>1.09464013549835E-007</v>
       </c>
@@ -6832,22 +7363,22 @@
       <c r="A60" s="0" t="n">
         <v>5086.67</v>
       </c>
-      <c r="B60" s="30" t="n">
+      <c r="B60" s="7" t="n">
         <v>0.00172994925903795</v>
       </c>
-      <c r="C60" s="31" t="n">
+      <c r="C60" s="32" t="n">
         <f aca="false">2.97*B60^(0.62)</f>
         <v>0.0575886815321441</v>
       </c>
-      <c r="D60" s="32" t="n">
+      <c r="D60" s="33" t="n">
         <f aca="false">0.057*B60^(1.944)</f>
         <v>2.43563225835732E-007</v>
       </c>
-      <c r="E60" s="31" t="n">
+      <c r="E60" s="32" t="n">
         <f aca="false">0.38*B60^0.59</f>
         <v>0.00891709271065583</v>
       </c>
-      <c r="F60" s="32" t="n">
+      <c r="F60" s="33" t="n">
         <f aca="false">0.04*B60^2</f>
         <v>1.19708977553838E-007</v>
       </c>
@@ -6875,7 +7406,7 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6889,29 +7420,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3224.39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3224.39</v>
@@ -6919,83 +7450,83 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>0.0174073913465891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7" t="n">
         <v>0.0174073913465891</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>0.00905420943797329</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H5" s="7" t="n">
         <v>0.00838855821647622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.733567390573683</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.16628412805505</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="30" t="n">
+        <v>59</v>
+      </c>
+      <c r="H8" s="7" t="n">
         <v>0.0105579786502628</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6.89970872110144</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1.85502754530844</v>
@@ -7003,7 +7534,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1.7860288485136</v>
@@ -7011,7 +7542,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1885.33</v>
@@ -7019,13 +7550,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>0.0665863915555153</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="30" t="n">
-        <v>0.0665863915555153</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1885.33</v>
@@ -7033,69 +7564,69 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>0.0121820294071994</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="30" t="n">
-        <v>0.0121820294071994</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="30" t="n">
+      <c r="H13" s="7" t="n">
         <v>0.0665863915555153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="30" t="n">
+      <c r="H14" s="7" t="n">
         <v>0.0112686798808896</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4.82102591004869</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4.7100584682048</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.53102565960586</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.126974631540773</v>
@@ -7103,7 +7634,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3.09742234137423</v>
@@ -7111,13 +7642,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1707.04</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>3.18462410915096</v>
@@ -7125,21 +7656,21 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7" t="n">
         <v>0.0796091569963983</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="B21" s="7" t="n">
         <v>0.0133703247435226</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1707.04</v>
@@ -7147,63 +7678,63 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="H22" s="7" t="n">
         <v>0.0796091569963983</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>7.15329229537103</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H23" s="7" t="n">
         <v>0.0124963864811004</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4.12322934641132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11.2764625888247</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.230555884990333</v>
@@ -7211,13 +7742,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1631.73</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2.94768993553845</v>
@@ -7225,13 +7756,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="n">
         <v>0.0858483420562948</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>3.12901332289223</v>
@@ -7239,21 +7770,21 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="B29" s="7" t="n">
         <v>0.0147866557709214</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1631.73</v>
@@ -7261,63 +7792,63 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>7.22104189591477</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="H31" s="7" t="n">
         <v>0.0858483420562948</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4.162280894934</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H32" s="7" t="n">
         <v>0.0141742089005532</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>11.3832671605332</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1276.06</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.243740988673165</v>
@@ -7325,13 +7856,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.122600161613828</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3.00051480320737</v>
@@ -7339,13 +7870,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="B37" s="7" t="n">
         <v>0.0162094513521557</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3.19226785638621</v>
@@ -7353,21 +7884,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>9.54813216436608</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1276.06</v>
@@ -7375,13 +7906,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3.49452531337901</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.122600161613828</v>
@@ -7389,49 +7920,49 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13.042611359173</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H41" s="7" t="n">
         <v>0.0148325327507379</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1733.14</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B44" s="7" t="n">
         <v>0.0775543912150806</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0.346713028636503</v>
@@ -7439,13 +7970,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="B45" s="7" t="n">
         <v>0.0270356845332595</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2.57417709180406</v>
@@ -7453,13 +7984,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2.87224516711447</v>
@@ -7467,7 +7998,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14.5861799249095</v>
@@ -7475,13 +8006,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.57887732799694</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1733.14</v>
@@ -7489,63 +8020,63 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>17.1649659667583</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="30" t="n">
+        <v>53</v>
+      </c>
+      <c r="H49" s="7" t="n">
         <v>0.0775543912150806</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H50" s="7" t="n">
         <v>0.0240218462854766</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1145.54</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.139727826991123</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="B53" s="7" t="n">
         <v>0.00539919856208694</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0.787616519847601</v>
@@ -7553,13 +8084,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1.9896617741242</v>
@@ -7567,13 +8098,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>18.7412552816673</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.61417434358327</v>
@@ -7581,7 +8112,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.31350624995081</v>
@@ -7589,13 +8120,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>22.0546920049182</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1145.54</v>
@@ -7603,7 +8134,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0.139727826991123</v>
@@ -7611,31 +8142,31 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H59" s="7" t="n">
         <v>0.00467317393173504</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0.454771937101082</v>
@@ -7643,7 +8174,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>2.23547135492507</v>
@@ -7651,7 +8182,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G64" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>2.6637119688558</v>
@@ -7675,7 +8206,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="238" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="223" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="invariant_k" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>Experiments 13.06.2017</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>RUNS 1507</t>
+  </si>
+  <si>
+    <t>RUNS 1707</t>
+  </si>
+  <si>
+    <t>config exists from 1507</t>
   </si>
   <si>
     <t>Examples of invariant rates used in HAMOCC</t>
@@ -414,7 +420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,6 +469,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,6 +493,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,6 +510,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -623,7 +661,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2008,11 +2046,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86251564"/>
-        <c:axId val="76568060"/>
+        <c:axId val="78569598"/>
+        <c:axId val="69654263"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86251564"/>
+        <c:axId val="78569598"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,11 +2066,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="76568060"/>
+        <c:crossAx val="69654263"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76568060"/>
+        <c:axId val="69654263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,7 +2095,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86251564"/>
+        <c:crossAx val="78569598"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2097,15 +2135,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2113,8 +2151,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7399080" y="189360"/>
-        <a:ext cx="8534160" cy="6769800"/>
+        <a:off x="7426080" y="180360"/>
+        <a:ext cx="8533800" cy="6769440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2132,10 +2170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G112" activeCellId="0" sqref="G112"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L105" activeCellId="0" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3319,6 +3357,13 @@
       <c r="A92" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="G92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
@@ -3333,6 +3378,18 @@
       <c r="E94" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="G94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -3351,76 +3408,141 @@
       <c r="E95" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="G95" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="I95" s="13" t="n">
+        <f aca="false">H95*J95</f>
+        <v>0.009</v>
+      </c>
+      <c r="J95" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B96" s="12" t="n">
+      <c r="B96" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="C96" s="13" t="n">
+      <c r="C96" s="16" t="n">
         <v>0.004</v>
       </c>
-      <c r="D96" s="13" t="n">
+      <c r="D96" s="16" t="n">
         <f aca="false">C96*E96</f>
         <v>0.016</v>
       </c>
-      <c r="E96" s="14" t="n">
+      <c r="E96" s="17" t="n">
         <v>4</v>
+      </c>
+      <c r="G96" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" s="16" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="I96" s="16" t="n">
+        <f aca="false">H96*J96</f>
+        <v>0.0135</v>
+      </c>
+      <c r="J96" s="17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B97" s="12" t="n">
+      <c r="B97" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C97" s="13" t="n">
+      <c r="C97" s="16" t="n">
         <v>0.004</v>
       </c>
-      <c r="D97" s="13" t="n">
+      <c r="D97" s="16" t="n">
         <f aca="false">C97*E97</f>
         <v>0.02</v>
       </c>
-      <c r="E97" s="14" t="n">
+      <c r="E97" s="17" t="n">
         <v>5</v>
+      </c>
+      <c r="G97" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" s="9" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="I97" s="9" t="n">
+        <f aca="false">H97*J97</f>
+        <v>0.018</v>
+      </c>
+      <c r="J97" s="19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B98" s="12" t="n">
+      <c r="B98" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="C98" s="13" t="n">
+      <c r="C98" s="16" t="n">
         <v>0.004</v>
       </c>
-      <c r="D98" s="13" t="n">
+      <c r="D98" s="16" t="n">
         <f aca="false">C98*E98</f>
         <v>0.032</v>
       </c>
-      <c r="E98" s="14" t="n">
+      <c r="E98" s="17" t="n">
         <v>8</v>
+      </c>
+      <c r="G98" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" s="9" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="I98" s="9" t="n">
+        <f aca="false">H98*J98</f>
+        <v>0.0225</v>
+      </c>
+      <c r="J98" s="19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B99" s="15" t="n">
+      <c r="B99" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="C99" s="16" t="n">
+      <c r="C99" s="21" t="n">
         <v>0.004</v>
       </c>
-      <c r="D99" s="16" t="n">
+      <c r="D99" s="21" t="n">
         <f aca="false">C99*E99</f>
         <v>0.04</v>
       </c>
-      <c r="E99" s="17" t="n">
+      <c r="E99" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" s="24" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="I99" s="24" t="n">
+        <f aca="false">H99*J99</f>
+        <v>0.045</v>
+      </c>
+      <c r="J99" s="25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3443,84 +3565,154 @@
         <f aca="false">E95</f>
         <v>2</v>
       </c>
+      <c r="G100" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" s="13" t="n">
+        <f aca="false">H95+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="I100" s="13" t="n">
+        <f aca="false">H100*J100</f>
+        <v>0.01</v>
+      </c>
+      <c r="J100" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B101" s="12" t="n">
+      <c r="B101" s="15" t="n">
         <v>15</v>
       </c>
       <c r="C101" s="0" t="n">
         <f aca="false">C96+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="D101" s="13" t="n">
+      <c r="D101" s="16" t="n">
         <f aca="false">C101*E101</f>
         <v>0.018</v>
       </c>
-      <c r="E101" s="14" t="n">
+      <c r="E101" s="17" t="n">
         <f aca="false">E96</f>
         <v>4</v>
+      </c>
+      <c r="G101" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <f aca="false">H96+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="I101" s="16" t="n">
+        <f aca="false">H101*J101</f>
+        <v>0.015</v>
+      </c>
+      <c r="J101" s="17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B102" s="12" t="n">
+      <c r="B102" s="15" t="n">
         <v>16</v>
       </c>
       <c r="C102" s="0" t="n">
         <f aca="false">C97+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="D102" s="13" t="n">
+      <c r="D102" s="16" t="n">
         <f aca="false">C102*E102</f>
         <v>0.0225</v>
       </c>
-      <c r="E102" s="14" t="n">
+      <c r="E102" s="17" t="n">
         <f aca="false">E97</f>
         <v>5</v>
+      </c>
+      <c r="G102" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H102" s="8" t="n">
+        <f aca="false">H97+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="I102" s="9" t="n">
+        <f aca="false">H102*J102</f>
+        <v>0.02</v>
+      </c>
+      <c r="J102" s="19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B103" s="12" t="n">
+      <c r="B103" s="15" t="n">
         <v>17</v>
       </c>
       <c r="C103" s="0" t="n">
         <f aca="false">C98+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="D103" s="13" t="n">
+      <c r="D103" s="16" t="n">
         <f aca="false">C103*E103</f>
         <v>0.036</v>
       </c>
-      <c r="E103" s="14" t="n">
+      <c r="E103" s="17" t="n">
         <f aca="false">E98</f>
         <v>8</v>
+      </c>
+      <c r="G103" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="H103" s="8" t="n">
+        <f aca="false">H98+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="I103" s="9" t="n">
+        <f aca="false">H103*J103</f>
+        <v>0.025</v>
+      </c>
+      <c r="J103" s="19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B104" s="15" t="n">
+      <c r="B104" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="C104" s="16" t="n">
+      <c r="C104" s="21" t="n">
         <f aca="false">C99+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="D104" s="16" t="n">
+      <c r="D104" s="21" t="n">
         <f aca="false">C104*E104</f>
         <v>0.045</v>
       </c>
-      <c r="E104" s="17" t="n">
+      <c r="E104" s="22" t="n">
         <f aca="false">E99</f>
+        <v>10</v>
+      </c>
+      <c r="G104" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H104" s="24" t="n">
+        <f aca="false">H99+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="I104" s="24" t="n">
+        <f aca="false">H104*J104</f>
+        <v>0.05</v>
+      </c>
+      <c r="J104" s="25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3543,84 +3735,154 @@
         <f aca="false">E100</f>
         <v>2</v>
       </c>
+      <c r="G105" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H105" s="13" t="n">
+        <f aca="false">H100+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="I105" s="13" t="n">
+        <f aca="false">H105*J105</f>
+        <v>0.011</v>
+      </c>
+      <c r="J105" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B106" s="12" t="n">
+      <c r="B106" s="15" t="n">
         <v>20</v>
       </c>
       <c r="C106" s="0" t="n">
         <f aca="false">C101+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="D106" s="13" t="n">
+      <c r="D106" s="16" t="n">
         <f aca="false">C106*E106</f>
         <v>0.02</v>
       </c>
-      <c r="E106" s="14" t="n">
+      <c r="E106" s="17" t="n">
         <f aca="false">E101</f>
         <v>4</v>
+      </c>
+      <c r="G106" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <f aca="false">H101+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="I106" s="16" t="n">
+        <f aca="false">H106*J106</f>
+        <v>0.0165</v>
+      </c>
+      <c r="J106" s="17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B107" s="12" t="n">
+      <c r="B107" s="15" t="n">
         <v>21</v>
       </c>
       <c r="C107" s="0" t="n">
         <f aca="false">C102+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="D107" s="13" t="n">
+      <c r="D107" s="16" t="n">
         <f aca="false">C107*E107</f>
         <v>0.025</v>
       </c>
-      <c r="E107" s="14" t="n">
+      <c r="E107" s="17" t="n">
         <f aca="false">E102</f>
         <v>5</v>
+      </c>
+      <c r="G107" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H107" s="8" t="n">
+        <f aca="false">H102+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="I107" s="9" t="n">
+        <f aca="false">H107*J107</f>
+        <v>0.022</v>
+      </c>
+      <c r="J107" s="19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B108" s="12" t="n">
+      <c r="B108" s="15" t="n">
         <v>22</v>
       </c>
       <c r="C108" s="0" t="n">
         <f aca="false">C103+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="D108" s="13" t="n">
+      <c r="D108" s="16" t="n">
         <f aca="false">C108*E108</f>
         <v>0.04</v>
       </c>
-      <c r="E108" s="14" t="n">
+      <c r="E108" s="17" t="n">
         <f aca="false">E103</f>
         <v>8</v>
+      </c>
+      <c r="G108" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="H108" s="8" t="n">
+        <f aca="false">H103+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="I108" s="9" t="n">
+        <f aca="false">H108*J108</f>
+        <v>0.0275</v>
+      </c>
+      <c r="J108" s="19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B109" s="15" t="n">
+      <c r="B109" s="20" t="n">
         <v>23</v>
       </c>
-      <c r="C109" s="16" t="n">
+      <c r="C109" s="21" t="n">
         <f aca="false">C104+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="D109" s="16" t="n">
+      <c r="D109" s="21" t="n">
         <f aca="false">C109*E109</f>
         <v>0.05</v>
       </c>
-      <c r="E109" s="17" t="n">
+      <c r="E109" s="22" t="n">
         <f aca="false">E104</f>
+        <v>10</v>
+      </c>
+      <c r="G109" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H109" s="24" t="n">
+        <f aca="false">H104+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="I109" s="24" t="n">
+        <f aca="false">H109*J109</f>
+        <v>0.055</v>
+      </c>
+      <c r="J109" s="25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3643,84 +3905,154 @@
         <f aca="false">E105</f>
         <v>2</v>
       </c>
+      <c r="G110" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="H110" s="13" t="n">
+        <f aca="false">H105+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="I110" s="13" t="n">
+        <f aca="false">H110*J110</f>
+        <v>0.012</v>
+      </c>
+      <c r="J110" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B111" s="12" t="n">
+      <c r="B111" s="15" t="n">
         <v>25</v>
       </c>
       <c r="C111" s="0" t="n">
         <f aca="false">C106+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="D111" s="13" t="n">
+      <c r="D111" s="16" t="n">
         <f aca="false">C111*E111</f>
         <v>0.022</v>
       </c>
-      <c r="E111" s="14" t="n">
+      <c r="E111" s="17" t="n">
         <f aca="false">E106</f>
         <v>4</v>
+      </c>
+      <c r="G111" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <f aca="false">H106+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="I111" s="16" t="n">
+        <f aca="false">H111*J111</f>
+        <v>0.018</v>
+      </c>
+      <c r="J111" s="17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B112" s="12" t="n">
+      <c r="B112" s="15" t="n">
         <v>26</v>
       </c>
       <c r="C112" s="0" t="n">
         <f aca="false">C107+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="D112" s="13" t="n">
+      <c r="D112" s="16" t="n">
         <f aca="false">C112*E112</f>
         <v>0.0275</v>
       </c>
-      <c r="E112" s="14" t="n">
+      <c r="E112" s="17" t="n">
         <f aca="false">E107</f>
         <v>5</v>
+      </c>
+      <c r="G112" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="H112" s="8" t="n">
+        <f aca="false">H107+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <f aca="false">H112*J112</f>
+        <v>0.024</v>
+      </c>
+      <c r="J112" s="19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B113" s="12" t="n">
+      <c r="B113" s="15" t="n">
         <v>27</v>
       </c>
       <c r="C113" s="0" t="n">
         <f aca="false">C108+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="D113" s="13" t="n">
+      <c r="D113" s="16" t="n">
         <f aca="false">C113*E113</f>
         <v>0.044</v>
       </c>
-      <c r="E113" s="14" t="n">
+      <c r="E113" s="17" t="n">
         <f aca="false">E108</f>
         <v>8</v>
+      </c>
+      <c r="G113" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="H113" s="8" t="n">
+        <f aca="false">H108+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="I113" s="9" t="n">
+        <f aca="false">H113*J113</f>
+        <v>0.03</v>
+      </c>
+      <c r="J113" s="19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B114" s="15" t="n">
+      <c r="B114" s="20" t="n">
         <v>28</v>
       </c>
-      <c r="C114" s="16" t="n">
+      <c r="C114" s="21" t="n">
         <f aca="false">C109+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="D114" s="16" t="n">
+      <c r="D114" s="21" t="n">
         <f aca="false">C114*E114</f>
         <v>0.055</v>
       </c>
-      <c r="E114" s="17" t="n">
+      <c r="E114" s="22" t="n">
         <f aca="false">E109</f>
+        <v>10</v>
+      </c>
+      <c r="G114" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="H114" s="24" t="n">
+        <f aca="false">H109+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="I114" s="24" t="n">
+        <f aca="false">H114*J114</f>
+        <v>0.06</v>
+      </c>
+      <c r="J114" s="25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3743,84 +4075,234 @@
         <f aca="false">E110</f>
         <v>2</v>
       </c>
+      <c r="G115" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="H115" s="3" t="n">
+        <f aca="false">H110+0.0005</f>
+        <v>0.0065</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <f aca="false">H115*J115</f>
+        <v>0.013</v>
+      </c>
+      <c r="J115" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B116" s="12" t="n">
+      <c r="B116" s="15" t="n">
         <v>30</v>
       </c>
       <c r="C116" s="0" t="n">
         <f aca="false">C111+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="D116" s="13" t="n">
+      <c r="D116" s="16" t="n">
         <f aca="false">C116*E116</f>
         <v>0.024</v>
       </c>
-      <c r="E116" s="14" t="n">
+      <c r="E116" s="17" t="n">
         <f aca="false">E111</f>
         <v>4</v>
+      </c>
+      <c r="G116" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <f aca="false">H111+0.0005</f>
+        <v>0.0065</v>
+      </c>
+      <c r="I116" s="16" t="n">
+        <f aca="false">H116*J116</f>
+        <v>0.0195</v>
+      </c>
+      <c r="J116" s="17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B117" s="12" t="n">
+      <c r="B117" s="15" t="n">
         <v>31</v>
       </c>
       <c r="C117" s="0" t="n">
         <f aca="false">C112+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="D117" s="13" t="n">
+      <c r="D117" s="16" t="n">
         <f aca="false">C117*E117</f>
         <v>0.03</v>
       </c>
-      <c r="E117" s="14" t="n">
+      <c r="E117" s="17" t="n">
         <f aca="false">E112</f>
         <v>5</v>
+      </c>
+      <c r="G117" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <f aca="false">H112+0.0005</f>
+        <v>0.0065</v>
+      </c>
+      <c r="I117" s="16" t="n">
+        <f aca="false">H117*J117</f>
+        <v>0.026</v>
+      </c>
+      <c r="J117" s="17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B118" s="12" t="n">
+      <c r="B118" s="15" t="n">
         <v>32</v>
       </c>
       <c r="C118" s="0" t="n">
         <f aca="false">C113+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="D118" s="13" t="n">
+      <c r="D118" s="16" t="n">
         <f aca="false">C118*E118</f>
         <v>0.048</v>
       </c>
-      <c r="E118" s="14" t="n">
+      <c r="E118" s="17" t="n">
         <f aca="false">E113</f>
         <v>8</v>
+      </c>
+      <c r="G118" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <f aca="false">H113+0.0005</f>
+        <v>0.0065</v>
+      </c>
+      <c r="I118" s="16" t="n">
+        <f aca="false">H118*J118</f>
+        <v>0.0325</v>
+      </c>
+      <c r="J118" s="17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B119" s="15" t="n">
+      <c r="B119" s="20" t="n">
         <v>33</v>
       </c>
-      <c r="C119" s="16" t="n">
+      <c r="C119" s="21" t="n">
         <f aca="false">C114+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="D119" s="16" t="n">
+      <c r="D119" s="21" t="n">
         <f aca="false">C119*E119</f>
         <v>0.06</v>
       </c>
-      <c r="E119" s="17" t="n">
+      <c r="E119" s="22" t="n">
         <f aca="false">E114</f>
+        <v>10</v>
+      </c>
+      <c r="G119" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H119" s="21" t="n">
+        <f aca="false">H114+0.0005</f>
+        <v>0.0065</v>
+      </c>
+      <c r="I119" s="21" t="n">
+        <f aca="false">H119*J119</f>
+        <v>0.065</v>
+      </c>
+      <c r="J119" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G120" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="H120" s="3" t="n">
+        <f aca="false">H115+0.0005</f>
+        <v>0.007</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <f aca="false">H120*J120</f>
+        <v>0.014</v>
+      </c>
+      <c r="J120" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G121" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <f aca="false">H116+0.0005</f>
+        <v>0.007</v>
+      </c>
+      <c r="I121" s="16" t="n">
+        <f aca="false">H121*J121</f>
+        <v>0.021</v>
+      </c>
+      <c r="J121" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G122" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <f aca="false">H117+0.0005</f>
+        <v>0.007</v>
+      </c>
+      <c r="I122" s="16" t="n">
+        <f aca="false">H122*J122</f>
+        <v>0.028</v>
+      </c>
+      <c r="J122" s="17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G123" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <f aca="false">H118+0.0005</f>
+        <v>0.007</v>
+      </c>
+      <c r="I123" s="16" t="n">
+        <f aca="false">H123*J123</f>
+        <v>0.035</v>
+      </c>
+      <c r="J123" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G124" s="20" t="n">
+        <v>30</v>
+      </c>
+      <c r="H124" s="21" t="n">
+        <f aca="false">H119+0.0005</f>
+        <v>0.007</v>
+      </c>
+      <c r="I124" s="21" t="n">
+        <f aca="false">H124*J124</f>
+        <v>0.07</v>
+      </c>
+      <c r="J124" s="22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3864,8 +4346,8 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="10"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="18" t="s">
-        <v>18</v>
+      <c r="E1" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3879,1059 +4361,1059 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="19" t="s">
-        <v>19</v>
+      <c r="C2" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="19" t="s">
-        <v>21</v>
+      <c r="C3" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>23</v>
+      <c r="G3" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="L3" s="28" t="n">
         <v>0.008</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="14"/>
+      <c r="M3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>28</v>
+      <c r="O4" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="12"/>
-      <c r="E5" s="23" t="n">
+      <c r="C5" s="15"/>
+      <c r="E5" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="31" t="n">
         <f aca="false">1-E5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="33" t="n">
         <f aca="false">$F$3/(E5+F5/100)</f>
         <v>0.0105207785376118</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="33" t="n">
         <f aca="false">G5/100</f>
         <v>0.000105207785376118</v>
       </c>
-      <c r="I5" s="23" t="n">
+      <c r="I5" s="31" t="n">
         <f aca="false">E5*G5+F5*H5</f>
         <v>0.01</v>
       </c>
-      <c r="K5" s="23" t="n">
+      <c r="K5" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="L5" s="23" t="n">
+      <c r="L5" s="31" t="n">
         <f aca="false">1-K5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M5" s="25" t="n">
+      <c r="M5" s="33" t="n">
         <f aca="false">$L$3/(K5+L5/100)</f>
         <v>0.00841662283008943</v>
       </c>
-      <c r="N5" s="25" t="n">
+      <c r="N5" s="33" t="n">
         <f aca="false">M5/100</f>
         <v>8.41662283008943E-005</v>
       </c>
-      <c r="O5" s="24" t="n">
+      <c r="O5" s="32" t="n">
         <f aca="false">K5*M5+L5*N5</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="12"/>
-      <c r="E6" s="23" t="n">
+      <c r="C6" s="15"/>
+      <c r="E6" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="31" t="n">
         <f aca="false">1-E6</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="33" t="n">
         <f aca="false">$F$3/(E6+F6/100)</f>
         <v>0.0110987791342952</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="33" t="n">
         <f aca="false">G6/100</f>
         <v>0.000110987791342952</v>
       </c>
-      <c r="I6" s="23" t="n">
+      <c r="I6" s="31" t="n">
         <f aca="false">E6*G6+F6*H6</f>
         <v>0.01</v>
       </c>
-      <c r="K6" s="23" t="n">
+      <c r="K6" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="L6" s="23" t="n">
+      <c r="L6" s="31" t="n">
         <f aca="false">1-K6</f>
         <v>0.1</v>
       </c>
-      <c r="M6" s="25" t="n">
+      <c r="M6" s="33" t="n">
         <f aca="false">$L$3/(K6+L6/100)</f>
         <v>0.00887902330743618</v>
       </c>
-      <c r="N6" s="25" t="n">
+      <c r="N6" s="33" t="n">
         <f aca="false">M6/100</f>
         <v>8.87902330743618E-005</v>
       </c>
-      <c r="O6" s="24" t="n">
+      <c r="O6" s="32" t="n">
         <f aca="false">K6*M6+L6*N6</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="12"/>
-      <c r="E7" s="23" t="n">
+      <c r="C7" s="15"/>
+      <c r="E7" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="31" t="n">
         <f aca="false">1-E7</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="33" t="n">
         <f aca="false">$F$3/(E7+F7/100)</f>
         <v>0.0124688279301746</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="33" t="n">
         <f aca="false">G7/100</f>
         <v>0.000124688279301746</v>
       </c>
-      <c r="I7" s="23" t="n">
+      <c r="I7" s="31" t="n">
         <f aca="false">E7*G7+F7*H7</f>
         <v>0.01</v>
       </c>
-      <c r="K7" s="23" t="n">
+      <c r="K7" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="L7" s="23" t="n">
+      <c r="L7" s="31" t="n">
         <f aca="false">1-K7</f>
         <v>0.2</v>
       </c>
-      <c r="M7" s="25" t="n">
+      <c r="M7" s="33" t="n">
         <f aca="false">$L$3/(K7+L7/100)</f>
         <v>0.00997506234413965</v>
       </c>
-      <c r="N7" s="25" t="n">
+      <c r="N7" s="33" t="n">
         <f aca="false">M7/100</f>
         <v>9.97506234413965E-005</v>
       </c>
-      <c r="O7" s="24" t="n">
+      <c r="O7" s="32" t="n">
         <f aca="false">K7*M7+L7*N7</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="12"/>
-      <c r="E8" s="23" t="n">
+      <c r="C8" s="15"/>
+      <c r="E8" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="31" t="n">
         <f aca="false">1-E8</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="33" t="n">
         <f aca="false">$F$3/(E8+F8/100)</f>
         <v>0.0142247510668563</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="33" t="n">
         <f aca="false">G8/100</f>
         <v>0.000142247510668563</v>
       </c>
-      <c r="I8" s="23" t="n">
+      <c r="I8" s="31" t="n">
         <f aca="false">E8*G8+F8*H8</f>
         <v>0.01</v>
       </c>
-      <c r="K8" s="23" t="n">
+      <c r="K8" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="L8" s="23" t="n">
+      <c r="L8" s="31" t="n">
         <f aca="false">1-K8</f>
         <v>0.3</v>
       </c>
-      <c r="M8" s="25" t="n">
+      <c r="M8" s="33" t="n">
         <f aca="false">$L$3/(K8+L8/100)</f>
         <v>0.0113798008534851</v>
       </c>
-      <c r="N8" s="25" t="n">
+      <c r="N8" s="33" t="n">
         <f aca="false">M8/100</f>
         <v>0.000113798008534851</v>
       </c>
-      <c r="O8" s="24" t="n">
+      <c r="O8" s="32" t="n">
         <f aca="false">K8*M8+L8*N8</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12"/>
-      <c r="E9" s="23" t="n">
+      <c r="C9" s="15"/>
+      <c r="E9" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="31" t="n">
         <f aca="false">1-E9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="33" t="n">
         <f aca="false">$F$3/(E9+F9/100)</f>
         <v>0.0165562913907285</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="33" t="n">
         <f aca="false">G9/100</f>
         <v>0.000165562913907285</v>
       </c>
-      <c r="I9" s="23" t="n">
+      <c r="I9" s="31" t="n">
         <f aca="false">E9*G9+F9*H9</f>
         <v>0.01</v>
       </c>
-      <c r="K9" s="23" t="n">
+      <c r="K9" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="L9" s="23" t="n">
+      <c r="L9" s="31" t="n">
         <f aca="false">1-K9</f>
         <v>0.4</v>
       </c>
-      <c r="M9" s="25" t="n">
+      <c r="M9" s="33" t="n">
         <f aca="false">$L$3/(K9+L9/100)</f>
         <v>0.0132450331125828</v>
       </c>
-      <c r="N9" s="25" t="n">
+      <c r="N9" s="33" t="n">
         <f aca="false">M9/100</f>
         <v>0.000132450331125828</v>
       </c>
-      <c r="O9" s="24" t="n">
+      <c r="O9" s="32" t="n">
         <f aca="false">K9*M9+L9*N9</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="12"/>
-      <c r="E10" s="23" t="n">
+      <c r="C10" s="15"/>
+      <c r="E10" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="31" t="n">
         <f aca="false">1-E10</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="33" t="n">
         <f aca="false">$F$3/(E10+F10/100)</f>
         <v>0.0198019801980198</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="33" t="n">
         <f aca="false">G10/100</f>
         <v>0.000198019801980198</v>
       </c>
-      <c r="I10" s="23" t="n">
+      <c r="I10" s="31" t="n">
         <f aca="false">E10*G10+F10*H10</f>
         <v>0.01</v>
       </c>
-      <c r="K10" s="23" t="n">
+      <c r="K10" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="L10" s="23" t="n">
+      <c r="L10" s="31" t="n">
         <f aca="false">1-K10</f>
         <v>0.5</v>
       </c>
-      <c r="M10" s="25" t="n">
+      <c r="M10" s="33" t="n">
         <f aca="false">$L$3/(K10+L10/100)</f>
         <v>0.0158415841584158</v>
       </c>
-      <c r="N10" s="25" t="n">
+      <c r="N10" s="33" t="n">
         <f aca="false">M10/100</f>
         <v>0.000158415841584158</v>
       </c>
-      <c r="O10" s="24" t="n">
+      <c r="O10" s="32" t="n">
         <f aca="false">K10*M10+L10*N10</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12"/>
-      <c r="E11" s="23" t="n">
+      <c r="C11" s="15"/>
+      <c r="E11" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="31" t="n">
         <f aca="false">1-E11</f>
         <v>0.6</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="33" t="n">
         <f aca="false">$F$3/(E11+F11/100)</f>
         <v>0.0246305418719212</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="33" t="n">
         <f aca="false">G11/100</f>
         <v>0.000246305418719212</v>
       </c>
-      <c r="I11" s="23" t="n">
+      <c r="I11" s="31" t="n">
         <f aca="false">E11*G11+F11*H11</f>
         <v>0.01</v>
       </c>
-      <c r="K11" s="23" t="n">
+      <c r="K11" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="L11" s="23" t="n">
+      <c r="L11" s="31" t="n">
         <f aca="false">1-K11</f>
         <v>0.6</v>
       </c>
-      <c r="M11" s="25" t="n">
+      <c r="M11" s="33" t="n">
         <f aca="false">$L$3/(K11+L11/100)</f>
         <v>0.0197044334975369</v>
       </c>
-      <c r="N11" s="25" t="n">
+      <c r="N11" s="33" t="n">
         <f aca="false">M11/100</f>
         <v>0.000197044334975369</v>
       </c>
-      <c r="O11" s="24" t="n">
+      <c r="O11" s="32" t="n">
         <f aca="false">K11*M11+L11*N11</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12"/>
-      <c r="E12" s="23" t="n">
+      <c r="C12" s="15"/>
+      <c r="E12" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="31" t="n">
         <f aca="false">1-E12</f>
         <v>0.7</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="33" t="n">
         <f aca="false">$F$3/(E12+F12/100)</f>
         <v>0.0325732899022801</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="33" t="n">
         <f aca="false">G12/100</f>
         <v>0.000325732899022801</v>
       </c>
-      <c r="I12" s="23" t="n">
+      <c r="I12" s="31" t="n">
         <f aca="false">E12*G12+F12*H12</f>
         <v>0.01</v>
       </c>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="L12" s="23" t="n">
+      <c r="L12" s="31" t="n">
         <f aca="false">1-K12</f>
         <v>0.7</v>
       </c>
-      <c r="M12" s="25" t="n">
+      <c r="M12" s="33" t="n">
         <f aca="false">$L$3/(K12+L12/100)</f>
         <v>0.0260586319218241</v>
       </c>
-      <c r="N12" s="25" t="n">
+      <c r="N12" s="33" t="n">
         <f aca="false">M12/100</f>
         <v>0.000260586319218241</v>
       </c>
-      <c r="O12" s="24" t="n">
+      <c r="O12" s="32" t="n">
         <f aca="false">K12*M12+L12*N12</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12"/>
-      <c r="E13" s="23" t="n">
+      <c r="C13" s="15"/>
+      <c r="E13" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="31" t="n">
         <f aca="false">1-E13</f>
         <v>0.8</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="33" t="n">
         <f aca="false">$F$3/(E13+F13/100)</f>
         <v>0.0480769230769231</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="33" t="n">
         <f aca="false">G13/100</f>
         <v>0.000480769230769231</v>
       </c>
-      <c r="I13" s="23" t="n">
+      <c r="I13" s="31" t="n">
         <f aca="false">E13*G13+F13*H13</f>
         <v>0.01</v>
       </c>
-      <c r="K13" s="23" t="n">
+      <c r="K13" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="L13" s="23" t="n">
+      <c r="L13" s="31" t="n">
         <f aca="false">1-K13</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="25" t="n">
+      <c r="M13" s="33" t="n">
         <f aca="false">$L$3/(K13+L13/100)</f>
         <v>0.0384615384615385</v>
       </c>
-      <c r="N13" s="25" t="n">
+      <c r="N13" s="33" t="n">
         <f aca="false">M13/100</f>
         <v>0.000384615384615385</v>
       </c>
-      <c r="O13" s="24" t="n">
+      <c r="O13" s="32" t="n">
         <f aca="false">K13*M13+L13*N13</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="12"/>
-      <c r="E14" s="23" t="n">
+      <c r="C14" s="15"/>
+      <c r="E14" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="31" t="n">
         <f aca="false">1-E14</f>
         <v>0.9</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="33" t="n">
         <f aca="false">$F$3/(E14+F14/100)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="33" t="n">
         <f aca="false">G14/100</f>
         <v>0.00091743119266055</v>
       </c>
-      <c r="I14" s="23" t="n">
+      <c r="I14" s="31" t="n">
         <f aca="false">E14*G14+F14*H14</f>
         <v>0.01</v>
       </c>
-      <c r="K14" s="23" t="n">
+      <c r="K14" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="L14" s="23" t="n">
+      <c r="L14" s="31" t="n">
         <f aca="false">1-K14</f>
         <v>0.9</v>
       </c>
-      <c r="M14" s="25" t="n">
+      <c r="M14" s="33" t="n">
         <f aca="false">$L$3/(K14+L14/100)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N14" s="25" t="n">
+      <c r="N14" s="33" t="n">
         <f aca="false">M14/100</f>
         <v>0.00073394495412844</v>
       </c>
-      <c r="O14" s="24" t="n">
+      <c r="O14" s="32" t="n">
         <f aca="false">K14*M14+L14*N14</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="12"/>
-      <c r="E15" s="23" t="n">
+      <c r="C15" s="15"/>
+      <c r="E15" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="31" t="n">
         <f aca="false">1-E15</f>
         <v>0.99</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="33" t="n">
         <f aca="false">$F$3/(E15+F15/100)</f>
         <v>0.50251256281407</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="33" t="n">
         <f aca="false">G15/100</f>
         <v>0.0050251256281407</v>
       </c>
-      <c r="I15" s="23" t="n">
+      <c r="I15" s="31" t="n">
         <f aca="false">E15*G15+F15*H15</f>
         <v>0.01</v>
       </c>
-      <c r="K15" s="23" t="n">
+      <c r="K15" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="L15" s="23" t="n">
+      <c r="L15" s="31" t="n">
         <f aca="false">1-K15</f>
         <v>0.99</v>
       </c>
-      <c r="M15" s="25" t="n">
+      <c r="M15" s="33" t="n">
         <f aca="false">$L$3/(K15+L15/100)</f>
         <v>0.402010050251256</v>
       </c>
-      <c r="N15" s="25" t="n">
+      <c r="N15" s="33" t="n">
         <f aca="false">M15/100</f>
         <v>0.00402010050251256</v>
       </c>
-      <c r="O15" s="24" t="n">
+      <c r="O15" s="32" t="n">
         <f aca="false">K15*M15+L15*N15</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="23"/>
-      <c r="O16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="31"/>
+      <c r="O16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12"/>
+      <c r="C17" s="15"/>
       <c r="E17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="28" t="n">
         <v>0.005</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="28" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="15"/>
+      <c r="E18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="20" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M17" s="21" t="s">
+      <c r="G18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
-      <c r="E18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="K18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="N18" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>28</v>
+      <c r="O18" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12"/>
-      <c r="E19" s="23" t="n">
+      <c r="C19" s="15"/>
+      <c r="E19" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="31" t="n">
         <f aca="false">1-E19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="33" t="n">
         <f aca="false">$F$17/(E19+F19/100)</f>
         <v>0.00526038926880589</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="33" t="n">
         <f aca="false">G19/100</f>
         <v>5.26038926880589E-005</v>
       </c>
-      <c r="I19" s="23" t="n">
+      <c r="I19" s="31" t="n">
         <f aca="false">E19*G19+F19*H19</f>
         <v>0.005</v>
       </c>
-      <c r="K19" s="23" t="n">
+      <c r="K19" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="L19" s="23" t="n">
+      <c r="L19" s="31" t="n">
         <f aca="false">1-K19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M19" s="25" t="n">
+      <c r="M19" s="33" t="n">
         <f aca="false">$L$17/(K19+L19/100)</f>
         <v>0.00210415570752236</v>
       </c>
-      <c r="N19" s="25" t="n">
+      <c r="N19" s="33" t="n">
         <f aca="false">M19/100</f>
         <v>2.10415570752236E-005</v>
       </c>
-      <c r="O19" s="24" t="n">
+      <c r="O19" s="32" t="n">
         <f aca="false">K19*M19+L19*N19</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="12"/>
-      <c r="E20" s="23" t="n">
+      <c r="C20" s="15"/>
+      <c r="E20" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="31" t="n">
         <f aca="false">1-E20</f>
         <v>0.1</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="33" t="n">
         <f aca="false">$F$17/(E20+F20/100)</f>
         <v>0.00554938956714761</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="33" t="n">
         <f aca="false">G20/100</f>
         <v>5.54938956714761E-005</v>
       </c>
-      <c r="I20" s="23" t="n">
+      <c r="I20" s="31" t="n">
         <f aca="false">E20*G20+F20*H20</f>
         <v>0.005</v>
       </c>
-      <c r="K20" s="23" t="n">
+      <c r="K20" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="L20" s="23" t="n">
+      <c r="L20" s="31" t="n">
         <f aca="false">1-K20</f>
         <v>0.1</v>
       </c>
-      <c r="M20" s="25" t="n">
+      <c r="M20" s="33" t="n">
         <f aca="false">$L$17/(K20+L20/100)</f>
         <v>0.00221975582685905</v>
       </c>
-      <c r="N20" s="25" t="n">
+      <c r="N20" s="33" t="n">
         <f aca="false">M20/100</f>
         <v>2.21975582685905E-005</v>
       </c>
-      <c r="O20" s="24" t="n">
+      <c r="O20" s="32" t="n">
         <f aca="false">K20*M20+L20*N20</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="12"/>
-      <c r="E21" s="23" t="n">
+      <c r="C21" s="15"/>
+      <c r="E21" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="31" t="n">
         <f aca="false">1-E21</f>
         <v>0.2</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="33" t="n">
         <f aca="false">$F$17/(E21+F21/100)</f>
         <v>0.00623441396508728</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="33" t="n">
         <f aca="false">G21/100</f>
         <v>6.23441396508728E-005</v>
       </c>
-      <c r="I21" s="23" t="n">
+      <c r="I21" s="31" t="n">
         <f aca="false">E21*G21+F21*H21</f>
         <v>0.005</v>
       </c>
-      <c r="K21" s="23" t="n">
+      <c r="K21" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="L21" s="23" t="n">
+      <c r="L21" s="31" t="n">
         <f aca="false">1-K21</f>
         <v>0.2</v>
       </c>
-      <c r="M21" s="25" t="n">
+      <c r="M21" s="33" t="n">
         <f aca="false">$L$17/(K21+L21/100)</f>
         <v>0.00249376558603491</v>
       </c>
-      <c r="N21" s="25" t="n">
+      <c r="N21" s="33" t="n">
         <f aca="false">M21/100</f>
         <v>2.49376558603491E-005</v>
       </c>
-      <c r="O21" s="24" t="n">
+      <c r="O21" s="32" t="n">
         <f aca="false">K21*M21+L21*N21</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="12"/>
-      <c r="E22" s="23" t="n">
+      <c r="C22" s="15"/>
+      <c r="E22" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="31" t="n">
         <f aca="false">1-E22</f>
         <v>0.3</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="33" t="n">
         <f aca="false">$F$17/(E22+F22/100)</f>
         <v>0.00711237553342816</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="33" t="n">
         <f aca="false">G22/100</f>
         <v>7.11237553342816E-005</v>
       </c>
-      <c r="I22" s="23" t="n">
+      <c r="I22" s="31" t="n">
         <f aca="false">E22*G22+F22*H22</f>
         <v>0.005</v>
       </c>
-      <c r="K22" s="23" t="n">
+      <c r="K22" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="L22" s="23" t="n">
+      <c r="L22" s="31" t="n">
         <f aca="false">1-K22</f>
         <v>0.3</v>
       </c>
-      <c r="M22" s="25" t="n">
+      <c r="M22" s="33" t="n">
         <f aca="false">$L$17/(K22+L22/100)</f>
         <v>0.00284495021337127</v>
       </c>
-      <c r="N22" s="25" t="n">
+      <c r="N22" s="33" t="n">
         <f aca="false">M22/100</f>
         <v>2.84495021337127E-005</v>
       </c>
-      <c r="O22" s="24" t="n">
+      <c r="O22" s="32" t="n">
         <f aca="false">K22*M22+L22*N22</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="12"/>
-      <c r="E23" s="23" t="n">
+      <c r="C23" s="15"/>
+      <c r="E23" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="31" t="n">
         <f aca="false">1-E23</f>
         <v>0.4</v>
       </c>
-      <c r="G23" s="25" t="n">
+      <c r="G23" s="33" t="n">
         <f aca="false">$F$17/(E23+F23/100)</f>
         <v>0.00827814569536424</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="33" t="n">
         <f aca="false">G23/100</f>
         <v>8.27814569536424E-005</v>
       </c>
-      <c r="I23" s="23" t="n">
+      <c r="I23" s="31" t="n">
         <f aca="false">E23*G23+F23*H23</f>
         <v>0.005</v>
       </c>
-      <c r="K23" s="23" t="n">
+      <c r="K23" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="L23" s="23" t="n">
+      <c r="L23" s="31" t="n">
         <f aca="false">1-K23</f>
         <v>0.4</v>
       </c>
-      <c r="M23" s="25" t="n">
+      <c r="M23" s="33" t="n">
         <f aca="false">$L$17/(K23+L23/100)</f>
         <v>0.00331125827814569</v>
       </c>
-      <c r="N23" s="25" t="n">
+      <c r="N23" s="33" t="n">
         <f aca="false">M23/100</f>
         <v>3.31125827814569E-005</v>
       </c>
-      <c r="O23" s="24" t="n">
+      <c r="O23" s="32" t="n">
         <f aca="false">K23*M23+L23*N23</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="12"/>
-      <c r="E24" s="23" t="n">
+      <c r="C24" s="15"/>
+      <c r="E24" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="31" t="n">
         <f aca="false">1-E24</f>
         <v>0.5</v>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="33" t="n">
         <f aca="false">$F$17/(E24+F24/100)</f>
         <v>0.0099009900990099</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="33" t="n">
         <f aca="false">G24/100</f>
         <v>9.9009900990099E-005</v>
       </c>
-      <c r="I24" s="23" t="n">
+      <c r="I24" s="31" t="n">
         <f aca="false">E24*G24+F24*H24</f>
         <v>0.005</v>
       </c>
-      <c r="K24" s="23" t="n">
+      <c r="K24" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="L24" s="23" t="n">
+      <c r="L24" s="31" t="n">
         <f aca="false">1-K24</f>
         <v>0.5</v>
       </c>
-      <c r="M24" s="25" t="n">
+      <c r="M24" s="33" t="n">
         <f aca="false">$L$17/(K24+L24/100)</f>
         <v>0.00396039603960396</v>
       </c>
-      <c r="N24" s="25" t="n">
+      <c r="N24" s="33" t="n">
         <f aca="false">M24/100</f>
         <v>3.96039603960396E-005</v>
       </c>
-      <c r="O24" s="24" t="n">
+      <c r="O24" s="32" t="n">
         <f aca="false">K24*M24+L24*N24</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="12"/>
-      <c r="E25" s="23" t="n">
+      <c r="C25" s="15"/>
+      <c r="E25" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="31" t="n">
         <f aca="false">1-E25</f>
         <v>0.6</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="33" t="n">
         <f aca="false">$F$17/(E25+F25/100)</f>
         <v>0.0123152709359606</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="33" t="n">
         <f aca="false">G25/100</f>
         <v>0.000123152709359606</v>
       </c>
-      <c r="I25" s="23" t="n">
+      <c r="I25" s="31" t="n">
         <f aca="false">E25*G25+F25*H25</f>
         <v>0.005</v>
       </c>
-      <c r="K25" s="23" t="n">
+      <c r="K25" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="L25" s="23" t="n">
+      <c r="L25" s="31" t="n">
         <f aca="false">1-K25</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="25" t="n">
+      <c r="M25" s="33" t="n">
         <f aca="false">$L$17/(K25+L25/100)</f>
         <v>0.00492610837438424</v>
       </c>
-      <c r="N25" s="25" t="n">
+      <c r="N25" s="33" t="n">
         <f aca="false">M25/100</f>
         <v>4.92610837438424E-005</v>
       </c>
-      <c r="O25" s="24" t="n">
+      <c r="O25" s="32" t="n">
         <f aca="false">K25*M25+L25*N25</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="12"/>
-      <c r="E26" s="23" t="n">
+      <c r="C26" s="15"/>
+      <c r="E26" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="31" t="n">
         <f aca="false">1-E26</f>
         <v>0.7</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="33" t="n">
         <f aca="false">$F$17/(E26+F26/100)</f>
         <v>0.0162866449511401</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="33" t="n">
         <f aca="false">G26/100</f>
         <v>0.000162866449511401</v>
       </c>
-      <c r="I26" s="23" t="n">
+      <c r="I26" s="31" t="n">
         <f aca="false">E26*G26+F26*H26</f>
         <v>0.005</v>
       </c>
-      <c r="K26" s="23" t="n">
+      <c r="K26" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="L26" s="23" t="n">
+      <c r="L26" s="31" t="n">
         <f aca="false">1-K26</f>
         <v>0.7</v>
       </c>
-      <c r="M26" s="25" t="n">
+      <c r="M26" s="33" t="n">
         <f aca="false">$L$17/(K26+L26/100)</f>
         <v>0.00651465798045603</v>
       </c>
-      <c r="N26" s="25" t="n">
+      <c r="N26" s="33" t="n">
         <f aca="false">M26/100</f>
         <v>6.51465798045603E-005</v>
       </c>
-      <c r="O26" s="24" t="n">
+      <c r="O26" s="32" t="n">
         <f aca="false">K26*M26+L26*N26</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="12"/>
-      <c r="E27" s="23" t="n">
+      <c r="C27" s="15"/>
+      <c r="E27" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="31" t="n">
         <f aca="false">1-E27</f>
         <v>0.8</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="33" t="n">
         <f aca="false">$F$17/(E27+F27/100)</f>
         <v>0.0240384615384615</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="33" t="n">
         <f aca="false">G27/100</f>
         <v>0.000240384615384615</v>
       </c>
-      <c r="I27" s="23" t="n">
+      <c r="I27" s="31" t="n">
         <f aca="false">E27*G27+F27*H27</f>
         <v>0.005</v>
       </c>
-      <c r="K27" s="23" t="n">
+      <c r="K27" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="L27" s="23" t="n">
+      <c r="L27" s="31" t="n">
         <f aca="false">1-K27</f>
         <v>0.8</v>
       </c>
-      <c r="M27" s="25" t="n">
+      <c r="M27" s="33" t="n">
         <f aca="false">$L$17/(K27+L27/100)</f>
         <v>0.00961538461538461</v>
       </c>
-      <c r="N27" s="25" t="n">
+      <c r="N27" s="33" t="n">
         <f aca="false">M27/100</f>
         <v>9.61538461538461E-005</v>
       </c>
-      <c r="O27" s="24" t="n">
+      <c r="O27" s="32" t="n">
         <f aca="false">K27*M27+L27*N27</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="12"/>
-      <c r="E28" s="23" t="n">
+      <c r="C28" s="15"/>
+      <c r="E28" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="F28" s="31" t="n">
         <f aca="false">1-E28</f>
         <v>0.9</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="33" t="n">
         <f aca="false">$F$17/(E28+F28/100)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="33" t="n">
         <f aca="false">G28/100</f>
         <v>0.000458715596330275</v>
       </c>
-      <c r="I28" s="23" t="n">
+      <c r="I28" s="31" t="n">
         <f aca="false">E28*G28+F28*H28</f>
         <v>0.005</v>
       </c>
-      <c r="K28" s="23" t="n">
+      <c r="K28" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="L28" s="23" t="n">
+      <c r="L28" s="31" t="n">
         <f aca="false">1-K28</f>
         <v>0.9</v>
       </c>
-      <c r="M28" s="25" t="n">
+      <c r="M28" s="33" t="n">
         <f aca="false">$L$17/(K28+L28/100)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N28" s="25" t="n">
+      <c r="N28" s="33" t="n">
         <f aca="false">M28/100</f>
         <v>0.00018348623853211</v>
       </c>
-      <c r="O28" s="24" t="n">
+      <c r="O28" s="32" t="n">
         <f aca="false">K28*M28+L28*N28</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="12"/>
-      <c r="E29" s="23" t="n">
+      <c r="C29" s="15"/>
+      <c r="E29" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="31" t="n">
         <f aca="false">1-E29</f>
         <v>0.99</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="33" t="n">
         <f aca="false">$F$17/(E29+F29/100)</f>
         <v>0.251256281407035</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="33" t="n">
         <f aca="false">G29/100</f>
         <v>0.00251256281407035</v>
       </c>
-      <c r="I29" s="23" t="n">
+      <c r="I29" s="31" t="n">
         <f aca="false">E29*G29+F29*H29</f>
         <v>0.005</v>
       </c>
-      <c r="K29" s="23" t="n">
+      <c r="K29" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="L29" s="23" t="n">
+      <c r="L29" s="31" t="n">
         <f aca="false">1-K29</f>
         <v>0.99</v>
       </c>
-      <c r="M29" s="25" t="n">
+      <c r="M29" s="33" t="n">
         <f aca="false">$L$17/(K29+L29/100)</f>
         <v>0.100502512562814</v>
       </c>
-      <c r="N29" s="25" t="n">
+      <c r="N29" s="33" t="n">
         <f aca="false">M29/100</f>
         <v>0.00100502512562814</v>
       </c>
-      <c r="O29" s="24" t="n">
+      <c r="O29" s="32" t="n">
         <f aca="false">K29*M29+L29*N29</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="10"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="18" t="s">
-        <v>18</v>
+      <c r="E32" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4945,1059 +5427,1059 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="19" t="s">
-        <v>19</v>
+      <c r="C33" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="19" t="s">
-        <v>21</v>
+      <c r="C34" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="F34" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>23</v>
+      <c r="G34" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="L34" s="28" t="n">
         <v>0.008</v>
       </c>
-      <c r="M34" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="14"/>
+      <c r="M34" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="22" t="s">
+      <c r="C35" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="22" t="s">
+      <c r="L35" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="24" t="s">
-        <v>28</v>
+      <c r="O35" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="23" t="n">
+      <c r="C36" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="31" t="n">
         <f aca="false">1-E36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G36" s="25" t="n">
+      <c r="G36" s="33" t="n">
         <f aca="false">$F$3/(E36+F36/10)</f>
         <v>0.0104712041884817</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="33" t="n">
         <f aca="false">G36/10</f>
         <v>0.00104712041884817</v>
       </c>
-      <c r="I36" s="23" t="n">
+      <c r="I36" s="31" t="n">
         <f aca="false">E36*G36+F36*H36</f>
         <v>0.01</v>
       </c>
-      <c r="K36" s="23" t="n">
+      <c r="K36" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="L36" s="23" t="n">
+      <c r="L36" s="31" t="n">
         <f aca="false">1-K36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M36" s="25" t="n">
+      <c r="M36" s="33" t="n">
         <f aca="false">$L$3/(K36+L36/10)</f>
         <v>0.00837696335078534</v>
       </c>
-      <c r="N36" s="25" t="n">
+      <c r="N36" s="33" t="n">
         <f aca="false">M36/10</f>
         <v>0.000837696335078534</v>
       </c>
-      <c r="O36" s="24" t="n">
+      <c r="O36" s="32" t="n">
         <f aca="false">K36*M36+L36*N36</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="23" t="n">
+      <c r="C37" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="F37" s="23" t="n">
+      <c r="F37" s="31" t="n">
         <f aca="false">1-E37</f>
         <v>0.1</v>
       </c>
-      <c r="G37" s="25" t="n">
+      <c r="G37" s="33" t="n">
         <f aca="false">$F$3/(E37+F37/10)</f>
         <v>0.010989010989011</v>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="33" t="n">
         <f aca="false">G37/10</f>
         <v>0.0010989010989011</v>
       </c>
-      <c r="I37" s="23" t="n">
+      <c r="I37" s="31" t="n">
         <f aca="false">E37*G37+F37*H37</f>
         <v>0.01</v>
       </c>
-      <c r="K37" s="23" t="n">
+      <c r="K37" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="L37" s="23" t="n">
+      <c r="L37" s="31" t="n">
         <f aca="false">1-K37</f>
         <v>0.1</v>
       </c>
-      <c r="M37" s="25" t="n">
+      <c r="M37" s="33" t="n">
         <f aca="false">$L$3/(K37+L37/10)</f>
         <v>0.00879120879120879</v>
       </c>
-      <c r="N37" s="25" t="n">
+      <c r="N37" s="33" t="n">
         <f aca="false">M37/10</f>
         <v>0.000879120879120879</v>
       </c>
-      <c r="O37" s="24" t="n">
+      <c r="O37" s="32" t="n">
         <f aca="false">K37*M37+L37*N37</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="23" t="n">
+      <c r="C38" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="F38" s="23" t="n">
+      <c r="F38" s="31" t="n">
         <f aca="false">1-E38</f>
         <v>0.2</v>
       </c>
-      <c r="G38" s="25" t="n">
+      <c r="G38" s="33" t="n">
         <f aca="false">$F$3/(E38+F38/10)</f>
         <v>0.0121951219512195</v>
       </c>
-      <c r="H38" s="25" t="n">
+      <c r="H38" s="33" t="n">
         <f aca="false">G38/10</f>
         <v>0.00121951219512195</v>
       </c>
-      <c r="I38" s="23" t="n">
+      <c r="I38" s="31" t="n">
         <f aca="false">E38*G38+F38*H38</f>
         <v>0.01</v>
       </c>
-      <c r="K38" s="23" t="n">
+      <c r="K38" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="L38" s="23" t="n">
+      <c r="L38" s="31" t="n">
         <f aca="false">1-K38</f>
         <v>0.2</v>
       </c>
-      <c r="M38" s="25" t="n">
+      <c r="M38" s="33" t="n">
         <f aca="false">$L$3/(K38+L38/10)</f>
         <v>0.00975609756097561</v>
       </c>
-      <c r="N38" s="25" t="n">
+      <c r="N38" s="33" t="n">
         <f aca="false">M38/10</f>
         <v>0.000975609756097561</v>
       </c>
-      <c r="O38" s="24" t="n">
+      <c r="O38" s="32" t="n">
         <f aca="false">K38*M38+L38*N38</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="12"/>
-      <c r="E39" s="23" t="n">
+      <c r="C39" s="15"/>
+      <c r="E39" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="F39" s="23" t="n">
+      <c r="F39" s="31" t="n">
         <f aca="false">1-E39</f>
         <v>0.3</v>
       </c>
-      <c r="G39" s="25" t="n">
+      <c r="G39" s="33" t="n">
         <f aca="false">$F$3/(E39+F39/10)</f>
         <v>0.0136986301369863</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="33" t="n">
         <f aca="false">G39/10</f>
         <v>0.00136986301369863</v>
       </c>
-      <c r="I39" s="23" t="n">
+      <c r="I39" s="31" t="n">
         <f aca="false">E39*G39+F39*H39</f>
         <v>0.01</v>
       </c>
-      <c r="K39" s="23" t="n">
+      <c r="K39" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="L39" s="23" t="n">
+      <c r="L39" s="31" t="n">
         <f aca="false">1-K39</f>
         <v>0.3</v>
       </c>
-      <c r="M39" s="25" t="n">
+      <c r="M39" s="33" t="n">
         <f aca="false">$L$3/(K39+L39/10)</f>
         <v>0.010958904109589</v>
       </c>
-      <c r="N39" s="25" t="n">
+      <c r="N39" s="33" t="n">
         <f aca="false">M39/10</f>
         <v>0.0010958904109589</v>
       </c>
-      <c r="O39" s="24" t="n">
+      <c r="O39" s="32" t="n">
         <f aca="false">K39*M39+L39*N39</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="12"/>
-      <c r="E40" s="23" t="n">
+      <c r="C40" s="15"/>
+      <c r="E40" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="F40" s="23" t="n">
+      <c r="F40" s="31" t="n">
         <f aca="false">1-E40</f>
         <v>0.4</v>
       </c>
-      <c r="G40" s="25" t="n">
+      <c r="G40" s="33" t="n">
         <f aca="false">$F$3/(E40+F40/10)</f>
         <v>0.015625</v>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="33" t="n">
         <f aca="false">G40/10</f>
         <v>0.0015625</v>
       </c>
-      <c r="I40" s="23" t="n">
+      <c r="I40" s="31" t="n">
         <f aca="false">E40*G40+F40*H40</f>
         <v>0.01</v>
       </c>
-      <c r="K40" s="23" t="n">
+      <c r="K40" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="L40" s="23" t="n">
+      <c r="L40" s="31" t="n">
         <f aca="false">1-K40</f>
         <v>0.4</v>
       </c>
-      <c r="M40" s="25" t="n">
+      <c r="M40" s="33" t="n">
         <f aca="false">$L$3/(K40+L40/10)</f>
         <v>0.0125</v>
       </c>
-      <c r="N40" s="25" t="n">
+      <c r="N40" s="33" t="n">
         <f aca="false">M40/10</f>
         <v>0.00125</v>
       </c>
-      <c r="O40" s="24" t="n">
+      <c r="O40" s="32" t="n">
         <f aca="false">K40*M40+L40*N40</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="12"/>
-      <c r="E41" s="23" t="n">
+      <c r="C41" s="15"/>
+      <c r="E41" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F41" s="23" t="n">
+      <c r="F41" s="31" t="n">
         <f aca="false">1-E41</f>
         <v>0.5</v>
       </c>
-      <c r="G41" s="25" t="n">
+      <c r="G41" s="33" t="n">
         <f aca="false">$F$3/(E41+F41/10)</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="H41" s="25" t="n">
+      <c r="H41" s="33" t="n">
         <f aca="false">G41/10</f>
         <v>0.00181818181818182</v>
       </c>
-      <c r="I41" s="23" t="n">
+      <c r="I41" s="31" t="n">
         <f aca="false">E41*G41+F41*H41</f>
         <v>0.01</v>
       </c>
-      <c r="K41" s="23" t="n">
+      <c r="K41" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="L41" s="23" t="n">
+      <c r="L41" s="31" t="n">
         <f aca="false">1-K41</f>
         <v>0.5</v>
       </c>
-      <c r="M41" s="25" t="n">
+      <c r="M41" s="33" t="n">
         <f aca="false">$L$3/(K41+L41/10)</f>
         <v>0.0145454545454545</v>
       </c>
-      <c r="N41" s="25" t="n">
+      <c r="N41" s="33" t="n">
         <f aca="false">M41/10</f>
         <v>0.00145454545454545</v>
       </c>
-      <c r="O41" s="24" t="n">
+      <c r="O41" s="32" t="n">
         <f aca="false">K41*M41+L41*N41</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="12"/>
-      <c r="E42" s="23" t="n">
+      <c r="C42" s="15"/>
+      <c r="E42" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F42" s="23" t="n">
+      <c r="F42" s="31" t="n">
         <f aca="false">1-E42</f>
         <v>0.6</v>
       </c>
-      <c r="G42" s="25" t="n">
+      <c r="G42" s="33" t="n">
         <f aca="false">$F$3/(E42+F42/10)</f>
         <v>0.0217391304347826</v>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="33" t="n">
         <f aca="false">G42/10</f>
         <v>0.00217391304347826</v>
       </c>
-      <c r="I42" s="23" t="n">
+      <c r="I42" s="31" t="n">
         <f aca="false">E42*G42+F42*H42</f>
         <v>0.01</v>
       </c>
-      <c r="K42" s="23" t="n">
+      <c r="K42" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="L42" s="23" t="n">
+      <c r="L42" s="31" t="n">
         <f aca="false">1-K42</f>
         <v>0.6</v>
       </c>
-      <c r="M42" s="25" t="n">
+      <c r="M42" s="33" t="n">
         <f aca="false">$L$3/(K42+L42/10)</f>
         <v>0.0173913043478261</v>
       </c>
-      <c r="N42" s="25" t="n">
+      <c r="N42" s="33" t="n">
         <f aca="false">M42/10</f>
         <v>0.00173913043478261</v>
       </c>
-      <c r="O42" s="24" t="n">
+      <c r="O42" s="32" t="n">
         <f aca="false">K42*M42+L42*N42</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="12"/>
-      <c r="E43" s="23" t="n">
+      <c r="C43" s="15"/>
+      <c r="E43" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="31" t="n">
         <f aca="false">1-E43</f>
         <v>0.7</v>
       </c>
-      <c r="G43" s="25" t="n">
+      <c r="G43" s="33" t="n">
         <f aca="false">$F$3/(E43+F43/10)</f>
         <v>0.027027027027027</v>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="33" t="n">
         <f aca="false">G43/10</f>
         <v>0.0027027027027027</v>
       </c>
-      <c r="I43" s="23" t="n">
+      <c r="I43" s="31" t="n">
         <f aca="false">E43*G43+F43*H43</f>
         <v>0.01</v>
       </c>
-      <c r="K43" s="23" t="n">
+      <c r="K43" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="L43" s="23" t="n">
+      <c r="L43" s="31" t="n">
         <f aca="false">1-K43</f>
         <v>0.7</v>
       </c>
-      <c r="M43" s="25" t="n">
+      <c r="M43" s="33" t="n">
         <f aca="false">$L$3/(K43+L43/10)</f>
         <v>0.0216216216216216</v>
       </c>
-      <c r="N43" s="25" t="n">
+      <c r="N43" s="33" t="n">
         <f aca="false">M43/10</f>
         <v>0.00216216216216216</v>
       </c>
-      <c r="O43" s="24" t="n">
+      <c r="O43" s="32" t="n">
         <f aca="false">K43*M43+L43*N43</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="12"/>
-      <c r="E44" s="23" t="n">
+      <c r="C44" s="15"/>
+      <c r="E44" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="31" t="n">
         <f aca="false">1-E44</f>
         <v>0.8</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="33" t="n">
         <f aca="false">$F$3/(E44+F44/10)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="33" t="n">
         <f aca="false">G44/10</f>
         <v>0.00357142857142857</v>
       </c>
-      <c r="I44" s="23" t="n">
+      <c r="I44" s="31" t="n">
         <f aca="false">E44*G44+F44*H44</f>
         <v>0.01</v>
       </c>
-      <c r="K44" s="23" t="n">
+      <c r="K44" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="L44" s="23" t="n">
+      <c r="L44" s="31" t="n">
         <f aca="false">1-K44</f>
         <v>0.8</v>
       </c>
-      <c r="M44" s="25" t="n">
+      <c r="M44" s="33" t="n">
         <f aca="false">$L$3/(K44+L44/10)</f>
         <v>0.0285714285714286</v>
       </c>
-      <c r="N44" s="25" t="n">
+      <c r="N44" s="33" t="n">
         <f aca="false">M44/10</f>
         <v>0.00285714285714286</v>
       </c>
-      <c r="O44" s="24" t="n">
+      <c r="O44" s="32" t="n">
         <f aca="false">K44*M44+L44*N44</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="12"/>
-      <c r="E45" s="23" t="n">
+      <c r="C45" s="15"/>
+      <c r="E45" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="F45" s="23" t="n">
+      <c r="F45" s="31" t="n">
         <f aca="false">1-E45</f>
         <v>0.9</v>
       </c>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="33" t="n">
         <f aca="false">$F$3/(E45+F45/10)</f>
         <v>0.0526315789473684</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="33" t="n">
         <f aca="false">G45/10</f>
         <v>0.00526315789473684</v>
       </c>
-      <c r="I45" s="23" t="n">
+      <c r="I45" s="31" t="n">
         <f aca="false">E45*G45+F45*H45</f>
         <v>0.01</v>
       </c>
-      <c r="K45" s="23" t="n">
+      <c r="K45" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="L45" s="23" t="n">
+      <c r="L45" s="31" t="n">
         <f aca="false">1-K45</f>
         <v>0.9</v>
       </c>
-      <c r="M45" s="25" t="n">
+      <c r="M45" s="33" t="n">
         <f aca="false">$L$3/(K45+L45/10)</f>
         <v>0.0421052631578947</v>
       </c>
-      <c r="N45" s="25" t="n">
+      <c r="N45" s="33" t="n">
         <f aca="false">M45/10</f>
         <v>0.00421052631578947</v>
       </c>
-      <c r="O45" s="24" t="n">
+      <c r="O45" s="32" t="n">
         <f aca="false">K45*M45+L45*N45</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="12"/>
-      <c r="E46" s="23" t="n">
+      <c r="C46" s="15"/>
+      <c r="E46" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="F46" s="23" t="n">
+      <c r="F46" s="31" t="n">
         <f aca="false">1-E46</f>
         <v>0.99</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="33" t="n">
         <f aca="false">$F$3/(E46+F46/10)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="33" t="n">
         <f aca="false">G46/10</f>
         <v>0.0091743119266055</v>
       </c>
-      <c r="I46" s="23" t="n">
+      <c r="I46" s="31" t="n">
         <f aca="false">E46*G46+F46*H46</f>
         <v>0.01</v>
       </c>
-      <c r="K46" s="23" t="n">
+      <c r="K46" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="L46" s="23" t="n">
+      <c r="L46" s="31" t="n">
         <f aca="false">1-K46</f>
         <v>0.99</v>
       </c>
-      <c r="M46" s="25" t="n">
+      <c r="M46" s="33" t="n">
         <f aca="false">$L$3/(K46+L46/10)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N46" s="25" t="n">
+      <c r="N46" s="33" t="n">
         <f aca="false">M46/10</f>
         <v>0.0073394495412844</v>
       </c>
-      <c r="O46" s="24" t="n">
+      <c r="O46" s="32" t="n">
         <f aca="false">K46*M46+L46*N46</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="12"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="23"/>
-      <c r="O47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
+      <c r="O47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="12"/>
+      <c r="C48" s="15"/>
       <c r="E48" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="F48" s="28" t="n">
         <v>0.005</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="28" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="17"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="15"/>
+      <c r="E49" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K48" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="20" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M48" s="21" t="s">
+      <c r="G49" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="12"/>
-      <c r="E49" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="22" t="s">
+      <c r="K49" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="N49" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="24" t="s">
-        <v>28</v>
+      <c r="O49" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="12"/>
-      <c r="E50" s="23" t="n">
+      <c r="C50" s="15"/>
+      <c r="E50" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="F50" s="23" t="n">
+      <c r="F50" s="31" t="n">
         <f aca="false">1-E50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G50" s="25" t="n">
+      <c r="G50" s="33" t="n">
         <f aca="false">$F$17/(E50+F50/10)</f>
         <v>0.00523560209424084</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="33" t="n">
         <f aca="false">G50/10</f>
         <v>0.000523560209424084</v>
       </c>
-      <c r="I50" s="23" t="n">
+      <c r="I50" s="31" t="n">
         <f aca="false">E50*G50+F50*H50</f>
         <v>0.005</v>
       </c>
-      <c r="K50" s="23" t="n">
+      <c r="K50" s="31" t="n">
         <v>0.95</v>
       </c>
-      <c r="L50" s="23" t="n">
+      <c r="L50" s="31" t="n">
         <f aca="false">1-K50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M50" s="25" t="n">
+      <c r="M50" s="33" t="n">
         <f aca="false">$L$17/(K50+L50/10)</f>
         <v>0.00209424083769633</v>
       </c>
-      <c r="N50" s="25" t="n">
+      <c r="N50" s="33" t="n">
         <f aca="false">M50/10</f>
         <v>0.000209424083769633</v>
       </c>
-      <c r="O50" s="24" t="n">
+      <c r="O50" s="32" t="n">
         <f aca="false">K50*M50+L50*N50</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="12"/>
-      <c r="E51" s="23" t="n">
+      <c r="C51" s="15"/>
+      <c r="E51" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="F51" s="23" t="n">
+      <c r="F51" s="31" t="n">
         <f aca="false">1-E51</f>
         <v>0.1</v>
       </c>
-      <c r="G51" s="25" t="n">
+      <c r="G51" s="33" t="n">
         <f aca="false">$F$17/(E51+F51/10)</f>
         <v>0.00549450549450549</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="H51" s="33" t="n">
         <f aca="false">G51/10</f>
         <v>0.000549450549450549</v>
       </c>
-      <c r="I51" s="23" t="n">
+      <c r="I51" s="31" t="n">
         <f aca="false">E51*G51+F51*H51</f>
         <v>0.005</v>
       </c>
-      <c r="K51" s="23" t="n">
+      <c r="K51" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="L51" s="23" t="n">
+      <c r="L51" s="31" t="n">
         <f aca="false">1-K51</f>
         <v>0.1</v>
       </c>
-      <c r="M51" s="25" t="n">
+      <c r="M51" s="33" t="n">
         <f aca="false">$L$17/(K51+L51/10)</f>
         <v>0.0021978021978022</v>
       </c>
-      <c r="N51" s="25" t="n">
+      <c r="N51" s="33" t="n">
         <f aca="false">M51/10</f>
         <v>0.00021978021978022</v>
       </c>
-      <c r="O51" s="24" t="n">
+      <c r="O51" s="32" t="n">
         <f aca="false">K51*M51+L51*N51</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="12"/>
-      <c r="E52" s="23" t="n">
+      <c r="C52" s="15"/>
+      <c r="E52" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="31" t="n">
         <f aca="false">1-E52</f>
         <v>0.2</v>
       </c>
-      <c r="G52" s="25" t="n">
+      <c r="G52" s="33" t="n">
         <f aca="false">$F$17/(E52+F52/10)</f>
         <v>0.00609756097560976</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H52" s="33" t="n">
         <f aca="false">G52/10</f>
         <v>0.000609756097560975</v>
       </c>
-      <c r="I52" s="23" t="n">
+      <c r="I52" s="31" t="n">
         <f aca="false">E52*G52+F52*H52</f>
         <v>0.005</v>
       </c>
-      <c r="K52" s="23" t="n">
+      <c r="K52" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="L52" s="23" t="n">
+      <c r="L52" s="31" t="n">
         <f aca="false">1-K52</f>
         <v>0.2</v>
       </c>
-      <c r="M52" s="25" t="n">
+      <c r="M52" s="33" t="n">
         <f aca="false">$L$17/(K52+L52/10)</f>
         <v>0.0024390243902439</v>
       </c>
-      <c r="N52" s="25" t="n">
+      <c r="N52" s="33" t="n">
         <f aca="false">M52/10</f>
         <v>0.00024390243902439</v>
       </c>
-      <c r="O52" s="24" t="n">
+      <c r="O52" s="32" t="n">
         <f aca="false">K52*M52+L52*N52</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="12"/>
-      <c r="E53" s="23" t="n">
+      <c r="C53" s="15"/>
+      <c r="E53" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="F53" s="23" t="n">
+      <c r="F53" s="31" t="n">
         <f aca="false">1-E53</f>
         <v>0.3</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="G53" s="33" t="n">
         <f aca="false">$F$17/(E53+F53/10)</f>
         <v>0.00684931506849315</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="33" t="n">
         <f aca="false">G53/10</f>
         <v>0.000684931506849315</v>
       </c>
-      <c r="I53" s="23" t="n">
+      <c r="I53" s="31" t="n">
         <f aca="false">E53*G53+F53*H53</f>
         <v>0.005</v>
       </c>
-      <c r="K53" s="23" t="n">
+      <c r="K53" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="L53" s="23" t="n">
+      <c r="L53" s="31" t="n">
         <f aca="false">1-K53</f>
         <v>0.3</v>
       </c>
-      <c r="M53" s="25" t="n">
+      <c r="M53" s="33" t="n">
         <f aca="false">$L$17/(K53+L53/10)</f>
         <v>0.00273972602739726</v>
       </c>
-      <c r="N53" s="25" t="n">
+      <c r="N53" s="33" t="n">
         <f aca="false">M53/10</f>
         <v>0.000273972602739726</v>
       </c>
-      <c r="O53" s="24" t="n">
+      <c r="O53" s="32" t="n">
         <f aca="false">K53*M53+L53*N53</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="12"/>
-      <c r="E54" s="23" t="n">
+      <c r="C54" s="15"/>
+      <c r="E54" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="F54" s="23" t="n">
+      <c r="F54" s="31" t="n">
         <f aca="false">1-E54</f>
         <v>0.4</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="33" t="n">
         <f aca="false">$F$17/(E54+F54/10)</f>
         <v>0.0078125</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="33" t="n">
         <f aca="false">G54/10</f>
         <v>0.00078125</v>
       </c>
-      <c r="I54" s="23" t="n">
+      <c r="I54" s="31" t="n">
         <f aca="false">E54*G54+F54*H54</f>
         <v>0.005</v>
       </c>
-      <c r="K54" s="23" t="n">
+      <c r="K54" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="L54" s="23" t="n">
+      <c r="L54" s="31" t="n">
         <f aca="false">1-K54</f>
         <v>0.4</v>
       </c>
-      <c r="M54" s="25" t="n">
+      <c r="M54" s="33" t="n">
         <f aca="false">$L$17/(K54+L54/10)</f>
         <v>0.003125</v>
       </c>
-      <c r="N54" s="25" t="n">
+      <c r="N54" s="33" t="n">
         <f aca="false">M54/10</f>
         <v>0.0003125</v>
       </c>
-      <c r="O54" s="24" t="n">
+      <c r="O54" s="32" t="n">
         <f aca="false">K54*M54+L54*N54</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="12"/>
-      <c r="E55" s="23" t="n">
+      <c r="C55" s="15"/>
+      <c r="E55" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="31" t="n">
         <f aca="false">1-E55</f>
         <v>0.5</v>
       </c>
-      <c r="G55" s="25" t="n">
+      <c r="G55" s="33" t="n">
         <f aca="false">$F$17/(E55+F55/10)</f>
         <v>0.00909090909090909</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="H55" s="33" t="n">
         <f aca="false">G55/10</f>
         <v>0.000909090909090909</v>
       </c>
-      <c r="I55" s="23" t="n">
+      <c r="I55" s="31" t="n">
         <f aca="false">E55*G55+F55*H55</f>
         <v>0.005</v>
       </c>
-      <c r="K55" s="23" t="n">
+      <c r="K55" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="L55" s="23" t="n">
+      <c r="L55" s="31" t="n">
         <f aca="false">1-K55</f>
         <v>0.5</v>
       </c>
-      <c r="M55" s="25" t="n">
+      <c r="M55" s="33" t="n">
         <f aca="false">$L$17/(K55+L55/10)</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="N55" s="25" t="n">
+      <c r="N55" s="33" t="n">
         <f aca="false">M55/10</f>
         <v>0.000363636363636364</v>
       </c>
-      <c r="O55" s="24" t="n">
+      <c r="O55" s="32" t="n">
         <f aca="false">K55*M55+L55*N55</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="12"/>
-      <c r="E56" s="23" t="n">
+      <c r="C56" s="15"/>
+      <c r="E56" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F56" s="23" t="n">
+      <c r="F56" s="31" t="n">
         <f aca="false">1-E56</f>
         <v>0.6</v>
       </c>
-      <c r="G56" s="25" t="n">
+      <c r="G56" s="33" t="n">
         <f aca="false">$F$17/(E56+F56/10)</f>
         <v>0.0108695652173913</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="33" t="n">
         <f aca="false">G56/10</f>
         <v>0.00108695652173913</v>
       </c>
-      <c r="I56" s="23" t="n">
+      <c r="I56" s="31" t="n">
         <f aca="false">E56*G56+F56*H56</f>
         <v>0.005</v>
       </c>
-      <c r="K56" s="23" t="n">
+      <c r="K56" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="L56" s="23" t="n">
+      <c r="L56" s="31" t="n">
         <f aca="false">1-K56</f>
         <v>0.6</v>
       </c>
-      <c r="M56" s="25" t="n">
+      <c r="M56" s="33" t="n">
         <f aca="false">$L$17/(K56+L56/10)</f>
         <v>0.00434782608695652</v>
       </c>
-      <c r="N56" s="25" t="n">
+      <c r="N56" s="33" t="n">
         <f aca="false">M56/10</f>
         <v>0.000434782608695652</v>
       </c>
-      <c r="O56" s="24" t="n">
+      <c r="O56" s="32" t="n">
         <f aca="false">K56*M56+L56*N56</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="12"/>
-      <c r="E57" s="23" t="n">
+      <c r="C57" s="15"/>
+      <c r="E57" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="F57" s="23" t="n">
+      <c r="F57" s="31" t="n">
         <f aca="false">1-E57</f>
         <v>0.7</v>
       </c>
-      <c r="G57" s="25" t="n">
+      <c r="G57" s="33" t="n">
         <f aca="false">$F$17/(E57+F57/10)</f>
         <v>0.0135135135135135</v>
       </c>
-      <c r="H57" s="25" t="n">
+      <c r="H57" s="33" t="n">
         <f aca="false">G57/10</f>
         <v>0.00135135135135135</v>
       </c>
-      <c r="I57" s="23" t="n">
+      <c r="I57" s="31" t="n">
         <f aca="false">E57*G57+F57*H57</f>
         <v>0.005</v>
       </c>
-      <c r="K57" s="23" t="n">
+      <c r="K57" s="31" t="n">
         <v>0.3</v>
       </c>
-      <c r="L57" s="23" t="n">
+      <c r="L57" s="31" t="n">
         <f aca="false">1-K57</f>
         <v>0.7</v>
       </c>
-      <c r="M57" s="25" t="n">
+      <c r="M57" s="33" t="n">
         <f aca="false">$L$17/(K57+L57/10)</f>
         <v>0.0054054054054054</v>
       </c>
-      <c r="N57" s="25" t="n">
+      <c r="N57" s="33" t="n">
         <f aca="false">M57/10</f>
         <v>0.00054054054054054</v>
       </c>
-      <c r="O57" s="24" t="n">
+      <c r="O57" s="32" t="n">
         <f aca="false">K57*M57+L57*N57</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="12"/>
-      <c r="E58" s="23" t="n">
+      <c r="C58" s="15"/>
+      <c r="E58" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="F58" s="23" t="n">
+      <c r="F58" s="31" t="n">
         <f aca="false">1-E58</f>
         <v>0.8</v>
       </c>
-      <c r="G58" s="25" t="n">
+      <c r="G58" s="33" t="n">
         <f aca="false">$F$17/(E58+F58/10)</f>
         <v>0.0178571428571429</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="33" t="n">
         <f aca="false">G58/10</f>
         <v>0.00178571428571429</v>
       </c>
-      <c r="I58" s="23" t="n">
+      <c r="I58" s="31" t="n">
         <f aca="false">E58*G58+F58*H58</f>
         <v>0.005</v>
       </c>
-      <c r="K58" s="23" t="n">
+      <c r="K58" s="31" t="n">
         <v>0.2</v>
       </c>
-      <c r="L58" s="23" t="n">
+      <c r="L58" s="31" t="n">
         <f aca="false">1-K58</f>
         <v>0.8</v>
       </c>
-      <c r="M58" s="25" t="n">
+      <c r="M58" s="33" t="n">
         <f aca="false">$L$17/(K58+L58/10)</f>
         <v>0.00714285714285714</v>
       </c>
-      <c r="N58" s="25" t="n">
+      <c r="N58" s="33" t="n">
         <f aca="false">M58/10</f>
         <v>0.000714285714285714</v>
       </c>
-      <c r="O58" s="24" t="n">
+      <c r="O58" s="32" t="n">
         <f aca="false">K58*M58+L58*N58</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="12"/>
-      <c r="E59" s="23" t="n">
+      <c r="C59" s="15"/>
+      <c r="E59" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="F59" s="23" t="n">
+      <c r="F59" s="31" t="n">
         <f aca="false">1-E59</f>
         <v>0.9</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="G59" s="33" t="n">
         <f aca="false">$F$17/(E59+F59/10)</f>
         <v>0.0263157894736842</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="33" t="n">
         <f aca="false">G59/10</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="I59" s="23" t="n">
+      <c r="I59" s="31" t="n">
         <f aca="false">E59*G59+F59*H59</f>
         <v>0.005</v>
       </c>
-      <c r="K59" s="23" t="n">
+      <c r="K59" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="L59" s="23" t="n">
+      <c r="L59" s="31" t="n">
         <f aca="false">1-K59</f>
         <v>0.9</v>
       </c>
-      <c r="M59" s="25" t="n">
+      <c r="M59" s="33" t="n">
         <f aca="false">$L$17/(K59+L59/10)</f>
         <v>0.0105263157894737</v>
       </c>
-      <c r="N59" s="25" t="n">
+      <c r="N59" s="33" t="n">
         <f aca="false">M59/10</f>
         <v>0.00105263157894737</v>
       </c>
-      <c r="O59" s="24" t="n">
+      <c r="O59" s="32" t="n">
         <f aca="false">K59*M59+L59*N59</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="12"/>
-      <c r="E60" s="23" t="n">
+      <c r="C60" s="15"/>
+      <c r="E60" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="F60" s="23" t="n">
+      <c r="F60" s="31" t="n">
         <f aca="false">1-E60</f>
         <v>0.99</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="G60" s="33" t="n">
         <f aca="false">$F$17/(E60+F60/10)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H60" s="25" t="n">
+      <c r="H60" s="33" t="n">
         <f aca="false">G60/10</f>
         <v>0.00458715596330275</v>
       </c>
-      <c r="I60" s="23" t="n">
+      <c r="I60" s="31" t="n">
         <f aca="false">E60*G60+F60*H60</f>
         <v>0.005</v>
       </c>
-      <c r="K60" s="23" t="n">
+      <c r="K60" s="31" t="n">
         <v>0.01</v>
       </c>
-      <c r="L60" s="23" t="n">
+      <c r="L60" s="31" t="n">
         <f aca="false">1-K60</f>
         <v>0.99</v>
       </c>
-      <c r="M60" s="25" t="n">
+      <c r="M60" s="33" t="n">
         <f aca="false">$L$17/(K60+L60/10)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N60" s="25" t="n">
+      <c r="N60" s="33" t="n">
         <f aca="false">M60/10</f>
         <v>0.0018348623853211</v>
       </c>
-      <c r="O60" s="24" t="n">
+      <c r="O60" s="32" t="n">
         <f aca="false">K60*M60+L60*N60</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6029,52 +6511,52 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="29"/>
+      <c r="C2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="C4" s="30" t="n">
+      <c r="C4" s="38" t="n">
         <f aca="false">2.97*B4^(0.62)</f>
         <v>0.170905661389136</v>
       </c>
-      <c r="D4" s="31" t="n">
+      <c r="D4" s="39" t="n">
         <f aca="false">0.057*B4^(1.944)</f>
         <v>7.37691629626492E-006</v>
       </c>
-      <c r="E4" s="30" t="n">
+      <c r="E4" s="38" t="n">
         <f aca="false">0.38*B4^0.59</f>
         <v>0.0251063510242887</v>
       </c>
-      <c r="F4" s="31" t="n">
+      <c r="F4" s="39" t="n">
         <f aca="false">0.04*B4^2</f>
         <v>4E-006</v>
       </c>
@@ -6084,19 +6566,19 @@
         <f aca="false">B4-0.0002</f>
         <v>0.0098</v>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="38" t="n">
         <f aca="false">2.97*B5^(0.62)</f>
         <v>0.168778303131111</v>
       </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="39" t="n">
         <f aca="false">0.057*B5^(1.944)</f>
         <v>7.09281033579122E-006</v>
       </c>
-      <c r="E5" s="30" t="n">
+      <c r="E5" s="38" t="n">
         <f aca="false">0.38*B5^0.59</f>
         <v>0.0248088698797865</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="39" t="n">
         <f aca="false">0.04*B5^2</f>
         <v>3.8416E-006</v>
       </c>
@@ -6106,19 +6588,19 @@
         <f aca="false">B5-0.0002</f>
         <v>0.0096</v>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="38" t="n">
         <f aca="false">2.97*B6^(0.62)</f>
         <v>0.166634381481985</v>
       </c>
-      <c r="D6" s="31" t="n">
+      <c r="D6" s="39" t="n">
         <f aca="false">0.057*B6^(1.944)</f>
         <v>6.81412557411232E-006</v>
       </c>
-      <c r="E6" s="30" t="n">
+      <c r="E6" s="38" t="n">
         <f aca="false">0.38*B6^0.59</f>
         <v>0.0245088889545415</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="39" t="n">
         <f aca="false">0.04*B6^2</f>
         <v>3.6864E-006</v>
       </c>
@@ -6128,19 +6610,19 @@
         <f aca="false">B6-0.0002</f>
         <v>0.0094</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="38" t="n">
         <f aca="false">2.97*B7^(0.62)</f>
         <v>0.164473418285553</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="39" t="n">
         <f aca="false">0.057*B7^(1.944)</f>
         <v>6.54086827506298E-006</v>
       </c>
-      <c r="E7" s="30" t="n">
+      <c r="E7" s="38" t="n">
         <f aca="false">0.38*B7^0.59</f>
         <v>0.0242063344923744</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="39" t="n">
         <f aca="false">0.04*B7^2</f>
         <v>3.5344E-006</v>
       </c>
@@ -6150,19 +6632,19 @@
         <f aca="false">B7-0.0002</f>
         <v>0.0092</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="38" t="n">
         <f aca="false">2.97*B8^(0.62)</f>
         <v>0.162294911069372</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="39" t="n">
         <f aca="false">0.057*B8^(1.944)</f>
         <v>6.27304484184586E-006</v>
       </c>
-      <c r="E8" s="30" t="n">
+      <c r="E8" s="38" t="n">
         <f aca="false">0.38*B8^0.59</f>
         <v>0.0239011289378076</v>
       </c>
-      <c r="F8" s="31" t="n">
+      <c r="F8" s="39" t="n">
         <f aca="false">0.04*B8^2</f>
         <v>3.3856E-006</v>
       </c>
@@ -6172,19 +6654,19 @@
         <f aca="false">B8-0.0002</f>
         <v>0.009</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="38" t="n">
         <f aca="false">2.97*B9^(0.62)</f>
         <v>0.160098331250151</v>
       </c>
-      <c r="D9" s="31" t="n">
+      <c r="D9" s="39" t="n">
         <f aca="false">0.057*B9^(1.944)</f>
         <v>6.01066182319956E-006</v>
       </c>
-      <c r="E9" s="30" t="n">
+      <c r="E9" s="38" t="n">
         <f aca="false">0.38*B9^0.59</f>
         <v>0.0235931906530846</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="39" t="n">
         <f aca="false">0.04*B9^2</f>
         <v>3.24E-006</v>
       </c>
@@ -6194,19 +6676,19 @@
         <f aca="false">B9-0.0002</f>
         <v>0.0088</v>
       </c>
-      <c r="C10" s="30" t="n">
+      <c r="C10" s="38" t="n">
         <f aca="false">2.97*B10^(0.62)</f>
         <v>0.157883122163658</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="39" t="n">
         <f aca="false">0.057*B10^(1.944)</f>
         <v>5.75372591998125E-006</v>
       </c>
-      <c r="E10" s="30" t="n">
+      <c r="E10" s="38" t="n">
         <f aca="false">0.38*B10^0.59</f>
         <v>0.0232824336073207</v>
       </c>
-      <c r="F10" s="31" t="n">
+      <c r="F10" s="39" t="n">
         <f aca="false">0.04*B10^2</f>
         <v>3.0976E-006</v>
       </c>
@@ -6216,19 +6698,19 @@
         <f aca="false">B10-0.0002</f>
         <v>0.0086</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="38" t="n">
         <f aca="false">2.97*B11^(0.62)</f>
         <v>0.155648696897595</v>
       </c>
-      <c r="D11" s="31" t="n">
+      <c r="D11" s="39" t="n">
         <f aca="false">0.057*B11^(1.944)</f>
         <v>5.50224399220194E-006</v>
       </c>
-      <c r="E11" s="30" t="n">
+      <c r="E11" s="38" t="n">
         <f aca="false">0.38*B11^0.59</f>
         <v>0.022968767034342</v>
       </c>
-      <c r="F11" s="31" t="n">
+      <c r="F11" s="39" t="n">
         <f aca="false">0.04*B11^2</f>
         <v>2.9584E-006</v>
       </c>
@@ -6238,19 +6720,19 @@
         <f aca="false">B11-0.0002</f>
         <v>0.0084</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="38" t="n">
         <f aca="false">2.97*B12^(0.62)</f>
         <v>0.153394435902666</v>
       </c>
-      <c r="D12" s="31" t="n">
+      <c r="D12" s="39" t="n">
         <f aca="false">0.057*B12^(1.944)</f>
         <v>5.25622306655658E-006</v>
       </c>
-      <c r="E12" s="30" t="n">
+      <c r="E12" s="38" t="n">
         <f aca="false">0.38*B12^0.59</f>
         <v>0.022652095055251</v>
       </c>
-      <c r="F12" s="31" t="n">
+      <c r="F12" s="39" t="n">
         <f aca="false">0.04*B12^2</f>
         <v>2.8224E-006</v>
       </c>
@@ -6260,19 +6742,19 @@
         <f aca="false">B12-0.0002</f>
         <v>0.0082</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="38" t="n">
         <f aca="false">2.97*B13^(0.62)</f>
         <v>0.15111968435328</v>
       </c>
-      <c r="D13" s="31" t="n">
+      <c r="D13" s="39" t="n">
         <f aca="false">0.057*B13^(1.944)</f>
         <v>5.0156703444962E-006</v>
       </c>
-      <c r="E13" s="30" t="n">
+      <c r="E13" s="38" t="n">
         <f aca="false">0.38*B13^0.59</f>
         <v>0.0223323162611514</v>
       </c>
-      <c r="F13" s="31" t="n">
+      <c r="F13" s="39" t="n">
         <f aca="false">0.04*B13^2</f>
         <v>2.6896E-006</v>
       </c>
@@ -6282,19 +6764,19 @@
         <f aca="false">B13-0.0002</f>
         <v>0.008</v>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="38" t="n">
         <f aca="false">2.97*B14^(0.62)</f>
         <v>0.148823749224871</v>
       </c>
-      <c r="D14" s="31" t="n">
+      <c r="D14" s="39" t="n">
         <f aca="false">0.057*B14^(1.944)</f>
         <v>4.78059321089525E-006</v>
       </c>
-      <c r="E14" s="30" t="n">
+      <c r="E14" s="38" t="n">
         <f aca="false">0.38*B14^0.59</f>
         <v>0.0220093232507475</v>
       </c>
-      <c r="F14" s="31" t="n">
+      <c r="F14" s="39" t="n">
         <f aca="false">0.04*B14^2</f>
         <v>2.56E-006</v>
       </c>
@@ -6304,19 +6786,19 @@
         <f aca="false">B14-0.0002</f>
         <v>0.0078</v>
       </c>
-      <c r="C15" s="30" t="n">
+      <c r="C15" s="38" t="n">
         <f aca="false">2.97*B15^(0.62)</f>
         <v>0.146505896049517</v>
       </c>
-      <c r="D15" s="31" t="n">
+      <c r="D15" s="39" t="n">
         <f aca="false">0.057*B15^(1.944)</f>
         <v>4.55099924337378E-006</v>
       </c>
-      <c r="E15" s="30" t="n">
+      <c r="E15" s="38" t="n">
         <f aca="false">0.38*B15^0.59</f>
         <v>0.0216830021166786</v>
       </c>
-      <c r="F15" s="31" t="n">
+      <c r="F15" s="39" t="n">
         <f aca="false">0.04*B15^2</f>
         <v>2.4336E-006</v>
       </c>
@@ -6326,24 +6808,24 @@
         <f aca="false">B15-0.0002</f>
         <v>0.0076</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="38" t="n">
         <f aca="false">2.97*B16^(0.62)</f>
         <v>0.14416534530524</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="39" t="n">
         <f aca="false">0.057*B16^(1.944)</f>
         <v>4.3268962223418E-006</v>
       </c>
-      <c r="E16" s="30" t="n">
+      <c r="E16" s="38" t="n">
         <f aca="false">0.38*B16^0.59</f>
         <v>0.0213532318734356</v>
       </c>
-      <c r="F16" s="31" t="n">
+      <c r="F16" s="39" t="n">
         <f aca="false">0.04*B16^2</f>
         <v>2.3104E-006</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,24 +6833,24 @@
         <f aca="false">B16-0.0002</f>
         <v>0.0074</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="38" t="n">
         <f aca="false">2.97*B17^(0.62)</f>
         <v>0.141801268386831</v>
       </c>
-      <c r="D17" s="31" t="n">
+      <c r="D17" s="39" t="n">
         <f aca="false">0.057*B17^(1.944)</f>
         <v>4.10829214184202E-006</v>
       </c>
-      <c r="E17" s="30" t="n">
+      <c r="E17" s="38" t="n">
         <f aca="false">0.38*B17^0.59</f>
         <v>0.0210198838184959</v>
       </c>
-      <c r="F17" s="31" t="n">
+      <c r="F17" s="39" t="n">
         <f aca="false">0.04*B17^2</f>
         <v>2.1904E-006</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,30 +6858,30 @@
         <f aca="false">B17-0.0002</f>
         <v>0.0072</v>
       </c>
-      <c r="C18" s="30" t="n">
+      <c r="C18" s="38" t="n">
         <f aca="false">2.97*B18^(0.62)</f>
         <v>0.139412783096999</v>
       </c>
-      <c r="D18" s="31" t="n">
+      <c r="D18" s="39" t="n">
         <f aca="false">0.057*B18^(1.944)</f>
         <v>3.89519522127748E-006</v>
       </c>
-      <c r="E18" s="30" t="n">
+      <c r="E18" s="38" t="n">
         <f aca="false">0.38*B18^0.59</f>
         <v>0.0206828208168481</v>
       </c>
-      <c r="F18" s="31" t="n">
+      <c r="F18" s="39" t="n">
         <f aca="false">0.04*B18^2</f>
         <v>2.0736E-006</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6407,19 +6889,19 @@
         <f aca="false">B18-0.0002</f>
         <v>0.007</v>
       </c>
-      <c r="C19" s="30" t="n">
+      <c r="C19" s="38" t="n">
         <f aca="false">2.97*B19^(0.62)</f>
         <v>0.136998948585751</v>
       </c>
-      <c r="D19" s="31" t="n">
+      <c r="D19" s="39" t="n">
         <f aca="false">0.057*B19^(1.944)</f>
         <v>3.68761391812255E-006</v>
       </c>
-      <c r="E19" s="30" t="n">
+      <c r="E19" s="38" t="n">
         <f aca="false">0.38*B19^0.59</f>
         <v>0.0203418964973235</v>
       </c>
-      <c r="F19" s="31" t="n">
+      <c r="F19" s="39" t="n">
         <f aca="false">0.04*B19^2</f>
         <v>1.96E-006</v>
       </c>
@@ -6439,19 +6921,19 @@
         <f aca="false">B19-0.0002</f>
         <v>0.0068</v>
       </c>
-      <c r="C20" s="30" t="n">
+      <c r="C20" s="38" t="n">
         <f aca="false">2.97*B20^(0.62)</f>
         <v>0.134558759652636</v>
       </c>
-      <c r="D20" s="31" t="n">
+      <c r="D20" s="39" t="n">
         <f aca="false">0.057*B20^(1.944)</f>
         <v>3.48555694172981E-006</v>
       </c>
-      <c r="E20" s="30" t="n">
+      <c r="E20" s="38" t="n">
         <f aca="false">0.38*B20^0.59</f>
         <v>0.0199969543470115</v>
       </c>
-      <c r="F20" s="31" t="n">
+      <c r="F20" s="39" t="n">
         <f aca="false">0.04*B20^2</f>
         <v>1.8496E-006</v>
       </c>
@@ -6471,19 +6953,19 @@
         <f aca="false">B20-0.0002</f>
         <v>0.0066</v>
       </c>
-      <c r="C21" s="30" t="n">
+      <c r="C21" s="38" t="n">
         <f aca="false">2.97*B21^(0.62)</f>
         <v>0.132091140310434</v>
       </c>
-      <c r="D21" s="31" t="n">
+      <c r="D21" s="39" t="n">
         <f aca="false">0.057*B21^(1.944)</f>
         <v>3.28903326836194E-006</v>
       </c>
-      <c r="E21" s="30" t="n">
+      <c r="E21" s="38" t="n">
         <f aca="false">0.38*B21^0.59</f>
         <v>0.0196478266874332</v>
       </c>
-      <c r="F21" s="31" t="n">
+      <c r="F21" s="39" t="n">
         <f aca="false">0.04*B21^2</f>
         <v>1.7424E-006</v>
       </c>
@@ -6503,19 +6985,19 @@
         <f aca="false">B21-0.0002</f>
         <v>0.0064</v>
       </c>
-      <c r="C22" s="30" t="n">
+      <c r="C22" s="38" t="n">
         <f aca="false">2.97*B22^(0.62)</f>
         <v>0.129594936489068</v>
       </c>
-      <c r="D22" s="31" t="n">
+      <c r="D22" s="39" t="n">
         <f aca="false">0.057*B22^(1.944)</f>
         <v>3.09805215759724E-006</v>
       </c>
-      <c r="E22" s="30" t="n">
+      <c r="E22" s="38" t="n">
         <f aca="false">0.38*B22^0.59</f>
         <v>0.0192943335129531</v>
       </c>
-      <c r="F22" s="31" t="n">
+      <c r="F22" s="39" t="n">
         <f aca="false">0.04*B22^2</f>
         <v>1.6384E-006</v>
       </c>
@@ -6535,19 +7017,19 @@
         <f aca="false">B22-0.0002</f>
         <v>0.0062</v>
       </c>
-      <c r="C23" s="30" t="n">
+      <c r="C23" s="38" t="n">
         <f aca="false">2.97*B23^(0.62)</f>
         <v>0.127068907734232</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D23" s="39" t="n">
         <f aca="false">0.057*B23^(1.944)</f>
         <v>2.91262317028041E-006</v>
       </c>
-      <c r="E23" s="30" t="n">
+      <c r="E23" s="38" t="n">
         <f aca="false">0.38*B23^0.59</f>
         <v>0.0189362811679701</v>
       </c>
-      <c r="F23" s="31" t="n">
+      <c r="F23" s="39" t="n">
         <f aca="false">0.04*B23^2</f>
         <v>1.5376E-006</v>
       </c>
@@ -6571,19 +7053,19 @@
         <f aca="false">B23-0.0002</f>
         <v>0.006</v>
       </c>
-      <c r="C24" s="30" t="n">
+      <c r="C24" s="38" t="n">
         <f aca="false">2.97*B24^(0.62)</f>
         <v>0.124511717725026</v>
       </c>
-      <c r="D24" s="31" t="n">
+      <c r="D24" s="39" t="n">
         <f aca="false">0.057*B24^(1.944)</f>
         <v>2.73275618821812E-006</v>
       </c>
-      <c r="E24" s="30" t="n">
+      <c r="E24" s="38" t="n">
         <f aca="false">0.38*B24^0.59</f>
         <v>0.0185734608345414</v>
       </c>
-      <c r="F24" s="31" t="n">
+      <c r="F24" s="39" t="n">
         <f aca="false">0.04*B24^2</f>
         <v>1.44E-006</v>
       </c>
@@ -6593,24 +7075,24 @@
         <f aca="false">B24-0.0002</f>
         <v>0.0058</v>
       </c>
-      <c r="C25" s="30" t="n">
+      <c r="C25" s="38" t="n">
         <f aca="false">2.97*B25^(0.62)</f>
         <v>0.121921923397288</v>
       </c>
-      <c r="D25" s="31" t="n">
+      <c r="D25" s="39" t="n">
         <f aca="false">0.057*B25^(1.944)</f>
         <v>2.55846143585184E-006</v>
       </c>
-      <c r="E25" s="30" t="n">
+      <c r="E25" s="38" t="n">
         <f aca="false">0.38*B25^0.59</f>
         <v>0.0182056467959893</v>
       </c>
-      <c r="F25" s="31" t="n">
+      <c r="F25" s="39" t="n">
         <f aca="false">0.04*B25^2</f>
         <v>1.3456E-006</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1195</v>
@@ -6625,19 +7107,19 @@
         <f aca="false">B25-0.0002</f>
         <v>0.0056</v>
       </c>
-      <c r="C26" s="30" t="n">
+      <c r="C26" s="38" t="n">
         <f aca="false">2.97*B26^(0.62)</f>
         <v>0.119297962411986</v>
       </c>
-      <c r="D26" s="31" t="n">
+      <c r="D26" s="39" t="n">
         <f aca="false">0.057*B26^(1.944)</f>
         <v>2.38974950418042E-006</v>
       </c>
-      <c r="E26" s="30" t="n">
+      <c r="E26" s="38" t="n">
         <f aca="false">0.38*B26^0.59</f>
         <v>0.017832594434361</v>
       </c>
-      <c r="F26" s="31" t="n">
+      <c r="F26" s="39" t="n">
         <f aca="false">0.04*B26^2</f>
         <v>1.2544E-006</v>
       </c>
@@ -6647,19 +7129,19 @@
         <f aca="false">B26-0.0002</f>
         <v>0.0054</v>
       </c>
-      <c r="C27" s="30" t="n">
+      <c r="C27" s="38" t="n">
         <f aca="false">2.97*B27^(0.62)</f>
         <v>0.116638138648189</v>
       </c>
-      <c r="D27" s="31" t="n">
+      <c r="D27" s="39" t="n">
         <f aca="false">0.057*B27^(1.944)</f>
         <v>2.22663137725334E-006</v>
       </c>
-      <c r="E27" s="30" t="n">
+      <c r="E27" s="38" t="n">
         <f aca="false">0.38*B27^0.59</f>
         <v>0.0174540379098898</v>
       </c>
-      <c r="F27" s="31" t="n">
+      <c r="F27" s="39" t="n">
         <f aca="false">0.04*B27^2</f>
         <v>1.1664E-006</v>
       </c>
@@ -6669,19 +7151,19 @@
         <f aca="false">B27-0.0002</f>
         <v>0.0052</v>
       </c>
-      <c r="C28" s="30" t="n">
+      <c r="C28" s="38" t="n">
         <f aca="false">2.97*B28^(0.62)</f>
         <v>0.113940605323781</v>
       </c>
-      <c r="D28" s="31" t="n">
+      <c r="D28" s="39" t="n">
         <f aca="false">0.057*B28^(1.944)</f>
         <v>2.06911846161483E-006</v>
       </c>
-      <c r="E28" s="30" t="n">
+      <c r="E28" s="38" t="n">
         <f aca="false">0.38*B28^0.59</f>
         <v>0.0170696874581801</v>
       </c>
-      <c r="F28" s="31" t="n">
+      <c r="F28" s="39" t="n">
         <f aca="false">0.04*B28^2</f>
         <v>1.0816E-006</v>
       </c>
@@ -6691,19 +7173,19 @@
         <f aca="false">B28-0.0002</f>
         <v>0.005</v>
       </c>
-      <c r="C29" s="30" t="n">
+      <c r="C29" s="38" t="n">
         <f aca="false">2.97*B29^(0.62)</f>
         <v>0.111203345248834</v>
       </c>
-      <c r="D29" s="31" t="n">
+      <c r="D29" s="39" t="n">
         <f aca="false">0.057*B29^(1.944)</f>
         <v>1.9172226191516E-006</v>
       </c>
-      <c r="E29" s="30" t="n">
+      <c r="E29" s="38" t="n">
         <f aca="false">0.38*B29^0.59</f>
         <v>0.0166792262248499</v>
       </c>
-      <c r="F29" s="31" t="n">
+      <c r="F29" s="39" t="n">
         <f aca="false">0.04*B29^2</f>
         <v>1E-006</v>
       </c>
@@ -6713,19 +7195,19 @@
         <f aca="false">B29-0.0002</f>
         <v>0.0048</v>
       </c>
-      <c r="C30" s="30" t="n">
+      <c r="C30" s="38" t="n">
         <f aca="false">2.97*B30^(0.62)</f>
         <v>0.108424147589092</v>
       </c>
-      <c r="D30" s="31" t="n">
+      <c r="D30" s="39" t="n">
         <f aca="false">0.057*B30^(1.944)</f>
         <v>1.77095620388728E-006</v>
       </c>
-      <c r="E30" s="30" t="n">
+      <c r="E30" s="38" t="n">
         <f aca="false">0.38*B30^0.59</f>
         <v>0.016282306536583</v>
       </c>
-      <c r="F30" s="31" t="n">
+      <c r="F30" s="39" t="n">
         <f aca="false">0.04*B30^2</f>
         <v>9.216E-007</v>
       </c>
@@ -6735,19 +7217,19 @@
         <f aca="false">B30-0.0002</f>
         <v>0.0046</v>
       </c>
-      <c r="C31" s="30" t="n">
+      <c r="C31" s="38" t="n">
         <f aca="false">2.97*B31^(0.62)</f>
         <v>0.1056005803499</v>
       </c>
-      <c r="D31" s="31" t="n">
+      <c r="D31" s="39" t="n">
         <f aca="false">0.057*B31^(1.944)</f>
         <v>1.63033210337883E-006</v>
       </c>
-      <c r="E31" s="30" t="n">
+      <c r="E31" s="38" t="n">
         <f aca="false">0.38*B31^0.59</f>
         <v>0.0158785454802783</v>
       </c>
-      <c r="F31" s="31" t="n">
+      <c r="F31" s="39" t="n">
         <f aca="false">0.04*B31^2</f>
         <v>8.464E-007</v>
       </c>
@@ -6757,19 +7239,19 @@
         <f aca="false">B31-0.0002</f>
         <v>0.0044</v>
       </c>
-      <c r="C32" s="30" t="n">
+      <c r="C32" s="38" t="n">
         <f aca="false">2.97*B32^(0.62)</f>
         <v>0.10272995756971</v>
       </c>
-      <c r="D32" s="31" t="n">
+      <c r="D32" s="39" t="n">
         <f aca="false">0.057*B32^(1.944)</f>
         <v>1.49536378551187E-006</v>
       </c>
-      <c r="E32" s="30" t="n">
+      <c r="E32" s="38" t="n">
         <f aca="false">0.38*B32^0.59</f>
         <v>0.0154675196258454</v>
       </c>
-      <c r="F32" s="31" t="n">
+      <c r="F32" s="39" t="n">
         <f aca="false">0.04*B32^2</f>
         <v>7.74400000000001E-007</v>
       </c>
@@ -6779,19 +7261,19 @@
         <f aca="false">B32-0.0002</f>
         <v>0.0042</v>
       </c>
-      <c r="C33" s="30" t="n">
+      <c r="C33" s="38" t="n">
         <f aca="false">2.97*B33^(0.62)</f>
         <v>0.0998092999160222</v>
       </c>
-      <c r="D33" s="31" t="n">
+      <c r="D33" s="39" t="n">
         <f aca="false">0.057*B33^(1.944)</f>
         <v>1.36606535167154E-006</v>
       </c>
-      <c r="E33" s="30" t="n">
+      <c r="E33" s="38" t="n">
         <f aca="false">0.38*B33^0.59</f>
         <v>0.0150487586797388</v>
       </c>
-      <c r="F33" s="31" t="n">
+      <c r="F33" s="39" t="n">
         <f aca="false">0.04*B33^2</f>
         <v>7.05600000000001E-007</v>
       </c>
@@ -6801,19 +7283,19 @@
         <f aca="false">B33-0.0002</f>
         <v>0.004</v>
       </c>
-      <c r="C34" s="30" t="n">
+      <c r="C34" s="38" t="n">
         <f aca="false">2.97*B34^(0.62)</f>
         <v>0.0968352869750591</v>
       </c>
-      <c r="D34" s="31" t="n">
+      <c r="D34" s="39" t="n">
         <f aca="false">0.057*B34^(1.944)</f>
         <v>1.24245159749632E-006</v>
       </c>
-      <c r="E34" s="30" t="n">
+      <c r="E34" s="38" t="n">
         <f aca="false">0.38*B34^0.59</f>
         <v>0.0146217377905664</v>
       </c>
-      <c r="F34" s="31" t="n">
+      <c r="F34" s="39" t="n">
         <f aca="false">0.04*B34^2</f>
         <v>6.40000000000001E-007</v>
       </c>
@@ -6823,19 +7305,19 @@
         <f aca="false">B34-0.0002</f>
         <v>0.0038</v>
       </c>
-      <c r="C35" s="30" t="n">
+      <c r="C35" s="38" t="n">
         <f aca="false">2.97*B35^(0.62)</f>
         <v>0.0938041989749743</v>
       </c>
-      <c r="D35" s="31" t="n">
+      <c r="D35" s="39" t="n">
         <f aca="false">0.057*B35^(1.944)</f>
         <v>1.12453808272104E-006</v>
       </c>
-      <c r="E35" s="30" t="n">
+      <c r="E35" s="38" t="n">
         <f aca="false">0.38*B35^0.59</f>
         <v>0.0141858681376737</v>
       </c>
-      <c r="F35" s="31" t="n">
+      <c r="F35" s="39" t="n">
         <f aca="false">0.04*B35^2</f>
         <v>5.77600000000001E-007</v>
       </c>
@@ -6845,19 +7327,19 @@
         <f aca="false">B35-0.0002</f>
         <v>0.0036</v>
       </c>
-      <c r="C36" s="30" t="n">
+      <c r="C36" s="38" t="n">
         <f aca="false">2.97*B36^(0.62)</f>
         <v>0.0907118449138866</v>
       </c>
-      <c r="D36" s="31" t="n">
+      <c r="D36" s="39" t="n">
         <f aca="false">0.057*B36^(1.944)</f>
         <v>1.01234121200827E-006</v>
       </c>
-      <c r="E36" s="30" t="n">
+      <c r="E36" s="38" t="n">
         <f aca="false">0.38*B36^0.59</f>
         <v>0.0137404853074231</v>
       </c>
-      <c r="F36" s="31" t="n">
+      <c r="F36" s="39" t="n">
         <f aca="false">0.04*B36^2</f>
         <v>5.18400000000001E-007</v>
       </c>
@@ -6867,19 +7349,19 @@
         <f aca="false">B36-0.0002</f>
         <v>0.0034</v>
       </c>
-      <c r="C37" s="30" t="n">
+      <c r="C37" s="38" t="n">
         <f aca="false">2.97*B37^(0.62)</f>
         <v>0.0875534729761634</v>
       </c>
-      <c r="D37" s="31" t="n">
+      <c r="D37" s="39" t="n">
         <f aca="false">0.057*B37^(1.944)</f>
         <v>9.05878329188687E-007</v>
       </c>
-      <c r="E37" s="30" t="n">
+      <c r="E37" s="38" t="n">
         <f aca="false">0.38*B37^0.59</f>
         <v>0.0132848347830049</v>
       </c>
-      <c r="F37" s="31" t="n">
+      <c r="F37" s="39" t="n">
         <f aca="false">0.04*B37^2</f>
         <v>4.62400000000001E-007</v>
       </c>
@@ -6889,19 +7371,19 @@
         <f aca="false">B37-0.0002</f>
         <v>0.0032</v>
       </c>
-      <c r="C38" s="30" t="n">
+      <c r="C38" s="38" t="n">
         <f aca="false">2.97*B38^(0.62)</f>
         <v>0.0843236575532816</v>
       </c>
-      <c r="D38" s="31" t="n">
+      <c r="D38" s="39" t="n">
         <f aca="false">0.057*B38^(1.944)</f>
         <v>8.05167828034625E-007</v>
       </c>
-      <c r="E38" s="30" t="n">
+      <c r="E38" s="38" t="n">
         <f aca="false">0.38*B38^0.59</f>
         <v>0.0128180536155539</v>
       </c>
-      <c r="F38" s="31" t="n">
+      <c r="F38" s="39" t="n">
         <f aca="false">0.04*B38^2</f>
         <v>4.096E-007</v>
       </c>
@@ -6911,19 +7393,19 @@
         <f aca="false">B38-0.0002</f>
         <v>0.003</v>
       </c>
-      <c r="C39" s="30" t="n">
+      <c r="C39" s="38" t="n">
         <f aca="false">2.97*B39^(0.62)</f>
         <v>0.0810161548842737</v>
       </c>
-      <c r="D39" s="31" t="n">
+      <c r="D39" s="39" t="n">
         <f aca="false">0.057*B39^(1.944)</f>
         <v>7.10229283654885E-007</v>
       </c>
-      <c r="E39" s="30" t="n">
+      <c r="E39" s="38" t="n">
         <f aca="false">0.38*B39^0.59</f>
         <v>0.0123391469647662</v>
       </c>
-      <c r="F39" s="31" t="n">
+      <c r="F39" s="39" t="n">
         <f aca="false">0.04*B39^2</f>
         <v>3.6E-007</v>
       </c>
@@ -6933,19 +7415,19 @@
         <f aca="false">B39-0.0002</f>
         <v>0.0028</v>
       </c>
-      <c r="C40" s="30" t="n">
+      <c r="C40" s="38" t="n">
         <f aca="false">2.97*B40^(0.62)</f>
         <v>0.0776237158778282</v>
       </c>
-      <c r="D40" s="31" t="n">
+      <c r="D40" s="39" t="n">
         <f aca="false">0.057*B40^(1.944)</f>
         <v>6.21083609941571E-007</v>
       </c>
-      <c r="E40" s="30" t="n">
+      <c r="E40" s="38" t="n">
         <f aca="false">0.38*B40^0.59</f>
         <v>0.0118469576267359</v>
       </c>
-      <c r="F40" s="31" t="n">
+      <c r="F40" s="39" t="n">
         <f aca="false">0.04*B40^2</f>
         <v>3.136E-007</v>
       </c>
@@ -6955,19 +7437,19 @@
         <f aca="false">B40-0.0002</f>
         <v>0.0026</v>
       </c>
-      <c r="C41" s="30" t="n">
+      <c r="C41" s="38" t="n">
         <f aca="false">2.97*B41^(0.62)</f>
         <v>0.074137839371113</v>
       </c>
-      <c r="D41" s="31" t="n">
+      <c r="D41" s="39" t="n">
         <f aca="false">0.057*B41^(1.944)</f>
         <v>5.37753250409072E-007</v>
       </c>
-      <c r="E41" s="30" t="n">
+      <c r="E41" s="38" t="n">
         <f aca="false">0.38*B41^0.59</f>
         <v>0.0113401257883725</v>
       </c>
-      <c r="F41" s="31" t="n">
+      <c r="F41" s="39" t="n">
         <f aca="false">0.04*B41^2</f>
         <v>2.704E-007</v>
       </c>
@@ -6977,19 +7459,19 @@
         <f aca="false">B41-0.0002</f>
         <v>0.0024</v>
       </c>
-      <c r="C42" s="30" t="n">
+      <c r="C42" s="38" t="n">
         <f aca="false">2.97*B42^(0.62)</f>
         <v>0.0705484406991499</v>
       </c>
-      <c r="D42" s="31" t="n">
+      <c r="D42" s="39" t="n">
         <f aca="false">0.057*B42^(1.944)</f>
         <v>4.60262412539324E-007</v>
       </c>
-      <c r="E42" s="30" t="n">
+      <c r="E42" s="38" t="n">
         <f aca="false">0.38*B42^0.59</f>
         <v>0.0108170348579644</v>
       </c>
-      <c r="F42" s="31" t="n">
+      <c r="F42" s="39" t="n">
         <f aca="false">0.04*B42^2</f>
         <v>2.304E-007</v>
       </c>
@@ -6999,19 +7481,19 @@
         <f aca="false">B42-0.0002</f>
         <v>0.0022</v>
       </c>
-      <c r="C43" s="30" t="n">
+      <c r="C43" s="38" t="n">
         <f aca="false">2.97*B43^(0.62)</f>
         <v>0.066843396796619</v>
       </c>
-      <c r="D43" s="31" t="n">
+      <c r="D43" s="39" t="n">
         <f aca="false">0.057*B43^(1.944)</f>
         <v>3.88637359880999E-007</v>
       </c>
-      <c r="E43" s="30" t="n">
+      <c r="E43" s="38" t="n">
         <f aca="false">0.38*B43^0.59</f>
         <v>0.0102757369530601</v>
       </c>
-      <c r="F43" s="31" t="n">
+      <c r="F43" s="39" t="n">
         <f aca="false">0.04*B43^2</f>
         <v>1.936E-007</v>
       </c>
@@ -7021,19 +7503,19 @@
         <f aca="false">B43-0.0002</f>
         <v>0.002</v>
       </c>
-      <c r="C44" s="30" t="n">
+      <c r="C44" s="38" t="n">
         <f aca="false">2.97*B44^(0.62)</f>
         <v>0.0630079060121878</v>
       </c>
-      <c r="D44" s="31" t="n">
+      <c r="D44" s="39" t="n">
         <f aca="false">0.057*B44^(1.944)</f>
         <v>3.22906782489461E-007</v>
       </c>
-      <c r="E44" s="30" t="n">
+      <c r="E44" s="38" t="n">
         <f aca="false">0.38*B44^0.59</f>
         <v>0.00971384778988223</v>
       </c>
-      <c r="F44" s="31" t="n">
+      <c r="F44" s="39" t="n">
         <f aca="false">0.04*B44^2</f>
         <v>1.6E-007</v>
       </c>
@@ -7043,19 +7525,19 @@
         <f aca="false">B44-0.0002</f>
         <v>0.0018</v>
       </c>
-      <c r="C45" s="30" t="n">
+      <c r="C45" s="38" t="n">
         <f aca="false">2.97*B45^(0.62)</f>
         <v>0.0590235602853991</v>
       </c>
-      <c r="D45" s="31" t="n">
+      <c r="D45" s="39" t="n">
         <f aca="false">0.057*B45^(1.944)</f>
         <v>2.63102276346055E-007</v>
       </c>
-      <c r="E45" s="30" t="n">
+      <c r="E45" s="38" t="n">
         <f aca="false">0.38*B45^0.59</f>
         <v>0.00912839395338729</v>
       </c>
-      <c r="F45" s="31" t="n">
+      <c r="F45" s="39" t="n">
         <f aca="false">0.04*B45^2</f>
         <v>1.296E-007</v>
       </c>
@@ -7065,19 +7547,19 @@
         <f aca="false">B45-0.0002</f>
         <v>0.0016</v>
       </c>
-      <c r="C46" s="30" t="n">
+      <c r="C46" s="38" t="n">
         <f aca="false">2.97*B46^(0.62)</f>
         <v>0.0548669524890189</v>
       </c>
-      <c r="D46" s="31" t="n">
+      <c r="D46" s="39" t="n">
         <f aca="false">0.057*B46^(1.944)</f>
         <v>2.09258978972385E-007</v>
       </c>
-      <c r="E46" s="30" t="n">
+      <c r="E46" s="38" t="n">
         <f aca="false">0.38*B46^0.59</f>
         <v>0.00851558300165745</v>
       </c>
-      <c r="F46" s="31" t="n">
+      <c r="F46" s="39" t="n">
         <f aca="false">0.04*B46^2</f>
         <v>1.024E-007</v>
       </c>
@@ -7087,19 +7569,19 @@
         <f aca="false">B46-0.0002</f>
         <v>0.0014</v>
       </c>
-      <c r="C47" s="30" t="n">
+      <c r="C47" s="38" t="n">
         <f aca="false">2.97*B47^(0.62)</f>
         <v>0.0505074952233752</v>
       </c>
-      <c r="D47" s="31" t="n">
+      <c r="D47" s="39" t="n">
         <f aca="false">0.057*B47^(1.944)</f>
         <v>1.6141643710492E-007</v>
       </c>
-      <c r="E47" s="30" t="n">
+      <c r="E47" s="38" t="n">
         <f aca="false">0.38*B47^0.59</f>
         <v>0.00787044226942325</v>
       </c>
-      <c r="F47" s="31" t="n">
+      <c r="F47" s="39" t="n">
         <f aca="false">0.04*B47^2</f>
         <v>7.84000000000001E-008</v>
       </c>
@@ -7109,19 +7591,19 @@
         <f aca="false">B47-0.0002</f>
         <v>0.0012</v>
       </c>
-      <c r="C48" s="30" t="n">
+      <c r="C48" s="38" t="n">
         <f aca="false">2.97*B48^(0.62)</f>
         <v>0.0459038193589834</v>
       </c>
-      <c r="D48" s="31" t="n">
+      <c r="D48" s="39" t="n">
         <f aca="false">0.057*B48^(1.944)</f>
         <v>1.1961983471501E-007</v>
       </c>
-      <c r="E48" s="30" t="n">
+      <c r="E48" s="38" t="n">
         <f aca="false">0.38*B48^0.59</f>
         <v>0.00718622038318236</v>
       </c>
-      <c r="F48" s="31" t="n">
+      <c r="F48" s="39" t="n">
         <f aca="false">0.04*B48^2</f>
         <v>5.76000000000001E-008</v>
       </c>
@@ -7131,19 +7613,19 @@
         <f aca="false">B48-0.0002</f>
         <v>0.001</v>
       </c>
-      <c r="C49" s="30" t="n">
+      <c r="C49" s="38" t="n">
         <f aca="false">2.97*B49^(0.62)</f>
         <v>0.0409974126587057</v>
       </c>
-      <c r="D49" s="31" t="n">
+      <c r="D49" s="39" t="n">
         <f aca="false">0.057*B49^(1.944)</f>
         <v>8.39218126386651E-008</v>
       </c>
-      <c r="E49" s="30" t="n">
+      <c r="E49" s="38" t="n">
         <f aca="false">0.38*B49^0.59</f>
         <v>0.00645332587935463</v>
       </c>
-      <c r="F49" s="31" t="n">
+      <c r="F49" s="39" t="n">
         <f aca="false">0.04*B49^2</f>
         <v>4E-008</v>
       </c>
@@ -7153,19 +7635,19 @@
         <f aca="false">B49-0.0002</f>
         <v>0.0008</v>
       </c>
-      <c r="C50" s="30" t="n">
+      <c r="C50" s="38" t="n">
         <f aca="false">2.97*B50^(0.62)</f>
         <v>0.0357003308772521</v>
       </c>
-      <c r="D50" s="31" t="n">
+      <c r="D50" s="39" t="n">
         <f aca="false">0.057*B50^(1.944)</f>
         <v>5.4385332791367E-008</v>
       </c>
-      <c r="E50" s="30" t="n">
+      <c r="E50" s="38" t="n">
         <f aca="false">0.38*B50^0.59</f>
         <v>0.00565726716653182</v>
       </c>
-      <c r="F50" s="31" t="n">
+      <c r="F50" s="39" t="n">
         <f aca="false">0.04*B50^2</f>
         <v>2.56E-008</v>
       </c>
@@ -7175,19 +7657,19 @@
         <f aca="false">B50-0.0002</f>
         <v>0.0006</v>
       </c>
-      <c r="C51" s="30" t="n">
+      <c r="C51" s="38" t="n">
         <f aca="false">2.97*B51^(0.62)</f>
         <v>0.0298682807282454</v>
       </c>
-      <c r="D51" s="31" t="n">
+      <c r="D51" s="39" t="n">
         <f aca="false">0.057*B51^(1.944)</f>
         <v>3.10885800521977E-008</v>
       </c>
-      <c r="E51" s="30" t="n">
+      <c r="E51" s="38" t="n">
         <f aca="false">0.38*B51^0.59</f>
         <v>0.0047741145400528</v>
       </c>
-      <c r="F51" s="31" t="n">
+      <c r="F51" s="39" t="n">
         <f aca="false">0.04*B51^2</f>
         <v>1.44E-008</v>
       </c>
@@ -7197,19 +7679,19 @@
         <f aca="false">B51-0.0002</f>
         <v>0.0004</v>
       </c>
-      <c r="C52" s="30" t="n">
+      <c r="C52" s="38" t="n">
         <f aca="false">2.97*B52^(0.62)</f>
         <v>0.0232291674118471</v>
       </c>
-      <c r="D52" s="31" t="n">
+      <c r="D52" s="39" t="n">
         <f aca="false">0.057*B52^(1.944)</f>
         <v>1.41344683862672E-008</v>
       </c>
-      <c r="E52" s="30" t="n">
+      <c r="E52" s="38" t="n">
         <f aca="false">0.38*B52^0.59</f>
         <v>0.0037583653153624</v>
       </c>
-      <c r="F52" s="31" t="n">
+      <c r="F52" s="39" t="n">
         <f aca="false">0.04*B52^2</f>
         <v>6.40000000000002E-009</v>
       </c>
@@ -7219,19 +7701,19 @@
         <f aca="false">B52-0.0002</f>
         <v>0.0002</v>
       </c>
-      <c r="C53" s="30" t="n">
+      <c r="C53" s="38" t="n">
         <f aca="false">2.97*B53^(0.62)</f>
         <v>0.0151145439100522</v>
       </c>
-      <c r="D53" s="31" t="n">
+      <c r="D53" s="39" t="n">
         <f aca="false">0.057*B53^(1.944)</f>
         <v>3.67347566537464E-009</v>
       </c>
-      <c r="E53" s="30" t="n">
+      <c r="E53" s="38" t="n">
         <f aca="false">0.38*B53^0.59</f>
         <v>0.00249684333935719</v>
       </c>
-      <c r="F53" s="31" t="n">
+      <c r="F53" s="39" t="n">
         <f aca="false">0.04*B53^2</f>
         <v>1.60000000000001E-009</v>
       </c>
@@ -7260,7 +7742,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,19 +7752,19 @@
       <c r="B56" s="7" t="n">
         <v>0.00448963749440691</v>
       </c>
-      <c r="C56" s="32" t="n">
+      <c r="C56" s="40" t="n">
         <f aca="false">2.97*B56^(0.62)</f>
         <v>0.104022536776874</v>
       </c>
-      <c r="D56" s="33" t="n">
+      <c r="D56" s="41" t="n">
         <f aca="false">0.057*B56^(1.944)</f>
         <v>1.55515462681334E-006</v>
       </c>
-      <c r="E56" s="32" t="n">
+      <c r="E56" s="40" t="n">
         <f aca="false">0.38*B56^0.59</f>
         <v>0.0156526635261272</v>
       </c>
-      <c r="F56" s="33" t="n">
+      <c r="F56" s="41" t="n">
         <f aca="false">0.04*B56^2</f>
         <v>8.06273793247375E-007</v>
       </c>
@@ -7294,19 +7776,19 @@
       <c r="B57" s="7" t="n">
         <v>0.00326686414564173</v>
       </c>
-      <c r="C57" s="32" t="n">
+      <c r="C57" s="40" t="n">
         <f aca="false">2.97*B57^(0.62)</f>
         <v>0.0854117687386061</v>
       </c>
-      <c r="D57" s="33" t="n">
+      <c r="D57" s="41" t="n">
         <f aca="false">0.057*B57^(1.944)</f>
         <v>8.38196155302728E-007</v>
       </c>
-      <c r="E57" s="32" t="n">
+      <c r="E57" s="40" t="n">
         <f aca="false">0.38*B57^0.59</f>
         <v>0.01297540524603</v>
       </c>
-      <c r="F57" s="33" t="n">
+      <c r="F57" s="41" t="n">
         <f aca="false">0.04*B57^2</f>
         <v>4.26896053843179E-007</v>
       </c>
@@ -7318,19 +7800,19 @@
       <c r="B58" s="7" t="n">
         <v>0.00148681748399815</v>
       </c>
-      <c r="C58" s="32" t="n">
+      <c r="C58" s="40" t="n">
         <f aca="false">2.97*B58^(0.62)</f>
         <v>0.0524271437927417</v>
       </c>
-      <c r="D58" s="33" t="n">
+      <c r="D58" s="41" t="n">
         <f aca="false">0.057*B58^(1.944)</f>
         <v>1.81444473852152E-007</v>
       </c>
-      <c r="E58" s="32" t="n">
+      <c r="E58" s="40" t="n">
         <f aca="false">0.38*B58^0.59</f>
         <v>0.00815484321487877</v>
       </c>
-      <c r="F58" s="33" t="n">
+      <c r="F58" s="41" t="n">
         <f aca="false">0.04*B58^2</f>
         <v>8.84250492289036E-008</v>
       </c>
@@ -7342,19 +7824,19 @@
       <c r="B59" s="7" t="n">
         <v>0.00165426731175644</v>
       </c>
-      <c r="C59" s="32" t="n">
+      <c r="C59" s="40" t="n">
         <f aca="false">2.97*B59^(0.62)</f>
         <v>0.0560134052823008</v>
       </c>
-      <c r="D59" s="33" t="n">
+      <c r="D59" s="41" t="n">
         <f aca="false">0.057*B59^(1.944)</f>
         <v>2.23277167228799E-007</v>
       </c>
-      <c r="E59" s="32" t="n">
+      <c r="E59" s="40" t="n">
         <f aca="false">0.38*B59^0.59</f>
         <v>0.00868482261731556</v>
       </c>
-      <c r="F59" s="33" t="n">
+      <c r="F59" s="41" t="n">
         <f aca="false">0.04*B59^2</f>
         <v>1.09464013549835E-007</v>
       </c>
@@ -7366,19 +7848,19 @@
       <c r="B60" s="7" t="n">
         <v>0.00172994925903795</v>
       </c>
-      <c r="C60" s="32" t="n">
+      <c r="C60" s="40" t="n">
         <f aca="false">2.97*B60^(0.62)</f>
         <v>0.0575886815321441</v>
       </c>
-      <c r="D60" s="33" t="n">
+      <c r="D60" s="41" t="n">
         <f aca="false">0.057*B60^(1.944)</f>
         <v>2.43563225835732E-007</v>
       </c>
-      <c r="E60" s="32" t="n">
+      <c r="E60" s="40" t="n">
         <f aca="false">0.38*B60^0.59</f>
         <v>0.00891709271065583</v>
       </c>
-      <c r="F60" s="33" t="n">
+      <c r="F60" s="41" t="n">
         <f aca="false">0.04*B60^2</f>
         <v>1.19708977553838E-007</v>
       </c>
@@ -7420,29 +7902,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3224.39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3224.39</v>
@@ -7450,13 +7932,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.0174073913465891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>0.0174073913465891</v>
@@ -7464,13 +7946,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.00905420943797329</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>0.00838855821647622</v>
@@ -7478,41 +7960,41 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.733567390573683</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.16628412805505</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>0.0105579786502628</v>
@@ -7520,13 +8002,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6.89970872110144</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1.85502754530844</v>
@@ -7534,7 +8016,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1.7860288485136</v>
@@ -7542,7 +8024,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1885.33</v>
@@ -7550,13 +8032,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>0.0665863915555153</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1885.33</v>
@@ -7564,13 +8046,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>0.0121820294071994</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0.0665863915555153</v>
@@ -7578,13 +8060,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0.0112686798808896</v>
@@ -7592,41 +8074,41 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4.82102591004869</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4.7100584682048</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.53102565960586</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.126974631540773</v>
@@ -7634,7 +8116,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3.09742234137423</v>
@@ -7642,13 +8124,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1707.04</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>3.18462410915096</v>
@@ -7656,7 +8138,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>0.0796091569963983</v>
@@ -7664,13 +8146,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>0.0133703247435226</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1707.04</v>
@@ -7678,13 +8160,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0.0796091569963983</v>
@@ -7692,13 +8174,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>7.15329229537103</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0.0124963864811004</v>
@@ -7706,35 +8188,35 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4.12322934641132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11.2764625888247</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.230555884990333</v>
@@ -7742,13 +8224,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1631.73</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2.94768993553845</v>
@@ -7756,13 +8238,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>0.0858483420562948</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>3.12901332289223</v>
@@ -7770,7 +8252,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>0.0147866557709214</v>
@@ -7778,13 +8260,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1631.73</v>
@@ -7792,13 +8274,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>7.22104189591477</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0.0858483420562948</v>
@@ -7806,13 +8288,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4.162280894934</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0.0141742089005532</v>
@@ -7820,35 +8302,35 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>11.3832671605332</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1276.06</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.243740988673165</v>
@@ -7856,13 +8338,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.122600161613828</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3.00051480320737</v>
@@ -7870,13 +8352,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>0.0162094513521557</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3.19226785638621</v>
@@ -7884,21 +8366,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>9.54813216436608</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1276.06</v>
@@ -7906,13 +8388,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3.49452531337901</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.122600161613828</v>
@@ -7920,13 +8402,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13.042611359173</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0.0148325327507379</v>
@@ -7934,35 +8416,35 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1733.14</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>0.0775543912150806</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0.346713028636503</v>
@@ -7970,13 +8452,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>0.0270356845332595</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2.57417709180406</v>
@@ -7984,13 +8466,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2.87224516711447</v>
@@ -7998,7 +8480,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14.5861799249095</v>
@@ -8006,13 +8488,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.57887732799694</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1733.14</v>
@@ -8020,13 +8502,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>17.1649659667583</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H49" s="7" t="n">
         <v>0.0775543912150806</v>
@@ -8034,7 +8516,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H50" s="7" t="n">
         <v>0.0240218462854766</v>
@@ -8042,41 +8524,41 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1145.54</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.139727826991123</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>0.00539919856208694</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0.787616519847601</v>
@@ -8084,13 +8566,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1.9896617741242</v>
@@ -8098,13 +8580,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>18.7412552816673</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.61417434358327</v>
@@ -8112,7 +8594,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.31350624995081</v>
@@ -8120,13 +8602,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>22.0546920049182</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1145.54</v>
@@ -8134,7 +8616,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0.139727826991123</v>
@@ -8142,7 +8624,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H59" s="7" t="n">
         <v>0.00467317393173504</v>
@@ -8150,23 +8632,23 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0.454771937101082</v>
@@ -8174,7 +8656,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>2.23547135492507</v>
@@ -8182,7 +8664,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G64" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>2.6637119688558</v>

--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="223" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="157" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="invariant_k" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
   <si>
     <t>Experiments 13.06.2017</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>config exists from 1507</t>
+  </si>
+  <si>
+    <t>RUNS 2808</t>
+  </si>
+  <si>
+    <t>RUNS 2908</t>
   </si>
   <si>
     <t>Examples of invariant rates used in HAMOCC</t>
@@ -238,8 +244,8 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000E+000"/>
     <numFmt numFmtId="169" formatCode="0.00000000E+000"/>
   </numFmts>
@@ -420,7 +426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,6 +531,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -553,11 +563,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,7 +671,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2046,11 +2056,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78569598"/>
-        <c:axId val="69654263"/>
+        <c:axId val="20797966"/>
+        <c:axId val="37950487"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78569598"/>
+        <c:axId val="20797966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,11 +2076,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69654263"/>
+        <c:crossAx val="37950487"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69654263"/>
+        <c:axId val="37950487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2105,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78569598"/>
+        <c:crossAx val="20797966"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2135,15 +2145,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>181080</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>601920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2151,8 +2161,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7426080" y="180360"/>
-        <a:ext cx="8533800" cy="6769440"/>
+        <a:off x="7480080" y="162360"/>
+        <a:ext cx="8533080" cy="6768720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2170,10 +2180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L105" activeCellId="0" sqref="L105"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K139" activeCellId="0" sqref="K139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4304,6 +4314,814 @@
       </c>
       <c r="J124" s="22" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <f aca="false">B132*D132</f>
+        <v>0.0044</v>
+      </c>
+      <c r="D132" s="11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H132" s="3" t="n">
+        <f aca="false">G132*I132</f>
+        <v>0.0044</v>
+      </c>
+      <c r="I132" s="11" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" s="16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C133" s="16" t="n">
+        <f aca="false">B133*D133</f>
+        <v>0.0048</v>
+      </c>
+      <c r="D133" s="17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F133" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" s="16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H133" s="16" t="n">
+        <f aca="false">G133*I133</f>
+        <v>0.0048</v>
+      </c>
+      <c r="I133" s="17" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" s="16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C134" s="16" t="n">
+        <f aca="false">B134*D134</f>
+        <v>0.006</v>
+      </c>
+      <c r="D134" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F134" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G134" s="16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H134" s="16" t="n">
+        <f aca="false">G134*I134</f>
+        <v>0.006</v>
+      </c>
+      <c r="I134" s="17" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" s="16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C135" s="16" t="n">
+        <f aca="false">B135*D135</f>
+        <v>0.0072</v>
+      </c>
+      <c r="D135" s="17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F135" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H135" s="9" t="n">
+        <f aca="false">G135*I135</f>
+        <v>0.0052</v>
+      </c>
+      <c r="I135" s="19" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B136" s="21" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C136" s="21" t="n">
+        <f aca="false">B136*D136</f>
+        <v>0.008</v>
+      </c>
+      <c r="D136" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" s="21" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H136" s="21" t="n">
+        <f aca="false">G136*I136</f>
+        <v>0.008</v>
+      </c>
+      <c r="I136" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B137" s="3" t="n">
+        <f aca="false">B132+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <f aca="false">B137*D137</f>
+        <v>0.00495</v>
+      </c>
+      <c r="D137" s="11" t="n">
+        <f aca="false">D132</f>
+        <v>1.1</v>
+      </c>
+      <c r="F137" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <f aca="false">G132+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="H137" s="3" t="n">
+        <f aca="false">G137*I137</f>
+        <v>0.00495</v>
+      </c>
+      <c r="I137" s="11" t="n">
+        <f aca="false">I132</f>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <f aca="false">B133+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="C138" s="16" t="n">
+        <f aca="false">B138*D138</f>
+        <v>0.0054</v>
+      </c>
+      <c r="D138" s="17" t="n">
+        <f aca="false">D133</f>
+        <v>1.2</v>
+      </c>
+      <c r="F138" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <f aca="false">G133+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="H138" s="16" t="n">
+        <f aca="false">G138*I138</f>
+        <v>0.0054</v>
+      </c>
+      <c r="I138" s="17" t="n">
+        <f aca="false">I133</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <f aca="false">B134+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="C139" s="16" t="n">
+        <f aca="false">B139*D139</f>
+        <v>0.00675</v>
+      </c>
+      <c r="D139" s="17" t="n">
+        <f aca="false">D134</f>
+        <v>1.5</v>
+      </c>
+      <c r="F139" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <f aca="false">G134+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="H139" s="16" t="n">
+        <f aca="false">G139*I139</f>
+        <v>0.00675</v>
+      </c>
+      <c r="I139" s="17" t="n">
+        <f aca="false">I134</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <f aca="false">B135+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="C140" s="16" t="n">
+        <f aca="false">B140*D140</f>
+        <v>0.0081</v>
+      </c>
+      <c r="D140" s="17" t="n">
+        <f aca="false">D135</f>
+        <v>1.8</v>
+      </c>
+      <c r="F140" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G140" s="8" t="n">
+        <f aca="false">G135+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="H140" s="9" t="n">
+        <f aca="false">G140*I140</f>
+        <v>0.00585</v>
+      </c>
+      <c r="I140" s="19" t="n">
+        <f aca="false">I135</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B141" s="21" t="n">
+        <f aca="false">B136+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="C141" s="21" t="n">
+        <f aca="false">B141*D141</f>
+        <v>0.009</v>
+      </c>
+      <c r="D141" s="22" t="n">
+        <f aca="false">D136</f>
+        <v>2</v>
+      </c>
+      <c r="F141" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" s="21" t="n">
+        <f aca="false">G136+0.0005</f>
+        <v>0.0045</v>
+      </c>
+      <c r="H141" s="21" t="n">
+        <f aca="false">G141*I141</f>
+        <v>0.009</v>
+      </c>
+      <c r="I141" s="22" t="n">
+        <f aca="false">I136</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B142" s="3" t="n">
+        <f aca="false">B137+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <f aca="false">B142*D142</f>
+        <v>0.0055</v>
+      </c>
+      <c r="D142" s="11" t="n">
+        <f aca="false">D137</f>
+        <v>1.1</v>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <f aca="false">G137+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="H142" s="3" t="n">
+        <f aca="false">G142*I142</f>
+        <v>0.0055</v>
+      </c>
+      <c r="I142" s="11" t="n">
+        <f aca="false">I137</f>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <f aca="false">B138+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="C143" s="16" t="n">
+        <f aca="false">B143*D143</f>
+        <v>0.006</v>
+      </c>
+      <c r="D143" s="17" t="n">
+        <f aca="false">D138</f>
+        <v>1.2</v>
+      </c>
+      <c r="F143" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <f aca="false">G138+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="H143" s="16" t="n">
+        <f aca="false">G143*I143</f>
+        <v>0.006</v>
+      </c>
+      <c r="I143" s="17" t="n">
+        <f aca="false">I138</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <f aca="false">B139+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="C144" s="16" t="n">
+        <f aca="false">B144*D144</f>
+        <v>0.0075</v>
+      </c>
+      <c r="D144" s="17" t="n">
+        <f aca="false">D139</f>
+        <v>1.5</v>
+      </c>
+      <c r="F144" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <f aca="false">G139+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="H144" s="16" t="n">
+        <f aca="false">G144*I144</f>
+        <v>0.0075</v>
+      </c>
+      <c r="I144" s="17" t="n">
+        <f aca="false">I139</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <f aca="false">B140+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="C145" s="16" t="n">
+        <f aca="false">B145*D145</f>
+        <v>0.009</v>
+      </c>
+      <c r="D145" s="17" t="n">
+        <f aca="false">D140</f>
+        <v>1.8</v>
+      </c>
+      <c r="F145" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="G145" s="8" t="n">
+        <f aca="false">G140+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="H145" s="9" t="n">
+        <f aca="false">G145*I145</f>
+        <v>0.0065</v>
+      </c>
+      <c r="I145" s="19" t="n">
+        <f aca="false">I140</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="B146" s="21" t="n">
+        <f aca="false">B141+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="C146" s="21" t="n">
+        <f aca="false">B146*D146</f>
+        <v>0.01</v>
+      </c>
+      <c r="D146" s="22" t="n">
+        <f aca="false">D141</f>
+        <v>2</v>
+      </c>
+      <c r="F146" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" s="21" t="n">
+        <f aca="false">G141+0.0005</f>
+        <v>0.005</v>
+      </c>
+      <c r="H146" s="21" t="n">
+        <f aca="false">G146*I146</f>
+        <v>0.01</v>
+      </c>
+      <c r="I146" s="22" t="n">
+        <f aca="false">I141</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B147" s="3" t="n">
+        <f aca="false">B142+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="C147" s="3" t="n">
+        <f aca="false">B147*D147</f>
+        <v>0.00605</v>
+      </c>
+      <c r="D147" s="11" t="n">
+        <f aca="false">D142</f>
+        <v>1.1</v>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" s="3" t="n">
+        <f aca="false">G142+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="H147" s="3" t="n">
+        <f aca="false">G147*I147</f>
+        <v>0.00605</v>
+      </c>
+      <c r="I147" s="11" t="n">
+        <f aca="false">I142</f>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <f aca="false">B143+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="C148" s="26" t="n">
+        <f aca="false">B148*D148</f>
+        <v>0.0066</v>
+      </c>
+      <c r="D148" s="17" t="n">
+        <f aca="false">D143</f>
+        <v>1.2</v>
+      </c>
+      <c r="F148" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <f aca="false">G143+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="H148" s="26" t="n">
+        <f aca="false">G148*I148</f>
+        <v>0.0066</v>
+      </c>
+      <c r="I148" s="17" t="n">
+        <f aca="false">I143</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <f aca="false">B144+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="C149" s="16" t="n">
+        <f aca="false">B149*D149</f>
+        <v>0.00825</v>
+      </c>
+      <c r="D149" s="17" t="n">
+        <f aca="false">D144</f>
+        <v>1.5</v>
+      </c>
+      <c r="F149" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <f aca="false">G144+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="H149" s="16" t="n">
+        <f aca="false">G149*I149</f>
+        <v>0.00825</v>
+      </c>
+      <c r="I149" s="17" t="n">
+        <f aca="false">I144</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <f aca="false">B145+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="C150" s="16" t="n">
+        <f aca="false">B150*D150</f>
+        <v>0.0099</v>
+      </c>
+      <c r="D150" s="17" t="n">
+        <f aca="false">D145</f>
+        <v>1.8</v>
+      </c>
+      <c r="F150" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="G150" s="8" t="n">
+        <f aca="false">G145+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="H150" s="9" t="n">
+        <f aca="false">G150*I150</f>
+        <v>0.00715</v>
+      </c>
+      <c r="I150" s="19" t="n">
+        <f aca="false">I145</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B151" s="21" t="n">
+        <f aca="false">B146+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="C151" s="21" t="n">
+        <f aca="false">B151*D151</f>
+        <v>0.011</v>
+      </c>
+      <c r="D151" s="22" t="n">
+        <f aca="false">D146</f>
+        <v>2</v>
+      </c>
+      <c r="F151" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G151" s="21" t="n">
+        <f aca="false">G146+0.0005</f>
+        <v>0.0055</v>
+      </c>
+      <c r="H151" s="21" t="n">
+        <f aca="false">G151*I151</f>
+        <v>0.011</v>
+      </c>
+      <c r="I151" s="22" t="n">
+        <f aca="false">I146</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B152" s="3" t="n">
+        <f aca="false">B147+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="C152" s="3" t="n">
+        <f aca="false">B152*D152</f>
+        <v>0.0066</v>
+      </c>
+      <c r="D152" s="11" t="n">
+        <f aca="false">D147</f>
+        <v>1.1</v>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="G152" s="3" t="n">
+        <f aca="false">G147+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="H152" s="3" t="n">
+        <f aca="false">G152*I152</f>
+        <v>0.0066</v>
+      </c>
+      <c r="I152" s="11" t="n">
+        <f aca="false">I147</f>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <f aca="false">B148+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="C153" s="16" t="n">
+        <f aca="false">B153*D153</f>
+        <v>0.0072</v>
+      </c>
+      <c r="D153" s="17" t="n">
+        <f aca="false">D148</f>
+        <v>1.2</v>
+      </c>
+      <c r="F153" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <f aca="false">G148+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="H153" s="16" t="n">
+        <f aca="false">G153*I153</f>
+        <v>0.0072</v>
+      </c>
+      <c r="I153" s="17" t="n">
+        <f aca="false">I148</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <f aca="false">B149+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="C154" s="16" t="n">
+        <f aca="false">B154*D154</f>
+        <v>0.009</v>
+      </c>
+      <c r="D154" s="17" t="n">
+        <f aca="false">D149</f>
+        <v>1.5</v>
+      </c>
+      <c r="F154" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <f aca="false">G149+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="H154" s="16" t="n">
+        <f aca="false">G154*I154</f>
+        <v>0.009</v>
+      </c>
+      <c r="I154" s="17" t="n">
+        <f aca="false">I149</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <f aca="false">B150+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="C155" s="16" t="n">
+        <f aca="false">B155*D155</f>
+        <v>0.0108</v>
+      </c>
+      <c r="D155" s="17" t="n">
+        <f aca="false">D150</f>
+        <v>1.8</v>
+      </c>
+      <c r="F155" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G155" s="8" t="n">
+        <f aca="false">G150+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="H155" s="9" t="n">
+        <f aca="false">G155*I155</f>
+        <v>0.0078</v>
+      </c>
+      <c r="I155" s="19" t="n">
+        <f aca="false">I150</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="B156" s="21" t="n">
+        <f aca="false">B151+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="C156" s="21" t="n">
+        <f aca="false">B156*D156</f>
+        <v>0.012</v>
+      </c>
+      <c r="D156" s="22" t="n">
+        <f aca="false">D151</f>
+        <v>2</v>
+      </c>
+      <c r="F156" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G156" s="21" t="n">
+        <f aca="false">G151+0.0005</f>
+        <v>0.006</v>
+      </c>
+      <c r="H156" s="21" t="n">
+        <f aca="false">G156*I156</f>
+        <v>0.012</v>
+      </c>
+      <c r="I156" s="22" t="n">
+        <f aca="false">I151</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4346,8 +5164,8 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="10"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="26" t="s">
-        <v>20</v>
+      <c r="E1" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4361,1035 +5179,1035 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="27" t="s">
-        <v>21</v>
+      <c r="C2" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="27" t="s">
-        <v>23</v>
+      <c r="C3" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F3" s="29" t="n">
         <v>0.01</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>25</v>
+      <c r="G3" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L3" s="29" t="n">
         <v>0.008</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>26</v>
+      <c r="M3" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="O3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="E4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="30" t="s">
+      <c r="L4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="32" t="s">
-        <v>30</v>
+      <c r="O4" s="33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="15"/>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="32" t="n">
         <f aca="false">1-E5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="34" t="n">
         <f aca="false">$F$3/(E5+F5/100)</f>
         <v>0.0105207785376118</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="34" t="n">
         <f aca="false">G5/100</f>
         <v>0.000105207785376118</v>
       </c>
-      <c r="I5" s="31" t="n">
+      <c r="I5" s="32" t="n">
         <f aca="false">E5*G5+F5*H5</f>
         <v>0.01</v>
       </c>
-      <c r="K5" s="31" t="n">
+      <c r="K5" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="L5" s="31" t="n">
+      <c r="L5" s="32" t="n">
         <f aca="false">1-K5</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M5" s="33" t="n">
+      <c r="M5" s="34" t="n">
         <f aca="false">$L$3/(K5+L5/100)</f>
         <v>0.00841662283008943</v>
       </c>
-      <c r="N5" s="33" t="n">
+      <c r="N5" s="34" t="n">
         <f aca="false">M5/100</f>
         <v>8.41662283008943E-005</v>
       </c>
-      <c r="O5" s="32" t="n">
+      <c r="O5" s="33" t="n">
         <f aca="false">K5*M5+L5*N5</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="15"/>
-      <c r="E6" s="31" t="n">
+      <c r="E6" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="32" t="n">
         <f aca="false">1-E6</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="34" t="n">
         <f aca="false">$F$3/(E6+F6/100)</f>
         <v>0.0110987791342952</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="34" t="n">
         <f aca="false">G6/100</f>
         <v>0.000110987791342952</v>
       </c>
-      <c r="I6" s="31" t="n">
+      <c r="I6" s="32" t="n">
         <f aca="false">E6*G6+F6*H6</f>
         <v>0.01</v>
       </c>
-      <c r="K6" s="31" t="n">
+      <c r="K6" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="L6" s="31" t="n">
+      <c r="L6" s="32" t="n">
         <f aca="false">1-K6</f>
         <v>0.1</v>
       </c>
-      <c r="M6" s="33" t="n">
+      <c r="M6" s="34" t="n">
         <f aca="false">$L$3/(K6+L6/100)</f>
         <v>0.00887902330743618</v>
       </c>
-      <c r="N6" s="33" t="n">
+      <c r="N6" s="34" t="n">
         <f aca="false">M6/100</f>
         <v>8.87902330743618E-005</v>
       </c>
-      <c r="O6" s="32" t="n">
+      <c r="O6" s="33" t="n">
         <f aca="false">K6*M6+L6*N6</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="15"/>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="32" t="n">
         <f aca="false">1-E7</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="34" t="n">
         <f aca="false">$F$3/(E7+F7/100)</f>
         <v>0.0124688279301746</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="34" t="n">
         <f aca="false">G7/100</f>
         <v>0.000124688279301746</v>
       </c>
-      <c r="I7" s="31" t="n">
+      <c r="I7" s="32" t="n">
         <f aca="false">E7*G7+F7*H7</f>
         <v>0.01</v>
       </c>
-      <c r="K7" s="31" t="n">
+      <c r="K7" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="L7" s="31" t="n">
+      <c r="L7" s="32" t="n">
         <f aca="false">1-K7</f>
         <v>0.2</v>
       </c>
-      <c r="M7" s="33" t="n">
+      <c r="M7" s="34" t="n">
         <f aca="false">$L$3/(K7+L7/100)</f>
         <v>0.00997506234413965</v>
       </c>
-      <c r="N7" s="33" t="n">
+      <c r="N7" s="34" t="n">
         <f aca="false">M7/100</f>
         <v>9.97506234413965E-005</v>
       </c>
-      <c r="O7" s="32" t="n">
+      <c r="O7" s="33" t="n">
         <f aca="false">K7*M7+L7*N7</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="15"/>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="F8" s="31" t="n">
+      <c r="F8" s="32" t="n">
         <f aca="false">1-E8</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="34" t="n">
         <f aca="false">$F$3/(E8+F8/100)</f>
         <v>0.0142247510668563</v>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="34" t="n">
         <f aca="false">G8/100</f>
         <v>0.000142247510668563</v>
       </c>
-      <c r="I8" s="31" t="n">
+      <c r="I8" s="32" t="n">
         <f aca="false">E8*G8+F8*H8</f>
         <v>0.01</v>
       </c>
-      <c r="K8" s="31" t="n">
+      <c r="K8" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="L8" s="31" t="n">
+      <c r="L8" s="32" t="n">
         <f aca="false">1-K8</f>
         <v>0.3</v>
       </c>
-      <c r="M8" s="33" t="n">
+      <c r="M8" s="34" t="n">
         <f aca="false">$L$3/(K8+L8/100)</f>
         <v>0.0113798008534851</v>
       </c>
-      <c r="N8" s="33" t="n">
+      <c r="N8" s="34" t="n">
         <f aca="false">M8/100</f>
         <v>0.000113798008534851</v>
       </c>
-      <c r="O8" s="32" t="n">
+      <c r="O8" s="33" t="n">
         <f aca="false">K8*M8+L8*N8</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="15"/>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="32" t="n">
         <f aca="false">1-E9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="34" t="n">
         <f aca="false">$F$3/(E9+F9/100)</f>
         <v>0.0165562913907285</v>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="H9" s="34" t="n">
         <f aca="false">G9/100</f>
         <v>0.000165562913907285</v>
       </c>
-      <c r="I9" s="31" t="n">
+      <c r="I9" s="32" t="n">
         <f aca="false">E9*G9+F9*H9</f>
         <v>0.01</v>
       </c>
-      <c r="K9" s="31" t="n">
+      <c r="K9" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="L9" s="31" t="n">
+      <c r="L9" s="32" t="n">
         <f aca="false">1-K9</f>
         <v>0.4</v>
       </c>
-      <c r="M9" s="33" t="n">
+      <c r="M9" s="34" t="n">
         <f aca="false">$L$3/(K9+L9/100)</f>
         <v>0.0132450331125828</v>
       </c>
-      <c r="N9" s="33" t="n">
+      <c r="N9" s="34" t="n">
         <f aca="false">M9/100</f>
         <v>0.000132450331125828</v>
       </c>
-      <c r="O9" s="32" t="n">
+      <c r="O9" s="33" t="n">
         <f aca="false">K9*M9+L9*N9</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="15"/>
-      <c r="E10" s="31" t="n">
+      <c r="E10" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="31" t="n">
+      <c r="F10" s="32" t="n">
         <f aca="false">1-E10</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="34" t="n">
         <f aca="false">$F$3/(E10+F10/100)</f>
         <v>0.0198019801980198</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="34" t="n">
         <f aca="false">G10/100</f>
         <v>0.000198019801980198</v>
       </c>
-      <c r="I10" s="31" t="n">
+      <c r="I10" s="32" t="n">
         <f aca="false">E10*G10+F10*H10</f>
         <v>0.01</v>
       </c>
-      <c r="K10" s="31" t="n">
+      <c r="K10" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L10" s="31" t="n">
+      <c r="L10" s="32" t="n">
         <f aca="false">1-K10</f>
         <v>0.5</v>
       </c>
-      <c r="M10" s="33" t="n">
+      <c r="M10" s="34" t="n">
         <f aca="false">$L$3/(K10+L10/100)</f>
         <v>0.0158415841584158</v>
       </c>
-      <c r="N10" s="33" t="n">
+      <c r="N10" s="34" t="n">
         <f aca="false">M10/100</f>
         <v>0.000158415841584158</v>
       </c>
-      <c r="O10" s="32" t="n">
+      <c r="O10" s="33" t="n">
         <f aca="false">K10*M10+L10*N10</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="15"/>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="31" t="n">
+      <c r="F11" s="32" t="n">
         <f aca="false">1-E11</f>
         <v>0.6</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="34" t="n">
         <f aca="false">$F$3/(E11+F11/100)</f>
         <v>0.0246305418719212</v>
       </c>
-      <c r="H11" s="33" t="n">
+      <c r="H11" s="34" t="n">
         <f aca="false">G11/100</f>
         <v>0.000246305418719212</v>
       </c>
-      <c r="I11" s="31" t="n">
+      <c r="I11" s="32" t="n">
         <f aca="false">E11*G11+F11*H11</f>
         <v>0.01</v>
       </c>
-      <c r="K11" s="31" t="n">
+      <c r="K11" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="L11" s="31" t="n">
+      <c r="L11" s="32" t="n">
         <f aca="false">1-K11</f>
         <v>0.6</v>
       </c>
-      <c r="M11" s="33" t="n">
+      <c r="M11" s="34" t="n">
         <f aca="false">$L$3/(K11+L11/100)</f>
         <v>0.0197044334975369</v>
       </c>
-      <c r="N11" s="33" t="n">
+      <c r="N11" s="34" t="n">
         <f aca="false">M11/100</f>
         <v>0.000197044334975369</v>
       </c>
-      <c r="O11" s="32" t="n">
+      <c r="O11" s="33" t="n">
         <f aca="false">K11*M11+L11*N11</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="15"/>
-      <c r="E12" s="31" t="n">
+      <c r="E12" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="F12" s="31" t="n">
+      <c r="F12" s="32" t="n">
         <f aca="false">1-E12</f>
         <v>0.7</v>
       </c>
-      <c r="G12" s="33" t="n">
+      <c r="G12" s="34" t="n">
         <f aca="false">$F$3/(E12+F12/100)</f>
         <v>0.0325732899022801</v>
       </c>
-      <c r="H12" s="33" t="n">
+      <c r="H12" s="34" t="n">
         <f aca="false">G12/100</f>
         <v>0.000325732899022801</v>
       </c>
-      <c r="I12" s="31" t="n">
+      <c r="I12" s="32" t="n">
         <f aca="false">E12*G12+F12*H12</f>
         <v>0.01</v>
       </c>
-      <c r="K12" s="31" t="n">
+      <c r="K12" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="L12" s="31" t="n">
+      <c r="L12" s="32" t="n">
         <f aca="false">1-K12</f>
         <v>0.7</v>
       </c>
-      <c r="M12" s="33" t="n">
+      <c r="M12" s="34" t="n">
         <f aca="false">$L$3/(K12+L12/100)</f>
         <v>0.0260586319218241</v>
       </c>
-      <c r="N12" s="33" t="n">
+      <c r="N12" s="34" t="n">
         <f aca="false">M12/100</f>
         <v>0.000260586319218241</v>
       </c>
-      <c r="O12" s="32" t="n">
+      <c r="O12" s="33" t="n">
         <f aca="false">K12*M12+L12*N12</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="15"/>
-      <c r="E13" s="31" t="n">
+      <c r="E13" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="31" t="n">
+      <c r="F13" s="32" t="n">
         <f aca="false">1-E13</f>
         <v>0.8</v>
       </c>
-      <c r="G13" s="33" t="n">
+      <c r="G13" s="34" t="n">
         <f aca="false">$F$3/(E13+F13/100)</f>
         <v>0.0480769230769231</v>
       </c>
-      <c r="H13" s="33" t="n">
+      <c r="H13" s="34" t="n">
         <f aca="false">G13/100</f>
         <v>0.000480769230769231</v>
       </c>
-      <c r="I13" s="31" t="n">
+      <c r="I13" s="32" t="n">
         <f aca="false">E13*G13+F13*H13</f>
         <v>0.01</v>
       </c>
-      <c r="K13" s="31" t="n">
+      <c r="K13" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="L13" s="31" t="n">
+      <c r="L13" s="32" t="n">
         <f aca="false">1-K13</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="33" t="n">
+      <c r="M13" s="34" t="n">
         <f aca="false">$L$3/(K13+L13/100)</f>
         <v>0.0384615384615385</v>
       </c>
-      <c r="N13" s="33" t="n">
+      <c r="N13" s="34" t="n">
         <f aca="false">M13/100</f>
         <v>0.000384615384615385</v>
       </c>
-      <c r="O13" s="32" t="n">
+      <c r="O13" s="33" t="n">
         <f aca="false">K13*M13+L13*N13</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="15"/>
-      <c r="E14" s="31" t="n">
+      <c r="E14" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="31" t="n">
+      <c r="F14" s="32" t="n">
         <f aca="false">1-E14</f>
         <v>0.9</v>
       </c>
-      <c r="G14" s="33" t="n">
+      <c r="G14" s="34" t="n">
         <f aca="false">$F$3/(E14+F14/100)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H14" s="33" t="n">
+      <c r="H14" s="34" t="n">
         <f aca="false">G14/100</f>
         <v>0.00091743119266055</v>
       </c>
-      <c r="I14" s="31" t="n">
+      <c r="I14" s="32" t="n">
         <f aca="false">E14*G14+F14*H14</f>
         <v>0.01</v>
       </c>
-      <c r="K14" s="31" t="n">
+      <c r="K14" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="L14" s="31" t="n">
+      <c r="L14" s="32" t="n">
         <f aca="false">1-K14</f>
         <v>0.9</v>
       </c>
-      <c r="M14" s="33" t="n">
+      <c r="M14" s="34" t="n">
         <f aca="false">$L$3/(K14+L14/100)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N14" s="33" t="n">
+      <c r="N14" s="34" t="n">
         <f aca="false">M14/100</f>
         <v>0.00073394495412844</v>
       </c>
-      <c r="O14" s="32" t="n">
+      <c r="O14" s="33" t="n">
         <f aca="false">K14*M14+L14*N14</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="15"/>
-      <c r="E15" s="31" t="n">
+      <c r="E15" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="F15" s="31" t="n">
+      <c r="F15" s="32" t="n">
         <f aca="false">1-E15</f>
         <v>0.99</v>
       </c>
-      <c r="G15" s="33" t="n">
+      <c r="G15" s="34" t="n">
         <f aca="false">$F$3/(E15+F15/100)</f>
         <v>0.50251256281407</v>
       </c>
-      <c r="H15" s="33" t="n">
+      <c r="H15" s="34" t="n">
         <f aca="false">G15/100</f>
         <v>0.0050251256281407</v>
       </c>
-      <c r="I15" s="31" t="n">
+      <c r="I15" s="32" t="n">
         <f aca="false">E15*G15+F15*H15</f>
         <v>0.01</v>
       </c>
-      <c r="K15" s="31" t="n">
+      <c r="K15" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="L15" s="31" t="n">
+      <c r="L15" s="32" t="n">
         <f aca="false">1-K15</f>
         <v>0.99</v>
       </c>
-      <c r="M15" s="33" t="n">
+      <c r="M15" s="34" t="n">
         <f aca="false">$L$3/(K15+L15/100)</f>
         <v>0.402010050251256</v>
       </c>
-      <c r="N15" s="33" t="n">
+      <c r="N15" s="34" t="n">
         <f aca="false">M15/100</f>
         <v>0.00402010050251256</v>
       </c>
-      <c r="O15" s="32" t="n">
+      <c r="O15" s="33" t="n">
         <f aca="false">K15*M15+L15*N15</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="15"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="32"/>
       <c r="O16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="15"/>
       <c r="E17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F17" s="29" t="n">
         <v>0.005</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>31</v>
+      <c r="G17" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L17" s="29" t="n">
         <v>0.002</v>
       </c>
-      <c r="M17" s="29" t="s">
-        <v>32</v>
+      <c r="M17" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="O17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="15"/>
-      <c r="E18" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="E18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="30" t="s">
+      <c r="L18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="32" t="s">
-        <v>30</v>
+      <c r="O18" s="33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="15"/>
-      <c r="E19" s="31" t="n">
+      <c r="E19" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="F19" s="31" t="n">
+      <c r="F19" s="32" t="n">
         <f aca="false">1-E19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G19" s="33" t="n">
+      <c r="G19" s="34" t="n">
         <f aca="false">$F$17/(E19+F19/100)</f>
         <v>0.00526038926880589</v>
       </c>
-      <c r="H19" s="33" t="n">
+      <c r="H19" s="34" t="n">
         <f aca="false">G19/100</f>
         <v>5.26038926880589E-005</v>
       </c>
-      <c r="I19" s="31" t="n">
+      <c r="I19" s="32" t="n">
         <f aca="false">E19*G19+F19*H19</f>
         <v>0.005</v>
       </c>
-      <c r="K19" s="31" t="n">
+      <c r="K19" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="L19" s="31" t="n">
+      <c r="L19" s="32" t="n">
         <f aca="false">1-K19</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M19" s="33" t="n">
+      <c r="M19" s="34" t="n">
         <f aca="false">$L$17/(K19+L19/100)</f>
         <v>0.00210415570752236</v>
       </c>
-      <c r="N19" s="33" t="n">
+      <c r="N19" s="34" t="n">
         <f aca="false">M19/100</f>
         <v>2.10415570752236E-005</v>
       </c>
-      <c r="O19" s="32" t="n">
+      <c r="O19" s="33" t="n">
         <f aca="false">K19*M19+L19*N19</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="15"/>
-      <c r="E20" s="31" t="n">
+      <c r="E20" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="F20" s="31" t="n">
+      <c r="F20" s="32" t="n">
         <f aca="false">1-E20</f>
         <v>0.1</v>
       </c>
-      <c r="G20" s="33" t="n">
+      <c r="G20" s="34" t="n">
         <f aca="false">$F$17/(E20+F20/100)</f>
         <v>0.00554938956714761</v>
       </c>
-      <c r="H20" s="33" t="n">
+      <c r="H20" s="34" t="n">
         <f aca="false">G20/100</f>
         <v>5.54938956714761E-005</v>
       </c>
-      <c r="I20" s="31" t="n">
+      <c r="I20" s="32" t="n">
         <f aca="false">E20*G20+F20*H20</f>
         <v>0.005</v>
       </c>
-      <c r="K20" s="31" t="n">
+      <c r="K20" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="L20" s="31" t="n">
+      <c r="L20" s="32" t="n">
         <f aca="false">1-K20</f>
         <v>0.1</v>
       </c>
-      <c r="M20" s="33" t="n">
+      <c r="M20" s="34" t="n">
         <f aca="false">$L$17/(K20+L20/100)</f>
         <v>0.00221975582685905</v>
       </c>
-      <c r="N20" s="33" t="n">
+      <c r="N20" s="34" t="n">
         <f aca="false">M20/100</f>
         <v>2.21975582685905E-005</v>
       </c>
-      <c r="O20" s="32" t="n">
+      <c r="O20" s="33" t="n">
         <f aca="false">K20*M20+L20*N20</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="15"/>
-      <c r="E21" s="31" t="n">
+      <c r="E21" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="F21" s="31" t="n">
+      <c r="F21" s="32" t="n">
         <f aca="false">1-E21</f>
         <v>0.2</v>
       </c>
-      <c r="G21" s="33" t="n">
+      <c r="G21" s="34" t="n">
         <f aca="false">$F$17/(E21+F21/100)</f>
         <v>0.00623441396508728</v>
       </c>
-      <c r="H21" s="33" t="n">
+      <c r="H21" s="34" t="n">
         <f aca="false">G21/100</f>
         <v>6.23441396508728E-005</v>
       </c>
-      <c r="I21" s="31" t="n">
+      <c r="I21" s="32" t="n">
         <f aca="false">E21*G21+F21*H21</f>
         <v>0.005</v>
       </c>
-      <c r="K21" s="31" t="n">
+      <c r="K21" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="L21" s="31" t="n">
+      <c r="L21" s="32" t="n">
         <f aca="false">1-K21</f>
         <v>0.2</v>
       </c>
-      <c r="M21" s="33" t="n">
+      <c r="M21" s="34" t="n">
         <f aca="false">$L$17/(K21+L21/100)</f>
         <v>0.00249376558603491</v>
       </c>
-      <c r="N21" s="33" t="n">
+      <c r="N21" s="34" t="n">
         <f aca="false">M21/100</f>
         <v>2.49376558603491E-005</v>
       </c>
-      <c r="O21" s="32" t="n">
+      <c r="O21" s="33" t="n">
         <f aca="false">K21*M21+L21*N21</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="15"/>
-      <c r="E22" s="31" t="n">
+      <c r="E22" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="F22" s="31" t="n">
+      <c r="F22" s="32" t="n">
         <f aca="false">1-E22</f>
         <v>0.3</v>
       </c>
-      <c r="G22" s="33" t="n">
+      <c r="G22" s="34" t="n">
         <f aca="false">$F$17/(E22+F22/100)</f>
         <v>0.00711237553342816</v>
       </c>
-      <c r="H22" s="33" t="n">
+      <c r="H22" s="34" t="n">
         <f aca="false">G22/100</f>
         <v>7.11237553342816E-005</v>
       </c>
-      <c r="I22" s="31" t="n">
+      <c r="I22" s="32" t="n">
         <f aca="false">E22*G22+F22*H22</f>
         <v>0.005</v>
       </c>
-      <c r="K22" s="31" t="n">
+      <c r="K22" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="L22" s="31" t="n">
+      <c r="L22" s="32" t="n">
         <f aca="false">1-K22</f>
         <v>0.3</v>
       </c>
-      <c r="M22" s="33" t="n">
+      <c r="M22" s="34" t="n">
         <f aca="false">$L$17/(K22+L22/100)</f>
         <v>0.00284495021337127</v>
       </c>
-      <c r="N22" s="33" t="n">
+      <c r="N22" s="34" t="n">
         <f aca="false">M22/100</f>
         <v>2.84495021337127E-005</v>
       </c>
-      <c r="O22" s="32" t="n">
+      <c r="O22" s="33" t="n">
         <f aca="false">K22*M22+L22*N22</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="15"/>
-      <c r="E23" s="31" t="n">
+      <c r="E23" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="F23" s="31" t="n">
+      <c r="F23" s="32" t="n">
         <f aca="false">1-E23</f>
         <v>0.4</v>
       </c>
-      <c r="G23" s="33" t="n">
+      <c r="G23" s="34" t="n">
         <f aca="false">$F$17/(E23+F23/100)</f>
         <v>0.00827814569536424</v>
       </c>
-      <c r="H23" s="33" t="n">
+      <c r="H23" s="34" t="n">
         <f aca="false">G23/100</f>
         <v>8.27814569536424E-005</v>
       </c>
-      <c r="I23" s="31" t="n">
+      <c r="I23" s="32" t="n">
         <f aca="false">E23*G23+F23*H23</f>
         <v>0.005</v>
       </c>
-      <c r="K23" s="31" t="n">
+      <c r="K23" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="L23" s="31" t="n">
+      <c r="L23" s="32" t="n">
         <f aca="false">1-K23</f>
         <v>0.4</v>
       </c>
-      <c r="M23" s="33" t="n">
+      <c r="M23" s="34" t="n">
         <f aca="false">$L$17/(K23+L23/100)</f>
         <v>0.00331125827814569</v>
       </c>
-      <c r="N23" s="33" t="n">
+      <c r="N23" s="34" t="n">
         <f aca="false">M23/100</f>
         <v>3.31125827814569E-005</v>
       </c>
-      <c r="O23" s="32" t="n">
+      <c r="O23" s="33" t="n">
         <f aca="false">K23*M23+L23*N23</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="15"/>
-      <c r="E24" s="31" t="n">
+      <c r="E24" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F24" s="31" t="n">
+      <c r="F24" s="32" t="n">
         <f aca="false">1-E24</f>
         <v>0.5</v>
       </c>
-      <c r="G24" s="33" t="n">
+      <c r="G24" s="34" t="n">
         <f aca="false">$F$17/(E24+F24/100)</f>
         <v>0.0099009900990099</v>
       </c>
-      <c r="H24" s="33" t="n">
+      <c r="H24" s="34" t="n">
         <f aca="false">G24/100</f>
         <v>9.9009900990099E-005</v>
       </c>
-      <c r="I24" s="31" t="n">
+      <c r="I24" s="32" t="n">
         <f aca="false">E24*G24+F24*H24</f>
         <v>0.005</v>
       </c>
-      <c r="K24" s="31" t="n">
+      <c r="K24" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L24" s="31" t="n">
+      <c r="L24" s="32" t="n">
         <f aca="false">1-K24</f>
         <v>0.5</v>
       </c>
-      <c r="M24" s="33" t="n">
+      <c r="M24" s="34" t="n">
         <f aca="false">$L$17/(K24+L24/100)</f>
         <v>0.00396039603960396</v>
       </c>
-      <c r="N24" s="33" t="n">
+      <c r="N24" s="34" t="n">
         <f aca="false">M24/100</f>
         <v>3.96039603960396E-005</v>
       </c>
-      <c r="O24" s="32" t="n">
+      <c r="O24" s="33" t="n">
         <f aca="false">K24*M24+L24*N24</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="15"/>
-      <c r="E25" s="31" t="n">
+      <c r="E25" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F25" s="31" t="n">
+      <c r="F25" s="32" t="n">
         <f aca="false">1-E25</f>
         <v>0.6</v>
       </c>
-      <c r="G25" s="33" t="n">
+      <c r="G25" s="34" t="n">
         <f aca="false">$F$17/(E25+F25/100)</f>
         <v>0.0123152709359606</v>
       </c>
-      <c r="H25" s="33" t="n">
+      <c r="H25" s="34" t="n">
         <f aca="false">G25/100</f>
         <v>0.000123152709359606</v>
       </c>
-      <c r="I25" s="31" t="n">
+      <c r="I25" s="32" t="n">
         <f aca="false">E25*G25+F25*H25</f>
         <v>0.005</v>
       </c>
-      <c r="K25" s="31" t="n">
+      <c r="K25" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="L25" s="31" t="n">
+      <c r="L25" s="32" t="n">
         <f aca="false">1-K25</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="33" t="n">
+      <c r="M25" s="34" t="n">
         <f aca="false">$L$17/(K25+L25/100)</f>
         <v>0.00492610837438424</v>
       </c>
-      <c r="N25" s="33" t="n">
+      <c r="N25" s="34" t="n">
         <f aca="false">M25/100</f>
         <v>4.92610837438424E-005</v>
       </c>
-      <c r="O25" s="32" t="n">
+      <c r="O25" s="33" t="n">
         <f aca="false">K25*M25+L25*N25</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="15"/>
-      <c r="E26" s="31" t="n">
+      <c r="E26" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="F26" s="31" t="n">
+      <c r="F26" s="32" t="n">
         <f aca="false">1-E26</f>
         <v>0.7</v>
       </c>
-      <c r="G26" s="33" t="n">
+      <c r="G26" s="34" t="n">
         <f aca="false">$F$17/(E26+F26/100)</f>
         <v>0.0162866449511401</v>
       </c>
-      <c r="H26" s="33" t="n">
+      <c r="H26" s="34" t="n">
         <f aca="false">G26/100</f>
         <v>0.000162866449511401</v>
       </c>
-      <c r="I26" s="31" t="n">
+      <c r="I26" s="32" t="n">
         <f aca="false">E26*G26+F26*H26</f>
         <v>0.005</v>
       </c>
-      <c r="K26" s="31" t="n">
+      <c r="K26" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="L26" s="31" t="n">
+      <c r="L26" s="32" t="n">
         <f aca="false">1-K26</f>
         <v>0.7</v>
       </c>
-      <c r="M26" s="33" t="n">
+      <c r="M26" s="34" t="n">
         <f aca="false">$L$17/(K26+L26/100)</f>
         <v>0.00651465798045603</v>
       </c>
-      <c r="N26" s="33" t="n">
+      <c r="N26" s="34" t="n">
         <f aca="false">M26/100</f>
         <v>6.51465798045603E-005</v>
       </c>
-      <c r="O26" s="32" t="n">
+      <c r="O26" s="33" t="n">
         <f aca="false">K26*M26+L26*N26</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="15"/>
-      <c r="E27" s="31" t="n">
+      <c r="E27" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="F27" s="31" t="n">
+      <c r="F27" s="32" t="n">
         <f aca="false">1-E27</f>
         <v>0.8</v>
       </c>
-      <c r="G27" s="33" t="n">
+      <c r="G27" s="34" t="n">
         <f aca="false">$F$17/(E27+F27/100)</f>
         <v>0.0240384615384615</v>
       </c>
-      <c r="H27" s="33" t="n">
+      <c r="H27" s="34" t="n">
         <f aca="false">G27/100</f>
         <v>0.000240384615384615</v>
       </c>
-      <c r="I27" s="31" t="n">
+      <c r="I27" s="32" t="n">
         <f aca="false">E27*G27+F27*H27</f>
         <v>0.005</v>
       </c>
-      <c r="K27" s="31" t="n">
+      <c r="K27" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="L27" s="31" t="n">
+      <c r="L27" s="32" t="n">
         <f aca="false">1-K27</f>
         <v>0.8</v>
       </c>
-      <c r="M27" s="33" t="n">
+      <c r="M27" s="34" t="n">
         <f aca="false">$L$17/(K27+L27/100)</f>
         <v>0.00961538461538461</v>
       </c>
-      <c r="N27" s="33" t="n">
+      <c r="N27" s="34" t="n">
         <f aca="false">M27/100</f>
         <v>9.61538461538461E-005</v>
       </c>
-      <c r="O27" s="32" t="n">
+      <c r="O27" s="33" t="n">
         <f aca="false">K27*M27+L27*N27</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="15"/>
-      <c r="E28" s="31" t="n">
+      <c r="E28" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="F28" s="31" t="n">
+      <c r="F28" s="32" t="n">
         <f aca="false">1-E28</f>
         <v>0.9</v>
       </c>
-      <c r="G28" s="33" t="n">
+      <c r="G28" s="34" t="n">
         <f aca="false">$F$17/(E28+F28/100)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H28" s="33" t="n">
+      <c r="H28" s="34" t="n">
         <f aca="false">G28/100</f>
         <v>0.000458715596330275</v>
       </c>
-      <c r="I28" s="31" t="n">
+      <c r="I28" s="32" t="n">
         <f aca="false">E28*G28+F28*H28</f>
         <v>0.005</v>
       </c>
-      <c r="K28" s="31" t="n">
+      <c r="K28" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="L28" s="31" t="n">
+      <c r="L28" s="32" t="n">
         <f aca="false">1-K28</f>
         <v>0.9</v>
       </c>
-      <c r="M28" s="33" t="n">
+      <c r="M28" s="34" t="n">
         <f aca="false">$L$17/(K28+L28/100)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N28" s="33" t="n">
+      <c r="N28" s="34" t="n">
         <f aca="false">M28/100</f>
         <v>0.00018348623853211</v>
       </c>
-      <c r="O28" s="32" t="n">
+      <c r="O28" s="33" t="n">
         <f aca="false">K28*M28+L28*N28</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="15"/>
-      <c r="E29" s="31" t="n">
+      <c r="E29" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="31" t="n">
+      <c r="F29" s="32" t="n">
         <f aca="false">1-E29</f>
         <v>0.99</v>
       </c>
-      <c r="G29" s="33" t="n">
+      <c r="G29" s="34" t="n">
         <f aca="false">$F$17/(E29+F29/100)</f>
         <v>0.251256281407035</v>
       </c>
-      <c r="H29" s="33" t="n">
+      <c r="H29" s="34" t="n">
         <f aca="false">G29/100</f>
         <v>0.00251256281407035</v>
       </c>
-      <c r="I29" s="31" t="n">
+      <c r="I29" s="32" t="n">
         <f aca="false">E29*G29+F29*H29</f>
         <v>0.005</v>
       </c>
-      <c r="K29" s="31" t="n">
+      <c r="K29" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="L29" s="31" t="n">
+      <c r="L29" s="32" t="n">
         <f aca="false">1-K29</f>
         <v>0.99</v>
       </c>
-      <c r="M29" s="33" t="n">
+      <c r="M29" s="34" t="n">
         <f aca="false">$L$17/(K29+L29/100)</f>
         <v>0.100502512562814</v>
       </c>
-      <c r="N29" s="33" t="n">
+      <c r="N29" s="34" t="n">
         <f aca="false">M29/100</f>
         <v>0.00100502512562814</v>
       </c>
-      <c r="O29" s="32" t="n">
+      <c r="O29" s="33" t="n">
         <f aca="false">K29*M29+L29*N29</f>
         <v>0.002</v>
       </c>
@@ -5412,8 +6230,8 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="10"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="26" t="s">
-        <v>20</v>
+      <c r="E32" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -5427,1041 +6245,1041 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="27" t="s">
-        <v>21</v>
+      <c r="C33" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="27" t="s">
-        <v>23</v>
+      <c r="C34" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F34" s="29" t="n">
         <v>0.01</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>25</v>
+      <c r="G34" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L34" s="29" t="n">
         <v>0.008</v>
       </c>
-      <c r="M34" s="29" t="s">
-        <v>26</v>
+      <c r="M34" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="O34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="30" t="s">
+      <c r="C35" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="30" t="s">
+      <c r="L35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="30" t="s">
+      <c r="N35" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="32" t="s">
-        <v>30</v>
+      <c r="O35" s="33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="31" t="n">
+      <c r="C36" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="F36" s="31" t="n">
+      <c r="F36" s="32" t="n">
         <f aca="false">1-E36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G36" s="33" t="n">
+      <c r="G36" s="34" t="n">
         <f aca="false">$F$3/(E36+F36/10)</f>
         <v>0.0104712041884817</v>
       </c>
-      <c r="H36" s="33" t="n">
+      <c r="H36" s="34" t="n">
         <f aca="false">G36/10</f>
         <v>0.00104712041884817</v>
       </c>
-      <c r="I36" s="31" t="n">
+      <c r="I36" s="32" t="n">
         <f aca="false">E36*G36+F36*H36</f>
         <v>0.01</v>
       </c>
-      <c r="K36" s="31" t="n">
+      <c r="K36" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="L36" s="31" t="n">
+      <c r="L36" s="32" t="n">
         <f aca="false">1-K36</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M36" s="33" t="n">
+      <c r="M36" s="34" t="n">
         <f aca="false">$L$3/(K36+L36/10)</f>
         <v>0.00837696335078534</v>
       </c>
-      <c r="N36" s="33" t="n">
+      <c r="N36" s="34" t="n">
         <f aca="false">M36/10</f>
         <v>0.000837696335078534</v>
       </c>
-      <c r="O36" s="32" t="n">
+      <c r="O36" s="33" t="n">
         <f aca="false">K36*M36+L36*N36</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="31" t="n">
+      <c r="C37" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="F37" s="31" t="n">
+      <c r="F37" s="32" t="n">
         <f aca="false">1-E37</f>
         <v>0.1</v>
       </c>
-      <c r="G37" s="33" t="n">
+      <c r="G37" s="34" t="n">
         <f aca="false">$F$3/(E37+F37/10)</f>
         <v>0.010989010989011</v>
       </c>
-      <c r="H37" s="33" t="n">
+      <c r="H37" s="34" t="n">
         <f aca="false">G37/10</f>
         <v>0.0010989010989011</v>
       </c>
-      <c r="I37" s="31" t="n">
+      <c r="I37" s="32" t="n">
         <f aca="false">E37*G37+F37*H37</f>
         <v>0.01</v>
       </c>
-      <c r="K37" s="31" t="n">
+      <c r="K37" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="L37" s="31" t="n">
+      <c r="L37" s="32" t="n">
         <f aca="false">1-K37</f>
         <v>0.1</v>
       </c>
-      <c r="M37" s="33" t="n">
+      <c r="M37" s="34" t="n">
         <f aca="false">$L$3/(K37+L37/10)</f>
         <v>0.00879120879120879</v>
       </c>
-      <c r="N37" s="33" t="n">
+      <c r="N37" s="34" t="n">
         <f aca="false">M37/10</f>
         <v>0.000879120879120879</v>
       </c>
-      <c r="O37" s="32" t="n">
+      <c r="O37" s="33" t="n">
         <f aca="false">K37*M37+L37*N37</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="31" t="n">
+      <c r="C38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="F38" s="31" t="n">
+      <c r="F38" s="32" t="n">
         <f aca="false">1-E38</f>
         <v>0.2</v>
       </c>
-      <c r="G38" s="33" t="n">
+      <c r="G38" s="34" t="n">
         <f aca="false">$F$3/(E38+F38/10)</f>
         <v>0.0121951219512195</v>
       </c>
-      <c r="H38" s="33" t="n">
+      <c r="H38" s="34" t="n">
         <f aca="false">G38/10</f>
         <v>0.00121951219512195</v>
       </c>
-      <c r="I38" s="31" t="n">
+      <c r="I38" s="32" t="n">
         <f aca="false">E38*G38+F38*H38</f>
         <v>0.01</v>
       </c>
-      <c r="K38" s="31" t="n">
+      <c r="K38" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="L38" s="31" t="n">
+      <c r="L38" s="32" t="n">
         <f aca="false">1-K38</f>
         <v>0.2</v>
       </c>
-      <c r="M38" s="33" t="n">
+      <c r="M38" s="34" t="n">
         <f aca="false">$L$3/(K38+L38/10)</f>
         <v>0.00975609756097561</v>
       </c>
-      <c r="N38" s="33" t="n">
+      <c r="N38" s="34" t="n">
         <f aca="false">M38/10</f>
         <v>0.000975609756097561</v>
       </c>
-      <c r="O38" s="32" t="n">
+      <c r="O38" s="33" t="n">
         <f aca="false">K38*M38+L38*N38</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="15"/>
-      <c r="E39" s="31" t="n">
+      <c r="E39" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="F39" s="31" t="n">
+      <c r="F39" s="32" t="n">
         <f aca="false">1-E39</f>
         <v>0.3</v>
       </c>
-      <c r="G39" s="33" t="n">
+      <c r="G39" s="34" t="n">
         <f aca="false">$F$3/(E39+F39/10)</f>
         <v>0.0136986301369863</v>
       </c>
-      <c r="H39" s="33" t="n">
+      <c r="H39" s="34" t="n">
         <f aca="false">G39/10</f>
         <v>0.00136986301369863</v>
       </c>
-      <c r="I39" s="31" t="n">
+      <c r="I39" s="32" t="n">
         <f aca="false">E39*G39+F39*H39</f>
         <v>0.01</v>
       </c>
-      <c r="K39" s="31" t="n">
+      <c r="K39" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="L39" s="31" t="n">
+      <c r="L39" s="32" t="n">
         <f aca="false">1-K39</f>
         <v>0.3</v>
       </c>
-      <c r="M39" s="33" t="n">
+      <c r="M39" s="34" t="n">
         <f aca="false">$L$3/(K39+L39/10)</f>
         <v>0.010958904109589</v>
       </c>
-      <c r="N39" s="33" t="n">
+      <c r="N39" s="34" t="n">
         <f aca="false">M39/10</f>
         <v>0.0010958904109589</v>
       </c>
-      <c r="O39" s="32" t="n">
+      <c r="O39" s="33" t="n">
         <f aca="false">K39*M39+L39*N39</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="15"/>
-      <c r="E40" s="31" t="n">
+      <c r="E40" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="F40" s="31" t="n">
+      <c r="F40" s="32" t="n">
         <f aca="false">1-E40</f>
         <v>0.4</v>
       </c>
-      <c r="G40" s="33" t="n">
+      <c r="G40" s="34" t="n">
         <f aca="false">$F$3/(E40+F40/10)</f>
         <v>0.015625</v>
       </c>
-      <c r="H40" s="33" t="n">
+      <c r="H40" s="34" t="n">
         <f aca="false">G40/10</f>
         <v>0.0015625</v>
       </c>
-      <c r="I40" s="31" t="n">
+      <c r="I40" s="32" t="n">
         <f aca="false">E40*G40+F40*H40</f>
         <v>0.01</v>
       </c>
-      <c r="K40" s="31" t="n">
+      <c r="K40" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="L40" s="31" t="n">
+      <c r="L40" s="32" t="n">
         <f aca="false">1-K40</f>
         <v>0.4</v>
       </c>
-      <c r="M40" s="33" t="n">
+      <c r="M40" s="34" t="n">
         <f aca="false">$L$3/(K40+L40/10)</f>
         <v>0.0125</v>
       </c>
-      <c r="N40" s="33" t="n">
+      <c r="N40" s="34" t="n">
         <f aca="false">M40/10</f>
         <v>0.00125</v>
       </c>
-      <c r="O40" s="32" t="n">
+      <c r="O40" s="33" t="n">
         <f aca="false">K40*M40+L40*N40</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="15"/>
-      <c r="E41" s="31" t="n">
+      <c r="E41" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F41" s="31" t="n">
+      <c r="F41" s="32" t="n">
         <f aca="false">1-E41</f>
         <v>0.5</v>
       </c>
-      <c r="G41" s="33" t="n">
+      <c r="G41" s="34" t="n">
         <f aca="false">$F$3/(E41+F41/10)</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="H41" s="33" t="n">
+      <c r="H41" s="34" t="n">
         <f aca="false">G41/10</f>
         <v>0.00181818181818182</v>
       </c>
-      <c r="I41" s="31" t="n">
+      <c r="I41" s="32" t="n">
         <f aca="false">E41*G41+F41*H41</f>
         <v>0.01</v>
       </c>
-      <c r="K41" s="31" t="n">
+      <c r="K41" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L41" s="31" t="n">
+      <c r="L41" s="32" t="n">
         <f aca="false">1-K41</f>
         <v>0.5</v>
       </c>
-      <c r="M41" s="33" t="n">
+      <c r="M41" s="34" t="n">
         <f aca="false">$L$3/(K41+L41/10)</f>
         <v>0.0145454545454545</v>
       </c>
-      <c r="N41" s="33" t="n">
+      <c r="N41" s="34" t="n">
         <f aca="false">M41/10</f>
         <v>0.00145454545454545</v>
       </c>
-      <c r="O41" s="32" t="n">
+      <c r="O41" s="33" t="n">
         <f aca="false">K41*M41+L41*N41</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="15"/>
-      <c r="E42" s="31" t="n">
+      <c r="E42" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F42" s="31" t="n">
+      <c r="F42" s="32" t="n">
         <f aca="false">1-E42</f>
         <v>0.6</v>
       </c>
-      <c r="G42" s="33" t="n">
+      <c r="G42" s="34" t="n">
         <f aca="false">$F$3/(E42+F42/10)</f>
         <v>0.0217391304347826</v>
       </c>
-      <c r="H42" s="33" t="n">
+      <c r="H42" s="34" t="n">
         <f aca="false">G42/10</f>
         <v>0.00217391304347826</v>
       </c>
-      <c r="I42" s="31" t="n">
+      <c r="I42" s="32" t="n">
         <f aca="false">E42*G42+F42*H42</f>
         <v>0.01</v>
       </c>
-      <c r="K42" s="31" t="n">
+      <c r="K42" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="L42" s="31" t="n">
+      <c r="L42" s="32" t="n">
         <f aca="false">1-K42</f>
         <v>0.6</v>
       </c>
-      <c r="M42" s="33" t="n">
+      <c r="M42" s="34" t="n">
         <f aca="false">$L$3/(K42+L42/10)</f>
         <v>0.0173913043478261</v>
       </c>
-      <c r="N42" s="33" t="n">
+      <c r="N42" s="34" t="n">
         <f aca="false">M42/10</f>
         <v>0.00173913043478261</v>
       </c>
-      <c r="O42" s="32" t="n">
+      <c r="O42" s="33" t="n">
         <f aca="false">K42*M42+L42*N42</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15"/>
-      <c r="E43" s="31" t="n">
+      <c r="E43" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="F43" s="31" t="n">
+      <c r="F43" s="32" t="n">
         <f aca="false">1-E43</f>
         <v>0.7</v>
       </c>
-      <c r="G43" s="33" t="n">
+      <c r="G43" s="34" t="n">
         <f aca="false">$F$3/(E43+F43/10)</f>
         <v>0.027027027027027</v>
       </c>
-      <c r="H43" s="33" t="n">
+      <c r="H43" s="34" t="n">
         <f aca="false">G43/10</f>
         <v>0.0027027027027027</v>
       </c>
-      <c r="I43" s="31" t="n">
+      <c r="I43" s="32" t="n">
         <f aca="false">E43*G43+F43*H43</f>
         <v>0.01</v>
       </c>
-      <c r="K43" s="31" t="n">
+      <c r="K43" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="L43" s="31" t="n">
+      <c r="L43" s="32" t="n">
         <f aca="false">1-K43</f>
         <v>0.7</v>
       </c>
-      <c r="M43" s="33" t="n">
+      <c r="M43" s="34" t="n">
         <f aca="false">$L$3/(K43+L43/10)</f>
         <v>0.0216216216216216</v>
       </c>
-      <c r="N43" s="33" t="n">
+      <c r="N43" s="34" t="n">
         <f aca="false">M43/10</f>
         <v>0.00216216216216216</v>
       </c>
-      <c r="O43" s="32" t="n">
+      <c r="O43" s="33" t="n">
         <f aca="false">K43*M43+L43*N43</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15"/>
-      <c r="E44" s="31" t="n">
+      <c r="E44" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="F44" s="31" t="n">
+      <c r="F44" s="32" t="n">
         <f aca="false">1-E44</f>
         <v>0.8</v>
       </c>
-      <c r="G44" s="33" t="n">
+      <c r="G44" s="34" t="n">
         <f aca="false">$F$3/(E44+F44/10)</f>
         <v>0.0357142857142857</v>
       </c>
-      <c r="H44" s="33" t="n">
+      <c r="H44" s="34" t="n">
         <f aca="false">G44/10</f>
         <v>0.00357142857142857</v>
       </c>
-      <c r="I44" s="31" t="n">
+      <c r="I44" s="32" t="n">
         <f aca="false">E44*G44+F44*H44</f>
         <v>0.01</v>
       </c>
-      <c r="K44" s="31" t="n">
+      <c r="K44" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="L44" s="31" t="n">
+      <c r="L44" s="32" t="n">
         <f aca="false">1-K44</f>
         <v>0.8</v>
       </c>
-      <c r="M44" s="33" t="n">
+      <c r="M44" s="34" t="n">
         <f aca="false">$L$3/(K44+L44/10)</f>
         <v>0.0285714285714286</v>
       </c>
-      <c r="N44" s="33" t="n">
+      <c r="N44" s="34" t="n">
         <f aca="false">M44/10</f>
         <v>0.00285714285714286</v>
       </c>
-      <c r="O44" s="32" t="n">
+      <c r="O44" s="33" t="n">
         <f aca="false">K44*M44+L44*N44</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="15"/>
-      <c r="E45" s="31" t="n">
+      <c r="E45" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="F45" s="31" t="n">
+      <c r="F45" s="32" t="n">
         <f aca="false">1-E45</f>
         <v>0.9</v>
       </c>
-      <c r="G45" s="33" t="n">
+      <c r="G45" s="34" t="n">
         <f aca="false">$F$3/(E45+F45/10)</f>
         <v>0.0526315789473684</v>
       </c>
-      <c r="H45" s="33" t="n">
+      <c r="H45" s="34" t="n">
         <f aca="false">G45/10</f>
         <v>0.00526315789473684</v>
       </c>
-      <c r="I45" s="31" t="n">
+      <c r="I45" s="32" t="n">
         <f aca="false">E45*G45+F45*H45</f>
         <v>0.01</v>
       </c>
-      <c r="K45" s="31" t="n">
+      <c r="K45" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="L45" s="31" t="n">
+      <c r="L45" s="32" t="n">
         <f aca="false">1-K45</f>
         <v>0.9</v>
       </c>
-      <c r="M45" s="33" t="n">
+      <c r="M45" s="34" t="n">
         <f aca="false">$L$3/(K45+L45/10)</f>
         <v>0.0421052631578947</v>
       </c>
-      <c r="N45" s="33" t="n">
+      <c r="N45" s="34" t="n">
         <f aca="false">M45/10</f>
         <v>0.00421052631578947</v>
       </c>
-      <c r="O45" s="32" t="n">
+      <c r="O45" s="33" t="n">
         <f aca="false">K45*M45+L45*N45</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="15"/>
-      <c r="E46" s="31" t="n">
+      <c r="E46" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="F46" s="31" t="n">
+      <c r="F46" s="32" t="n">
         <f aca="false">1-E46</f>
         <v>0.99</v>
       </c>
-      <c r="G46" s="33" t="n">
+      <c r="G46" s="34" t="n">
         <f aca="false">$F$3/(E46+F46/10)</f>
         <v>0.091743119266055</v>
       </c>
-      <c r="H46" s="33" t="n">
+      <c r="H46" s="34" t="n">
         <f aca="false">G46/10</f>
         <v>0.0091743119266055</v>
       </c>
-      <c r="I46" s="31" t="n">
+      <c r="I46" s="32" t="n">
         <f aca="false">E46*G46+F46*H46</f>
         <v>0.01</v>
       </c>
-      <c r="K46" s="31" t="n">
+      <c r="K46" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="L46" s="31" t="n">
+      <c r="L46" s="32" t="n">
         <f aca="false">1-K46</f>
         <v>0.99</v>
       </c>
-      <c r="M46" s="33" t="n">
+      <c r="M46" s="34" t="n">
         <f aca="false">$L$3/(K46+L46/10)</f>
         <v>0.073394495412844</v>
       </c>
-      <c r="N46" s="33" t="n">
+      <c r="N46" s="34" t="n">
         <f aca="false">M46/10</f>
         <v>0.0073394495412844</v>
       </c>
-      <c r="O46" s="32" t="n">
+      <c r="O46" s="33" t="n">
         <f aca="false">K46*M46+L46*N46</f>
         <v>0.008</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="15"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="32"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="15"/>
       <c r="E48" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F48" s="29" t="n">
         <v>0.005</v>
       </c>
-      <c r="G48" s="29" t="s">
-        <v>31</v>
+      <c r="G48" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L48" s="29" t="n">
         <v>0.002</v>
       </c>
-      <c r="M48" s="29" t="s">
-        <v>32</v>
+      <c r="M48" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="O48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="15"/>
-      <c r="E49" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="30" t="s">
+      <c r="E49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" s="30" t="s">
+      <c r="L49" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="30" t="s">
+      <c r="N49" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="32" t="s">
-        <v>30</v>
+      <c r="O49" s="33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="15"/>
-      <c r="E50" s="31" t="n">
+      <c r="E50" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="F50" s="31" t="n">
+      <c r="F50" s="32" t="n">
         <f aca="false">1-E50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="G50" s="33" t="n">
+      <c r="G50" s="34" t="n">
         <f aca="false">$F$17/(E50+F50/10)</f>
         <v>0.00523560209424084</v>
       </c>
-      <c r="H50" s="33" t="n">
+      <c r="H50" s="34" t="n">
         <f aca="false">G50/10</f>
         <v>0.000523560209424084</v>
       </c>
-      <c r="I50" s="31" t="n">
+      <c r="I50" s="32" t="n">
         <f aca="false">E50*G50+F50*H50</f>
         <v>0.005</v>
       </c>
-      <c r="K50" s="31" t="n">
+      <c r="K50" s="32" t="n">
         <v>0.95</v>
       </c>
-      <c r="L50" s="31" t="n">
+      <c r="L50" s="32" t="n">
         <f aca="false">1-K50</f>
         <v>0.0499999999999999</v>
       </c>
-      <c r="M50" s="33" t="n">
+      <c r="M50" s="34" t="n">
         <f aca="false">$L$17/(K50+L50/10)</f>
         <v>0.00209424083769633</v>
       </c>
-      <c r="N50" s="33" t="n">
+      <c r="N50" s="34" t="n">
         <f aca="false">M50/10</f>
         <v>0.000209424083769633</v>
       </c>
-      <c r="O50" s="32" t="n">
+      <c r="O50" s="33" t="n">
         <f aca="false">K50*M50+L50*N50</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="15"/>
-      <c r="E51" s="31" t="n">
+      <c r="E51" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="F51" s="31" t="n">
+      <c r="F51" s="32" t="n">
         <f aca="false">1-E51</f>
         <v>0.1</v>
       </c>
-      <c r="G51" s="33" t="n">
+      <c r="G51" s="34" t="n">
         <f aca="false">$F$17/(E51+F51/10)</f>
         <v>0.00549450549450549</v>
       </c>
-      <c r="H51" s="33" t="n">
+      <c r="H51" s="34" t="n">
         <f aca="false">G51/10</f>
         <v>0.000549450549450549</v>
       </c>
-      <c r="I51" s="31" t="n">
+      <c r="I51" s="32" t="n">
         <f aca="false">E51*G51+F51*H51</f>
         <v>0.005</v>
       </c>
-      <c r="K51" s="31" t="n">
+      <c r="K51" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="L51" s="31" t="n">
+      <c r="L51" s="32" t="n">
         <f aca="false">1-K51</f>
         <v>0.1</v>
       </c>
-      <c r="M51" s="33" t="n">
+      <c r="M51" s="34" t="n">
         <f aca="false">$L$17/(K51+L51/10)</f>
         <v>0.0021978021978022</v>
       </c>
-      <c r="N51" s="33" t="n">
+      <c r="N51" s="34" t="n">
         <f aca="false">M51/10</f>
         <v>0.00021978021978022</v>
       </c>
-      <c r="O51" s="32" t="n">
+      <c r="O51" s="33" t="n">
         <f aca="false">K51*M51+L51*N51</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="15"/>
-      <c r="E52" s="31" t="n">
+      <c r="E52" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="F52" s="31" t="n">
+      <c r="F52" s="32" t="n">
         <f aca="false">1-E52</f>
         <v>0.2</v>
       </c>
-      <c r="G52" s="33" t="n">
+      <c r="G52" s="34" t="n">
         <f aca="false">$F$17/(E52+F52/10)</f>
         <v>0.00609756097560976</v>
       </c>
-      <c r="H52" s="33" t="n">
+      <c r="H52" s="34" t="n">
         <f aca="false">G52/10</f>
         <v>0.000609756097560975</v>
       </c>
-      <c r="I52" s="31" t="n">
+      <c r="I52" s="32" t="n">
         <f aca="false">E52*G52+F52*H52</f>
         <v>0.005</v>
       </c>
-      <c r="K52" s="31" t="n">
+      <c r="K52" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="L52" s="31" t="n">
+      <c r="L52" s="32" t="n">
         <f aca="false">1-K52</f>
         <v>0.2</v>
       </c>
-      <c r="M52" s="33" t="n">
+      <c r="M52" s="34" t="n">
         <f aca="false">$L$17/(K52+L52/10)</f>
         <v>0.0024390243902439</v>
       </c>
-      <c r="N52" s="33" t="n">
+      <c r="N52" s="34" t="n">
         <f aca="false">M52/10</f>
         <v>0.00024390243902439</v>
       </c>
-      <c r="O52" s="32" t="n">
+      <c r="O52" s="33" t="n">
         <f aca="false">K52*M52+L52*N52</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="15"/>
-      <c r="E53" s="31" t="n">
+      <c r="E53" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="F53" s="31" t="n">
+      <c r="F53" s="32" t="n">
         <f aca="false">1-E53</f>
         <v>0.3</v>
       </c>
-      <c r="G53" s="33" t="n">
+      <c r="G53" s="34" t="n">
         <f aca="false">$F$17/(E53+F53/10)</f>
         <v>0.00684931506849315</v>
       </c>
-      <c r="H53" s="33" t="n">
+      <c r="H53" s="34" t="n">
         <f aca="false">G53/10</f>
         <v>0.000684931506849315</v>
       </c>
-      <c r="I53" s="31" t="n">
+      <c r="I53" s="32" t="n">
         <f aca="false">E53*G53+F53*H53</f>
         <v>0.005</v>
       </c>
-      <c r="K53" s="31" t="n">
+      <c r="K53" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="L53" s="31" t="n">
+      <c r="L53" s="32" t="n">
         <f aca="false">1-K53</f>
         <v>0.3</v>
       </c>
-      <c r="M53" s="33" t="n">
+      <c r="M53" s="34" t="n">
         <f aca="false">$L$17/(K53+L53/10)</f>
         <v>0.00273972602739726</v>
       </c>
-      <c r="N53" s="33" t="n">
+      <c r="N53" s="34" t="n">
         <f aca="false">M53/10</f>
         <v>0.000273972602739726</v>
       </c>
-      <c r="O53" s="32" t="n">
+      <c r="O53" s="33" t="n">
         <f aca="false">K53*M53+L53*N53</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="15"/>
-      <c r="E54" s="31" t="n">
+      <c r="E54" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="F54" s="31" t="n">
+      <c r="F54" s="32" t="n">
         <f aca="false">1-E54</f>
         <v>0.4</v>
       </c>
-      <c r="G54" s="33" t="n">
+      <c r="G54" s="34" t="n">
         <f aca="false">$F$17/(E54+F54/10)</f>
         <v>0.0078125</v>
       </c>
-      <c r="H54" s="33" t="n">
+      <c r="H54" s="34" t="n">
         <f aca="false">G54/10</f>
         <v>0.00078125</v>
       </c>
-      <c r="I54" s="31" t="n">
+      <c r="I54" s="32" t="n">
         <f aca="false">E54*G54+F54*H54</f>
         <v>0.005</v>
       </c>
-      <c r="K54" s="31" t="n">
+      <c r="K54" s="32" t="n">
         <v>0.6</v>
       </c>
-      <c r="L54" s="31" t="n">
+      <c r="L54" s="32" t="n">
         <f aca="false">1-K54</f>
         <v>0.4</v>
       </c>
-      <c r="M54" s="33" t="n">
+      <c r="M54" s="34" t="n">
         <f aca="false">$L$17/(K54+L54/10)</f>
         <v>0.003125</v>
       </c>
-      <c r="N54" s="33" t="n">
+      <c r="N54" s="34" t="n">
         <f aca="false">M54/10</f>
         <v>0.0003125</v>
       </c>
-      <c r="O54" s="32" t="n">
+      <c r="O54" s="33" t="n">
         <f aca="false">K54*M54+L54*N54</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="15"/>
-      <c r="E55" s="31" t="n">
+      <c r="E55" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F55" s="31" t="n">
+      <c r="F55" s="32" t="n">
         <f aca="false">1-E55</f>
         <v>0.5</v>
       </c>
-      <c r="G55" s="33" t="n">
+      <c r="G55" s="34" t="n">
         <f aca="false">$F$17/(E55+F55/10)</f>
         <v>0.00909090909090909</v>
       </c>
-      <c r="H55" s="33" t="n">
+      <c r="H55" s="34" t="n">
         <f aca="false">G55/10</f>
         <v>0.000909090909090909</v>
       </c>
-      <c r="I55" s="31" t="n">
+      <c r="I55" s="32" t="n">
         <f aca="false">E55*G55+F55*H55</f>
         <v>0.005</v>
       </c>
-      <c r="K55" s="31" t="n">
+      <c r="K55" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L55" s="31" t="n">
+      <c r="L55" s="32" t="n">
         <f aca="false">1-K55</f>
         <v>0.5</v>
       </c>
-      <c r="M55" s="33" t="n">
+      <c r="M55" s="34" t="n">
         <f aca="false">$L$17/(K55+L55/10)</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="N55" s="33" t="n">
+      <c r="N55" s="34" t="n">
         <f aca="false">M55/10</f>
         <v>0.000363636363636364</v>
       </c>
-      <c r="O55" s="32" t="n">
+      <c r="O55" s="33" t="n">
         <f aca="false">K55*M55+L55*N55</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="15"/>
-      <c r="E56" s="31" t="n">
+      <c r="E56" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F56" s="31" t="n">
+      <c r="F56" s="32" t="n">
         <f aca="false">1-E56</f>
         <v>0.6</v>
       </c>
-      <c r="G56" s="33" t="n">
+      <c r="G56" s="34" t="n">
         <f aca="false">$F$17/(E56+F56/10)</f>
         <v>0.0108695652173913</v>
       </c>
-      <c r="H56" s="33" t="n">
+      <c r="H56" s="34" t="n">
         <f aca="false">G56/10</f>
         <v>0.00108695652173913</v>
       </c>
-      <c r="I56" s="31" t="n">
+      <c r="I56" s="32" t="n">
         <f aca="false">E56*G56+F56*H56</f>
         <v>0.005</v>
       </c>
-      <c r="K56" s="31" t="n">
+      <c r="K56" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="L56" s="31" t="n">
+      <c r="L56" s="32" t="n">
         <f aca="false">1-K56</f>
         <v>0.6</v>
       </c>
-      <c r="M56" s="33" t="n">
+      <c r="M56" s="34" t="n">
         <f aca="false">$L$17/(K56+L56/10)</f>
         <v>0.00434782608695652</v>
       </c>
-      <c r="N56" s="33" t="n">
+      <c r="N56" s="34" t="n">
         <f aca="false">M56/10</f>
         <v>0.000434782608695652</v>
       </c>
-      <c r="O56" s="32" t="n">
+      <c r="O56" s="33" t="n">
         <f aca="false">K56*M56+L56*N56</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="15"/>
-      <c r="E57" s="31" t="n">
+      <c r="E57" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="F57" s="31" t="n">
+      <c r="F57" s="32" t="n">
         <f aca="false">1-E57</f>
         <v>0.7</v>
       </c>
-      <c r="G57" s="33" t="n">
+      <c r="G57" s="34" t="n">
         <f aca="false">$F$17/(E57+F57/10)</f>
         <v>0.0135135135135135</v>
       </c>
-      <c r="H57" s="33" t="n">
+      <c r="H57" s="34" t="n">
         <f aca="false">G57/10</f>
         <v>0.00135135135135135</v>
       </c>
-      <c r="I57" s="31" t="n">
+      <c r="I57" s="32" t="n">
         <f aca="false">E57*G57+F57*H57</f>
         <v>0.005</v>
       </c>
-      <c r="K57" s="31" t="n">
+      <c r="K57" s="32" t="n">
         <v>0.3</v>
       </c>
-      <c r="L57" s="31" t="n">
+      <c r="L57" s="32" t="n">
         <f aca="false">1-K57</f>
         <v>0.7</v>
       </c>
-      <c r="M57" s="33" t="n">
+      <c r="M57" s="34" t="n">
         <f aca="false">$L$17/(K57+L57/10)</f>
         <v>0.0054054054054054</v>
       </c>
-      <c r="N57" s="33" t="n">
+      <c r="N57" s="34" t="n">
         <f aca="false">M57/10</f>
         <v>0.00054054054054054</v>
       </c>
-      <c r="O57" s="32" t="n">
+      <c r="O57" s="33" t="n">
         <f aca="false">K57*M57+L57*N57</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="15"/>
-      <c r="E58" s="31" t="n">
+      <c r="E58" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="F58" s="31" t="n">
+      <c r="F58" s="32" t="n">
         <f aca="false">1-E58</f>
         <v>0.8</v>
       </c>
-      <c r="G58" s="33" t="n">
+      <c r="G58" s="34" t="n">
         <f aca="false">$F$17/(E58+F58/10)</f>
         <v>0.0178571428571429</v>
       </c>
-      <c r="H58" s="33" t="n">
+      <c r="H58" s="34" t="n">
         <f aca="false">G58/10</f>
         <v>0.00178571428571429</v>
       </c>
-      <c r="I58" s="31" t="n">
+      <c r="I58" s="32" t="n">
         <f aca="false">E58*G58+F58*H58</f>
         <v>0.005</v>
       </c>
-      <c r="K58" s="31" t="n">
+      <c r="K58" s="32" t="n">
         <v>0.2</v>
       </c>
-      <c r="L58" s="31" t="n">
+      <c r="L58" s="32" t="n">
         <f aca="false">1-K58</f>
         <v>0.8</v>
       </c>
-      <c r="M58" s="33" t="n">
+      <c r="M58" s="34" t="n">
         <f aca="false">$L$17/(K58+L58/10)</f>
         <v>0.00714285714285714</v>
       </c>
-      <c r="N58" s="33" t="n">
+      <c r="N58" s="34" t="n">
         <f aca="false">M58/10</f>
         <v>0.000714285714285714</v>
       </c>
-      <c r="O58" s="32" t="n">
+      <c r="O58" s="33" t="n">
         <f aca="false">K58*M58+L58*N58</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="15"/>
-      <c r="E59" s="31" t="n">
+      <c r="E59" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="F59" s="31" t="n">
+      <c r="F59" s="32" t="n">
         <f aca="false">1-E59</f>
         <v>0.9</v>
       </c>
-      <c r="G59" s="33" t="n">
+      <c r="G59" s="34" t="n">
         <f aca="false">$F$17/(E59+F59/10)</f>
         <v>0.0263157894736842</v>
       </c>
-      <c r="H59" s="33" t="n">
+      <c r="H59" s="34" t="n">
         <f aca="false">G59/10</f>
         <v>0.00263157894736842</v>
       </c>
-      <c r="I59" s="31" t="n">
+      <c r="I59" s="32" t="n">
         <f aca="false">E59*G59+F59*H59</f>
         <v>0.005</v>
       </c>
-      <c r="K59" s="31" t="n">
+      <c r="K59" s="32" t="n">
         <v>0.1</v>
       </c>
-      <c r="L59" s="31" t="n">
+      <c r="L59" s="32" t="n">
         <f aca="false">1-K59</f>
         <v>0.9</v>
       </c>
-      <c r="M59" s="33" t="n">
+      <c r="M59" s="34" t="n">
         <f aca="false">$L$17/(K59+L59/10)</f>
         <v>0.0105263157894737</v>
       </c>
-      <c r="N59" s="33" t="n">
+      <c r="N59" s="34" t="n">
         <f aca="false">M59/10</f>
         <v>0.00105263157894737</v>
       </c>
-      <c r="O59" s="32" t="n">
+      <c r="O59" s="33" t="n">
         <f aca="false">K59*M59+L59*N59</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="15"/>
-      <c r="E60" s="31" t="n">
+      <c r="E60" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="F60" s="31" t="n">
+      <c r="F60" s="32" t="n">
         <f aca="false">1-E60</f>
         <v>0.99</v>
       </c>
-      <c r="G60" s="33" t="n">
+      <c r="G60" s="34" t="n">
         <f aca="false">$F$17/(E60+F60/10)</f>
         <v>0.0458715596330275</v>
       </c>
-      <c r="H60" s="33" t="n">
+      <c r="H60" s="34" t="n">
         <f aca="false">G60/10</f>
         <v>0.00458715596330275</v>
       </c>
-      <c r="I60" s="31" t="n">
+      <c r="I60" s="32" t="n">
         <f aca="false">E60*G60+F60*H60</f>
         <v>0.005</v>
       </c>
-      <c r="K60" s="31" t="n">
+      <c r="K60" s="32" t="n">
         <v>0.01</v>
       </c>
-      <c r="L60" s="31" t="n">
+      <c r="L60" s="32" t="n">
         <f aca="false">1-K60</f>
         <v>0.99</v>
       </c>
-      <c r="M60" s="33" t="n">
+      <c r="M60" s="34" t="n">
         <f aca="false">$L$17/(K60+L60/10)</f>
         <v>0.018348623853211</v>
       </c>
-      <c r="N60" s="33" t="n">
+      <c r="N60" s="34" t="n">
         <f aca="false">M60/10</f>
         <v>0.0018348623853211</v>
       </c>
-      <c r="O60" s="32" t="n">
+      <c r="O60" s="33" t="n">
         <f aca="false">K60*M60+L60*N60</f>
         <v>0.002</v>
       </c>
@@ -6511,52 +7329,52 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="C4" s="38" t="n">
+      <c r="C4" s="39" t="n">
         <f aca="false">2.97*B4^(0.62)</f>
         <v>0.170905661389136</v>
       </c>
-      <c r="D4" s="39" t="n">
+      <c r="D4" s="40" t="n">
         <f aca="false">0.057*B4^(1.944)</f>
         <v>7.37691629626492E-006</v>
       </c>
-      <c r="E4" s="38" t="n">
+      <c r="E4" s="39" t="n">
         <f aca="false">0.38*B4^0.59</f>
         <v>0.0251063510242887</v>
       </c>
-      <c r="F4" s="39" t="n">
+      <c r="F4" s="40" t="n">
         <f aca="false">0.04*B4^2</f>
         <v>4E-006</v>
       </c>
@@ -6566,19 +7384,19 @@
         <f aca="false">B4-0.0002</f>
         <v>0.0098</v>
       </c>
-      <c r="C5" s="38" t="n">
+      <c r="C5" s="39" t="n">
         <f aca="false">2.97*B5^(0.62)</f>
         <v>0.168778303131111</v>
       </c>
-      <c r="D5" s="39" t="n">
+      <c r="D5" s="40" t="n">
         <f aca="false">0.057*B5^(1.944)</f>
         <v>7.09281033579122E-006</v>
       </c>
-      <c r="E5" s="38" t="n">
+      <c r="E5" s="39" t="n">
         <f aca="false">0.38*B5^0.59</f>
         <v>0.0248088698797865</v>
       </c>
-      <c r="F5" s="39" t="n">
+      <c r="F5" s="40" t="n">
         <f aca="false">0.04*B5^2</f>
         <v>3.8416E-006</v>
       </c>
@@ -6588,19 +7406,19 @@
         <f aca="false">B5-0.0002</f>
         <v>0.0096</v>
       </c>
-      <c r="C6" s="38" t="n">
+      <c r="C6" s="39" t="n">
         <f aca="false">2.97*B6^(0.62)</f>
         <v>0.166634381481985</v>
       </c>
-      <c r="D6" s="39" t="n">
+      <c r="D6" s="40" t="n">
         <f aca="false">0.057*B6^(1.944)</f>
         <v>6.81412557411232E-006</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="39" t="n">
         <f aca="false">0.38*B6^0.59</f>
         <v>0.0245088889545415</v>
       </c>
-      <c r="F6" s="39" t="n">
+      <c r="F6" s="40" t="n">
         <f aca="false">0.04*B6^2</f>
         <v>3.6864E-006</v>
       </c>
@@ -6610,19 +7428,19 @@
         <f aca="false">B6-0.0002</f>
         <v>0.0094</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" s="39" t="n">
         <f aca="false">2.97*B7^(0.62)</f>
         <v>0.164473418285553</v>
       </c>
-      <c r="D7" s="39" t="n">
+      <c r="D7" s="40" t="n">
         <f aca="false">0.057*B7^(1.944)</f>
         <v>6.54086827506298E-006</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="39" t="n">
         <f aca="false">0.38*B7^0.59</f>
         <v>0.0242063344923744</v>
       </c>
-      <c r="F7" s="39" t="n">
+      <c r="F7" s="40" t="n">
         <f aca="false">0.04*B7^2</f>
         <v>3.5344E-006</v>
       </c>
@@ -6632,19 +7450,19 @@
         <f aca="false">B7-0.0002</f>
         <v>0.0092</v>
       </c>
-      <c r="C8" s="38" t="n">
+      <c r="C8" s="39" t="n">
         <f aca="false">2.97*B8^(0.62)</f>
         <v>0.162294911069372</v>
       </c>
-      <c r="D8" s="39" t="n">
+      <c r="D8" s="40" t="n">
         <f aca="false">0.057*B8^(1.944)</f>
         <v>6.27304484184586E-006</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="39" t="n">
         <f aca="false">0.38*B8^0.59</f>
         <v>0.0239011289378076</v>
       </c>
-      <c r="F8" s="39" t="n">
+      <c r="F8" s="40" t="n">
         <f aca="false">0.04*B8^2</f>
         <v>3.3856E-006</v>
       </c>
@@ -6654,19 +7472,19 @@
         <f aca="false">B8-0.0002</f>
         <v>0.009</v>
       </c>
-      <c r="C9" s="38" t="n">
+      <c r="C9" s="39" t="n">
         <f aca="false">2.97*B9^(0.62)</f>
         <v>0.160098331250151</v>
       </c>
-      <c r="D9" s="39" t="n">
+      <c r="D9" s="40" t="n">
         <f aca="false">0.057*B9^(1.944)</f>
         <v>6.01066182319956E-006</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="39" t="n">
         <f aca="false">0.38*B9^0.59</f>
         <v>0.0235931906530846</v>
       </c>
-      <c r="F9" s="39" t="n">
+      <c r="F9" s="40" t="n">
         <f aca="false">0.04*B9^2</f>
         <v>3.24E-006</v>
       </c>
@@ -6676,19 +7494,19 @@
         <f aca="false">B9-0.0002</f>
         <v>0.0088</v>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="39" t="n">
         <f aca="false">2.97*B10^(0.62)</f>
         <v>0.157883122163658</v>
       </c>
-      <c r="D10" s="39" t="n">
+      <c r="D10" s="40" t="n">
         <f aca="false">0.057*B10^(1.944)</f>
         <v>5.75372591998125E-006</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="39" t="n">
         <f aca="false">0.38*B10^0.59</f>
         <v>0.0232824336073207</v>
       </c>
-      <c r="F10" s="39" t="n">
+      <c r="F10" s="40" t="n">
         <f aca="false">0.04*B10^2</f>
         <v>3.0976E-006</v>
       </c>
@@ -6698,19 +7516,19 @@
         <f aca="false">B10-0.0002</f>
         <v>0.0086</v>
       </c>
-      <c r="C11" s="38" t="n">
+      <c r="C11" s="39" t="n">
         <f aca="false">2.97*B11^(0.62)</f>
         <v>0.155648696897595</v>
       </c>
-      <c r="D11" s="39" t="n">
+      <c r="D11" s="40" t="n">
         <f aca="false">0.057*B11^(1.944)</f>
         <v>5.50224399220194E-006</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="39" t="n">
         <f aca="false">0.38*B11^0.59</f>
         <v>0.022968767034342</v>
       </c>
-      <c r="F11" s="39" t="n">
+      <c r="F11" s="40" t="n">
         <f aca="false">0.04*B11^2</f>
         <v>2.9584E-006</v>
       </c>
@@ -6720,19 +7538,19 @@
         <f aca="false">B11-0.0002</f>
         <v>0.0084</v>
       </c>
-      <c r="C12" s="38" t="n">
+      <c r="C12" s="39" t="n">
         <f aca="false">2.97*B12^(0.62)</f>
         <v>0.153394435902666</v>
       </c>
-      <c r="D12" s="39" t="n">
+      <c r="D12" s="40" t="n">
         <f aca="false">0.057*B12^(1.944)</f>
         <v>5.25622306655658E-006</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="39" t="n">
         <f aca="false">0.38*B12^0.59</f>
         <v>0.022652095055251</v>
       </c>
-      <c r="F12" s="39" t="n">
+      <c r="F12" s="40" t="n">
         <f aca="false">0.04*B12^2</f>
         <v>2.8224E-006</v>
       </c>
@@ -6742,19 +7560,19 @@
         <f aca="false">B12-0.0002</f>
         <v>0.0082</v>
       </c>
-      <c r="C13" s="38" t="n">
+      <c r="C13" s="39" t="n">
         <f aca="false">2.97*B13^(0.62)</f>
         <v>0.15111968435328</v>
       </c>
-      <c r="D13" s="39" t="n">
+      <c r="D13" s="40" t="n">
         <f aca="false">0.057*B13^(1.944)</f>
         <v>5.0156703444962E-006</v>
       </c>
-      <c r="E13" s="38" t="n">
+      <c r="E13" s="39" t="n">
         <f aca="false">0.38*B13^0.59</f>
         <v>0.0223323162611514</v>
       </c>
-      <c r="F13" s="39" t="n">
+      <c r="F13" s="40" t="n">
         <f aca="false">0.04*B13^2</f>
         <v>2.6896E-006</v>
       </c>
@@ -6764,19 +7582,19 @@
         <f aca="false">B13-0.0002</f>
         <v>0.008</v>
       </c>
-      <c r="C14" s="38" t="n">
+      <c r="C14" s="39" t="n">
         <f aca="false">2.97*B14^(0.62)</f>
         <v>0.148823749224871</v>
       </c>
-      <c r="D14" s="39" t="n">
+      <c r="D14" s="40" t="n">
         <f aca="false">0.057*B14^(1.944)</f>
         <v>4.78059321089525E-006</v>
       </c>
-      <c r="E14" s="38" t="n">
+      <c r="E14" s="39" t="n">
         <f aca="false">0.38*B14^0.59</f>
         <v>0.0220093232507475</v>
       </c>
-      <c r="F14" s="39" t="n">
+      <c r="F14" s="40" t="n">
         <f aca="false">0.04*B14^2</f>
         <v>2.56E-006</v>
       </c>
@@ -6786,19 +7604,19 @@
         <f aca="false">B14-0.0002</f>
         <v>0.0078</v>
       </c>
-      <c r="C15" s="38" t="n">
+      <c r="C15" s="39" t="n">
         <f aca="false">2.97*B15^(0.62)</f>
         <v>0.146505896049517</v>
       </c>
-      <c r="D15" s="39" t="n">
+      <c r="D15" s="40" t="n">
         <f aca="false">0.057*B15^(1.944)</f>
         <v>4.55099924337378E-006</v>
       </c>
-      <c r="E15" s="38" t="n">
+      <c r="E15" s="39" t="n">
         <f aca="false">0.38*B15^0.59</f>
         <v>0.0216830021166786</v>
       </c>
-      <c r="F15" s="39" t="n">
+      <c r="F15" s="40" t="n">
         <f aca="false">0.04*B15^2</f>
         <v>2.4336E-006</v>
       </c>
@@ -6808,24 +7626,24 @@
         <f aca="false">B15-0.0002</f>
         <v>0.0076</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="39" t="n">
         <f aca="false">2.97*B16^(0.62)</f>
         <v>0.14416534530524</v>
       </c>
-      <c r="D16" s="39" t="n">
+      <c r="D16" s="40" t="n">
         <f aca="false">0.057*B16^(1.944)</f>
         <v>4.3268962223418E-006</v>
       </c>
-      <c r="E16" s="38" t="n">
+      <c r="E16" s="39" t="n">
         <f aca="false">0.38*B16^0.59</f>
         <v>0.0213532318734356</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="40" t="n">
         <f aca="false">0.04*B16^2</f>
         <v>2.3104E-006</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,24 +7651,24 @@
         <f aca="false">B16-0.0002</f>
         <v>0.0074</v>
       </c>
-      <c r="C17" s="38" t="n">
+      <c r="C17" s="39" t="n">
         <f aca="false">2.97*B17^(0.62)</f>
         <v>0.141801268386831</v>
       </c>
-      <c r="D17" s="39" t="n">
+      <c r="D17" s="40" t="n">
         <f aca="false">0.057*B17^(1.944)</f>
         <v>4.10829214184202E-006</v>
       </c>
-      <c r="E17" s="38" t="n">
+      <c r="E17" s="39" t="n">
         <f aca="false">0.38*B17^0.59</f>
         <v>0.0210198838184959</v>
       </c>
-      <c r="F17" s="39" t="n">
+      <c r="F17" s="40" t="n">
         <f aca="false">0.04*B17^2</f>
         <v>2.1904E-006</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,30 +7676,30 @@
         <f aca="false">B17-0.0002</f>
         <v>0.0072</v>
       </c>
-      <c r="C18" s="38" t="n">
+      <c r="C18" s="39" t="n">
         <f aca="false">2.97*B18^(0.62)</f>
         <v>0.139412783096999</v>
       </c>
-      <c r="D18" s="39" t="n">
+      <c r="D18" s="40" t="n">
         <f aca="false">0.057*B18^(1.944)</f>
         <v>3.89519522127748E-006</v>
       </c>
-      <c r="E18" s="38" t="n">
+      <c r="E18" s="39" t="n">
         <f aca="false">0.38*B18^0.59</f>
         <v>0.0206828208168481</v>
       </c>
-      <c r="F18" s="39" t="n">
+      <c r="F18" s="40" t="n">
         <f aca="false">0.04*B18^2</f>
         <v>2.0736E-006</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,19 +7707,19 @@
         <f aca="false">B18-0.0002</f>
         <v>0.007</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="39" t="n">
         <f aca="false">2.97*B19^(0.62)</f>
         <v>0.136998948585751</v>
       </c>
-      <c r="D19" s="39" t="n">
+      <c r="D19" s="40" t="n">
         <f aca="false">0.057*B19^(1.944)</f>
         <v>3.68761391812255E-006</v>
       </c>
-      <c r="E19" s="38" t="n">
+      <c r="E19" s="39" t="n">
         <f aca="false">0.38*B19^0.59</f>
         <v>0.0203418964973235</v>
       </c>
-      <c r="F19" s="39" t="n">
+      <c r="F19" s="40" t="n">
         <f aca="false">0.04*B19^2</f>
         <v>1.96E-006</v>
       </c>
@@ -6921,19 +7739,19 @@
         <f aca="false">B19-0.0002</f>
         <v>0.0068</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="39" t="n">
         <f aca="false">2.97*B20^(0.62)</f>
         <v>0.134558759652636</v>
       </c>
-      <c r="D20" s="39" t="n">
+      <c r="D20" s="40" t="n">
         <f aca="false">0.057*B20^(1.944)</f>
         <v>3.48555694172981E-006</v>
       </c>
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="39" t="n">
         <f aca="false">0.38*B20^0.59</f>
         <v>0.0199969543470115</v>
       </c>
-      <c r="F20" s="39" t="n">
+      <c r="F20" s="40" t="n">
         <f aca="false">0.04*B20^2</f>
         <v>1.8496E-006</v>
       </c>
@@ -6953,19 +7771,19 @@
         <f aca="false">B20-0.0002</f>
         <v>0.0066</v>
       </c>
-      <c r="C21" s="38" t="n">
+      <c r="C21" s="39" t="n">
         <f aca="false">2.97*B21^(0.62)</f>
         <v>0.132091140310434</v>
       </c>
-      <c r="D21" s="39" t="n">
+      <c r="D21" s="40" t="n">
         <f aca="false">0.057*B21^(1.944)</f>
         <v>3.28903326836194E-006</v>
       </c>
-      <c r="E21" s="38" t="n">
+      <c r="E21" s="39" t="n">
         <f aca="false">0.38*B21^0.59</f>
         <v>0.0196478266874332</v>
       </c>
-      <c r="F21" s="39" t="n">
+      <c r="F21" s="40" t="n">
         <f aca="false">0.04*B21^2</f>
         <v>1.7424E-006</v>
       </c>
@@ -6985,19 +7803,19 @@
         <f aca="false">B21-0.0002</f>
         <v>0.0064</v>
       </c>
-      <c r="C22" s="38" t="n">
+      <c r="C22" s="39" t="n">
         <f aca="false">2.97*B22^(0.62)</f>
         <v>0.129594936489068</v>
       </c>
-      <c r="D22" s="39" t="n">
+      <c r="D22" s="40" t="n">
         <f aca="false">0.057*B22^(1.944)</f>
         <v>3.09805215759724E-006</v>
       </c>
-      <c r="E22" s="38" t="n">
+      <c r="E22" s="39" t="n">
         <f aca="false">0.38*B22^0.59</f>
         <v>0.0192943335129531</v>
       </c>
-      <c r="F22" s="39" t="n">
+      <c r="F22" s="40" t="n">
         <f aca="false">0.04*B22^2</f>
         <v>1.6384E-006</v>
       </c>
@@ -7017,19 +7835,19 @@
         <f aca="false">B22-0.0002</f>
         <v>0.0062</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="39" t="n">
         <f aca="false">2.97*B23^(0.62)</f>
         <v>0.127068907734232</v>
       </c>
-      <c r="D23" s="39" t="n">
+      <c r="D23" s="40" t="n">
         <f aca="false">0.057*B23^(1.944)</f>
         <v>2.91262317028041E-006</v>
       </c>
-      <c r="E23" s="38" t="n">
+      <c r="E23" s="39" t="n">
         <f aca="false">0.38*B23^0.59</f>
         <v>0.0189362811679701</v>
       </c>
-      <c r="F23" s="39" t="n">
+      <c r="F23" s="40" t="n">
         <f aca="false">0.04*B23^2</f>
         <v>1.5376E-006</v>
       </c>
@@ -7053,19 +7871,19 @@
         <f aca="false">B23-0.0002</f>
         <v>0.006</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="39" t="n">
         <f aca="false">2.97*B24^(0.62)</f>
         <v>0.124511717725026</v>
       </c>
-      <c r="D24" s="39" t="n">
+      <c r="D24" s="40" t="n">
         <f aca="false">0.057*B24^(1.944)</f>
         <v>2.73275618821812E-006</v>
       </c>
-      <c r="E24" s="38" t="n">
+      <c r="E24" s="39" t="n">
         <f aca="false">0.38*B24^0.59</f>
         <v>0.0185734608345414</v>
       </c>
-      <c r="F24" s="39" t="n">
+      <c r="F24" s="40" t="n">
         <f aca="false">0.04*B24^2</f>
         <v>1.44E-006</v>
       </c>
@@ -7075,24 +7893,24 @@
         <f aca="false">B24-0.0002</f>
         <v>0.0058</v>
       </c>
-      <c r="C25" s="38" t="n">
+      <c r="C25" s="39" t="n">
         <f aca="false">2.97*B25^(0.62)</f>
         <v>0.121921923397288</v>
       </c>
-      <c r="D25" s="39" t="n">
+      <c r="D25" s="40" t="n">
         <f aca="false">0.057*B25^(1.944)</f>
         <v>2.55846143585184E-006</v>
       </c>
-      <c r="E25" s="38" t="n">
+      <c r="E25" s="39" t="n">
         <f aca="false">0.38*B25^0.59</f>
         <v>0.0182056467959893</v>
       </c>
-      <c r="F25" s="39" t="n">
+      <c r="F25" s="40" t="n">
         <f aca="false">0.04*B25^2</f>
         <v>1.3456E-006</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1195</v>
@@ -7107,19 +7925,19 @@
         <f aca="false">B25-0.0002</f>
         <v>0.0056</v>
       </c>
-      <c r="C26" s="38" t="n">
+      <c r="C26" s="39" t="n">
         <f aca="false">2.97*B26^(0.62)</f>
         <v>0.119297962411986</v>
       </c>
-      <c r="D26" s="39" t="n">
+      <c r="D26" s="40" t="n">
         <f aca="false">0.057*B26^(1.944)</f>
         <v>2.38974950418042E-006</v>
       </c>
-      <c r="E26" s="38" t="n">
+      <c r="E26" s="39" t="n">
         <f aca="false">0.38*B26^0.59</f>
         <v>0.017832594434361</v>
       </c>
-      <c r="F26" s="39" t="n">
+      <c r="F26" s="40" t="n">
         <f aca="false">0.04*B26^2</f>
         <v>1.2544E-006</v>
       </c>
@@ -7129,19 +7947,19 @@
         <f aca="false">B26-0.0002</f>
         <v>0.0054</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="39" t="n">
         <f aca="false">2.97*B27^(0.62)</f>
         <v>0.116638138648189</v>
       </c>
-      <c r="D27" s="39" t="n">
+      <c r="D27" s="40" t="n">
         <f aca="false">0.057*B27^(1.944)</f>
         <v>2.22663137725334E-006</v>
       </c>
-      <c r="E27" s="38" t="n">
+      <c r="E27" s="39" t="n">
         <f aca="false">0.38*B27^0.59</f>
         <v>0.0174540379098898</v>
       </c>
-      <c r="F27" s="39" t="n">
+      <c r="F27" s="40" t="n">
         <f aca="false">0.04*B27^2</f>
         <v>1.1664E-006</v>
       </c>
@@ -7151,19 +7969,19 @@
         <f aca="false">B27-0.0002</f>
         <v>0.0052</v>
       </c>
-      <c r="C28" s="38" t="n">
+      <c r="C28" s="39" t="n">
         <f aca="false">2.97*B28^(0.62)</f>
         <v>0.113940605323781</v>
       </c>
-      <c r="D28" s="39" t="n">
+      <c r="D28" s="40" t="n">
         <f aca="false">0.057*B28^(1.944)</f>
         <v>2.06911846161483E-006</v>
       </c>
-      <c r="E28" s="38" t="n">
+      <c r="E28" s="39" t="n">
         <f aca="false">0.38*B28^0.59</f>
         <v>0.0170696874581801</v>
       </c>
-      <c r="F28" s="39" t="n">
+      <c r="F28" s="40" t="n">
         <f aca="false">0.04*B28^2</f>
         <v>1.0816E-006</v>
       </c>
@@ -7173,19 +7991,19 @@
         <f aca="false">B28-0.0002</f>
         <v>0.005</v>
       </c>
-      <c r="C29" s="38" t="n">
+      <c r="C29" s="39" t="n">
         <f aca="false">2.97*B29^(0.62)</f>
         <v>0.111203345248834</v>
       </c>
-      <c r="D29" s="39" t="n">
+      <c r="D29" s="40" t="n">
         <f aca="false">0.057*B29^(1.944)</f>
         <v>1.9172226191516E-006</v>
       </c>
-      <c r="E29" s="38" t="n">
+      <c r="E29" s="39" t="n">
         <f aca="false">0.38*B29^0.59</f>
         <v>0.0166792262248499</v>
       </c>
-      <c r="F29" s="39" t="n">
+      <c r="F29" s="40" t="n">
         <f aca="false">0.04*B29^2</f>
         <v>1E-006</v>
       </c>
@@ -7195,19 +8013,19 @@
         <f aca="false">B29-0.0002</f>
         <v>0.0048</v>
       </c>
-      <c r="C30" s="38" t="n">
+      <c r="C30" s="39" t="n">
         <f aca="false">2.97*B30^(0.62)</f>
         <v>0.108424147589092</v>
       </c>
-      <c r="D30" s="39" t="n">
+      <c r="D30" s="40" t="n">
         <f aca="false">0.057*B30^(1.944)</f>
         <v>1.77095620388728E-006</v>
       </c>
-      <c r="E30" s="38" t="n">
+      <c r="E30" s="39" t="n">
         <f aca="false">0.38*B30^0.59</f>
         <v>0.016282306536583</v>
       </c>
-      <c r="F30" s="39" t="n">
+      <c r="F30" s="40" t="n">
         <f aca="false">0.04*B30^2</f>
         <v>9.216E-007</v>
       </c>
@@ -7217,19 +8035,19 @@
         <f aca="false">B30-0.0002</f>
         <v>0.0046</v>
       </c>
-      <c r="C31" s="38" t="n">
+      <c r="C31" s="39" t="n">
         <f aca="false">2.97*B31^(0.62)</f>
         <v>0.1056005803499</v>
       </c>
-      <c r="D31" s="39" t="n">
+      <c r="D31" s="40" t="n">
         <f aca="false">0.057*B31^(1.944)</f>
         <v>1.63033210337883E-006</v>
       </c>
-      <c r="E31" s="38" t="n">
+      <c r="E31" s="39" t="n">
         <f aca="false">0.38*B31^0.59</f>
         <v>0.0158785454802783</v>
       </c>
-      <c r="F31" s="39" t="n">
+      <c r="F31" s="40" t="n">
         <f aca="false">0.04*B31^2</f>
         <v>8.464E-007</v>
       </c>
@@ -7239,19 +8057,19 @@
         <f aca="false">B31-0.0002</f>
         <v>0.0044</v>
       </c>
-      <c r="C32" s="38" t="n">
+      <c r="C32" s="39" t="n">
         <f aca="false">2.97*B32^(0.62)</f>
         <v>0.10272995756971</v>
       </c>
-      <c r="D32" s="39" t="n">
+      <c r="D32" s="40" t="n">
         <f aca="false">0.057*B32^(1.944)</f>
         <v>1.49536378551187E-006</v>
       </c>
-      <c r="E32" s="38" t="n">
+      <c r="E32" s="39" t="n">
         <f aca="false">0.38*B32^0.59</f>
         <v>0.0154675196258454</v>
       </c>
-      <c r="F32" s="39" t="n">
+      <c r="F32" s="40" t="n">
         <f aca="false">0.04*B32^2</f>
         <v>7.74400000000001E-007</v>
       </c>
@@ -7261,19 +8079,19 @@
         <f aca="false">B32-0.0002</f>
         <v>0.0042</v>
       </c>
-      <c r="C33" s="38" t="n">
+      <c r="C33" s="39" t="n">
         <f aca="false">2.97*B33^(0.62)</f>
         <v>0.0998092999160222</v>
       </c>
-      <c r="D33" s="39" t="n">
+      <c r="D33" s="40" t="n">
         <f aca="false">0.057*B33^(1.944)</f>
         <v>1.36606535167154E-006</v>
       </c>
-      <c r="E33" s="38" t="n">
+      <c r="E33" s="39" t="n">
         <f aca="false">0.38*B33^0.59</f>
         <v>0.0150487586797388</v>
       </c>
-      <c r="F33" s="39" t="n">
+      <c r="F33" s="40" t="n">
         <f aca="false">0.04*B33^2</f>
         <v>7.05600000000001E-007</v>
       </c>
@@ -7283,19 +8101,19 @@
         <f aca="false">B33-0.0002</f>
         <v>0.004</v>
       </c>
-      <c r="C34" s="38" t="n">
+      <c r="C34" s="39" t="n">
         <f aca="false">2.97*B34^(0.62)</f>
         <v>0.0968352869750591</v>
       </c>
-      <c r="D34" s="39" t="n">
+      <c r="D34" s="40" t="n">
         <f aca="false">0.057*B34^(1.944)</f>
         <v>1.24245159749632E-006</v>
       </c>
-      <c r="E34" s="38" t="n">
+      <c r="E34" s="39" t="n">
         <f aca="false">0.38*B34^0.59</f>
         <v>0.0146217377905664</v>
       </c>
-      <c r="F34" s="39" t="n">
+      <c r="F34" s="40" t="n">
         <f aca="false">0.04*B34^2</f>
         <v>6.40000000000001E-007</v>
       </c>
@@ -7305,19 +8123,19 @@
         <f aca="false">B34-0.0002</f>
         <v>0.0038</v>
       </c>
-      <c r="C35" s="38" t="n">
+      <c r="C35" s="39" t="n">
         <f aca="false">2.97*B35^(0.62)</f>
         <v>0.0938041989749743</v>
       </c>
-      <c r="D35" s="39" t="n">
+      <c r="D35" s="40" t="n">
         <f aca="false">0.057*B35^(1.944)</f>
         <v>1.12453808272104E-006</v>
       </c>
-      <c r="E35" s="38" t="n">
+      <c r="E35" s="39" t="n">
         <f aca="false">0.38*B35^0.59</f>
         <v>0.0141858681376737</v>
       </c>
-      <c r="F35" s="39" t="n">
+      <c r="F35" s="40" t="n">
         <f aca="false">0.04*B35^2</f>
         <v>5.77600000000001E-007</v>
       </c>
@@ -7327,19 +8145,19 @@
         <f aca="false">B35-0.0002</f>
         <v>0.0036</v>
       </c>
-      <c r="C36" s="38" t="n">
+      <c r="C36" s="39" t="n">
         <f aca="false">2.97*B36^(0.62)</f>
         <v>0.0907118449138866</v>
       </c>
-      <c r="D36" s="39" t="n">
+      <c r="D36" s="40" t="n">
         <f aca="false">0.057*B36^(1.944)</f>
         <v>1.01234121200827E-006</v>
       </c>
-      <c r="E36" s="38" t="n">
+      <c r="E36" s="39" t="n">
         <f aca="false">0.38*B36^0.59</f>
         <v>0.0137404853074231</v>
       </c>
-      <c r="F36" s="39" t="n">
+      <c r="F36" s="40" t="n">
         <f aca="false">0.04*B36^2</f>
         <v>5.18400000000001E-007</v>
       </c>
@@ -7349,19 +8167,19 @@
         <f aca="false">B36-0.0002</f>
         <v>0.0034</v>
       </c>
-      <c r="C37" s="38" t="n">
+      <c r="C37" s="39" t="n">
         <f aca="false">2.97*B37^(0.62)</f>
         <v>0.0875534729761634</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="40" t="n">
         <f aca="false">0.057*B37^(1.944)</f>
         <v>9.05878329188687E-007</v>
       </c>
-      <c r="E37" s="38" t="n">
+      <c r="E37" s="39" t="n">
         <f aca="false">0.38*B37^0.59</f>
         <v>0.0132848347830049</v>
       </c>
-      <c r="F37" s="39" t="n">
+      <c r="F37" s="40" t="n">
         <f aca="false">0.04*B37^2</f>
         <v>4.62400000000001E-007</v>
       </c>
@@ -7371,19 +8189,19 @@
         <f aca="false">B37-0.0002</f>
         <v>0.0032</v>
       </c>
-      <c r="C38" s="38" t="n">
+      <c r="C38" s="39" t="n">
         <f aca="false">2.97*B38^(0.62)</f>
         <v>0.0843236575532816</v>
       </c>
-      <c r="D38" s="39" t="n">
+      <c r="D38" s="40" t="n">
         <f aca="false">0.057*B38^(1.944)</f>
         <v>8.05167828034625E-007</v>
       </c>
-      <c r="E38" s="38" t="n">
+      <c r="E38" s="39" t="n">
         <f aca="false">0.38*B38^0.59</f>
         <v>0.0128180536155539</v>
       </c>
-      <c r="F38" s="39" t="n">
+      <c r="F38" s="40" t="n">
         <f aca="false">0.04*B38^2</f>
         <v>4.096E-007</v>
       </c>
@@ -7393,19 +8211,19 @@
         <f aca="false">B38-0.0002</f>
         <v>0.003</v>
       </c>
-      <c r="C39" s="38" t="n">
+      <c r="C39" s="39" t="n">
         <f aca="false">2.97*B39^(0.62)</f>
         <v>0.0810161548842737</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="40" t="n">
         <f aca="false">0.057*B39^(1.944)</f>
         <v>7.10229283654885E-007</v>
       </c>
-      <c r="E39" s="38" t="n">
+      <c r="E39" s="39" t="n">
         <f aca="false">0.38*B39^0.59</f>
         <v>0.0123391469647662</v>
       </c>
-      <c r="F39" s="39" t="n">
+      <c r="F39" s="40" t="n">
         <f aca="false">0.04*B39^2</f>
         <v>3.6E-007</v>
       </c>
@@ -7415,19 +8233,19 @@
         <f aca="false">B39-0.0002</f>
         <v>0.0028</v>
       </c>
-      <c r="C40" s="38" t="n">
+      <c r="C40" s="39" t="n">
         <f aca="false">2.97*B40^(0.62)</f>
         <v>0.0776237158778282</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="40" t="n">
         <f aca="false">0.057*B40^(1.944)</f>
         <v>6.21083609941571E-007</v>
       </c>
-      <c r="E40" s="38" t="n">
+      <c r="E40" s="39" t="n">
         <f aca="false">0.38*B40^0.59</f>
         <v>0.0118469576267359</v>
       </c>
-      <c r="F40" s="39" t="n">
+      <c r="F40" s="40" t="n">
         <f aca="false">0.04*B40^2</f>
         <v>3.136E-007</v>
       </c>
@@ -7437,19 +8255,19 @@
         <f aca="false">B40-0.0002</f>
         <v>0.0026</v>
       </c>
-      <c r="C41" s="38" t="n">
+      <c r="C41" s="39" t="n">
         <f aca="false">2.97*B41^(0.62)</f>
         <v>0.074137839371113</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="40" t="n">
         <f aca="false">0.057*B41^(1.944)</f>
         <v>5.37753250409072E-007</v>
       </c>
-      <c r="E41" s="38" t="n">
+      <c r="E41" s="39" t="n">
         <f aca="false">0.38*B41^0.59</f>
         <v>0.0113401257883725</v>
       </c>
-      <c r="F41" s="39" t="n">
+      <c r="F41" s="40" t="n">
         <f aca="false">0.04*B41^2</f>
         <v>2.704E-007</v>
       </c>
@@ -7459,19 +8277,19 @@
         <f aca="false">B41-0.0002</f>
         <v>0.0024</v>
       </c>
-      <c r="C42" s="38" t="n">
+      <c r="C42" s="39" t="n">
         <f aca="false">2.97*B42^(0.62)</f>
         <v>0.0705484406991499</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="40" t="n">
         <f aca="false">0.057*B42^(1.944)</f>
         <v>4.60262412539324E-007</v>
       </c>
-      <c r="E42" s="38" t="n">
+      <c r="E42" s="39" t="n">
         <f aca="false">0.38*B42^0.59</f>
         <v>0.0108170348579644</v>
       </c>
-      <c r="F42" s="39" t="n">
+      <c r="F42" s="40" t="n">
         <f aca="false">0.04*B42^2</f>
         <v>2.304E-007</v>
       </c>
@@ -7481,19 +8299,19 @@
         <f aca="false">B42-0.0002</f>
         <v>0.0022</v>
       </c>
-      <c r="C43" s="38" t="n">
+      <c r="C43" s="39" t="n">
         <f aca="false">2.97*B43^(0.62)</f>
         <v>0.066843396796619</v>
       </c>
-      <c r="D43" s="39" t="n">
+      <c r="D43" s="40" t="n">
         <f aca="false">0.057*B43^(1.944)</f>
         <v>3.88637359880999E-007</v>
       </c>
-      <c r="E43" s="38" t="n">
+      <c r="E43" s="39" t="n">
         <f aca="false">0.38*B43^0.59</f>
         <v>0.0102757369530601</v>
       </c>
-      <c r="F43" s="39" t="n">
+      <c r="F43" s="40" t="n">
         <f aca="false">0.04*B43^2</f>
         <v>1.936E-007</v>
       </c>
@@ -7503,19 +8321,19 @@
         <f aca="false">B43-0.0002</f>
         <v>0.002</v>
       </c>
-      <c r="C44" s="38" t="n">
+      <c r="C44" s="39" t="n">
         <f aca="false">2.97*B44^(0.62)</f>
         <v>0.0630079060121878</v>
       </c>
-      <c r="D44" s="39" t="n">
+      <c r="D44" s="40" t="n">
         <f aca="false">0.057*B44^(1.944)</f>
         <v>3.22906782489461E-007</v>
       </c>
-      <c r="E44" s="38" t="n">
+      <c r="E44" s="39" t="n">
         <f aca="false">0.38*B44^0.59</f>
         <v>0.00971384778988223</v>
       </c>
-      <c r="F44" s="39" t="n">
+      <c r="F44" s="40" t="n">
         <f aca="false">0.04*B44^2</f>
         <v>1.6E-007</v>
       </c>
@@ -7525,19 +8343,19 @@
         <f aca="false">B44-0.0002</f>
         <v>0.0018</v>
       </c>
-      <c r="C45" s="38" t="n">
+      <c r="C45" s="39" t="n">
         <f aca="false">2.97*B45^(0.62)</f>
         <v>0.0590235602853991</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="40" t="n">
         <f aca="false">0.057*B45^(1.944)</f>
         <v>2.63102276346055E-007</v>
       </c>
-      <c r="E45" s="38" t="n">
+      <c r="E45" s="39" t="n">
         <f aca="false">0.38*B45^0.59</f>
         <v>0.00912839395338729</v>
       </c>
-      <c r="F45" s="39" t="n">
+      <c r="F45" s="40" t="n">
         <f aca="false">0.04*B45^2</f>
         <v>1.296E-007</v>
       </c>
@@ -7547,19 +8365,19 @@
         <f aca="false">B45-0.0002</f>
         <v>0.0016</v>
       </c>
-      <c r="C46" s="38" t="n">
+      <c r="C46" s="39" t="n">
         <f aca="false">2.97*B46^(0.62)</f>
         <v>0.0548669524890189</v>
       </c>
-      <c r="D46" s="39" t="n">
+      <c r="D46" s="40" t="n">
         <f aca="false">0.057*B46^(1.944)</f>
         <v>2.09258978972385E-007</v>
       </c>
-      <c r="E46" s="38" t="n">
+      <c r="E46" s="39" t="n">
         <f aca="false">0.38*B46^0.59</f>
         <v>0.00851558300165745</v>
       </c>
-      <c r="F46" s="39" t="n">
+      <c r="F46" s="40" t="n">
         <f aca="false">0.04*B46^2</f>
         <v>1.024E-007</v>
       </c>
@@ -7569,19 +8387,19 @@
         <f aca="false">B46-0.0002</f>
         <v>0.0014</v>
       </c>
-      <c r="C47" s="38" t="n">
+      <c r="C47" s="39" t="n">
         <f aca="false">2.97*B47^(0.62)</f>
         <v>0.0505074952233752</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="40" t="n">
         <f aca="false">0.057*B47^(1.944)</f>
         <v>1.6141643710492E-007</v>
       </c>
-      <c r="E47" s="38" t="n">
+      <c r="E47" s="39" t="n">
         <f aca="false">0.38*B47^0.59</f>
         <v>0.00787044226942325</v>
       </c>
-      <c r="F47" s="39" t="n">
+      <c r="F47" s="40" t="n">
         <f aca="false">0.04*B47^2</f>
         <v>7.84000000000001E-008</v>
       </c>
@@ -7591,19 +8409,19 @@
         <f aca="false">B47-0.0002</f>
         <v>0.0012</v>
       </c>
-      <c r="C48" s="38" t="n">
+      <c r="C48" s="39" t="n">
         <f aca="false">2.97*B48^(0.62)</f>
         <v>0.0459038193589834</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="40" t="n">
         <f aca="false">0.057*B48^(1.944)</f>
         <v>1.1961983471501E-007</v>
       </c>
-      <c r="E48" s="38" t="n">
+      <c r="E48" s="39" t="n">
         <f aca="false">0.38*B48^0.59</f>
         <v>0.00718622038318236</v>
       </c>
-      <c r="F48" s="39" t="n">
+      <c r="F48" s="40" t="n">
         <f aca="false">0.04*B48^2</f>
         <v>5.76000000000001E-008</v>
       </c>
@@ -7613,19 +8431,19 @@
         <f aca="false">B48-0.0002</f>
         <v>0.001</v>
       </c>
-      <c r="C49" s="38" t="n">
+      <c r="C49" s="39" t="n">
         <f aca="false">2.97*B49^(0.62)</f>
         <v>0.0409974126587057</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="40" t="n">
         <f aca="false">0.057*B49^(1.944)</f>
         <v>8.39218126386651E-008</v>
       </c>
-      <c r="E49" s="38" t="n">
+      <c r="E49" s="39" t="n">
         <f aca="false">0.38*B49^0.59</f>
         <v>0.00645332587935463</v>
       </c>
-      <c r="F49" s="39" t="n">
+      <c r="F49" s="40" t="n">
         <f aca="false">0.04*B49^2</f>
         <v>4E-008</v>
       </c>
@@ -7635,19 +8453,19 @@
         <f aca="false">B49-0.0002</f>
         <v>0.0008</v>
       </c>
-      <c r="C50" s="38" t="n">
+      <c r="C50" s="39" t="n">
         <f aca="false">2.97*B50^(0.62)</f>
         <v>0.0357003308772521</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="40" t="n">
         <f aca="false">0.057*B50^(1.944)</f>
         <v>5.4385332791367E-008</v>
       </c>
-      <c r="E50" s="38" t="n">
+      <c r="E50" s="39" t="n">
         <f aca="false">0.38*B50^0.59</f>
         <v>0.00565726716653182</v>
       </c>
-      <c r="F50" s="39" t="n">
+      <c r="F50" s="40" t="n">
         <f aca="false">0.04*B50^2</f>
         <v>2.56E-008</v>
       </c>
@@ -7657,19 +8475,19 @@
         <f aca="false">B50-0.0002</f>
         <v>0.0006</v>
       </c>
-      <c r="C51" s="38" t="n">
+      <c r="C51" s="39" t="n">
         <f aca="false">2.97*B51^(0.62)</f>
         <v>0.0298682807282454</v>
       </c>
-      <c r="D51" s="39" t="n">
+      <c r="D51" s="40" t="n">
         <f aca="false">0.057*B51^(1.944)</f>
         <v>3.10885800521977E-008</v>
       </c>
-      <c r="E51" s="38" t="n">
+      <c r="E51" s="39" t="n">
         <f aca="false">0.38*B51^0.59</f>
         <v>0.0047741145400528</v>
       </c>
-      <c r="F51" s="39" t="n">
+      <c r="F51" s="40" t="n">
         <f aca="false">0.04*B51^2</f>
         <v>1.44E-008</v>
       </c>
@@ -7679,19 +8497,19 @@
         <f aca="false">B51-0.0002</f>
         <v>0.0004</v>
       </c>
-      <c r="C52" s="38" t="n">
+      <c r="C52" s="39" t="n">
         <f aca="false">2.97*B52^(0.62)</f>
         <v>0.0232291674118471</v>
       </c>
-      <c r="D52" s="39" t="n">
+      <c r="D52" s="40" t="n">
         <f aca="false">0.057*B52^(1.944)</f>
         <v>1.41344683862672E-008</v>
       </c>
-      <c r="E52" s="38" t="n">
+      <c r="E52" s="39" t="n">
         <f aca="false">0.38*B52^0.59</f>
         <v>0.0037583653153624</v>
       </c>
-      <c r="F52" s="39" t="n">
+      <c r="F52" s="40" t="n">
         <f aca="false">0.04*B52^2</f>
         <v>6.40000000000002E-009</v>
       </c>
@@ -7701,19 +8519,19 @@
         <f aca="false">B52-0.0002</f>
         <v>0.0002</v>
       </c>
-      <c r="C53" s="38" t="n">
+      <c r="C53" s="39" t="n">
         <f aca="false">2.97*B53^(0.62)</f>
         <v>0.0151145439100522</v>
       </c>
-      <c r="D53" s="39" t="n">
+      <c r="D53" s="40" t="n">
         <f aca="false">0.057*B53^(1.944)</f>
         <v>3.67347566537464E-009</v>
       </c>
-      <c r="E53" s="38" t="n">
+      <c r="E53" s="39" t="n">
         <f aca="false">0.38*B53^0.59</f>
         <v>0.00249684333935719</v>
       </c>
-      <c r="F53" s="39" t="n">
+      <c r="F53" s="40" t="n">
         <f aca="false">0.04*B53^2</f>
         <v>1.60000000000001E-009</v>
       </c>
@@ -7742,7 +8560,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,19 +8570,19 @@
       <c r="B56" s="7" t="n">
         <v>0.00448963749440691</v>
       </c>
-      <c r="C56" s="40" t="n">
+      <c r="C56" s="41" t="n">
         <f aca="false">2.97*B56^(0.62)</f>
         <v>0.104022536776874</v>
       </c>
-      <c r="D56" s="41" t="n">
+      <c r="D56" s="42" t="n">
         <f aca="false">0.057*B56^(1.944)</f>
         <v>1.55515462681334E-006</v>
       </c>
-      <c r="E56" s="40" t="n">
+      <c r="E56" s="41" t="n">
         <f aca="false">0.38*B56^0.59</f>
         <v>0.0156526635261272</v>
       </c>
-      <c r="F56" s="41" t="n">
+      <c r="F56" s="42" t="n">
         <f aca="false">0.04*B56^2</f>
         <v>8.06273793247375E-007</v>
       </c>
@@ -7776,19 +8594,19 @@
       <c r="B57" s="7" t="n">
         <v>0.00326686414564173</v>
       </c>
-      <c r="C57" s="40" t="n">
+      <c r="C57" s="41" t="n">
         <f aca="false">2.97*B57^(0.62)</f>
         <v>0.0854117687386061</v>
       </c>
-      <c r="D57" s="41" t="n">
+      <c r="D57" s="42" t="n">
         <f aca="false">0.057*B57^(1.944)</f>
         <v>8.38196155302728E-007</v>
       </c>
-      <c r="E57" s="40" t="n">
+      <c r="E57" s="41" t="n">
         <f aca="false">0.38*B57^0.59</f>
         <v>0.01297540524603</v>
       </c>
-      <c r="F57" s="41" t="n">
+      <c r="F57" s="42" t="n">
         <f aca="false">0.04*B57^2</f>
         <v>4.26896053843179E-007</v>
       </c>
@@ -7800,19 +8618,19 @@
       <c r="B58" s="7" t="n">
         <v>0.00148681748399815</v>
       </c>
-      <c r="C58" s="40" t="n">
+      <c r="C58" s="41" t="n">
         <f aca="false">2.97*B58^(0.62)</f>
         <v>0.0524271437927417</v>
       </c>
-      <c r="D58" s="41" t="n">
+      <c r="D58" s="42" t="n">
         <f aca="false">0.057*B58^(1.944)</f>
         <v>1.81444473852152E-007</v>
       </c>
-      <c r="E58" s="40" t="n">
+      <c r="E58" s="41" t="n">
         <f aca="false">0.38*B58^0.59</f>
         <v>0.00815484321487877</v>
       </c>
-      <c r="F58" s="41" t="n">
+      <c r="F58" s="42" t="n">
         <f aca="false">0.04*B58^2</f>
         <v>8.84250492289036E-008</v>
       </c>
@@ -7824,19 +8642,19 @@
       <c r="B59" s="7" t="n">
         <v>0.00165426731175644</v>
       </c>
-      <c r="C59" s="40" t="n">
+      <c r="C59" s="41" t="n">
         <f aca="false">2.97*B59^(0.62)</f>
         <v>0.0560134052823008</v>
       </c>
-      <c r="D59" s="41" t="n">
+      <c r="D59" s="42" t="n">
         <f aca="false">0.057*B59^(1.944)</f>
         <v>2.23277167228799E-007</v>
       </c>
-      <c r="E59" s="40" t="n">
+      <c r="E59" s="41" t="n">
         <f aca="false">0.38*B59^0.59</f>
         <v>0.00868482261731556</v>
       </c>
-      <c r="F59" s="41" t="n">
+      <c r="F59" s="42" t="n">
         <f aca="false">0.04*B59^2</f>
         <v>1.09464013549835E-007</v>
       </c>
@@ -7848,19 +8666,19 @@
       <c r="B60" s="7" t="n">
         <v>0.00172994925903795</v>
       </c>
-      <c r="C60" s="40" t="n">
+      <c r="C60" s="41" t="n">
         <f aca="false">2.97*B60^(0.62)</f>
         <v>0.0575886815321441</v>
       </c>
-      <c r="D60" s="41" t="n">
+      <c r="D60" s="42" t="n">
         <f aca="false">0.057*B60^(1.944)</f>
         <v>2.43563225835732E-007</v>
       </c>
-      <c r="E60" s="40" t="n">
+      <c r="E60" s="41" t="n">
         <f aca="false">0.38*B60^0.59</f>
         <v>0.00891709271065583</v>
       </c>
-      <c r="F60" s="41" t="n">
+      <c r="F60" s="42" t="n">
         <f aca="false">0.04*B60^2</f>
         <v>1.19708977553838E-007</v>
       </c>
@@ -7902,29 +8720,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3224.39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3224.39</v>
@@ -7932,13 +8750,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>0.0174073913465891</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>0.0174073913465891</v>
@@ -7946,13 +8764,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0.00905420943797329</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>0.00838855821647622</v>
@@ -7960,41 +8778,41 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.733567390573683</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.16628412805505</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>0.0105579786502628</v>
@@ -8002,13 +8820,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6.89970872110144</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1.85502754530844</v>
@@ -8016,7 +8834,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1.7860288485136</v>
@@ -8024,7 +8842,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1885.33</v>
@@ -8032,13 +8850,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>0.0665863915555153</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1885.33</v>
@@ -8046,13 +8864,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>0.0121820294071994</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0.0665863915555153</v>
@@ -8060,13 +8878,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0.0112686798808896</v>
@@ -8074,41 +8892,41 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4.82102591004869</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4.7100584682048</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.53102565960586</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.126974631540773</v>
@@ -8116,7 +8934,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3.09742234137423</v>
@@ -8124,13 +8942,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1707.04</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>3.18462410915096</v>
@@ -8138,7 +8956,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>0.0796091569963983</v>
@@ -8146,13 +8964,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>0.0133703247435226</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1707.04</v>
@@ -8160,13 +8978,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0.0796091569963983</v>
@@ -8174,13 +8992,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>7.15329229537103</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0.0124963864811004</v>
@@ -8188,35 +9006,35 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4.12322934641132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11.2764625888247</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.230555884990333</v>
@@ -8224,13 +9042,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1631.73</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2.94768993553845</v>
@@ -8238,13 +9056,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>0.0858483420562948</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>3.12901332289223</v>
@@ -8252,7 +9070,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>0.0147866557709214</v>
@@ -8260,13 +9078,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1631.73</v>
@@ -8274,13 +9092,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>7.22104189591477</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0.0858483420562948</v>
@@ -8288,13 +9106,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4.162280894934</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0.0141742089005532</v>
@@ -8302,35 +9120,35 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>11.3832671605332</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1276.06</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0.243740988673165</v>
@@ -8338,13 +9156,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.122600161613828</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3.00051480320737</v>
@@ -8352,13 +9170,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>0.0162094513521557</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3.19226785638621</v>
@@ -8366,21 +9184,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>9.54813216436608</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1276.06</v>
@@ -8388,13 +9206,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>3.49452531337901</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.122600161613828</v>
@@ -8402,13 +9220,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13.042611359173</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0.0148325327507379</v>
@@ -8416,35 +9234,35 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1733.14</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>0.0775543912150806</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0.346713028636503</v>
@@ -8452,13 +9270,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>0.0270356845332595</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2.57417709180406</v>
@@ -8466,13 +9284,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2.87224516711447</v>
@@ -8480,7 +9298,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14.5861799249095</v>
@@ -8488,13 +9306,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.57887732799694</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1733.14</v>
@@ -8502,13 +9320,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>17.1649659667583</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H49" s="7" t="n">
         <v>0.0775543912150806</v>
@@ -8516,7 +9334,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H50" s="7" t="n">
         <v>0.0240218462854766</v>
@@ -8524,41 +9342,41 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1145.54</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.139727826991123</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>0.00539919856208694</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0.787616519847601</v>
@@ -8566,13 +9384,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1.9896617741242</v>
@@ -8580,13 +9398,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>18.7412552816673</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.61417434358327</v>
@@ -8594,7 +9412,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.31350624995081</v>
@@ -8602,13 +9420,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>22.0546920049182</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1145.54</v>
@@ -8616,7 +9434,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0.139727826991123</v>
@@ -8624,7 +9442,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H59" s="7" t="n">
         <v>0.00467317393173504</v>
@@ -8632,23 +9450,23 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0.454771937101082</v>
@@ -8656,7 +9474,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>2.23547135492507</v>
@@ -8664,7 +9482,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G64" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>2.6637119688558</v>

--- a/OM_degradation_rates.xlsx
+++ b/OM_degradation_rates.xlsx
@@ -81,10 +81,10 @@
     <t>config exists from 1507</t>
   </si>
   <si>
-    <t>RUNS 2808</t>
+    <t>RUNS 2808 + 2908</t>
   </si>
   <si>
-    <t>RUNS 2908</t>
+    <t>RUNS 3008</t>
   </si>
   <si>
     <t>Examples of invariant rates used in HAMOCC</t>
@@ -671,7 +671,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2056,11 +2056,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="20797966"/>
-        <c:axId val="37950487"/>
+        <c:axId val="11108035"/>
+        <c:axId val="57299512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20797966"/>
+        <c:axId val="11108035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,11 +2076,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37950487"/>
+        <c:crossAx val="57299512"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37950487"/>
+        <c:axId val="57299512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2105,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20797966"/>
+        <c:crossAx val="11108035"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2182,8 +2182,8 @@
   </sheetPr>
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K139" activeCellId="0" sqref="K139"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F130" activeCellId="0" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
